--- a/samples/mtcm_sample_1.xlsx
+++ b/samples/mtcm_sample_1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7A202-A338-47B2-A235-2158419DDDA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4B869-3B57-4D03-9F07-8E81917881D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="36" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="About" sheetId="37" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$B$17:$E$318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$B$18:$E$319</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
   <si>
     <t>F</t>
   </si>
@@ -620,9 +620,6 @@
     <t>Verify YouTube link</t>
   </si>
   <si>
-    <t xml:space="preserve"> V5 Bld 2021.03.29</t>
-  </si>
-  <si>
     <t>https://github.com/DataResearchLabs/my_test_case_manager</t>
   </si>
   <si>
@@ -641,10 +638,22 @@
     <t>R4</t>
   </si>
   <si>
-    <t>x</t>
+    <t>Verify functions not accidentally include other workbook references since copy-pasted between sample &amp; template</t>
   </si>
   <si>
-    <t>Verify functions not accidentally include other workbook references since copy-pasted between sample &amp; template</t>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Qualified Pass</t>
+  </si>
+  <si>
+    <t>Qpass</t>
+  </si>
+  <si>
+    <t>▪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> V5 Bld 2021.03.31</t>
   </si>
 </sst>
 </file>
@@ -657,7 +666,7 @@
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,8 +899,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -985,6 +1001,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00E266"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1538,9 +1560,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1640,15 +1659,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1666,6 +1677,24 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1727,27 +1756,18 @@
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
     <dxf>
       <font>
         <b/>
@@ -1798,10 +1818,25 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00E266"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF00E266"/>
+      <color rgb="FF6DFFAF"/>
       <color rgb="FFFFFFE7"/>
       <color rgb="FFFFA3A3"/>
       <color rgb="FFFFDDDD"/>
@@ -1810,8 +1845,6 @@
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FF005024"/>
-      <color rgb="FFD38583"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2002,6 +2035,24 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
+                <a:srgbClr val="00E266"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7C36-43E9-AD49-F29EB3CB57A1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="12700">
@@ -2011,7 +2062,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7C36-43E9-AD49-F29EB3CB57A1}"/>
+                <c16:uniqueId val="{00000009-1A90-44CE-82A3-3996003E807E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2054,6 +2105,47 @@
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-7C36-43E9-AD49-F29EB3CB57A1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7C36-43E9-AD49-F29EB3CB57A1}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2100,13 +2192,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Test Cases'!$G$5:$G$9</c15:sqref>
+                    <c15:sqref>'Test Cases'!$G$5:$G$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Test Cases'!$G$5:$G$8</c:f>
+              <c:f>'Test Cases'!$G$5:$G$9</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>To Do</c:v>
                 </c:pt>
@@ -2117,6 +2209,9 @@
                   <c:v>Fail</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>Qualified Pass</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>Pass</c:v>
                 </c:pt>
               </c:strCache>
@@ -2127,14 +2222,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Test Cases'!$J$5:$J$9</c15:sqref>
+                    <c15:sqref>'Test Cases'!$J$5:$J$10</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Test Cases'!$J$5:$J$8</c:f>
+              <c:f>'Test Cases'!$J$5:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2142,10 +2237,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70</c:v>
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,7 +2348,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$I$4</c:f>
+              <c:f>'Test Run Log'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2290,7 +2388,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$I$5:$I$8</c:f>
+              <c:f>'Test Run Log'!$J$5:$J$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2298,13 +2396,13 @@
                   <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2316,8 +2414,58 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Run Log'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qpass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00E266"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Run Log'!$I$5:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-898C-481D-9A4B-10419998F0DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Test Run Log'!$H$4</c:f>
@@ -2387,7 +2535,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Test Run Log'!$G$4</c:f>
@@ -2457,7 +2605,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'Test Run Log'!$F$4</c:f>
@@ -2730,7 +2878,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$F$13</c:f>
+              <c:f>Report!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2774,12 +2922,12 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Report!$F$14</c:f>
+              <c:f>Report!$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2919,6 +3067,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-3028-4282-8FBB-62752001F8FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Report!$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Qpass</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00E266"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00E266"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="00E266"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-27C8-44C8-A49F-9B2368E244CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Report!$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-27C8-44C8-A49F-9B2368E244CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3086,7 +3299,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$L$13</c:f>
+              <c:f>Report!$M$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3136,7 +3349,7 @@
           </c:dPt>
           <c:val>
             <c:numRef>
-              <c:f>Report!$L$14</c:f>
+              <c:f>Report!$M$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3157,7 +3370,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$K$13</c:f>
+              <c:f>Report!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3185,7 +3398,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Report!$K$14</c:f>
+              <c:f>Report!$L$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3206,7 +3419,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Report!$J$13</c:f>
+              <c:f>Report!$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3229,7 +3442,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Report!$J$14</c:f>
+              <c:f>Report!$K$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3406,7 +3619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$N$4</c:f>
+              <c:f>'Test Run Log'!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3449,7 +3662,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$N$5:$N$8</c:f>
+              <c:f>'Test Run Log'!$O$5:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3479,7 +3692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$M$4</c:f>
+              <c:f>'Test Run Log'!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3521,7 +3734,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$M$5:$M$8</c:f>
+              <c:f>'Test Run Log'!$N$5:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3551,7 +3764,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$L$4</c:f>
+              <c:f>'Test Run Log'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3593,7 +3806,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$L$5:$L$8</c:f>
+              <c:f>'Test Run Log'!$M$5:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3620,7 +3833,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$K$4</c:f>
+              <c:f>'Test Run Log'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3660,7 +3873,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$K$5:$K$8</c:f>
+              <c:f>'Test Run Log'!$L$5:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4203,7 +4416,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$K$4</c:f>
+              <c:f>'Test Run Log'!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4246,7 +4459,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$K$5:$K$8</c:f>
+              <c:f>'Test Run Log'!$L$5:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4276,7 +4489,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Test Run Log'!$L$4</c:f>
+              <c:f>'Test Run Log'!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4319,7 +4532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Test Run Log'!$L$5:$L$8</c:f>
+              <c:f>'Test Run Log'!$M$5:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8394,7 +8607,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8427,13 +8640,288 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>748665</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>937260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A48557-23DC-4698-B326-9752BC3D0C0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1137285" y="1623060"/>
+          <a:ext cx="3663315" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="sng" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>To add a new Test Run (row)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>1. Highlight and copy the entire last row</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>2. Right-click itself for a popup menu to appear</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>3. Select "insert copied cells" to paste / insert the row onto itself</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>4. The graphs all auto-adjust (inserting a new item)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>5. You type in the new values over in the old values in the "new" bottom row</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1050">
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30478</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>739139</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Line 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2871076-5411-4398-A72E-311E3F8D804E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="30478" y="1143000"/>
+          <a:ext cx="1097281" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="sm" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731519</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>731519</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>922020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Line 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BEEE0B3-F02C-4F6B-8C92-89D3DA0BC677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1120139" y="1600200"/>
+          <a:ext cx="0" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="12"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="sm" len="med"/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8469,7 +8957,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8499,13 +8987,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8537,13 +9025,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8581,7 +9069,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8613,13 +9101,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -8652,7 +9140,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -9041,7 +9529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EFA83C-DEE6-4368-84A7-1F03ADC07CF4}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -9062,10 +9550,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="123" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="120"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9079,7 +9567,7 @@
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="59"/>
@@ -9095,7 +9583,7 @@
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="94" t="s">
+      <c r="C6" s="93" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="59"/>
@@ -9111,7 +9599,7 @@
       <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="59"/>
@@ -9133,21 +9621,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC35F8-1315-4AD0-BB4E-D826F75C5B55}">
-  <dimension ref="A1:L319"/>
+  <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:K2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="146" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="93.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="145" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="20" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="117" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="2.88671875" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="20" bestFit="1" customWidth="1"/>
@@ -9156,12 +9644,12 @@
     <col min="13" max="16384" width="9.21875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="143"/>
+      <c r="F1" s="115"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9169,27 +9657,27 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="121" t="s">
+    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="2:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="143"/>
+    <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -9197,12 +9685,12 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="143"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="115"/>
       <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
@@ -9216,12 +9704,12 @@
       <c r="K4" s="21"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="143"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
@@ -9229,22 +9717,22 @@
         <v>9</v>
       </c>
       <c r="I5" s="23">
-        <f>SUMIF($D$17:$D$318,$H5,$C$17:$C$318)/60</f>
+        <f t="shared" ref="I5:I10" si="0">SUMIF($D$18:$D$319,$H5,$C$18:$C$319)/60</f>
         <v>0</v>
       </c>
       <c r="J5" s="24">
-        <f>COUNTIF($D$17:$D$318,$H5)</f>
+        <f>COUNTIF($D$18:$D$319,$H5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="37"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="143"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="115"/>
       <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
@@ -9252,22 +9740,22 @@
         <v>3</v>
       </c>
       <c r="I6" s="23">
-        <f>SUMIF($D$17:$D$318,$H6,$C$17:$C$318)/60</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J6" s="24">
-        <f>COUNTIF($D$17:$D$318,$H6)</f>
+        <f>COUNTIF($D$18:$D$319,$H6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="143"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="115"/>
       <c r="G7" s="44" t="s">
         <v>5</v>
       </c>
@@ -9275,115 +9763,119 @@
         <v>0</v>
       </c>
       <c r="I7" s="23">
-        <f>SUMIF($D$17:$D$318,$H7,$C$17:$C$318)/60</f>
-        <v>0.36666666666666664</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J7" s="24">
-        <f>COUNTIF($D$17:$D$318,$H7)</f>
-        <v>4</v>
+        <f>COUNTIF($D$18:$D$319,$H7)</f>
+        <v>0</v>
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="67">
-        <f>SUMIF($D$17:$D$318,$H8,$C$17:$C$318)/60</f>
-        <v>0.81666666666666665</v>
-      </c>
-      <c r="J8" s="68">
-        <f>COUNTIF($D$17:$D$318,$H8)</f>
-        <v>70</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="H8" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" s="66">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="J8" s="67">
+        <f>COUNTIF($D$18:$D$319,$H8)</f>
+        <v>42</v>
       </c>
       <c r="K8" s="36"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="43" t="s">
+    <row r="9" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="66">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J9" s="67">
+        <f>COUNTIF($D$18:$D$319,$H9)</f>
+        <v>32</v>
+      </c>
+      <c r="K9" s="36"/>
+      <c r="L9" s="57"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="26">
-        <f>SUMIF($D$17:$D$318,$H9,$C$17:$C$318)/60</f>
+      <c r="I10" s="26">
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
-      <c r="J9" s="73"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="28">
-        <f>SUM(I5:I9)</f>
-        <v>1.2</v>
-      </c>
-      <c r="J10" s="29">
-        <f>SUM(J5:J9)</f>
-        <v>74</v>
-      </c>
+      <c r="J10" s="72"/>
       <c r="K10" s="27"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="143"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="28">
+        <f>SUM(I5:I10)</f>
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="29">
+        <f>SUM(J5:J10)</f>
+        <v>74</v>
+      </c>
+      <c r="K11" s="27"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="53" t="str">
-        <f>IF(COUNTIF(G13:G15, "") &lt;&gt; 3, "VALIDATION ERROR!", "")</f>
-        <v/>
-      </c>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="52" t="str">
-        <f>IF($C$318&lt;&gt;$E$318,"REJ-01: " &amp; $C$318&amp;" [Exec Tm] rows  &lt;&gt;  " &amp; $E$318 &amp; " [Test Steps] rows", "")</f>
+    <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="53" t="str">
+        <f>IF(COUNTIF(G14:G16, "") &lt;&gt; 3, "VALIDATION ERROR!", "")</f>
         <v/>
       </c>
       <c r="H13" s="4"/>
@@ -9392,14 +9884,14 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="143"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="52" t="str">
-        <f>IF($D$318&lt;&gt;$E$318,"REJ-02: " &amp; $D$318&amp;" [Status] rows  &lt;&gt;  " &amp; $E$318 &amp; " [Test Steps] rows", "")</f>
+        <f>IF($C$319&lt;&gt;$E$319,"REJ-01: " &amp; $C$319&amp;" [Exec Tm] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
       </c>
       <c r="H14" s="4"/>
@@ -9408,712 +9900,717 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="121" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="52" t="str">
+        <f>IF($D$319&lt;&gt;$E$319,"REJ-02: " &amp; $D$319&amp;" [Status] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
+        <v/>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="122"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="65"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="47" t="s">
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="115" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="64"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C18" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D18" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="65"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" cm="1">
-        <f t="array" aca="1" ref="B18" ca="1">IF(AND(C18&lt;&gt;"",E18&lt;&gt;"")=TRUE, CELL("row",B18)-17,"")</f>
+      <c r="F18" s="115"/>
+      <c r="G18" s="64"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="31" cm="1">
+        <f t="array" aca="1" ref="B19" ca="1">IF(AND(C19&lt;&gt;"",E19&lt;&gt;"")=TRUE, CELL("row",B19)-18,"")</f>
         <v>1</v>
       </c>
-      <c r="C18" s="116">
+      <c r="C19" s="111">
         <v>0</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D19" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="E19" s="113" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="144" t="s">
+      <c r="F19" s="116" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" s="64"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" cm="1">
+        <f t="array" aca="1" ref="B20" ca="1">IF(AND(C20&lt;&gt;"",E20&lt;&gt;"")=TRUE, CELL("row",B20)-18,"")</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="32">
+        <v>1</v>
+      </c>
+      <c r="D20" s="112" t="s">
         <v>133</v>
       </c>
-      <c r="G18" s="65"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="31" cm="1">
-        <f t="array" aca="1" ref="B19" ca="1">IF(AND(C19&lt;&gt;"",E19&lt;&gt;"")=TRUE, CELL("row",B19)-17,"")</f>
-        <v>2</v>
-      </c>
-      <c r="C19" s="32">
-        <v>1</v>
-      </c>
-      <c r="D19" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="E20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="144"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="31" cm="1">
-        <f t="array" aca="1" ref="B20" ca="1">IF(AND(C20&lt;&gt;"",E20&lt;&gt;"")=TRUE, CELL("row",B20)-17,"")</f>
+      <c r="F20" s="116"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="31" cm="1">
+        <f t="array" aca="1" ref="B21" ca="1">IF(AND(C21&lt;&gt;"",E21&lt;&gt;"")=TRUE, CELL("row",B21)-18,"")</f>
         <v>3</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0</v>
-      </c>
-      <c r="D20" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="144"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" cm="1">
-        <f t="array" aca="1" ref="B21" ca="1">IF(AND(C21&lt;&gt;"",E21&lt;&gt;"")=TRUE, CELL("row",B21)-17,"")</f>
-        <v>4</v>
       </c>
       <c r="C21" s="32">
         <v>0</v>
       </c>
-      <c r="D21" s="117" t="s">
-        <v>1</v>
+      <c r="D21" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="144"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F21" s="116"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="31" cm="1">
-        <f t="array" aca="1" ref="B22" ca="1">IF(AND(C22&lt;&gt;"",E22&lt;&gt;"")=TRUE, CELL("row",B22)-17,"")</f>
-        <v>5</v>
+        <f t="array" aca="1" ref="B22" ca="1">IF(AND(C22&lt;&gt;"",E22&lt;&gt;"")=TRUE, CELL("row",B22)-18,"")</f>
+        <v>4</v>
       </c>
       <c r="C22" s="32">
         <v>0</v>
       </c>
-      <c r="D22" s="117" t="s">
-        <v>1</v>
+      <c r="D22" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="144"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F22" s="116"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="31" cm="1">
-        <f t="array" aca="1" ref="B23" ca="1">IF(AND(C23&lt;&gt;"",E23&lt;&gt;"")=TRUE, CELL("row",B23)-17,"")</f>
-        <v>6</v>
+        <f t="array" aca="1" ref="B23" ca="1">IF(AND(C23&lt;&gt;"",E23&lt;&gt;"")=TRUE, CELL("row",B23)-18,"")</f>
+        <v>5</v>
       </c>
       <c r="C23" s="32">
         <v>0</v>
       </c>
-      <c r="D23" s="117" t="s">
-        <v>1</v>
+      <c r="D23" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="143"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="F23" s="116"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="31" cm="1">
-        <f t="array" aca="1" ref="B24" ca="1">IF(AND(C24&lt;&gt;"",E24&lt;&gt;"")=TRUE, CELL("row",B24)-17,"")</f>
-        <v>7</v>
+        <f t="array" aca="1" ref="B24" ca="1">IF(AND(C24&lt;&gt;"",E24&lt;&gt;"")=TRUE, CELL("row",B24)-18,"")</f>
+        <v>6</v>
       </c>
       <c r="C24" s="32">
         <v>0</v>
       </c>
-      <c r="D24" s="117" t="s">
-        <v>1</v>
+      <c r="D24" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="143"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="F24" s="115"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="31" cm="1">
-        <f t="array" aca="1" ref="B25" ca="1">IF(AND(C25&lt;&gt;"",E25&lt;&gt;"")=TRUE, CELL("row",B25)-17,"")</f>
-        <v>8</v>
+        <f t="array" aca="1" ref="B25" ca="1">IF(AND(C25&lt;&gt;"",E25&lt;&gt;"")=TRUE, CELL("row",B25)-18,"")</f>
+        <v>7</v>
       </c>
       <c r="C25" s="32">
         <v>0</v>
       </c>
-      <c r="D25" s="117" t="s">
-        <v>1</v>
+      <c r="D25" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="143"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F25" s="115"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="31" cm="1">
-        <f t="array" aca="1" ref="B26" ca="1">IF(AND(C26&lt;&gt;"",E26&lt;&gt;"")=TRUE, CELL("row",B26)-17,"")</f>
-        <v>9</v>
+        <f t="array" aca="1" ref="B26" ca="1">IF(AND(C26&lt;&gt;"",E26&lt;&gt;"")=TRUE, CELL("row",B26)-18,"")</f>
+        <v>8</v>
       </c>
       <c r="C26" s="32">
         <v>0</v>
       </c>
-      <c r="D26" s="117" t="s">
-        <v>1</v>
+      <c r="D26" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="143"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F26" s="115"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="31" cm="1">
-        <f t="array" aca="1" ref="B27" ca="1">IF(AND(C27&lt;&gt;"",E27&lt;&gt;"")=TRUE, CELL("row",B27)-17,"")</f>
-        <v>10</v>
+        <f t="array" aca="1" ref="B27" ca="1">IF(AND(C27&lt;&gt;"",E27&lt;&gt;"")=TRUE, CELL("row",B27)-18,"")</f>
+        <v>9</v>
       </c>
       <c r="C27" s="32">
         <v>0</v>
       </c>
-      <c r="D27" s="117" t="s">
-        <v>1</v>
+      <c r="D27" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E27" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="115"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="31" cm="1">
+        <f t="array" aca="1" ref="B28" ca="1">IF(AND(C28&lt;&gt;"",E28&lt;&gt;"")=TRUE, CELL("row",B28)-18,"")</f>
+        <v>10</v>
+      </c>
+      <c r="C28" s="32">
+        <v>0</v>
+      </c>
+      <c r="D28" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="143"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B28" ca="1">IF(AND(C28&lt;&gt;"",E28&lt;&gt;"")=TRUE, CELL("row",B28)-17,"")</f>
-        <v/>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="143"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="115"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B29" ca="1">IF(AND(C29&lt;&gt;"",E29&lt;&gt;"")=TRUE, CELL("row",B29)-17,"")</f>
+        <f t="array" aca="1" ref="B29" ca="1">IF(AND(C29&lt;&gt;"",E29&lt;&gt;"")=TRUE, CELL("row",B29)-18,"")</f>
         <v/>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="143"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="115"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B30" ca="1">IF(AND(C30&lt;&gt;"",E30&lt;&gt;"")=TRUE, CELL("row",B30)-17,"")</f>
+        <f t="array" aca="1" ref="B30" ca="1">IF(AND(C30&lt;&gt;"",E30&lt;&gt;"")=TRUE, CELL("row",B30)-18,"")</f>
         <v/>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="51"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="143"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="115"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B31" ca="1">IF(AND(C31&lt;&gt;"",E31&lt;&gt;"")=TRUE, CELL("row",B31)-17,"")</f>
+        <f t="array" aca="1" ref="B31" ca="1">IF(AND(C31&lt;&gt;"",E31&lt;&gt;"")=TRUE, CELL("row",B31)-18,"")</f>
         <v/>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="51"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="143"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="115"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B32" ca="1">IF(AND(C32&lt;&gt;"",E32&lt;&gt;"")=TRUE, CELL("row",B32)-17,"")</f>
+        <f t="array" aca="1" ref="B32" ca="1">IF(AND(C32&lt;&gt;"",E32&lt;&gt;"")=TRUE, CELL("row",B32)-18,"")</f>
         <v/>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="143"/>
+      <c r="F32" s="115"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" cm="1">
-        <f t="array" aca="1" ref="B33" ca="1">IF(AND(C33&lt;&gt;"",E33&lt;&gt;"")=TRUE, CELL("row",B33)-17,"")</f>
-        <v>16</v>
-      </c>
-      <c r="C33" s="119">
-        <v>0</v>
-      </c>
-      <c r="D33" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="118" t="s">
-        <v>89</v>
-      </c>
-      <c r="F33" s="143" t="s">
-        <v>133</v>
-      </c>
+      <c r="B33" s="31" t="str" cm="1">
+        <f t="array" aca="1" ref="B33" ca="1">IF(AND(C33&lt;&gt;"",E33&lt;&gt;"")=TRUE, CELL("row",B33)-18,"")</f>
+        <v/>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="115"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="31" cm="1">
-        <f t="array" aca="1" ref="B34" ca="1">IF(AND(C34&lt;&gt;"",E34&lt;&gt;"")=TRUE, CELL("row",B34)-17,"")</f>
-        <v>17</v>
-      </c>
-      <c r="C34" s="32">
-        <v>1</v>
-      </c>
-      <c r="D34" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="143"/>
+        <f t="array" aca="1" ref="B34" ca="1">IF(AND(C34&lt;&gt;"",E34&lt;&gt;"")=TRUE, CELL("row",B34)-18,"")</f>
+        <v>16</v>
+      </c>
+      <c r="C34" s="114">
+        <v>0</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="115" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="31" cm="1">
-        <f t="array" aca="1" ref="B35" ca="1">IF(AND(C35&lt;&gt;"",E35&lt;&gt;"")=TRUE, CELL("row",B35)-17,"")</f>
-        <v>18</v>
+        <f t="array" aca="1" ref="B35" ca="1">IF(AND(C35&lt;&gt;"",E35&lt;&gt;"")=TRUE, CELL("row",B35)-18,"")</f>
+        <v>17</v>
       </c>
       <c r="C35" s="32">
         <v>1</v>
       </c>
-      <c r="D35" s="117" t="s">
-        <v>1</v>
+      <c r="D35" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="144"/>
+        <v>61</v>
+      </c>
+      <c r="F35" s="115"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="31" cm="1">
-        <f t="array" aca="1" ref="B36" ca="1">IF(AND(C36&lt;&gt;"",E36&lt;&gt;"")=TRUE, CELL("row",B36)-17,"")</f>
-        <v>19</v>
+        <f t="array" aca="1" ref="B36" ca="1">IF(AND(C36&lt;&gt;"",E36&lt;&gt;"")=TRUE, CELL("row",B36)-18,"")</f>
+        <v>18</v>
       </c>
       <c r="C36" s="32">
-        <v>0</v>
-      </c>
-      <c r="D36" s="117" t="s">
         <v>1</v>
       </c>
+      <c r="D36" s="112" t="s">
+        <v>133</v>
+      </c>
       <c r="E36" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F36" s="143"/>
+        <v>57</v>
+      </c>
+      <c r="F36" s="116"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="31" cm="1">
-        <f t="array" aca="1" ref="B37" ca="1">IF(AND(C37&lt;&gt;"",E37&lt;&gt;"")=TRUE, CELL("row",B37)-17,"")</f>
-        <v>20</v>
+        <f t="array" aca="1" ref="B37" ca="1">IF(AND(C37&lt;&gt;"",E37&lt;&gt;"")=TRUE, CELL("row",B37)-18,"")</f>
+        <v>19</v>
       </c>
       <c r="C37" s="32">
         <v>0</v>
       </c>
-      <c r="D37" s="117" t="s">
-        <v>1</v>
+      <c r="D37" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F37" s="143"/>
+        <v>58</v>
+      </c>
+      <c r="F37" s="115"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="31" cm="1">
-        <f t="array" aca="1" ref="B38" ca="1">IF(AND(C38&lt;&gt;"",E38&lt;&gt;"")=TRUE, CELL("row",B38)-17,"")</f>
-        <v>21</v>
+        <f t="array" aca="1" ref="B38" ca="1">IF(AND(C38&lt;&gt;"",E38&lt;&gt;"")=TRUE, CELL("row",B38)-18,"")</f>
+        <v>20</v>
       </c>
       <c r="C38" s="32">
         <v>0</v>
       </c>
-      <c r="D38" s="117" t="s">
-        <v>1</v>
+      <c r="D38" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E38" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F38" s="115"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="31" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">IF(AND(C39&lt;&gt;"",E39&lt;&gt;"")=TRUE, CELL("row",B39)-18,"")</f>
+        <v>21</v>
+      </c>
+      <c r="C39" s="32">
+        <v>0</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="143"/>
-    </row>
-    <row r="39" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="B39" s="31" cm="1">
-        <f t="array" aca="1" ref="B39" ca="1">IF(AND(C39&lt;&gt;"",E39&lt;&gt;"")=TRUE, CELL("row",B39)-17,"")</f>
+      <c r="F39" s="115"/>
+    </row>
+    <row r="40" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="B40" s="31" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">IF(AND(C40&lt;&gt;"",E40&lt;&gt;"")=TRUE, CELL("row",B40)-18,"")</f>
         <v>22</v>
-      </c>
-      <c r="C39" s="32">
-        <v>1</v>
-      </c>
-      <c r="D39" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F39" s="143"/>
-    </row>
-    <row r="40" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="31" cm="1">
-        <f t="array" aca="1" ref="B40" ca="1">IF(AND(C40&lt;&gt;"",E40&lt;&gt;"")=TRUE, CELL("row",B40)-17,"")</f>
-        <v>23</v>
       </c>
       <c r="C40" s="32">
         <v>1</v>
       </c>
-      <c r="D40" s="117" t="s">
-        <v>1</v>
+      <c r="D40" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="143"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F40" s="115"/>
+    </row>
+    <row r="41" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B41" s="31" cm="1">
-        <f t="array" aca="1" ref="B41" ca="1">IF(AND(C41&lt;&gt;"",E41&lt;&gt;"")=TRUE, CELL("row",B41)-17,"")</f>
-        <v>24</v>
+        <f t="array" aca="1" ref="B41" ca="1">IF(AND(C41&lt;&gt;"",E41&lt;&gt;"")=TRUE, CELL("row",B41)-18,"")</f>
+        <v>23</v>
       </c>
       <c r="C41" s="32">
         <v>1</v>
       </c>
-      <c r="D41" s="117" t="s">
-        <v>1</v>
+      <c r="D41" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="143"/>
+        <v>69</v>
+      </c>
+      <c r="F41" s="115"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="31" cm="1">
-        <f t="array" aca="1" ref="B42" ca="1">IF(AND(C42&lt;&gt;"",E42&lt;&gt;"")=TRUE, CELL("row",B42)-17,"")</f>
+        <f t="array" aca="1" ref="B42" ca="1">IF(AND(C42&lt;&gt;"",E42&lt;&gt;"")=TRUE, CELL("row",B42)-18,"")</f>
+        <v>24</v>
+      </c>
+      <c r="C42" s="32">
+        <v>1</v>
+      </c>
+      <c r="D42" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="115"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="31" cm="1">
+        <f t="array" aca="1" ref="B43" ca="1">IF(AND(C43&lt;&gt;"",E43&lt;&gt;"")=TRUE, CELL("row",B43)-18,"")</f>
         <v>25</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C43" s="32">
         <v>0</v>
       </c>
-      <c r="D42" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="42" t="s">
+      <c r="D43" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="143"/>
-    </row>
-    <row r="43" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="B43" s="31" cm="1">
-        <f t="array" aca="1" ref="B43" ca="1">IF(AND(C43&lt;&gt;"",E43&lt;&gt;"")=TRUE, CELL("row",B43)-17,"")</f>
+      <c r="F43" s="115"/>
+    </row>
+    <row r="44" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B44" s="31" cm="1">
+        <f t="array" aca="1" ref="B44" ca="1">IF(AND(C44&lt;&gt;"",E44&lt;&gt;"")=TRUE, CELL("row",B44)-18,"")</f>
         <v>26</v>
-      </c>
-      <c r="C43" s="32">
-        <v>1</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="143"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="31" cm="1">
-        <f t="array" aca="1" ref="B44" ca="1">IF(AND(C44&lt;&gt;"",E44&lt;&gt;"")=TRUE, CELL("row",B44)-17,"")</f>
-        <v>27</v>
       </c>
       <c r="C44" s="32">
         <v>1</v>
       </c>
-      <c r="D44" s="117" t="s">
-        <v>1</v>
+      <c r="D44" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="143"/>
-    </row>
-    <row r="45" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="F44" s="115"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="31" cm="1">
-        <f t="array" aca="1" ref="B45" ca="1">IF(AND(C45&lt;&gt;"",E45&lt;&gt;"")=TRUE, CELL("row",B45)-17,"")</f>
-        <v>28</v>
+        <f t="array" aca="1" ref="B45" ca="1">IF(AND(C45&lt;&gt;"",E45&lt;&gt;"")=TRUE, CELL("row",B45)-18,"")</f>
+        <v>27</v>
       </c>
       <c r="C45" s="32">
         <v>1</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="115"/>
+    </row>
+    <row r="46" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="31" cm="1">
+        <f t="array" aca="1" ref="B46" ca="1">IF(AND(C46&lt;&gt;"",E46&lt;&gt;"")=TRUE, CELL("row",B46)-18,"")</f>
+        <v>28</v>
+      </c>
+      <c r="C46" s="32">
         <v>1</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="D46" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="143"/>
-    </row>
-    <row r="46" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">IF(AND(C46&lt;&gt;"",E46&lt;&gt;"")=TRUE, CELL("row",B46)-17,"")</f>
+      <c r="F46" s="115"/>
+    </row>
+    <row r="47" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="31" cm="1">
+        <f t="array" aca="1" ref="B47" ca="1">IF(AND(C47&lt;&gt;"",E47&lt;&gt;"")=TRUE, CELL("row",B47)-18,"")</f>
         <v>29</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C47" s="32">
         <v>0</v>
       </c>
-      <c r="D46" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="42" t="s">
+      <c r="D47" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F46" s="143"/>
-    </row>
-    <row r="47" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="31" cm="1">
-        <f t="array" aca="1" ref="B47" ca="1">IF(AND(C47&lt;&gt;"",E47&lt;&gt;"")=TRUE, CELL("row",B47)-17,"")</f>
+      <c r="F47" s="115"/>
+    </row>
+    <row r="48" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="31" cm="1">
+        <f t="array" aca="1" ref="B48" ca="1">IF(AND(C48&lt;&gt;"",E48&lt;&gt;"")=TRUE, CELL("row",B48)-18,"")</f>
         <v>30</v>
-      </c>
-      <c r="C47" s="32">
-        <v>1</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="143"/>
-    </row>
-    <row r="48" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B48" s="31" cm="1">
-        <f t="array" aca="1" ref="B48" ca="1">IF(AND(C48&lt;&gt;"",E48&lt;&gt;"")=TRUE, CELL("row",B48)-17,"")</f>
-        <v>31</v>
       </c>
       <c r="C48" s="32">
         <v>1</v>
       </c>
-      <c r="D48" s="117" t="s">
-        <v>1</v>
+      <c r="D48" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="143"/>
+        <v>75</v>
+      </c>
+      <c r="F48" s="115"/>
     </row>
     <row r="49" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B49" s="31" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">IF(AND(C49&lt;&gt;"",E49&lt;&gt;"")=TRUE, CELL("row",B49)-17,"")</f>
-        <v>32</v>
+        <f t="array" aca="1" ref="B49" ca="1">IF(AND(C49&lt;&gt;"",E49&lt;&gt;"")=TRUE, CELL("row",B49)-18,"")</f>
+        <v>31</v>
       </c>
       <c r="C49" s="32">
         <v>1</v>
       </c>
-      <c r="D49" s="117" t="s">
+      <c r="D49" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="115"/>
+    </row>
+    <row r="50" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="31" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">IF(AND(C50&lt;&gt;"",E50&lt;&gt;"")=TRUE, CELL("row",B50)-18,"")</f>
+        <v>32</v>
+      </c>
+      <c r="C50" s="32">
         <v>1</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="D50" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="143"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="31" cm="1">
-        <f t="array" aca="1" ref="B50" ca="1">IF(AND(C50&lt;&gt;"",E50&lt;&gt;"")=TRUE, CELL("row",B50)-17,"")</f>
+      <c r="F50" s="115"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="31" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">IF(AND(C51&lt;&gt;"",E51&lt;&gt;"")=TRUE, CELL("row",B51)-18,"")</f>
         <v>33</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C51" s="32">
         <v>0</v>
       </c>
-      <c r="D50" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" s="42" t="s">
+      <c r="D51" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="143"/>
-    </row>
-    <row r="51" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="31" cm="1">
-        <f t="array" aca="1" ref="B51" ca="1">IF(AND(C51&lt;&gt;"",E51&lt;&gt;"")=TRUE, CELL("row",B51)-17,"")</f>
+      <c r="F51" s="115"/>
+    </row>
+    <row r="52" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="31" cm="1">
+        <f t="array" aca="1" ref="B52" ca="1">IF(AND(C52&lt;&gt;"",E52&lt;&gt;"")=TRUE, CELL("row",B52)-18,"")</f>
         <v>34</v>
-      </c>
-      <c r="C51" s="32">
-        <v>1</v>
-      </c>
-      <c r="D51" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F51" s="143"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="31" cm="1">
-        <f t="array" aca="1" ref="B52" ca="1">IF(AND(C52&lt;&gt;"",E52&lt;&gt;"")=TRUE, CELL("row",B52)-17,"")</f>
-        <v>35</v>
       </c>
       <c r="C52" s="32">
         <v>1</v>
       </c>
-      <c r="D52" s="117" t="s">
-        <v>1</v>
+      <c r="D52" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F52" s="143"/>
+        <v>79</v>
+      </c>
+      <c r="F52" s="115"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="31" cm="1">
-        <f t="array" aca="1" ref="B53" ca="1">IF(AND(C53&lt;&gt;"",E53&lt;&gt;"")=TRUE, CELL("row",B53)-17,"")</f>
-        <v>36</v>
+        <f t="array" aca="1" ref="B53" ca="1">IF(AND(C53&lt;&gt;"",E53&lt;&gt;"")=TRUE, CELL("row",B53)-18,"")</f>
+        <v>35</v>
       </c>
       <c r="C53" s="32">
         <v>1</v>
       </c>
-      <c r="D53" s="117" t="s">
-        <v>1</v>
+      <c r="D53" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="143"/>
-    </row>
-    <row r="54" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F53" s="115"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="31" cm="1">
-        <f t="array" aca="1" ref="B54" ca="1">IF(AND(C54&lt;&gt;"",E54&lt;&gt;"")=TRUE, CELL("row",B54)-17,"")</f>
-        <v>37</v>
+        <f t="array" aca="1" ref="B54" ca="1">IF(AND(C54&lt;&gt;"",E54&lt;&gt;"")=TRUE, CELL("row",B54)-18,"")</f>
+        <v>36</v>
       </c>
       <c r="C54" s="32">
         <v>1</v>
       </c>
-      <c r="D54" s="117" t="s">
-        <v>1</v>
+      <c r="D54" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="143"/>
-    </row>
-    <row r="55" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F54" s="115"/>
+    </row>
+    <row r="55" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B55" s="31" cm="1">
-        <f t="array" aca="1" ref="B55" ca="1">IF(AND(C55&lt;&gt;"",E55&lt;&gt;"")=TRUE, CELL("row",B55)-17,"")</f>
-        <v>38</v>
+        <f t="array" aca="1" ref="B55" ca="1">IF(AND(C55&lt;&gt;"",E55&lt;&gt;"")=TRUE, CELL("row",B55)-18,"")</f>
+        <v>37</v>
       </c>
       <c r="C55" s="32">
         <v>1</v>
       </c>
-      <c r="D55" s="117" t="s">
-        <v>1</v>
+      <c r="D55" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="143"/>
-    </row>
-    <row r="56" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F55" s="115"/>
+    </row>
+    <row r="56" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B56" s="31" cm="1">
-        <f t="array" aca="1" ref="B56" ca="1">IF(AND(C56&lt;&gt;"",E56&lt;&gt;"")=TRUE, CELL("row",B56)-17,"")</f>
-        <v>39</v>
+        <f t="array" aca="1" ref="B56" ca="1">IF(AND(C56&lt;&gt;"",E56&lt;&gt;"")=TRUE, CELL("row",B56)-18,"")</f>
+        <v>38</v>
       </c>
       <c r="C56" s="32">
         <v>1</v>
       </c>
-      <c r="D56" s="117" t="s">
-        <v>1</v>
+      <c r="D56" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="143"/>
-    </row>
-    <row r="57" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F56" s="115"/>
+    </row>
+    <row r="57" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="B57" s="31" cm="1">
-        <f t="array" aca="1" ref="B57" ca="1">IF(AND(C57&lt;&gt;"",E57&lt;&gt;"")=TRUE, CELL("row",B57)-17,"")</f>
-        <v>40</v>
+        <f t="array" aca="1" ref="B57" ca="1">IF(AND(C57&lt;&gt;"",E57&lt;&gt;"")=TRUE, CELL("row",B57)-18,"")</f>
+        <v>39</v>
       </c>
       <c r="C57" s="32">
         <v>1</v>
       </c>
-      <c r="D57" s="117" t="s">
-        <v>1</v>
+      <c r="D57" s="112" t="s">
+        <v>133</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="143"/>
-    </row>
-    <row r="58" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F57" s="115"/>
+    </row>
+    <row r="58" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B58" s="31" cm="1">
-        <f t="array" aca="1" ref="B58" ca="1">IF(AND(C58&lt;&gt;"",E58&lt;&gt;"")=TRUE, CELL("row",B58)-17,"")</f>
-        <v>41</v>
+        <f t="array" aca="1" ref="B58" ca="1">IF(AND(C58&lt;&gt;"",E58&lt;&gt;"")=TRUE, CELL("row",B58)-18,"")</f>
+        <v>40</v>
       </c>
       <c r="C58" s="32">
         <v>1</v>
       </c>
-      <c r="D58" s="117" t="s">
+      <c r="D58" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="115"/>
+    </row>
+    <row r="59" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="31" cm="1">
+        <f t="array" aca="1" ref="B59" ca="1">IF(AND(C59&lt;&gt;"",E59&lt;&gt;"")=TRUE, CELL("row",B59)-18,"")</f>
+        <v>41</v>
+      </c>
+      <c r="C59" s="32">
         <v>1</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="D59" s="112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F58" s="143"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="31" cm="1">
-        <f t="array" aca="1" ref="B59" ca="1">IF(AND(C59&lt;&gt;"",E59&lt;&gt;"")=TRUE, CELL("row",B59)-17,"")</f>
-        <v>42</v>
-      </c>
-      <c r="C59" s="32">
-        <v>0</v>
-      </c>
-      <c r="D59" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" s="143"/>
+      <c r="F59" s="115"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="31" cm="1">
-        <f t="array" aca="1" ref="B60" ca="1">IF(AND(C60&lt;&gt;"",E60&lt;&gt;"")=TRUE, CELL("row",B60)-17,"")</f>
+        <f t="array" aca="1" ref="B60" ca="1">IF(AND(C60&lt;&gt;"",E60&lt;&gt;"")=TRUE, CELL("row",B60)-18,"")</f>
+        <v>42</v>
+      </c>
+      <c r="C60" s="32">
+        <v>0</v>
+      </c>
+      <c r="D60" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F60" s="115"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="31" cm="1">
+        <f t="array" aca="1" ref="B61" ca="1">IF(AND(C61&lt;&gt;"",E61&lt;&gt;"")=TRUE, CELL("row",B61)-18,"")</f>
         <v>43</v>
-      </c>
-      <c r="C60" s="32">
-        <v>1</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F60" s="143"/>
-    </row>
-    <row r="61" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="31" cm="1">
-        <f t="array" aca="1" ref="B61" ca="1">IF(AND(C61&lt;&gt;"",E61&lt;&gt;"")=TRUE, CELL("row",B61)-17,"")</f>
-        <v>44</v>
       </c>
       <c r="C61" s="32">
         <v>1</v>
@@ -10122,14 +10619,14 @@
         <v>1</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61" s="143"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="F61" s="115"/>
+    </row>
+    <row r="62" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B62" s="31" cm="1">
-        <f t="array" aca="1" ref="B62" ca="1">IF(AND(C62&lt;&gt;"",E62&lt;&gt;"")=TRUE, CELL("row",B62)-17,"")</f>
-        <v>45</v>
+        <f t="array" aca="1" ref="B62" ca="1">IF(AND(C62&lt;&gt;"",E62&lt;&gt;"")=TRUE, CELL("row",B62)-18,"")</f>
+        <v>44</v>
       </c>
       <c r="C62" s="32">
         <v>1</v>
@@ -10138,126 +10635,126 @@
         <v>1</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="F62" s="143"/>
+        <v>103</v>
+      </c>
+      <c r="F62" s="115"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B63" ca="1">IF(AND(C63&lt;&gt;"",E63&lt;&gt;"")=TRUE, CELL("row",B63)-17,"")</f>
-        <v/>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="143"/>
+      <c r="B63" s="31" cm="1">
+        <f t="array" aca="1" ref="B63" ca="1">IF(AND(C63&lt;&gt;"",E63&lt;&gt;"")=TRUE, CELL("row",B63)-18,"")</f>
+        <v>45</v>
+      </c>
+      <c r="C63" s="32">
+        <v>1</v>
+      </c>
+      <c r="D63" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="115"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B64" ca="1">IF(AND(C64&lt;&gt;"",E64&lt;&gt;"")=TRUE, CELL("row",B64)-17,"")</f>
+        <f t="array" aca="1" ref="B64" ca="1">IF(AND(C64&lt;&gt;"",E64&lt;&gt;"")=TRUE, CELL("row",B64)-18,"")</f>
         <v/>
       </c>
       <c r="C64" s="32"/>
       <c r="D64" s="51"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="143"/>
+      <c r="F64" s="115"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B65" ca="1">IF(AND(C65&lt;&gt;"",E65&lt;&gt;"")=TRUE, CELL("row",B65)-17,"")</f>
+        <f t="array" aca="1" ref="B65" ca="1">IF(AND(C65&lt;&gt;"",E65&lt;&gt;"")=TRUE, CELL("row",B65)-18,"")</f>
         <v/>
       </c>
       <c r="C65" s="32"/>
       <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="143"/>
+      <c r="F65" s="115"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="31" cm="1">
-        <f t="array" aca="1" ref="B66" ca="1">IF(AND(C66&lt;&gt;"",E66&lt;&gt;"")=TRUE, CELL("row",B66)-17,"")</f>
-        <v>49</v>
-      </c>
-      <c r="C66" s="119">
-        <v>0</v>
-      </c>
-      <c r="D66" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="118" t="s">
-        <v>90</v>
-      </c>
-      <c r="F66" s="143" t="s">
-        <v>133</v>
-      </c>
+      <c r="B66" s="31" t="str" cm="1">
+        <f t="array" aca="1" ref="B66" ca="1">IF(AND(C66&lt;&gt;"",E66&lt;&gt;"")=TRUE, CELL("row",B66)-18,"")</f>
+        <v/>
+      </c>
+      <c r="C66" s="32"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="115"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="31" cm="1">
-        <f t="array" aca="1" ref="B67" ca="1">IF(AND(C67&lt;&gt;"",E67&lt;&gt;"")=TRUE, CELL("row",B67)-17,"")</f>
-        <v>50</v>
-      </c>
-      <c r="C67" s="32">
-        <v>1</v>
-      </c>
-      <c r="D67" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="143"/>
+        <f t="array" aca="1" ref="B67" ca="1">IF(AND(C67&lt;&gt;"",E67&lt;&gt;"")=TRUE, CELL("row",B67)-18,"")</f>
+        <v>49</v>
+      </c>
+      <c r="C67" s="114">
+        <v>0</v>
+      </c>
+      <c r="D67" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="113" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="115" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="31" cm="1">
-        <f t="array" aca="1" ref="B68" ca="1">IF(AND(C68&lt;&gt;"",E68&lt;&gt;"")=TRUE, CELL("row",B68)-17,"")</f>
-        <v>51</v>
+        <f t="array" aca="1" ref="B68" ca="1">IF(AND(C68&lt;&gt;"",E68&lt;&gt;"")=TRUE, CELL("row",B68)-18,"")</f>
+        <v>50</v>
       </c>
       <c r="C68" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F68" s="143"/>
+        <v>61</v>
+      </c>
+      <c r="F68" s="115"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="31" cm="1">
-        <f t="array" aca="1" ref="B69" ca="1">IF(AND(C69&lt;&gt;"",E69&lt;&gt;"")=TRUE, CELL("row",B69)-17,"")</f>
-        <v>52</v>
+        <f t="array" aca="1" ref="B69" ca="1">IF(AND(C69&lt;&gt;"",E69&lt;&gt;"")=TRUE, CELL("row",B69)-18,"")</f>
+        <v>51</v>
       </c>
       <c r="C69" s="32">
         <v>0</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="143"/>
+        <v>60</v>
+      </c>
+      <c r="F69" s="115"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="31" cm="1">
-        <f t="array" aca="1" ref="B70" ca="1">IF(AND(C70&lt;&gt;"",E70&lt;&gt;"")=TRUE, CELL("row",B70)-17,"")</f>
+        <f t="array" aca="1" ref="B70" ca="1">IF(AND(C70&lt;&gt;"",E70&lt;&gt;"")=TRUE, CELL("row",B70)-18,"")</f>
+        <v>52</v>
+      </c>
+      <c r="C70" s="32">
+        <v>0</v>
+      </c>
+      <c r="D70" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" s="115"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="31" cm="1">
+        <f t="array" aca="1" ref="B71" ca="1">IF(AND(C71&lt;&gt;"",E71&lt;&gt;"")=TRUE, CELL("row",B71)-18,"")</f>
         <v>53</v>
-      </c>
-      <c r="C70" s="32">
-        <v>1</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="143"/>
-    </row>
-    <row r="71" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="31" cm="1">
-        <f t="array" aca="1" ref="B71" ca="1">IF(AND(C71&lt;&gt;"",E71&lt;&gt;"")=TRUE, CELL("row",B71)-17,"")</f>
-        <v>54</v>
       </c>
       <c r="C71" s="32">
         <v>1</v>
@@ -10266,14 +10763,14 @@
         <v>1</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F71" s="143"/>
+        <v>91</v>
+      </c>
+      <c r="F71" s="115"/>
     </row>
     <row r="72" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B72" s="31" cm="1">
-        <f t="array" aca="1" ref="B72" ca="1">IF(AND(C72&lt;&gt;"",E72&lt;&gt;"")=TRUE, CELL("row",B72)-17,"")</f>
-        <v>55</v>
+        <f t="array" aca="1" ref="B72" ca="1">IF(AND(C72&lt;&gt;"",E72&lt;&gt;"")=TRUE, CELL("row",B72)-18,"")</f>
+        <v>54</v>
       </c>
       <c r="C72" s="32">
         <v>1</v>
@@ -10282,78 +10779,78 @@
         <v>1</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F72" s="143"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="F72" s="115"/>
+    </row>
+    <row r="73" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B73" s="31" cm="1">
-        <f t="array" aca="1" ref="B73" ca="1">IF(AND(C73&lt;&gt;"",E73&lt;&gt;"")=TRUE, CELL("row",B73)-17,"")</f>
-        <v>56</v>
+        <f t="array" aca="1" ref="B73" ca="1">IF(AND(C73&lt;&gt;"",E73&lt;&gt;"")=TRUE, CELL("row",B73)-18,"")</f>
+        <v>55</v>
       </c>
       <c r="C73" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F73" s="143"/>
+        <v>93</v>
+      </c>
+      <c r="F73" s="115"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="31" cm="1">
-        <f t="array" aca="1" ref="B74" ca="1">IF(AND(C74&lt;&gt;"",E74&lt;&gt;"")=TRUE, CELL("row",B74)-17,"")</f>
-        <v>57</v>
+        <f t="array" aca="1" ref="B74" ca="1">IF(AND(C74&lt;&gt;"",E74&lt;&gt;"")=TRUE, CELL("row",B74)-18,"")</f>
+        <v>56</v>
       </c>
       <c r="C74" s="32">
         <v>0</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="143"/>
+        <v>65</v>
+      </c>
+      <c r="F74" s="115"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="31" cm="1">
-        <f t="array" aca="1" ref="B75" ca="1">IF(AND(C75&lt;&gt;"",E75&lt;&gt;"")=TRUE, CELL("row",B75)-17,"")</f>
-        <v>58</v>
+        <f t="array" aca="1" ref="B75" ca="1">IF(AND(C75&lt;&gt;"",E75&lt;&gt;"")=TRUE, CELL("row",B75)-18,"")</f>
+        <v>57</v>
       </c>
       <c r="C75" s="32">
         <v>0</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E75" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="F75" s="115"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B76" s="31" cm="1">
+        <f t="array" aca="1" ref="B76" ca="1">IF(AND(C76&lt;&gt;"",E76&lt;&gt;"")=TRUE, CELL("row",B76)-18,"")</f>
+        <v>58</v>
+      </c>
+      <c r="C76" s="32">
+        <v>0</v>
+      </c>
+      <c r="D76" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F75" s="143"/>
-    </row>
-    <row r="76" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B76" s="31" cm="1">
-        <f t="array" aca="1" ref="B76" ca="1">IF(AND(C76&lt;&gt;"",E76&lt;&gt;"")=TRUE, CELL("row",B76)-17,"")</f>
+      <c r="F76" s="115"/>
+    </row>
+    <row r="77" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B77" s="31" cm="1">
+        <f t="array" aca="1" ref="B77" ca="1">IF(AND(C77&lt;&gt;"",E77&lt;&gt;"")=TRUE, CELL("row",B77)-18,"")</f>
         <v>59</v>
-      </c>
-      <c r="C76" s="32">
-        <v>1</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F76" s="143"/>
-    </row>
-    <row r="77" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="B77" s="31" cm="1">
-        <f t="array" aca="1" ref="B77" ca="1">IF(AND(C77&lt;&gt;"",E77&lt;&gt;"")=TRUE, CELL("row",B77)-17,"")</f>
-        <v>60</v>
       </c>
       <c r="C77" s="32">
         <v>1</v>
@@ -10362,14 +10859,14 @@
         <v>1</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" s="143"/>
-    </row>
-    <row r="78" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F77" s="115"/>
+    </row>
+    <row r="78" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B78" s="31" cm="1">
-        <f t="array" aca="1" ref="B78" ca="1">IF(AND(C78&lt;&gt;"",E78&lt;&gt;"")=TRUE, CELL("row",B78)-17,"")</f>
-        <v>61</v>
+        <f t="array" aca="1" ref="B78" ca="1">IF(AND(C78&lt;&gt;"",E78&lt;&gt;"")=TRUE, CELL("row",B78)-18,"")</f>
+        <v>60</v>
       </c>
       <c r="C78" s="32">
         <v>1</v>
@@ -10378,152 +10875,152 @@
         <v>1</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F78" s="143"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+      <c r="F78" s="115"/>
+    </row>
+    <row r="79" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B79" s="31" cm="1">
-        <f t="array" aca="1" ref="B79" ca="1">IF(AND(C79&lt;&gt;"",E79&lt;&gt;"")=TRUE, CELL("row",B79)-17,"")</f>
-        <v>62</v>
+        <f t="array" aca="1" ref="B79" ca="1">IF(AND(C79&lt;&gt;"",E79&lt;&gt;"")=TRUE, CELL("row",B79)-18,"")</f>
+        <v>61</v>
       </c>
       <c r="C79" s="32">
         <v>1</v>
       </c>
       <c r="D79" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="115"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="31" cm="1">
+        <f t="array" aca="1" ref="B80" ca="1">IF(AND(C80&lt;&gt;"",E80&lt;&gt;"")=TRUE, CELL("row",B80)-18,"")</f>
+        <v>62</v>
+      </c>
+      <c r="C80" s="32">
+        <v>1</v>
+      </c>
+      <c r="D80" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E79" s="42" t="s">
+      <c r="E80" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F79" s="143"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B80" ca="1">IF(AND(C80&lt;&gt;"",E80&lt;&gt;"")=TRUE, CELL("row",B80)-17,"")</f>
-        <v/>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="143"/>
+      <c r="F80" s="115"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B81" ca="1">IF(AND(C81&lt;&gt;"",E81&lt;&gt;"")=TRUE, CELL("row",B81)-17,"")</f>
+        <f t="array" aca="1" ref="B81" ca="1">IF(AND(C81&lt;&gt;"",E81&lt;&gt;"")=TRUE, CELL("row",B81)-18,"")</f>
         <v/>
       </c>
       <c r="C81" s="32"/>
       <c r="D81" s="51"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="143"/>
+      <c r="F81" s="115"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B82" ca="1">IF(AND(C82&lt;&gt;"",E82&lt;&gt;"")=TRUE, CELL("row",B82)-17,"")</f>
+        <f t="array" aca="1" ref="B82" ca="1">IF(AND(C82&lt;&gt;"",E82&lt;&gt;"")=TRUE, CELL("row",B82)-18,"")</f>
         <v/>
       </c>
       <c r="C82" s="32"/>
       <c r="D82" s="51"/>
       <c r="E82" s="42"/>
-      <c r="F82" s="143"/>
+      <c r="F82" s="115"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B83" ca="1">IF(AND(C83&lt;&gt;"",E83&lt;&gt;"")=TRUE, CELL("row",B83)-17,"")</f>
+        <f t="array" aca="1" ref="B83" ca="1">IF(AND(C83&lt;&gt;"",E83&lt;&gt;"")=TRUE, CELL("row",B83)-18,"")</f>
         <v/>
       </c>
       <c r="C83" s="32"/>
       <c r="D83" s="51"/>
       <c r="E83" s="42"/>
-      <c r="F83" s="143"/>
+      <c r="F83" s="115"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="31" cm="1">
-        <f t="array" aca="1" ref="B84" ca="1">IF(AND(C84&lt;&gt;"",E84&lt;&gt;"")=TRUE, CELL("row",B84)-17,"")</f>
-        <v>67</v>
-      </c>
-      <c r="C84" s="119">
-        <v>0</v>
-      </c>
-      <c r="D84" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E84" s="118" t="s">
-        <v>106</v>
-      </c>
-      <c r="F84" s="143" t="s">
-        <v>133</v>
-      </c>
+      <c r="B84" s="31" t="str" cm="1">
+        <f t="array" aca="1" ref="B84" ca="1">IF(AND(C84&lt;&gt;"",E84&lt;&gt;"")=TRUE, CELL("row",B84)-18,"")</f>
+        <v/>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="115"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="31" cm="1">
-        <f t="array" aca="1" ref="B85" ca="1">IF(AND(C85&lt;&gt;"",E85&lt;&gt;"")=TRUE, CELL("row",B85)-17,"")</f>
-        <v>68</v>
-      </c>
-      <c r="C85" s="32">
-        <v>1</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F85" s="143"/>
+        <f t="array" aca="1" ref="B85" ca="1">IF(AND(C85&lt;&gt;"",E85&lt;&gt;"")=TRUE, CELL("row",B85)-18,"")</f>
+        <v>67</v>
+      </c>
+      <c r="C85" s="114">
+        <v>0</v>
+      </c>
+      <c r="D85" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="113" t="s">
+        <v>106</v>
+      </c>
+      <c r="F85" s="115" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="31" cm="1">
-        <f t="array" aca="1" ref="B86" ca="1">IF(AND(C86&lt;&gt;"",E86&lt;&gt;"")=TRUE, CELL("row",B86)-17,"")</f>
-        <v>69</v>
+        <f t="array" aca="1" ref="B86" ca="1">IF(AND(C86&lt;&gt;"",E86&lt;&gt;"")=TRUE, CELL("row",B86)-18,"")</f>
+        <v>68</v>
       </c>
       <c r="C86" s="32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F86" s="143"/>
+        <v>61</v>
+      </c>
+      <c r="F86" s="115"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="31" cm="1">
-        <f t="array" aca="1" ref="B87" ca="1">IF(AND(C87&lt;&gt;"",E87&lt;&gt;"")=TRUE, CELL("row",B87)-17,"")</f>
-        <v>70</v>
+        <f t="array" aca="1" ref="B87" ca="1">IF(AND(C87&lt;&gt;"",E87&lt;&gt;"")=TRUE, CELL("row",B87)-18,"")</f>
+        <v>69</v>
       </c>
       <c r="C87" s="32">
         <v>0</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F87" s="143"/>
+        <v>60</v>
+      </c>
+      <c r="F87" s="115"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="31" cm="1">
-        <f t="array" aca="1" ref="B88" ca="1">IF(AND(C88&lt;&gt;"",E88&lt;&gt;"")=TRUE, CELL("row",B88)-17,"")</f>
-        <v>71</v>
+        <f t="array" aca="1" ref="B88" ca="1">IF(AND(C88&lt;&gt;"",E88&lt;&gt;"")=TRUE, CELL("row",B88)-18,"")</f>
+        <v>70</v>
       </c>
       <c r="C88" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="F88" s="143"/>
+        <v>59</v>
+      </c>
+      <c r="F88" s="115"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="31" cm="1">
-        <f t="array" aca="1" ref="B89" ca="1">IF(AND(C89&lt;&gt;"",E89&lt;&gt;"")=TRUE, CELL("row",B89)-17,"")</f>
-        <v>72</v>
+        <f t="array" aca="1" ref="B89" ca="1">IF(AND(C89&lt;&gt;"",E89&lt;&gt;"")=TRUE, CELL("row",B89)-18,"")</f>
+        <v>71</v>
       </c>
       <c r="C89" s="32">
         <v>1</v>
@@ -10532,14 +11029,14 @@
         <v>1</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F89" s="143"/>
+        <v>107</v>
+      </c>
+      <c r="F89" s="115"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="31" cm="1">
-        <f t="array" aca="1" ref="B90" ca="1">IF(AND(C90&lt;&gt;"",E90&lt;&gt;"")=TRUE, CELL("row",B90)-17,"")</f>
-        <v>73</v>
+        <f t="array" aca="1" ref="B90" ca="1">IF(AND(C90&lt;&gt;"",E90&lt;&gt;"")=TRUE, CELL("row",B90)-18,"")</f>
+        <v>72</v>
       </c>
       <c r="C90" s="32">
         <v>1</v>
@@ -10548,46 +11045,46 @@
         <v>1</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F90" s="143"/>
+        <v>108</v>
+      </c>
+      <c r="F90" s="115"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="31" cm="1">
-        <f t="array" aca="1" ref="B91" ca="1">IF(AND(C91&lt;&gt;"",E91&lt;&gt;"")=TRUE, CELL("row",B91)-17,"")</f>
-        <v>74</v>
+        <f t="array" aca="1" ref="B91" ca="1">IF(AND(C91&lt;&gt;"",E91&lt;&gt;"")=TRUE, CELL("row",B91)-18,"")</f>
+        <v>73</v>
       </c>
       <c r="C91" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D91" s="51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F91" s="143"/>
+        <v>109</v>
+      </c>
+      <c r="F91" s="115"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="31" cm="1">
-        <f t="array" aca="1" ref="B92" ca="1">IF(AND(C92&lt;&gt;"",E92&lt;&gt;"")=TRUE, CELL("row",B92)-17,"")</f>
-        <v>75</v>
+        <f t="array" aca="1" ref="B92" ca="1">IF(AND(C92&lt;&gt;"",E92&lt;&gt;"")=TRUE, CELL("row",B92)-18,"")</f>
+        <v>74</v>
       </c>
       <c r="C92" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D92" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F92" s="143"/>
+        <v>110</v>
+      </c>
+      <c r="F92" s="115"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="31" cm="1">
-        <f t="array" aca="1" ref="B93" ca="1">IF(AND(C93&lt;&gt;"",E93&lt;&gt;"")=TRUE, CELL("row",B93)-17,"")</f>
-        <v>76</v>
+        <f t="array" aca="1" ref="B93" ca="1">IF(AND(C93&lt;&gt;"",E93&lt;&gt;"")=TRUE, CELL("row",B93)-18,"")</f>
+        <v>75</v>
       </c>
       <c r="C93" s="32">
         <v>1</v>
@@ -10596,14 +11093,14 @@
         <v>1</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F93" s="143"/>
+        <v>111</v>
+      </c>
+      <c r="F93" s="115"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="31" cm="1">
-        <f t="array" aca="1" ref="B94" ca="1">IF(AND(C94&lt;&gt;"",E94&lt;&gt;"")=TRUE, CELL("row",B94)-17,"")</f>
-        <v>77</v>
+        <f t="array" aca="1" ref="B94" ca="1">IF(AND(C94&lt;&gt;"",E94&lt;&gt;"")=TRUE, CELL("row",B94)-18,"")</f>
+        <v>76</v>
       </c>
       <c r="C94" s="32">
         <v>1</v>
@@ -10612,14 +11109,14 @@
         <v>1</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F94" s="143"/>
+        <v>112</v>
+      </c>
+      <c r="F94" s="115"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="31" cm="1">
-        <f t="array" aca="1" ref="B95" ca="1">IF(AND(C95&lt;&gt;"",E95&lt;&gt;"")=TRUE, CELL("row",B95)-17,"")</f>
-        <v>78</v>
+        <f t="array" aca="1" ref="B95" ca="1">IF(AND(C95&lt;&gt;"",E95&lt;&gt;"")=TRUE, CELL("row",B95)-18,"")</f>
+        <v>77</v>
       </c>
       <c r="C95" s="32">
         <v>1</v>
@@ -10628,14 +11125,14 @@
         <v>1</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="143"/>
-    </row>
-    <row r="96" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F95" s="115"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="31" cm="1">
-        <f t="array" aca="1" ref="B96" ca="1">IF(AND(C96&lt;&gt;"",E96&lt;&gt;"")=TRUE, CELL("row",B96)-17,"")</f>
-        <v>79</v>
+        <f t="array" aca="1" ref="B96" ca="1">IF(AND(C96&lt;&gt;"",E96&lt;&gt;"")=TRUE, CELL("row",B96)-18,"")</f>
+        <v>78</v>
       </c>
       <c r="C96" s="32">
         <v>1</v>
@@ -10644,14 +11141,14 @@
         <v>1</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F96" s="143"/>
-    </row>
-    <row r="97" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F96" s="115"/>
+    </row>
+    <row r="97" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B97" s="31" cm="1">
-        <f t="array" aca="1" ref="B97" ca="1">IF(AND(C97&lt;&gt;"",E97&lt;&gt;"")=TRUE, CELL("row",B97)-17,"")</f>
-        <v>80</v>
+        <f t="array" aca="1" ref="B97" ca="1">IF(AND(C97&lt;&gt;"",E97&lt;&gt;"")=TRUE, CELL("row",B97)-18,"")</f>
+        <v>79</v>
       </c>
       <c r="C97" s="32">
         <v>1</v>
@@ -10660,14 +11157,14 @@
         <v>1</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F97" s="143"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F97" s="115"/>
+    </row>
+    <row r="98" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B98" s="31" cm="1">
-        <f t="array" aca="1" ref="B98" ca="1">IF(AND(C98&lt;&gt;"",E98&lt;&gt;"")=TRUE, CELL("row",B98)-17,"")</f>
-        <v>81</v>
+        <f t="array" aca="1" ref="B98" ca="1">IF(AND(C98&lt;&gt;"",E98&lt;&gt;"")=TRUE, CELL("row",B98)-18,"")</f>
+        <v>80</v>
       </c>
       <c r="C98" s="32">
         <v>1</v>
@@ -10676,14 +11173,14 @@
         <v>1</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F98" s="143"/>
+        <v>116</v>
+      </c>
+      <c r="F98" s="115"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="31" cm="1">
-        <f t="array" aca="1" ref="B99" ca="1">IF(AND(C99&lt;&gt;"",E99&lt;&gt;"")=TRUE, CELL("row",B99)-17,"")</f>
-        <v>82</v>
+        <f t="array" aca="1" ref="B99" ca="1">IF(AND(C99&lt;&gt;"",E99&lt;&gt;"")=TRUE, CELL("row",B99)-18,"")</f>
+        <v>81</v>
       </c>
       <c r="C99" s="32">
         <v>1</v>
@@ -10692,14 +11189,14 @@
         <v>1</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F99" s="143"/>
+        <v>117</v>
+      </c>
+      <c r="F99" s="115"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="31" cm="1">
-        <f t="array" aca="1" ref="B100" ca="1">IF(AND(C100&lt;&gt;"",E100&lt;&gt;"")=TRUE, CELL("row",B100)-17,"")</f>
-        <v>83</v>
+        <f t="array" aca="1" ref="B100" ca="1">IF(AND(C100&lt;&gt;"",E100&lt;&gt;"")=TRUE, CELL("row",B100)-18,"")</f>
+        <v>82</v>
       </c>
       <c r="C100" s="32">
         <v>1</v>
@@ -10708,100 +11205,100 @@
         <v>1</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" s="143"/>
+        <v>118</v>
+      </c>
+      <c r="F100" s="115"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="31" cm="1">
-        <f t="array" aca="1" ref="B101" ca="1">IF(AND(C101&lt;&gt;"",E101&lt;&gt;"")=TRUE, CELL("row",B101)-17,"")</f>
-        <v>84</v>
+        <f t="array" aca="1" ref="B101" ca="1">IF(AND(C101&lt;&gt;"",E101&lt;&gt;"")=TRUE, CELL("row",B101)-18,"")</f>
+        <v>83</v>
       </c>
       <c r="C101" s="32">
         <v>1</v>
       </c>
       <c r="D101" s="51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" s="143"/>
+        <v>119</v>
+      </c>
+      <c r="F101" s="115"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B102" ca="1">IF(AND(C102&lt;&gt;"",E102&lt;&gt;"")=TRUE, CELL("row",B102)-17,"")</f>
-        <v/>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="51"/>
-      <c r="E102" s="42"/>
-      <c r="F102" s="143"/>
+      <c r="B102" s="31" cm="1">
+        <f t="array" aca="1" ref="B102" ca="1">IF(AND(C102&lt;&gt;"",E102&lt;&gt;"")=TRUE, CELL("row",B102)-18,"")</f>
+        <v>84</v>
+      </c>
+      <c r="C102" s="32">
+        <v>1</v>
+      </c>
+      <c r="D102" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E102" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F102" s="115"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B103" ca="1">IF(AND(C103&lt;&gt;"",E103&lt;&gt;"")=TRUE, CELL("row",B103)-17,"")</f>
+        <f t="array" aca="1" ref="B103" ca="1">IF(AND(C103&lt;&gt;"",E103&lt;&gt;"")=TRUE, CELL("row",B103)-18,"")</f>
         <v/>
       </c>
       <c r="C103" s="32"/>
       <c r="D103" s="51"/>
       <c r="E103" s="42"/>
-      <c r="F103" s="143"/>
+      <c r="F103" s="115"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B104" s="31" cm="1">
-        <f t="array" aca="1" ref="B104" ca="1">IF(AND(C104&lt;&gt;"",E104&lt;&gt;"")=TRUE, CELL("row",B104)-17,"")</f>
-        <v>87</v>
-      </c>
-      <c r="C104" s="119">
-        <v>0</v>
-      </c>
-      <c r="D104" s="117" t="s">
-        <v>34</v>
-      </c>
-      <c r="E104" s="118" t="s">
-        <v>120</v>
-      </c>
-      <c r="F104" s="143" t="s">
-        <v>133</v>
-      </c>
+      <c r="B104" s="31" t="str" cm="1">
+        <f t="array" aca="1" ref="B104" ca="1">IF(AND(C104&lt;&gt;"",E104&lt;&gt;"")=TRUE, CELL("row",B104)-18,"")</f>
+        <v/>
+      </c>
+      <c r="C104" s="32"/>
+      <c r="D104" s="51"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="115"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="31" cm="1">
-        <f t="array" aca="1" ref="B105" ca="1">IF(AND(C105&lt;&gt;"",E105&lt;&gt;"")=TRUE, CELL("row",B105)-17,"")</f>
-        <v>88</v>
-      </c>
-      <c r="C105" s="32">
-        <v>3</v>
-      </c>
-      <c r="D105" s="51" t="s">
+        <f t="array" aca="1" ref="B105" ca="1">IF(AND(C105&lt;&gt;"",E105&lt;&gt;"")=TRUE, CELL("row",B105)-18,"")</f>
+        <v>87</v>
+      </c>
+      <c r="C105" s="114">
         <v>0</v>
       </c>
-      <c r="E105" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F105" s="143"/>
+      <c r="D105" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="115" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="31" cm="1">
-        <f t="array" aca="1" ref="B106" ca="1">IF(AND(C106&lt;&gt;"",E106&lt;&gt;"")=TRUE, CELL("row",B106)-17,"")</f>
-        <v>89</v>
+        <f t="array" aca="1" ref="B106" ca="1">IF(AND(C106&lt;&gt;"",E106&lt;&gt;"")=TRUE, CELL("row",B106)-18,"")</f>
+        <v>88</v>
       </c>
       <c r="C106" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D106" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F106" s="143"/>
+        <v>121</v>
+      </c>
+      <c r="F106" s="115"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="31" cm="1">
-        <f t="array" aca="1" ref="B107" ca="1">IF(AND(C107&lt;&gt;"",E107&lt;&gt;"")=TRUE, CELL("row",B107)-17,"")</f>
-        <v>90</v>
+        <f t="array" aca="1" ref="B107" ca="1">IF(AND(C107&lt;&gt;"",E107&lt;&gt;"")=TRUE, CELL("row",B107)-18,"")</f>
+        <v>89</v>
       </c>
       <c r="C107" s="32">
         <v>1</v>
@@ -10810,14 +11307,14 @@
         <v>1</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F107" s="143"/>
+        <v>122</v>
+      </c>
+      <c r="F107" s="115"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="31" cm="1">
-        <f t="array" aca="1" ref="B108" ca="1">IF(AND(C108&lt;&gt;"",E108&lt;&gt;"")=TRUE, CELL("row",B108)-17,"")</f>
-        <v>91</v>
+        <f t="array" aca="1" ref="B108" ca="1">IF(AND(C108&lt;&gt;"",E108&lt;&gt;"")=TRUE, CELL("row",B108)-18,"")</f>
+        <v>90</v>
       </c>
       <c r="C108" s="32">
         <v>1</v>
@@ -10826,14 +11323,14 @@
         <v>1</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F108" s="143"/>
+        <v>123</v>
+      </c>
+      <c r="F108" s="115"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="31" cm="1">
-        <f t="array" aca="1" ref="B109" ca="1">IF(AND(C109&lt;&gt;"",E109&lt;&gt;"")=TRUE, CELL("row",B109)-17,"")</f>
-        <v>92</v>
+        <f t="array" aca="1" ref="B109" ca="1">IF(AND(C109&lt;&gt;"",E109&lt;&gt;"")=TRUE, CELL("row",B109)-18,"")</f>
+        <v>91</v>
       </c>
       <c r="C109" s="32">
         <v>1</v>
@@ -10842,46 +11339,46 @@
         <v>1</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="F109" s="143"/>
+        <v>124</v>
+      </c>
+      <c r="F109" s="115"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="31" cm="1">
-        <f t="array" aca="1" ref="B110" ca="1">IF(AND(C110&lt;&gt;"",E110&lt;&gt;"")=TRUE, CELL("row",B110)-17,"")</f>
-        <v>93</v>
+        <f t="array" aca="1" ref="B110" ca="1">IF(AND(C110&lt;&gt;"",E110&lt;&gt;"")=TRUE, CELL("row",B110)-18,"")</f>
+        <v>92</v>
       </c>
       <c r="C110" s="32">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D110" s="51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="F110" s="143"/>
+        <v>125</v>
+      </c>
+      <c r="F110" s="115"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="31" cm="1">
-        <f t="array" aca="1" ref="B111" ca="1">IF(AND(C111&lt;&gt;"",E111&lt;&gt;"")=TRUE, CELL("row",B111)-17,"")</f>
-        <v>94</v>
+        <f t="array" aca="1" ref="B111" ca="1">IF(AND(C111&lt;&gt;"",E111&lt;&gt;"")=TRUE, CELL("row",B111)-18,"")</f>
+        <v>93</v>
       </c>
       <c r="C111" s="32">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D111" s="51" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="F111" s="143"/>
+        <v>127</v>
+      </c>
+      <c r="F111" s="115"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="31" cm="1">
-        <f t="array" aca="1" ref="B112" ca="1">IF(AND(C112&lt;&gt;"",E112&lt;&gt;"")=TRUE, CELL("row",B112)-17,"")</f>
-        <v>95</v>
+        <f t="array" aca="1" ref="B112" ca="1">IF(AND(C112&lt;&gt;"",E112&lt;&gt;"")=TRUE, CELL("row",B112)-18,"")</f>
+        <v>94</v>
       </c>
       <c r="C112" s="32">
         <v>1</v>
@@ -10890,2110 +11387,2132 @@
         <v>1</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F112" s="143"/>
+        <v>128</v>
+      </c>
+      <c r="F112" s="115"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B113" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B113" ca="1">IF(AND(C113&lt;&gt;"",E113&lt;&gt;"")=TRUE, CELL("row",B113)-17,"")</f>
-        <v/>
-      </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="42"/>
-      <c r="F113" s="143"/>
+      <c r="B113" s="31" cm="1">
+        <f t="array" aca="1" ref="B113" ca="1">IF(AND(C113&lt;&gt;"",E113&lt;&gt;"")=TRUE, CELL("row",B113)-18,"")</f>
+        <v>95</v>
+      </c>
+      <c r="C113" s="32">
+        <v>1</v>
+      </c>
+      <c r="D113" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F113" s="115"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B114" ca="1">IF(AND(C114&lt;&gt;"",E114&lt;&gt;"")=TRUE, CELL("row",B114)-17,"")</f>
+        <f t="array" aca="1" ref="B114" ca="1">IF(AND(C114&lt;&gt;"",E114&lt;&gt;"")=TRUE, CELL("row",B114)-18,"")</f>
         <v/>
       </c>
       <c r="C114" s="32"/>
       <c r="D114" s="51"/>
       <c r="E114" s="42"/>
-      <c r="F114" s="143"/>
+      <c r="F114" s="115"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B115" ca="1">IF(AND(C115&lt;&gt;"",E115&lt;&gt;"")=TRUE, CELL("row",B115)-17,"")</f>
+        <f t="array" aca="1" ref="B115" ca="1">IF(AND(C115&lt;&gt;"",E115&lt;&gt;"")=TRUE, CELL("row",B115)-18,"")</f>
         <v/>
       </c>
       <c r="C115" s="32"/>
       <c r="D115" s="51"/>
       <c r="E115" s="42"/>
-      <c r="F115" s="143"/>
+      <c r="F115" s="115"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B116" ca="1">IF(AND(C116&lt;&gt;"",E116&lt;&gt;"")=TRUE, CELL("row",B116)-17,"")</f>
+        <f t="array" aca="1" ref="B116" ca="1">IF(AND(C116&lt;&gt;"",E116&lt;&gt;"")=TRUE, CELL("row",B116)-18,"")</f>
         <v/>
       </c>
       <c r="C116" s="32"/>
       <c r="D116" s="51"/>
       <c r="E116" s="42"/>
-      <c r="F116" s="143"/>
+      <c r="F116" s="115"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B117" ca="1">IF(AND(C117&lt;&gt;"",E117&lt;&gt;"")=TRUE, CELL("row",B117)-17,"")</f>
+        <f t="array" aca="1" ref="B117" ca="1">IF(AND(C117&lt;&gt;"",E117&lt;&gt;"")=TRUE, CELL("row",B117)-18,"")</f>
         <v/>
       </c>
       <c r="C117" s="32"/>
       <c r="D117" s="51"/>
       <c r="E117" s="42"/>
-      <c r="F117" s="143"/>
+      <c r="F117" s="115"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B118" ca="1">IF(AND(C118&lt;&gt;"",E118&lt;&gt;"")=TRUE, CELL("row",B118)-17,"")</f>
+        <f t="array" aca="1" ref="B118" ca="1">IF(AND(C118&lt;&gt;"",E118&lt;&gt;"")=TRUE, CELL("row",B118)-18,"")</f>
         <v/>
       </c>
       <c r="C118" s="32"/>
       <c r="D118" s="51"/>
       <c r="E118" s="42"/>
-      <c r="F118" s="143"/>
+      <c r="F118" s="115"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B119" ca="1">IF(AND(C119&lt;&gt;"",E119&lt;&gt;"")=TRUE, CELL("row",B119)-17,"")</f>
+        <f t="array" aca="1" ref="B119" ca="1">IF(AND(C119&lt;&gt;"",E119&lt;&gt;"")=TRUE, CELL("row",B119)-18,"")</f>
         <v/>
       </c>
       <c r="C119" s="32"/>
       <c r="D119" s="51"/>
       <c r="E119" s="42"/>
-      <c r="F119" s="143"/>
+      <c r="F119" s="115"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B120" ca="1">IF(AND(C120&lt;&gt;"",E120&lt;&gt;"")=TRUE, CELL("row",B120)-17,"")</f>
+        <f t="array" aca="1" ref="B120" ca="1">IF(AND(C120&lt;&gt;"",E120&lt;&gt;"")=TRUE, CELL("row",B120)-18,"")</f>
         <v/>
       </c>
       <c r="C120" s="32"/>
       <c r="D120" s="51"/>
       <c r="E120" s="42"/>
-      <c r="F120" s="143"/>
+      <c r="F120" s="115"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B121" ca="1">IF(AND(C121&lt;&gt;"",E121&lt;&gt;"")=TRUE, CELL("row",B121)-17,"")</f>
+        <f t="array" aca="1" ref="B121" ca="1">IF(AND(C121&lt;&gt;"",E121&lt;&gt;"")=TRUE, CELL("row",B121)-18,"")</f>
         <v/>
       </c>
       <c r="C121" s="32"/>
       <c r="D121" s="51"/>
       <c r="E121" s="42"/>
-      <c r="F121" s="143"/>
+      <c r="F121" s="115"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B122" ca="1">IF(AND(C122&lt;&gt;"",E122&lt;&gt;"")=TRUE, CELL("row",B122)-17,"")</f>
+        <f t="array" aca="1" ref="B122" ca="1">IF(AND(C122&lt;&gt;"",E122&lt;&gt;"")=TRUE, CELL("row",B122)-18,"")</f>
         <v/>
       </c>
       <c r="C122" s="32"/>
       <c r="D122" s="51"/>
       <c r="E122" s="42"/>
-      <c r="F122" s="143"/>
+      <c r="F122" s="115"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B123" ca="1">IF(AND(C123&lt;&gt;"",E123&lt;&gt;"")=TRUE, CELL("row",B123)-17,"")</f>
+        <f t="array" aca="1" ref="B123" ca="1">IF(AND(C123&lt;&gt;"",E123&lt;&gt;"")=TRUE, CELL("row",B123)-18,"")</f>
         <v/>
       </c>
       <c r="C123" s="32"/>
       <c r="D123" s="51"/>
       <c r="E123" s="42"/>
-      <c r="F123" s="143"/>
+      <c r="F123" s="115"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B124" ca="1">IF(AND(C124&lt;&gt;"",E124&lt;&gt;"")=TRUE, CELL("row",B124)-17,"")</f>
+        <f t="array" aca="1" ref="B124" ca="1">IF(AND(C124&lt;&gt;"",E124&lt;&gt;"")=TRUE, CELL("row",B124)-18,"")</f>
         <v/>
       </c>
       <c r="C124" s="32"/>
       <c r="D124" s="51"/>
       <c r="E124" s="42"/>
-      <c r="F124" s="143"/>
+      <c r="F124" s="115"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B125" ca="1">IF(AND(C125&lt;&gt;"",E125&lt;&gt;"")=TRUE, CELL("row",B125)-17,"")</f>
+        <f t="array" aca="1" ref="B125" ca="1">IF(AND(C125&lt;&gt;"",E125&lt;&gt;"")=TRUE, CELL("row",B125)-18,"")</f>
         <v/>
       </c>
       <c r="C125" s="32"/>
       <c r="D125" s="51"/>
       <c r="E125" s="42"/>
-      <c r="F125" s="143"/>
+      <c r="F125" s="115"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B126" ca="1">IF(AND(C126&lt;&gt;"",E126&lt;&gt;"")=TRUE, CELL("row",B126)-17,"")</f>
+        <f t="array" aca="1" ref="B126" ca="1">IF(AND(C126&lt;&gt;"",E126&lt;&gt;"")=TRUE, CELL("row",B126)-18,"")</f>
         <v/>
       </c>
       <c r="C126" s="32"/>
       <c r="D126" s="51"/>
       <c r="E126" s="42"/>
-      <c r="F126" s="143"/>
+      <c r="F126" s="115"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B127" ca="1">IF(AND(C127&lt;&gt;"",E127&lt;&gt;"")=TRUE, CELL("row",B127)-17,"")</f>
+        <f t="array" aca="1" ref="B127" ca="1">IF(AND(C127&lt;&gt;"",E127&lt;&gt;"")=TRUE, CELL("row",B127)-18,"")</f>
         <v/>
       </c>
       <c r="C127" s="32"/>
       <c r="D127" s="51"/>
       <c r="E127" s="42"/>
-      <c r="F127" s="143"/>
+      <c r="F127" s="115"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B128" ca="1">IF(AND(C128&lt;&gt;"",E128&lt;&gt;"")=TRUE, CELL("row",B128)-17,"")</f>
+        <f t="array" aca="1" ref="B128" ca="1">IF(AND(C128&lt;&gt;"",E128&lt;&gt;"")=TRUE, CELL("row",B128)-18,"")</f>
         <v/>
       </c>
       <c r="C128" s="32"/>
       <c r="D128" s="51"/>
       <c r="E128" s="42"/>
-      <c r="F128" s="143"/>
+      <c r="F128" s="115"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B129" ca="1">IF(AND(C129&lt;&gt;"",E129&lt;&gt;"")=TRUE, CELL("row",B129)-17,"")</f>
+        <f t="array" aca="1" ref="B129" ca="1">IF(AND(C129&lt;&gt;"",E129&lt;&gt;"")=TRUE, CELL("row",B129)-18,"")</f>
         <v/>
       </c>
       <c r="C129" s="32"/>
       <c r="D129" s="51"/>
       <c r="E129" s="42"/>
-      <c r="F129" s="143"/>
+      <c r="F129" s="115"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B130" ca="1">IF(AND(C130&lt;&gt;"",E130&lt;&gt;"")=TRUE, CELL("row",B130)-17,"")</f>
+        <f t="array" aca="1" ref="B130" ca="1">IF(AND(C130&lt;&gt;"",E130&lt;&gt;"")=TRUE, CELL("row",B130)-18,"")</f>
         <v/>
       </c>
       <c r="C130" s="32"/>
       <c r="D130" s="51"/>
       <c r="E130" s="42"/>
-      <c r="F130" s="143"/>
+      <c r="F130" s="115"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B131" ca="1">IF(AND(C131&lt;&gt;"",E131&lt;&gt;"")=TRUE, CELL("row",B131)-17,"")</f>
+        <f t="array" aca="1" ref="B131" ca="1">IF(AND(C131&lt;&gt;"",E131&lt;&gt;"")=TRUE, CELL("row",B131)-18,"")</f>
         <v/>
       </c>
       <c r="C131" s="32"/>
       <c r="D131" s="51"/>
       <c r="E131" s="42"/>
-      <c r="F131" s="143"/>
+      <c r="F131" s="115"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B132" ca="1">IF(AND(C132&lt;&gt;"",E132&lt;&gt;"")=TRUE, CELL("row",B132)-17,"")</f>
+        <f t="array" aca="1" ref="B132" ca="1">IF(AND(C132&lt;&gt;"",E132&lt;&gt;"")=TRUE, CELL("row",B132)-18,"")</f>
         <v/>
       </c>
       <c r="C132" s="32"/>
       <c r="D132" s="51"/>
       <c r="E132" s="42"/>
-      <c r="F132" s="143"/>
+      <c r="F132" s="115"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B133" ca="1">IF(AND(C133&lt;&gt;"",E133&lt;&gt;"")=TRUE, CELL("row",B133)-17,"")</f>
+        <f t="array" aca="1" ref="B133" ca="1">IF(AND(C133&lt;&gt;"",E133&lt;&gt;"")=TRUE, CELL("row",B133)-18,"")</f>
         <v/>
       </c>
       <c r="C133" s="32"/>
       <c r="D133" s="51"/>
       <c r="E133" s="42"/>
-      <c r="F133" s="143"/>
+      <c r="F133" s="115"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B134" ca="1">IF(AND(C134&lt;&gt;"",E134&lt;&gt;"")=TRUE, CELL("row",B134)-17,"")</f>
+        <f t="array" aca="1" ref="B134" ca="1">IF(AND(C134&lt;&gt;"",E134&lt;&gt;"")=TRUE, CELL("row",B134)-18,"")</f>
         <v/>
       </c>
       <c r="C134" s="32"/>
       <c r="D134" s="51"/>
       <c r="E134" s="42"/>
-      <c r="F134" s="143"/>
+      <c r="F134" s="115"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B135" ca="1">IF(AND(C135&lt;&gt;"",E135&lt;&gt;"")=TRUE, CELL("row",B135)-17,"")</f>
+        <f t="array" aca="1" ref="B135" ca="1">IF(AND(C135&lt;&gt;"",E135&lt;&gt;"")=TRUE, CELL("row",B135)-18,"")</f>
         <v/>
       </c>
       <c r="C135" s="32"/>
       <c r="D135" s="51"/>
       <c r="E135" s="42"/>
-      <c r="F135" s="143"/>
+      <c r="F135" s="115"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B136" ca="1">IF(AND(C136&lt;&gt;"",E136&lt;&gt;"")=TRUE, CELL("row",B136)-17,"")</f>
+        <f t="array" aca="1" ref="B136" ca="1">IF(AND(C136&lt;&gt;"",E136&lt;&gt;"")=TRUE, CELL("row",B136)-18,"")</f>
         <v/>
       </c>
       <c r="C136" s="32"/>
       <c r="D136" s="51"/>
       <c r="E136" s="42"/>
-      <c r="F136" s="143"/>
+      <c r="F136" s="115"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B137" ca="1">IF(AND(C137&lt;&gt;"",E137&lt;&gt;"")=TRUE, CELL("row",B137)-17,"")</f>
+        <f t="array" aca="1" ref="B137" ca="1">IF(AND(C137&lt;&gt;"",E137&lt;&gt;"")=TRUE, CELL("row",B137)-18,"")</f>
         <v/>
       </c>
       <c r="C137" s="32"/>
       <c r="D137" s="51"/>
       <c r="E137" s="42"/>
-      <c r="F137" s="143"/>
+      <c r="F137" s="115"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B138" ca="1">IF(AND(C138&lt;&gt;"",E138&lt;&gt;"")=TRUE, CELL("row",B138)-17,"")</f>
+        <f t="array" aca="1" ref="B138" ca="1">IF(AND(C138&lt;&gt;"",E138&lt;&gt;"")=TRUE, CELL("row",B138)-18,"")</f>
         <v/>
       </c>
       <c r="C138" s="32"/>
       <c r="D138" s="51"/>
       <c r="E138" s="42"/>
-      <c r="F138" s="143"/>
+      <c r="F138" s="115"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B139" ca="1">IF(AND(C139&lt;&gt;"",E139&lt;&gt;"")=TRUE, CELL("row",B139)-17,"")</f>
+        <f t="array" aca="1" ref="B139" ca="1">IF(AND(C139&lt;&gt;"",E139&lt;&gt;"")=TRUE, CELL("row",B139)-18,"")</f>
         <v/>
       </c>
       <c r="C139" s="32"/>
       <c r="D139" s="51"/>
       <c r="E139" s="42"/>
-      <c r="F139" s="143"/>
+      <c r="F139" s="115"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B140" ca="1">IF(AND(C140&lt;&gt;"",E140&lt;&gt;"")=TRUE, CELL("row",B140)-17,"")</f>
+        <f t="array" aca="1" ref="B140" ca="1">IF(AND(C140&lt;&gt;"",E140&lt;&gt;"")=TRUE, CELL("row",B140)-18,"")</f>
         <v/>
       </c>
       <c r="C140" s="32"/>
       <c r="D140" s="51"/>
       <c r="E140" s="42"/>
-      <c r="F140" s="143"/>
+      <c r="F140" s="115"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B141" ca="1">IF(AND(C141&lt;&gt;"",E141&lt;&gt;"")=TRUE, CELL("row",B141)-17,"")</f>
+        <f t="array" aca="1" ref="B141" ca="1">IF(AND(C141&lt;&gt;"",E141&lt;&gt;"")=TRUE, CELL("row",B141)-18,"")</f>
         <v/>
       </c>
       <c r="C141" s="32"/>
       <c r="D141" s="51"/>
       <c r="E141" s="42"/>
-      <c r="F141" s="143"/>
+      <c r="F141" s="115"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B142" ca="1">IF(AND(C142&lt;&gt;"",E142&lt;&gt;"")=TRUE, CELL("row",B142)-17,"")</f>
+        <f t="array" aca="1" ref="B142" ca="1">IF(AND(C142&lt;&gt;"",E142&lt;&gt;"")=TRUE, CELL("row",B142)-18,"")</f>
         <v/>
       </c>
       <c r="C142" s="32"/>
       <c r="D142" s="51"/>
       <c r="E142" s="42"/>
-      <c r="F142" s="143"/>
+      <c r="F142" s="115"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B143" ca="1">IF(AND(C143&lt;&gt;"",E143&lt;&gt;"")=TRUE, CELL("row",B143)-17,"")</f>
+        <f t="array" aca="1" ref="B143" ca="1">IF(AND(C143&lt;&gt;"",E143&lt;&gt;"")=TRUE, CELL("row",B143)-18,"")</f>
         <v/>
       </c>
       <c r="C143" s="32"/>
       <c r="D143" s="51"/>
       <c r="E143" s="42"/>
-      <c r="F143" s="143"/>
+      <c r="F143" s="115"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B144" ca="1">IF(AND(C144&lt;&gt;"",E144&lt;&gt;"")=TRUE, CELL("row",B144)-17,"")</f>
+        <f t="array" aca="1" ref="B144" ca="1">IF(AND(C144&lt;&gt;"",E144&lt;&gt;"")=TRUE, CELL("row",B144)-18,"")</f>
         <v/>
       </c>
       <c r="C144" s="32"/>
       <c r="D144" s="51"/>
       <c r="E144" s="42"/>
-      <c r="F144" s="143"/>
+      <c r="F144" s="115"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B145" ca="1">IF(AND(C145&lt;&gt;"",E145&lt;&gt;"")=TRUE, CELL("row",B145)-17,"")</f>
+        <f t="array" aca="1" ref="B145" ca="1">IF(AND(C145&lt;&gt;"",E145&lt;&gt;"")=TRUE, CELL("row",B145)-18,"")</f>
         <v/>
       </c>
       <c r="C145" s="32"/>
       <c r="D145" s="51"/>
       <c r="E145" s="42"/>
-      <c r="F145" s="143"/>
+      <c r="F145" s="115"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B146" ca="1">IF(AND(C146&lt;&gt;"",E146&lt;&gt;"")=TRUE, CELL("row",B146)-17,"")</f>
+        <f t="array" aca="1" ref="B146" ca="1">IF(AND(C146&lt;&gt;"",E146&lt;&gt;"")=TRUE, CELL("row",B146)-18,"")</f>
         <v/>
       </c>
       <c r="C146" s="32"/>
       <c r="D146" s="51"/>
       <c r="E146" s="42"/>
-      <c r="F146" s="143"/>
+      <c r="F146" s="115"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B147" ca="1">IF(AND(C147&lt;&gt;"",E147&lt;&gt;"")=TRUE, CELL("row",B147)-17,"")</f>
+        <f t="array" aca="1" ref="B147" ca="1">IF(AND(C147&lt;&gt;"",E147&lt;&gt;"")=TRUE, CELL("row",B147)-18,"")</f>
         <v/>
       </c>
       <c r="C147" s="32"/>
       <c r="D147" s="51"/>
       <c r="E147" s="42"/>
-      <c r="F147" s="143"/>
+      <c r="F147" s="115"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B148" ca="1">IF(AND(C148&lt;&gt;"",E148&lt;&gt;"")=TRUE, CELL("row",B148)-17,"")</f>
+        <f t="array" aca="1" ref="B148" ca="1">IF(AND(C148&lt;&gt;"",E148&lt;&gt;"")=TRUE, CELL("row",B148)-18,"")</f>
         <v/>
       </c>
       <c r="C148" s="32"/>
       <c r="D148" s="51"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="143"/>
+      <c r="F148" s="115"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B149" ca="1">IF(AND(C149&lt;&gt;"",E149&lt;&gt;"")=TRUE, CELL("row",B149)-17,"")</f>
+        <f t="array" aca="1" ref="B149" ca="1">IF(AND(C149&lt;&gt;"",E149&lt;&gt;"")=TRUE, CELL("row",B149)-18,"")</f>
         <v/>
       </c>
       <c r="C149" s="32"/>
       <c r="D149" s="51"/>
       <c r="E149" s="42"/>
-      <c r="F149" s="143"/>
+      <c r="F149" s="115"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B150" ca="1">IF(AND(C150&lt;&gt;"",E150&lt;&gt;"")=TRUE, CELL("row",B150)-17,"")</f>
+        <f t="array" aca="1" ref="B150" ca="1">IF(AND(C150&lt;&gt;"",E150&lt;&gt;"")=TRUE, CELL("row",B150)-18,"")</f>
         <v/>
       </c>
       <c r="C150" s="32"/>
       <c r="D150" s="51"/>
       <c r="E150" s="42"/>
-      <c r="F150" s="143"/>
+      <c r="F150" s="115"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B151" ca="1">IF(AND(C151&lt;&gt;"",E151&lt;&gt;"")=TRUE, CELL("row",B151)-17,"")</f>
+        <f t="array" aca="1" ref="B151" ca="1">IF(AND(C151&lt;&gt;"",E151&lt;&gt;"")=TRUE, CELL("row",B151)-18,"")</f>
         <v/>
       </c>
       <c r="C151" s="32"/>
       <c r="D151" s="51"/>
       <c r="E151" s="42"/>
-      <c r="F151" s="143"/>
+      <c r="F151" s="115"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B152" ca="1">IF(AND(C152&lt;&gt;"",E152&lt;&gt;"")=TRUE, CELL("row",B152)-17,"")</f>
+        <f t="array" aca="1" ref="B152" ca="1">IF(AND(C152&lt;&gt;"",E152&lt;&gt;"")=TRUE, CELL("row",B152)-18,"")</f>
         <v/>
       </c>
       <c r="C152" s="32"/>
       <c r="D152" s="51"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="143"/>
+      <c r="F152" s="115"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B153" ca="1">IF(AND(C153&lt;&gt;"",E153&lt;&gt;"")=TRUE, CELL("row",B153)-17,"")</f>
+        <f t="array" aca="1" ref="B153" ca="1">IF(AND(C153&lt;&gt;"",E153&lt;&gt;"")=TRUE, CELL("row",B153)-18,"")</f>
         <v/>
       </c>
       <c r="C153" s="32"/>
       <c r="D153" s="51"/>
       <c r="E153" s="42"/>
-      <c r="F153" s="143"/>
+      <c r="F153" s="115"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B154" ca="1">IF(AND(C154&lt;&gt;"",E154&lt;&gt;"")=TRUE, CELL("row",B154)-17,"")</f>
+        <f t="array" aca="1" ref="B154" ca="1">IF(AND(C154&lt;&gt;"",E154&lt;&gt;"")=TRUE, CELL("row",B154)-18,"")</f>
         <v/>
       </c>
       <c r="C154" s="32"/>
       <c r="D154" s="51"/>
       <c r="E154" s="42"/>
-      <c r="F154" s="143"/>
+      <c r="F154" s="115"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B155" ca="1">IF(AND(C155&lt;&gt;"",E155&lt;&gt;"")=TRUE, CELL("row",B155)-17,"")</f>
+        <f t="array" aca="1" ref="B155" ca="1">IF(AND(C155&lt;&gt;"",E155&lt;&gt;"")=TRUE, CELL("row",B155)-18,"")</f>
         <v/>
       </c>
       <c r="C155" s="32"/>
       <c r="D155" s="51"/>
       <c r="E155" s="42"/>
-      <c r="F155" s="143"/>
+      <c r="F155" s="115"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B156" ca="1">IF(AND(C156&lt;&gt;"",E156&lt;&gt;"")=TRUE, CELL("row",B156)-17,"")</f>
+        <f t="array" aca="1" ref="B156" ca="1">IF(AND(C156&lt;&gt;"",E156&lt;&gt;"")=TRUE, CELL("row",B156)-18,"")</f>
         <v/>
       </c>
       <c r="C156" s="32"/>
       <c r="D156" s="51"/>
       <c r="E156" s="42"/>
-      <c r="F156" s="143"/>
+      <c r="F156" s="115"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B157" ca="1">IF(AND(C157&lt;&gt;"",E157&lt;&gt;"")=TRUE, CELL("row",B157)-17,"")</f>
+        <f t="array" aca="1" ref="B157" ca="1">IF(AND(C157&lt;&gt;"",E157&lt;&gt;"")=TRUE, CELL("row",B157)-18,"")</f>
         <v/>
       </c>
       <c r="C157" s="32"/>
       <c r="D157" s="51"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="143"/>
+      <c r="F157" s="115"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B158" ca="1">IF(AND(C158&lt;&gt;"",E158&lt;&gt;"")=TRUE, CELL("row",B158)-17,"")</f>
+        <f t="array" aca="1" ref="B158" ca="1">IF(AND(C158&lt;&gt;"",E158&lt;&gt;"")=TRUE, CELL("row",B158)-18,"")</f>
         <v/>
       </c>
       <c r="C158" s="32"/>
       <c r="D158" s="51"/>
       <c r="E158" s="42"/>
-      <c r="F158" s="143"/>
+      <c r="F158" s="115"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B159" ca="1">IF(AND(C159&lt;&gt;"",E159&lt;&gt;"")=TRUE, CELL("row",B159)-17,"")</f>
+        <f t="array" aca="1" ref="B159" ca="1">IF(AND(C159&lt;&gt;"",E159&lt;&gt;"")=TRUE, CELL("row",B159)-18,"")</f>
         <v/>
       </c>
       <c r="C159" s="32"/>
       <c r="D159" s="51"/>
       <c r="E159" s="42"/>
-      <c r="F159" s="143"/>
+      <c r="F159" s="115"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B160" ca="1">IF(AND(C160&lt;&gt;"",E160&lt;&gt;"")=TRUE, CELL("row",B160)-17,"")</f>
+        <f t="array" aca="1" ref="B160" ca="1">IF(AND(C160&lt;&gt;"",E160&lt;&gt;"")=TRUE, CELL("row",B160)-18,"")</f>
         <v/>
       </c>
       <c r="C160" s="32"/>
       <c r="D160" s="51"/>
       <c r="E160" s="42"/>
-      <c r="F160" s="143"/>
+      <c r="F160" s="115"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B161" ca="1">IF(AND(C161&lt;&gt;"",E161&lt;&gt;"")=TRUE, CELL("row",B161)-17,"")</f>
+        <f t="array" aca="1" ref="B161" ca="1">IF(AND(C161&lt;&gt;"",E161&lt;&gt;"")=TRUE, CELL("row",B161)-18,"")</f>
         <v/>
       </c>
       <c r="C161" s="32"/>
       <c r="D161" s="51"/>
       <c r="E161" s="42"/>
-      <c r="F161" s="143"/>
+      <c r="F161" s="115"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B162" ca="1">IF(AND(C162&lt;&gt;"",E162&lt;&gt;"")=TRUE, CELL("row",B162)-17,"")</f>
+        <f t="array" aca="1" ref="B162" ca="1">IF(AND(C162&lt;&gt;"",E162&lt;&gt;"")=TRUE, CELL("row",B162)-18,"")</f>
         <v/>
       </c>
       <c r="C162" s="32"/>
       <c r="D162" s="51"/>
       <c r="E162" s="42"/>
-      <c r="F162" s="143"/>
+      <c r="F162" s="115"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B163" ca="1">IF(AND(C163&lt;&gt;"",E163&lt;&gt;"")=TRUE, CELL("row",B163)-17,"")</f>
+        <f t="array" aca="1" ref="B163" ca="1">IF(AND(C163&lt;&gt;"",E163&lt;&gt;"")=TRUE, CELL("row",B163)-18,"")</f>
         <v/>
       </c>
       <c r="C163" s="32"/>
       <c r="D163" s="51"/>
       <c r="E163" s="42"/>
-      <c r="F163" s="143"/>
+      <c r="F163" s="115"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B164" ca="1">IF(AND(C164&lt;&gt;"",E164&lt;&gt;"")=TRUE, CELL("row",B164)-17,"")</f>
+        <f t="array" aca="1" ref="B164" ca="1">IF(AND(C164&lt;&gt;"",E164&lt;&gt;"")=TRUE, CELL("row",B164)-18,"")</f>
         <v/>
       </c>
       <c r="C164" s="32"/>
       <c r="D164" s="51"/>
       <c r="E164" s="42"/>
-      <c r="F164" s="143"/>
+      <c r="F164" s="115"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B165" ca="1">IF(AND(C165&lt;&gt;"",E165&lt;&gt;"")=TRUE, CELL("row",B165)-17,"")</f>
+        <f t="array" aca="1" ref="B165" ca="1">IF(AND(C165&lt;&gt;"",E165&lt;&gt;"")=TRUE, CELL("row",B165)-18,"")</f>
         <v/>
       </c>
       <c r="C165" s="32"/>
       <c r="D165" s="51"/>
       <c r="E165" s="42"/>
-      <c r="F165" s="143"/>
+      <c r="F165" s="115"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B166" ca="1">IF(AND(C166&lt;&gt;"",E166&lt;&gt;"")=TRUE, CELL("row",B166)-17,"")</f>
+        <f t="array" aca="1" ref="B166" ca="1">IF(AND(C166&lt;&gt;"",E166&lt;&gt;"")=TRUE, CELL("row",B166)-18,"")</f>
         <v/>
       </c>
       <c r="C166" s="32"/>
       <c r="D166" s="51"/>
       <c r="E166" s="42"/>
-      <c r="F166" s="143"/>
+      <c r="F166" s="115"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B167" ca="1">IF(AND(C167&lt;&gt;"",E167&lt;&gt;"")=TRUE, CELL("row",B167)-17,"")</f>
+        <f t="array" aca="1" ref="B167" ca="1">IF(AND(C167&lt;&gt;"",E167&lt;&gt;"")=TRUE, CELL("row",B167)-18,"")</f>
         <v/>
       </c>
       <c r="C167" s="32"/>
       <c r="D167" s="51"/>
       <c r="E167" s="42"/>
-      <c r="F167" s="143"/>
+      <c r="F167" s="115"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B168" ca="1">IF(AND(C168&lt;&gt;"",E168&lt;&gt;"")=TRUE, CELL("row",B168)-17,"")</f>
+        <f t="array" aca="1" ref="B168" ca="1">IF(AND(C168&lt;&gt;"",E168&lt;&gt;"")=TRUE, CELL("row",B168)-18,"")</f>
         <v/>
       </c>
       <c r="C168" s="32"/>
       <c r="D168" s="51"/>
       <c r="E168" s="42"/>
-      <c r="F168" s="143"/>
+      <c r="F168" s="115"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B169" ca="1">IF(AND(C169&lt;&gt;"",E169&lt;&gt;"")=TRUE, CELL("row",B169)-17,"")</f>
+        <f t="array" aca="1" ref="B169" ca="1">IF(AND(C169&lt;&gt;"",E169&lt;&gt;"")=TRUE, CELL("row",B169)-18,"")</f>
         <v/>
       </c>
       <c r="C169" s="32"/>
       <c r="D169" s="51"/>
       <c r="E169" s="42"/>
-      <c r="F169" s="143"/>
+      <c r="F169" s="115"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B170" ca="1">IF(AND(C170&lt;&gt;"",E170&lt;&gt;"")=TRUE, CELL("row",B170)-17,"")</f>
+        <f t="array" aca="1" ref="B170" ca="1">IF(AND(C170&lt;&gt;"",E170&lt;&gt;"")=TRUE, CELL("row",B170)-18,"")</f>
         <v/>
       </c>
       <c r="C170" s="32"/>
       <c r="D170" s="51"/>
       <c r="E170" s="42"/>
-      <c r="F170" s="143"/>
+      <c r="F170" s="115"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B171" ca="1">IF(AND(C171&lt;&gt;"",E171&lt;&gt;"")=TRUE, CELL("row",B171)-17,"")</f>
+        <f t="array" aca="1" ref="B171" ca="1">IF(AND(C171&lt;&gt;"",E171&lt;&gt;"")=TRUE, CELL("row",B171)-18,"")</f>
         <v/>
       </c>
       <c r="C171" s="32"/>
       <c r="D171" s="51"/>
       <c r="E171" s="42"/>
-      <c r="F171" s="143"/>
+      <c r="F171" s="115"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B172" ca="1">IF(AND(C172&lt;&gt;"",E172&lt;&gt;"")=TRUE, CELL("row",B172)-17,"")</f>
+        <f t="array" aca="1" ref="B172" ca="1">IF(AND(C172&lt;&gt;"",E172&lt;&gt;"")=TRUE, CELL("row",B172)-18,"")</f>
         <v/>
       </c>
       <c r="C172" s="32"/>
       <c r="D172" s="51"/>
       <c r="E172" s="42"/>
-      <c r="F172" s="143"/>
+      <c r="F172" s="115"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B173" ca="1">IF(AND(C173&lt;&gt;"",E173&lt;&gt;"")=TRUE, CELL("row",B173)-17,"")</f>
+        <f t="array" aca="1" ref="B173" ca="1">IF(AND(C173&lt;&gt;"",E173&lt;&gt;"")=TRUE, CELL("row",B173)-18,"")</f>
         <v/>
       </c>
       <c r="C173" s="32"/>
       <c r="D173" s="51"/>
       <c r="E173" s="42"/>
-      <c r="F173" s="143"/>
+      <c r="F173" s="115"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B174" ca="1">IF(AND(C174&lt;&gt;"",E174&lt;&gt;"")=TRUE, CELL("row",B174)-17,"")</f>
+        <f t="array" aca="1" ref="B174" ca="1">IF(AND(C174&lt;&gt;"",E174&lt;&gt;"")=TRUE, CELL("row",B174)-18,"")</f>
         <v/>
       </c>
       <c r="C174" s="32"/>
       <c r="D174" s="51"/>
       <c r="E174" s="42"/>
-      <c r="F174" s="143"/>
+      <c r="F174" s="115"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B175" ca="1">IF(AND(C175&lt;&gt;"",E175&lt;&gt;"")=TRUE, CELL("row",B175)-17,"")</f>
+        <f t="array" aca="1" ref="B175" ca="1">IF(AND(C175&lt;&gt;"",E175&lt;&gt;"")=TRUE, CELL("row",B175)-18,"")</f>
         <v/>
       </c>
       <c r="C175" s="32"/>
       <c r="D175" s="51"/>
       <c r="E175" s="42"/>
-      <c r="F175" s="143"/>
+      <c r="F175" s="115"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B176" ca="1">IF(AND(C176&lt;&gt;"",E176&lt;&gt;"")=TRUE, CELL("row",B176)-17,"")</f>
+        <f t="array" aca="1" ref="B176" ca="1">IF(AND(C176&lt;&gt;"",E176&lt;&gt;"")=TRUE, CELL("row",B176)-18,"")</f>
         <v/>
       </c>
       <c r="C176" s="32"/>
       <c r="D176" s="51"/>
       <c r="E176" s="42"/>
-      <c r="F176" s="143"/>
+      <c r="F176" s="115"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B177" ca="1">IF(AND(C177&lt;&gt;"",E177&lt;&gt;"")=TRUE, CELL("row",B177)-17,"")</f>
+        <f t="array" aca="1" ref="B177" ca="1">IF(AND(C177&lt;&gt;"",E177&lt;&gt;"")=TRUE, CELL("row",B177)-18,"")</f>
         <v/>
       </c>
       <c r="C177" s="32"/>
       <c r="D177" s="51"/>
       <c r="E177" s="42"/>
-      <c r="F177" s="143"/>
+      <c r="F177" s="115"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B178" ca="1">IF(AND(C178&lt;&gt;"",E178&lt;&gt;"")=TRUE, CELL("row",B178)-17,"")</f>
+        <f t="array" aca="1" ref="B178" ca="1">IF(AND(C178&lt;&gt;"",E178&lt;&gt;"")=TRUE, CELL("row",B178)-18,"")</f>
         <v/>
       </c>
       <c r="C178" s="32"/>
       <c r="D178" s="51"/>
       <c r="E178" s="42"/>
-      <c r="F178" s="143"/>
+      <c r="F178" s="115"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B179" ca="1">IF(AND(C179&lt;&gt;"",E179&lt;&gt;"")=TRUE, CELL("row",B179)-17,"")</f>
+        <f t="array" aca="1" ref="B179" ca="1">IF(AND(C179&lt;&gt;"",E179&lt;&gt;"")=TRUE, CELL("row",B179)-18,"")</f>
         <v/>
       </c>
       <c r="C179" s="32"/>
       <c r="D179" s="51"/>
       <c r="E179" s="42"/>
-      <c r="F179" s="143"/>
+      <c r="F179" s="115"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B180" ca="1">IF(AND(C180&lt;&gt;"",E180&lt;&gt;"")=TRUE, CELL("row",B180)-17,"")</f>
+        <f t="array" aca="1" ref="B180" ca="1">IF(AND(C180&lt;&gt;"",E180&lt;&gt;"")=TRUE, CELL("row",B180)-18,"")</f>
         <v/>
       </c>
       <c r="C180" s="32"/>
       <c r="D180" s="51"/>
       <c r="E180" s="42"/>
-      <c r="F180" s="143"/>
+      <c r="F180" s="115"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B181" ca="1">IF(AND(C181&lt;&gt;"",E181&lt;&gt;"")=TRUE, CELL("row",B181)-17,"")</f>
+        <f t="array" aca="1" ref="B181" ca="1">IF(AND(C181&lt;&gt;"",E181&lt;&gt;"")=TRUE, CELL("row",B181)-18,"")</f>
         <v/>
       </c>
       <c r="C181" s="32"/>
       <c r="D181" s="51"/>
       <c r="E181" s="42"/>
-      <c r="F181" s="143"/>
+      <c r="F181" s="115"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B182" ca="1">IF(AND(C182&lt;&gt;"",E182&lt;&gt;"")=TRUE, CELL("row",B182)-17,"")</f>
+        <f t="array" aca="1" ref="B182" ca="1">IF(AND(C182&lt;&gt;"",E182&lt;&gt;"")=TRUE, CELL("row",B182)-18,"")</f>
         <v/>
       </c>
       <c r="C182" s="32"/>
       <c r="D182" s="51"/>
       <c r="E182" s="42"/>
-      <c r="F182" s="143"/>
+      <c r="F182" s="115"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B183" ca="1">IF(AND(C183&lt;&gt;"",E183&lt;&gt;"")=TRUE, CELL("row",B183)-17,"")</f>
+        <f t="array" aca="1" ref="B183" ca="1">IF(AND(C183&lt;&gt;"",E183&lt;&gt;"")=TRUE, CELL("row",B183)-18,"")</f>
         <v/>
       </c>
       <c r="C183" s="32"/>
       <c r="D183" s="51"/>
       <c r="E183" s="42"/>
-      <c r="F183" s="143"/>
+      <c r="F183" s="115"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B184" ca="1">IF(AND(C184&lt;&gt;"",E184&lt;&gt;"")=TRUE, CELL("row",B184)-17,"")</f>
+        <f t="array" aca="1" ref="B184" ca="1">IF(AND(C184&lt;&gt;"",E184&lt;&gt;"")=TRUE, CELL("row",B184)-18,"")</f>
         <v/>
       </c>
       <c r="C184" s="32"/>
       <c r="D184" s="51"/>
       <c r="E184" s="42"/>
-      <c r="F184" s="143"/>
+      <c r="F184" s="115"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B185" ca="1">IF(AND(C185&lt;&gt;"",E185&lt;&gt;"")=TRUE, CELL("row",B185)-17,"")</f>
+        <f t="array" aca="1" ref="B185" ca="1">IF(AND(C185&lt;&gt;"",E185&lt;&gt;"")=TRUE, CELL("row",B185)-18,"")</f>
         <v/>
       </c>
       <c r="C185" s="32"/>
       <c r="D185" s="51"/>
       <c r="E185" s="42"/>
-      <c r="F185" s="143"/>
+      <c r="F185" s="115"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B186" ca="1">IF(AND(C186&lt;&gt;"",E186&lt;&gt;"")=TRUE, CELL("row",B186)-17,"")</f>
+        <f t="array" aca="1" ref="B186" ca="1">IF(AND(C186&lt;&gt;"",E186&lt;&gt;"")=TRUE, CELL("row",B186)-18,"")</f>
         <v/>
       </c>
       <c r="C186" s="32"/>
       <c r="D186" s="51"/>
       <c r="E186" s="42"/>
-      <c r="F186" s="143"/>
+      <c r="F186" s="115"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B187" ca="1">IF(AND(C187&lt;&gt;"",E187&lt;&gt;"")=TRUE, CELL("row",B187)-17,"")</f>
+        <f t="array" aca="1" ref="B187" ca="1">IF(AND(C187&lt;&gt;"",E187&lt;&gt;"")=TRUE, CELL("row",B187)-18,"")</f>
         <v/>
       </c>
       <c r="C187" s="32"/>
       <c r="D187" s="51"/>
       <c r="E187" s="42"/>
-      <c r="F187" s="143"/>
+      <c r="F187" s="115"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B188" ca="1">IF(AND(C188&lt;&gt;"",E188&lt;&gt;"")=TRUE, CELL("row",B188)-17,"")</f>
+        <f t="array" aca="1" ref="B188" ca="1">IF(AND(C188&lt;&gt;"",E188&lt;&gt;"")=TRUE, CELL("row",B188)-18,"")</f>
         <v/>
       </c>
       <c r="C188" s="32"/>
       <c r="D188" s="51"/>
       <c r="E188" s="42"/>
-      <c r="F188" s="143"/>
+      <c r="F188" s="115"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B189" ca="1">IF(AND(C189&lt;&gt;"",E189&lt;&gt;"")=TRUE, CELL("row",B189)-17,"")</f>
+        <f t="array" aca="1" ref="B189" ca="1">IF(AND(C189&lt;&gt;"",E189&lt;&gt;"")=TRUE, CELL("row",B189)-18,"")</f>
         <v/>
       </c>
       <c r="C189" s="32"/>
       <c r="D189" s="51"/>
       <c r="E189" s="42"/>
-      <c r="F189" s="143"/>
+      <c r="F189" s="115"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B190" ca="1">IF(AND(C190&lt;&gt;"",E190&lt;&gt;"")=TRUE, CELL("row",B190)-17,"")</f>
+        <f t="array" aca="1" ref="B190" ca="1">IF(AND(C190&lt;&gt;"",E190&lt;&gt;"")=TRUE, CELL("row",B190)-18,"")</f>
         <v/>
       </c>
       <c r="C190" s="32"/>
       <c r="D190" s="51"/>
       <c r="E190" s="42"/>
-      <c r="F190" s="143"/>
+      <c r="F190" s="115"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B191" ca="1">IF(AND(C191&lt;&gt;"",E191&lt;&gt;"")=TRUE, CELL("row",B191)-17,"")</f>
+        <f t="array" aca="1" ref="B191" ca="1">IF(AND(C191&lt;&gt;"",E191&lt;&gt;"")=TRUE, CELL("row",B191)-18,"")</f>
         <v/>
       </c>
       <c r="C191" s="32"/>
       <c r="D191" s="51"/>
       <c r="E191" s="42"/>
-      <c r="F191" s="143"/>
+      <c r="F191" s="115"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B192" ca="1">IF(AND(C192&lt;&gt;"",E192&lt;&gt;"")=TRUE, CELL("row",B192)-17,"")</f>
+        <f t="array" aca="1" ref="B192" ca="1">IF(AND(C192&lt;&gt;"",E192&lt;&gt;"")=TRUE, CELL("row",B192)-18,"")</f>
         <v/>
       </c>
       <c r="C192" s="32"/>
       <c r="D192" s="51"/>
       <c r="E192" s="42"/>
-      <c r="F192" s="143"/>
+      <c r="F192" s="115"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B193" ca="1">IF(AND(C193&lt;&gt;"",E193&lt;&gt;"")=TRUE, CELL("row",B193)-17,"")</f>
+        <f t="array" aca="1" ref="B193" ca="1">IF(AND(C193&lt;&gt;"",E193&lt;&gt;"")=TRUE, CELL("row",B193)-18,"")</f>
         <v/>
       </c>
       <c r="C193" s="32"/>
       <c r="D193" s="51"/>
       <c r="E193" s="42"/>
-      <c r="F193" s="143"/>
+      <c r="F193" s="115"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B194" ca="1">IF(AND(C194&lt;&gt;"",E194&lt;&gt;"")=TRUE, CELL("row",B194)-17,"")</f>
+        <f t="array" aca="1" ref="B194" ca="1">IF(AND(C194&lt;&gt;"",E194&lt;&gt;"")=TRUE, CELL("row",B194)-18,"")</f>
         <v/>
       </c>
       <c r="C194" s="32"/>
       <c r="D194" s="51"/>
       <c r="E194" s="42"/>
-      <c r="F194" s="143"/>
+      <c r="F194" s="115"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B195" ca="1">IF(AND(C195&lt;&gt;"",E195&lt;&gt;"")=TRUE, CELL("row",B195)-17,"")</f>
+        <f t="array" aca="1" ref="B195" ca="1">IF(AND(C195&lt;&gt;"",E195&lt;&gt;"")=TRUE, CELL("row",B195)-18,"")</f>
         <v/>
       </c>
       <c r="C195" s="32"/>
       <c r="D195" s="51"/>
       <c r="E195" s="42"/>
-      <c r="F195" s="143"/>
+      <c r="F195" s="115"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B196" ca="1">IF(AND(C196&lt;&gt;"",E196&lt;&gt;"")=TRUE, CELL("row",B196)-17,"")</f>
+        <f t="array" aca="1" ref="B196" ca="1">IF(AND(C196&lt;&gt;"",E196&lt;&gt;"")=TRUE, CELL("row",B196)-18,"")</f>
         <v/>
       </c>
       <c r="C196" s="32"/>
       <c r="D196" s="51"/>
       <c r="E196" s="42"/>
-      <c r="F196" s="143"/>
+      <c r="F196" s="115"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B197" ca="1">IF(AND(C197&lt;&gt;"",E197&lt;&gt;"")=TRUE, CELL("row",B197)-17,"")</f>
+        <f t="array" aca="1" ref="B197" ca="1">IF(AND(C197&lt;&gt;"",E197&lt;&gt;"")=TRUE, CELL("row",B197)-18,"")</f>
         <v/>
       </c>
       <c r="C197" s="32"/>
       <c r="D197" s="51"/>
       <c r="E197" s="42"/>
-      <c r="F197" s="143"/>
+      <c r="F197" s="115"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B198" ca="1">IF(AND(C198&lt;&gt;"",E198&lt;&gt;"")=TRUE, CELL("row",B198)-17,"")</f>
+        <f t="array" aca="1" ref="B198" ca="1">IF(AND(C198&lt;&gt;"",E198&lt;&gt;"")=TRUE, CELL("row",B198)-18,"")</f>
         <v/>
       </c>
       <c r="C198" s="32"/>
       <c r="D198" s="51"/>
       <c r="E198" s="42"/>
-      <c r="F198" s="143"/>
+      <c r="F198" s="115"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B199" ca="1">IF(AND(C199&lt;&gt;"",E199&lt;&gt;"")=TRUE, CELL("row",B199)-17,"")</f>
+        <f t="array" aca="1" ref="B199" ca="1">IF(AND(C199&lt;&gt;"",E199&lt;&gt;"")=TRUE, CELL("row",B199)-18,"")</f>
         <v/>
       </c>
       <c r="C199" s="32"/>
       <c r="D199" s="51"/>
       <c r="E199" s="42"/>
-      <c r="F199" s="143"/>
+      <c r="F199" s="115"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B200" ca="1">IF(AND(C200&lt;&gt;"",E200&lt;&gt;"")=TRUE, CELL("row",B200)-17,"")</f>
+        <f t="array" aca="1" ref="B200" ca="1">IF(AND(C200&lt;&gt;"",E200&lt;&gt;"")=TRUE, CELL("row",B200)-18,"")</f>
         <v/>
       </c>
       <c r="C200" s="32"/>
       <c r="D200" s="51"/>
       <c r="E200" s="42"/>
-      <c r="F200" s="143"/>
+      <c r="F200" s="115"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B201" ca="1">IF(AND(C201&lt;&gt;"",E201&lt;&gt;"")=TRUE, CELL("row",B201)-17,"")</f>
+        <f t="array" aca="1" ref="B201" ca="1">IF(AND(C201&lt;&gt;"",E201&lt;&gt;"")=TRUE, CELL("row",B201)-18,"")</f>
         <v/>
       </c>
       <c r="C201" s="32"/>
       <c r="D201" s="51"/>
       <c r="E201" s="42"/>
-      <c r="F201" s="143"/>
+      <c r="F201" s="115"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B202" ca="1">IF(AND(C202&lt;&gt;"",E202&lt;&gt;"")=TRUE, CELL("row",B202)-17,"")</f>
+        <f t="array" aca="1" ref="B202" ca="1">IF(AND(C202&lt;&gt;"",E202&lt;&gt;"")=TRUE, CELL("row",B202)-18,"")</f>
         <v/>
       </c>
       <c r="C202" s="32"/>
       <c r="D202" s="51"/>
       <c r="E202" s="42"/>
-      <c r="F202" s="143"/>
+      <c r="F202" s="115"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B203" ca="1">IF(AND(C203&lt;&gt;"",E203&lt;&gt;"")=TRUE, CELL("row",B203)-17,"")</f>
+        <f t="array" aca="1" ref="B203" ca="1">IF(AND(C203&lt;&gt;"",E203&lt;&gt;"")=TRUE, CELL("row",B203)-18,"")</f>
         <v/>
       </c>
       <c r="C203" s="32"/>
       <c r="D203" s="51"/>
       <c r="E203" s="42"/>
-      <c r="F203" s="143"/>
+      <c r="F203" s="115"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B204" ca="1">IF(AND(C204&lt;&gt;"",E204&lt;&gt;"")=TRUE, CELL("row",B204)-17,"")</f>
+        <f t="array" aca="1" ref="B204" ca="1">IF(AND(C204&lt;&gt;"",E204&lt;&gt;"")=TRUE, CELL("row",B204)-18,"")</f>
         <v/>
       </c>
       <c r="C204" s="32"/>
       <c r="D204" s="51"/>
       <c r="E204" s="42"/>
-      <c r="F204" s="143"/>
+      <c r="F204" s="115"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B205" ca="1">IF(AND(C205&lt;&gt;"",E205&lt;&gt;"")=TRUE, CELL("row",B205)-17,"")</f>
+        <f t="array" aca="1" ref="B205" ca="1">IF(AND(C205&lt;&gt;"",E205&lt;&gt;"")=TRUE, CELL("row",B205)-18,"")</f>
         <v/>
       </c>
       <c r="C205" s="32"/>
       <c r="D205" s="51"/>
       <c r="E205" s="42"/>
-      <c r="F205" s="143"/>
+      <c r="F205" s="115"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B206" ca="1">IF(AND(C206&lt;&gt;"",E206&lt;&gt;"")=TRUE, CELL("row",B206)-17,"")</f>
+        <f t="array" aca="1" ref="B206" ca="1">IF(AND(C206&lt;&gt;"",E206&lt;&gt;"")=TRUE, CELL("row",B206)-18,"")</f>
         <v/>
       </c>
       <c r="C206" s="32"/>
       <c r="D206" s="51"/>
       <c r="E206" s="42"/>
-      <c r="F206" s="143"/>
+      <c r="F206" s="115"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B207" ca="1">IF(AND(C207&lt;&gt;"",E207&lt;&gt;"")=TRUE, CELL("row",B207)-17,"")</f>
+        <f t="array" aca="1" ref="B207" ca="1">IF(AND(C207&lt;&gt;"",E207&lt;&gt;"")=TRUE, CELL("row",B207)-18,"")</f>
         <v/>
       </c>
       <c r="C207" s="32"/>
       <c r="D207" s="51"/>
       <c r="E207" s="42"/>
-      <c r="F207" s="143"/>
+      <c r="F207" s="115"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B208" ca="1">IF(AND(C208&lt;&gt;"",E208&lt;&gt;"")=TRUE, CELL("row",B208)-17,"")</f>
+        <f t="array" aca="1" ref="B208" ca="1">IF(AND(C208&lt;&gt;"",E208&lt;&gt;"")=TRUE, CELL("row",B208)-18,"")</f>
         <v/>
       </c>
       <c r="C208" s="32"/>
       <c r="D208" s="51"/>
       <c r="E208" s="42"/>
-      <c r="F208" s="143"/>
+      <c r="F208" s="115"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B209" ca="1">IF(AND(C209&lt;&gt;"",E209&lt;&gt;"")=TRUE, CELL("row",B209)-17,"")</f>
+        <f t="array" aca="1" ref="B209" ca="1">IF(AND(C209&lt;&gt;"",E209&lt;&gt;"")=TRUE, CELL("row",B209)-18,"")</f>
         <v/>
       </c>
       <c r="C209" s="32"/>
       <c r="D209" s="51"/>
       <c r="E209" s="42"/>
-      <c r="F209" s="143"/>
+      <c r="F209" s="115"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B210" ca="1">IF(AND(C210&lt;&gt;"",E210&lt;&gt;"")=TRUE, CELL("row",B210)-17,"")</f>
+        <f t="array" aca="1" ref="B210" ca="1">IF(AND(C210&lt;&gt;"",E210&lt;&gt;"")=TRUE, CELL("row",B210)-18,"")</f>
         <v/>
       </c>
       <c r="C210" s="32"/>
       <c r="D210" s="51"/>
       <c r="E210" s="42"/>
-      <c r="F210" s="143"/>
+      <c r="F210" s="115"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B211" ca="1">IF(AND(C211&lt;&gt;"",E211&lt;&gt;"")=TRUE, CELL("row",B211)-17,"")</f>
+        <f t="array" aca="1" ref="B211" ca="1">IF(AND(C211&lt;&gt;"",E211&lt;&gt;"")=TRUE, CELL("row",B211)-18,"")</f>
         <v/>
       </c>
       <c r="C211" s="32"/>
       <c r="D211" s="51"/>
       <c r="E211" s="42"/>
-      <c r="F211" s="143"/>
+      <c r="F211" s="115"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B212" ca="1">IF(AND(C212&lt;&gt;"",E212&lt;&gt;"")=TRUE, CELL("row",B212)-17,"")</f>
+        <f t="array" aca="1" ref="B212" ca="1">IF(AND(C212&lt;&gt;"",E212&lt;&gt;"")=TRUE, CELL("row",B212)-18,"")</f>
         <v/>
       </c>
       <c r="C212" s="32"/>
       <c r="D212" s="51"/>
       <c r="E212" s="42"/>
-      <c r="F212" s="143"/>
+      <c r="F212" s="115"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B213" ca="1">IF(AND(C213&lt;&gt;"",E213&lt;&gt;"")=TRUE, CELL("row",B213)-17,"")</f>
+        <f t="array" aca="1" ref="B213" ca="1">IF(AND(C213&lt;&gt;"",E213&lt;&gt;"")=TRUE, CELL("row",B213)-18,"")</f>
         <v/>
       </c>
       <c r="C213" s="32"/>
       <c r="D213" s="51"/>
       <c r="E213" s="42"/>
-      <c r="F213" s="143"/>
+      <c r="F213" s="115"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B214" ca="1">IF(AND(C214&lt;&gt;"",E214&lt;&gt;"")=TRUE, CELL("row",B214)-17,"")</f>
+        <f t="array" aca="1" ref="B214" ca="1">IF(AND(C214&lt;&gt;"",E214&lt;&gt;"")=TRUE, CELL("row",B214)-18,"")</f>
         <v/>
       </c>
       <c r="C214" s="32"/>
       <c r="D214" s="51"/>
       <c r="E214" s="42"/>
-      <c r="F214" s="143"/>
+      <c r="F214" s="115"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B215" ca="1">IF(AND(C215&lt;&gt;"",E215&lt;&gt;"")=TRUE, CELL("row",B215)-17,"")</f>
+        <f t="array" aca="1" ref="B215" ca="1">IF(AND(C215&lt;&gt;"",E215&lt;&gt;"")=TRUE, CELL("row",B215)-18,"")</f>
         <v/>
       </c>
       <c r="C215" s="32"/>
       <c r="D215" s="51"/>
       <c r="E215" s="42"/>
-      <c r="F215" s="143"/>
+      <c r="F215" s="115"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B216" ca="1">IF(AND(C216&lt;&gt;"",E216&lt;&gt;"")=TRUE, CELL("row",B216)-17,"")</f>
+        <f t="array" aca="1" ref="B216" ca="1">IF(AND(C216&lt;&gt;"",E216&lt;&gt;"")=TRUE, CELL("row",B216)-18,"")</f>
         <v/>
       </c>
       <c r="C216" s="32"/>
       <c r="D216" s="51"/>
       <c r="E216" s="42"/>
-      <c r="F216" s="143"/>
+      <c r="F216" s="115"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B217" ca="1">IF(AND(C217&lt;&gt;"",E217&lt;&gt;"")=TRUE, CELL("row",B217)-17,"")</f>
+        <f t="array" aca="1" ref="B217" ca="1">IF(AND(C217&lt;&gt;"",E217&lt;&gt;"")=TRUE, CELL("row",B217)-18,"")</f>
         <v/>
       </c>
       <c r="C217" s="32"/>
       <c r="D217" s="51"/>
       <c r="E217" s="42"/>
-      <c r="F217" s="143"/>
+      <c r="F217" s="115"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B218" ca="1">IF(AND(C218&lt;&gt;"",E218&lt;&gt;"")=TRUE, CELL("row",B218)-17,"")</f>
+        <f t="array" aca="1" ref="B218" ca="1">IF(AND(C218&lt;&gt;"",E218&lt;&gt;"")=TRUE, CELL("row",B218)-18,"")</f>
         <v/>
       </c>
       <c r="C218" s="32"/>
       <c r="D218" s="51"/>
       <c r="E218" s="42"/>
-      <c r="F218" s="143"/>
+      <c r="F218" s="115"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B219" ca="1">IF(AND(C219&lt;&gt;"",E219&lt;&gt;"")=TRUE, CELL("row",B219)-17,"")</f>
+        <f t="array" aca="1" ref="B219" ca="1">IF(AND(C219&lt;&gt;"",E219&lt;&gt;"")=TRUE, CELL("row",B219)-18,"")</f>
         <v/>
       </c>
       <c r="C219" s="32"/>
       <c r="D219" s="51"/>
       <c r="E219" s="42"/>
-      <c r="F219" s="143"/>
+      <c r="F219" s="115"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B220" ca="1">IF(AND(C220&lt;&gt;"",E220&lt;&gt;"")=TRUE, CELL("row",B220)-17,"")</f>
+        <f t="array" aca="1" ref="B220" ca="1">IF(AND(C220&lt;&gt;"",E220&lt;&gt;"")=TRUE, CELL("row",B220)-18,"")</f>
         <v/>
       </c>
       <c r="C220" s="32"/>
       <c r="D220" s="51"/>
       <c r="E220" s="42"/>
-      <c r="F220" s="143"/>
+      <c r="F220" s="115"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B221" ca="1">IF(AND(C221&lt;&gt;"",E221&lt;&gt;"")=TRUE, CELL("row",B221)-17,"")</f>
+        <f t="array" aca="1" ref="B221" ca="1">IF(AND(C221&lt;&gt;"",E221&lt;&gt;"")=TRUE, CELL("row",B221)-18,"")</f>
         <v/>
       </c>
       <c r="C221" s="32"/>
       <c r="D221" s="51"/>
       <c r="E221" s="42"/>
-      <c r="F221" s="143"/>
+      <c r="F221" s="115"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B222" ca="1">IF(AND(C222&lt;&gt;"",E222&lt;&gt;"")=TRUE, CELL("row",B222)-17,"")</f>
+        <f t="array" aca="1" ref="B222" ca="1">IF(AND(C222&lt;&gt;"",E222&lt;&gt;"")=TRUE, CELL("row",B222)-18,"")</f>
         <v/>
       </c>
       <c r="C222" s="32"/>
       <c r="D222" s="51"/>
       <c r="E222" s="42"/>
-      <c r="F222" s="143"/>
+      <c r="F222" s="115"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B223" ca="1">IF(AND(C223&lt;&gt;"",E223&lt;&gt;"")=TRUE, CELL("row",B223)-17,"")</f>
+        <f t="array" aca="1" ref="B223" ca="1">IF(AND(C223&lt;&gt;"",E223&lt;&gt;"")=TRUE, CELL("row",B223)-18,"")</f>
         <v/>
       </c>
       <c r="C223" s="32"/>
       <c r="D223" s="51"/>
       <c r="E223" s="42"/>
-      <c r="F223" s="143"/>
+      <c r="F223" s="115"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B224" ca="1">IF(AND(C224&lt;&gt;"",E224&lt;&gt;"")=TRUE, CELL("row",B224)-17,"")</f>
+        <f t="array" aca="1" ref="B224" ca="1">IF(AND(C224&lt;&gt;"",E224&lt;&gt;"")=TRUE, CELL("row",B224)-18,"")</f>
         <v/>
       </c>
       <c r="C224" s="32"/>
       <c r="D224" s="51"/>
       <c r="E224" s="42"/>
-      <c r="F224" s="143"/>
+      <c r="F224" s="115"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B225" ca="1">IF(AND(C225&lt;&gt;"",E225&lt;&gt;"")=TRUE, CELL("row",B225)-17,"")</f>
+        <f t="array" aca="1" ref="B225" ca="1">IF(AND(C225&lt;&gt;"",E225&lt;&gt;"")=TRUE, CELL("row",B225)-18,"")</f>
         <v/>
       </c>
       <c r="C225" s="32"/>
       <c r="D225" s="51"/>
       <c r="E225" s="42"/>
-      <c r="F225" s="143"/>
+      <c r="F225" s="115"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B226" ca="1">IF(AND(C226&lt;&gt;"",E226&lt;&gt;"")=TRUE, CELL("row",B226)-17,"")</f>
+        <f t="array" aca="1" ref="B226" ca="1">IF(AND(C226&lt;&gt;"",E226&lt;&gt;"")=TRUE, CELL("row",B226)-18,"")</f>
         <v/>
       </c>
       <c r="C226" s="32"/>
       <c r="D226" s="51"/>
       <c r="E226" s="42"/>
-      <c r="F226" s="143"/>
+      <c r="F226" s="115"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B227" ca="1">IF(AND(C227&lt;&gt;"",E227&lt;&gt;"")=TRUE, CELL("row",B227)-17,"")</f>
+        <f t="array" aca="1" ref="B227" ca="1">IF(AND(C227&lt;&gt;"",E227&lt;&gt;"")=TRUE, CELL("row",B227)-18,"")</f>
         <v/>
       </c>
       <c r="C227" s="32"/>
       <c r="D227" s="51"/>
       <c r="E227" s="42"/>
-      <c r="F227" s="143"/>
+      <c r="F227" s="115"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B228" ca="1">IF(AND(C228&lt;&gt;"",E228&lt;&gt;"")=TRUE, CELL("row",B228)-17,"")</f>
+        <f t="array" aca="1" ref="B228" ca="1">IF(AND(C228&lt;&gt;"",E228&lt;&gt;"")=TRUE, CELL("row",B228)-18,"")</f>
         <v/>
       </c>
       <c r="C228" s="32"/>
       <c r="D228" s="51"/>
       <c r="E228" s="42"/>
-      <c r="F228" s="143"/>
+      <c r="F228" s="115"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B229" ca="1">IF(AND(C229&lt;&gt;"",E229&lt;&gt;"")=TRUE, CELL("row",B229)-17,"")</f>
+        <f t="array" aca="1" ref="B229" ca="1">IF(AND(C229&lt;&gt;"",E229&lt;&gt;"")=TRUE, CELL("row",B229)-18,"")</f>
         <v/>
       </c>
       <c r="C229" s="32"/>
       <c r="D229" s="51"/>
       <c r="E229" s="42"/>
-      <c r="F229" s="143"/>
+      <c r="F229" s="115"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B230" ca="1">IF(AND(C230&lt;&gt;"",E230&lt;&gt;"")=TRUE, CELL("row",B230)-17,"")</f>
+        <f t="array" aca="1" ref="B230" ca="1">IF(AND(C230&lt;&gt;"",E230&lt;&gt;"")=TRUE, CELL("row",B230)-18,"")</f>
         <v/>
       </c>
       <c r="C230" s="32"/>
       <c r="D230" s="51"/>
       <c r="E230" s="42"/>
-      <c r="F230" s="143"/>
+      <c r="F230" s="115"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B231" ca="1">IF(AND(C231&lt;&gt;"",E231&lt;&gt;"")=TRUE, CELL("row",B231)-17,"")</f>
+        <f t="array" aca="1" ref="B231" ca="1">IF(AND(C231&lt;&gt;"",E231&lt;&gt;"")=TRUE, CELL("row",B231)-18,"")</f>
         <v/>
       </c>
       <c r="C231" s="32"/>
       <c r="D231" s="51"/>
       <c r="E231" s="42"/>
-      <c r="F231" s="143"/>
+      <c r="F231" s="115"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B232" ca="1">IF(AND(C232&lt;&gt;"",E232&lt;&gt;"")=TRUE, CELL("row",B232)-17,"")</f>
+        <f t="array" aca="1" ref="B232" ca="1">IF(AND(C232&lt;&gt;"",E232&lt;&gt;"")=TRUE, CELL("row",B232)-18,"")</f>
         <v/>
       </c>
       <c r="C232" s="32"/>
       <c r="D232" s="51"/>
       <c r="E232" s="42"/>
-      <c r="F232" s="143"/>
+      <c r="F232" s="115"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B233" ca="1">IF(AND(C233&lt;&gt;"",E233&lt;&gt;"")=TRUE, CELL("row",B233)-17,"")</f>
+        <f t="array" aca="1" ref="B233" ca="1">IF(AND(C233&lt;&gt;"",E233&lt;&gt;"")=TRUE, CELL("row",B233)-18,"")</f>
         <v/>
       </c>
       <c r="C233" s="32"/>
       <c r="D233" s="51"/>
       <c r="E233" s="42"/>
-      <c r="F233" s="143"/>
+      <c r="F233" s="115"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B234" ca="1">IF(AND(C234&lt;&gt;"",E234&lt;&gt;"")=TRUE, CELL("row",B234)-17,"")</f>
+        <f t="array" aca="1" ref="B234" ca="1">IF(AND(C234&lt;&gt;"",E234&lt;&gt;"")=TRUE, CELL("row",B234)-18,"")</f>
         <v/>
       </c>
       <c r="C234" s="32"/>
       <c r="D234" s="51"/>
       <c r="E234" s="42"/>
-      <c r="F234" s="143"/>
+      <c r="F234" s="115"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B235" ca="1">IF(AND(C235&lt;&gt;"",E235&lt;&gt;"")=TRUE, CELL("row",B235)-17,"")</f>
+        <f t="array" aca="1" ref="B235" ca="1">IF(AND(C235&lt;&gt;"",E235&lt;&gt;"")=TRUE, CELL("row",B235)-18,"")</f>
         <v/>
       </c>
       <c r="C235" s="32"/>
       <c r="D235" s="51"/>
       <c r="E235" s="42"/>
-      <c r="F235" s="143"/>
+      <c r="F235" s="115"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B236" ca="1">IF(AND(C236&lt;&gt;"",E236&lt;&gt;"")=TRUE, CELL("row",B236)-17,"")</f>
+        <f t="array" aca="1" ref="B236" ca="1">IF(AND(C236&lt;&gt;"",E236&lt;&gt;"")=TRUE, CELL("row",B236)-18,"")</f>
         <v/>
       </c>
       <c r="C236" s="32"/>
       <c r="D236" s="51"/>
       <c r="E236" s="42"/>
-      <c r="F236" s="143"/>
+      <c r="F236" s="115"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B237" ca="1">IF(AND(C237&lt;&gt;"",E237&lt;&gt;"")=TRUE, CELL("row",B237)-17,"")</f>
+        <f t="array" aca="1" ref="B237" ca="1">IF(AND(C237&lt;&gt;"",E237&lt;&gt;"")=TRUE, CELL("row",B237)-18,"")</f>
         <v/>
       </c>
       <c r="C237" s="32"/>
       <c r="D237" s="51"/>
       <c r="E237" s="42"/>
-      <c r="F237" s="143"/>
+      <c r="F237" s="115"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B238" ca="1">IF(AND(C238&lt;&gt;"",E238&lt;&gt;"")=TRUE, CELL("row",B238)-17,"")</f>
+        <f t="array" aca="1" ref="B238" ca="1">IF(AND(C238&lt;&gt;"",E238&lt;&gt;"")=TRUE, CELL("row",B238)-18,"")</f>
         <v/>
       </c>
       <c r="C238" s="32"/>
       <c r="D238" s="51"/>
       <c r="E238" s="42"/>
-      <c r="F238" s="143"/>
+      <c r="F238" s="115"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B239" ca="1">IF(AND(C239&lt;&gt;"",E239&lt;&gt;"")=TRUE, CELL("row",B239)-17,"")</f>
+        <f t="array" aca="1" ref="B239" ca="1">IF(AND(C239&lt;&gt;"",E239&lt;&gt;"")=TRUE, CELL("row",B239)-18,"")</f>
         <v/>
       </c>
       <c r="C239" s="32"/>
       <c r="D239" s="51"/>
       <c r="E239" s="42"/>
-      <c r="F239" s="143"/>
+      <c r="F239" s="115"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B240" ca="1">IF(AND(C240&lt;&gt;"",E240&lt;&gt;"")=TRUE, CELL("row",B240)-17,"")</f>
+        <f t="array" aca="1" ref="B240" ca="1">IF(AND(C240&lt;&gt;"",E240&lt;&gt;"")=TRUE, CELL("row",B240)-18,"")</f>
         <v/>
       </c>
       <c r="C240" s="32"/>
       <c r="D240" s="51"/>
       <c r="E240" s="42"/>
-      <c r="F240" s="143"/>
+      <c r="F240" s="115"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B241" ca="1">IF(AND(C241&lt;&gt;"",E241&lt;&gt;"")=TRUE, CELL("row",B241)-17,"")</f>
+        <f t="array" aca="1" ref="B241" ca="1">IF(AND(C241&lt;&gt;"",E241&lt;&gt;"")=TRUE, CELL("row",B241)-18,"")</f>
         <v/>
       </c>
       <c r="C241" s="32"/>
       <c r="D241" s="51"/>
       <c r="E241" s="42"/>
-      <c r="F241" s="143"/>
+      <c r="F241" s="115"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B242" ca="1">IF(AND(C242&lt;&gt;"",E242&lt;&gt;"")=TRUE, CELL("row",B242)-17,"")</f>
+        <f t="array" aca="1" ref="B242" ca="1">IF(AND(C242&lt;&gt;"",E242&lt;&gt;"")=TRUE, CELL("row",B242)-18,"")</f>
         <v/>
       </c>
       <c r="C242" s="32"/>
       <c r="D242" s="51"/>
       <c r="E242" s="42"/>
-      <c r="F242" s="143"/>
+      <c r="F242" s="115"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B243" ca="1">IF(AND(C243&lt;&gt;"",E243&lt;&gt;"")=TRUE, CELL("row",B243)-17,"")</f>
+        <f t="array" aca="1" ref="B243" ca="1">IF(AND(C243&lt;&gt;"",E243&lt;&gt;"")=TRUE, CELL("row",B243)-18,"")</f>
         <v/>
       </c>
       <c r="C243" s="32"/>
       <c r="D243" s="51"/>
       <c r="E243" s="42"/>
-      <c r="F243" s="143"/>
+      <c r="F243" s="115"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B244" ca="1">IF(AND(C244&lt;&gt;"",E244&lt;&gt;"")=TRUE, CELL("row",B244)-17,"")</f>
+        <f t="array" aca="1" ref="B244" ca="1">IF(AND(C244&lt;&gt;"",E244&lt;&gt;"")=TRUE, CELL("row",B244)-18,"")</f>
         <v/>
       </c>
       <c r="C244" s="32"/>
       <c r="D244" s="51"/>
       <c r="E244" s="42"/>
-      <c r="F244" s="143"/>
+      <c r="F244" s="115"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B245" ca="1">IF(AND(C245&lt;&gt;"",E245&lt;&gt;"")=TRUE, CELL("row",B245)-17,"")</f>
+        <f t="array" aca="1" ref="B245" ca="1">IF(AND(C245&lt;&gt;"",E245&lt;&gt;"")=TRUE, CELL("row",B245)-18,"")</f>
         <v/>
       </c>
       <c r="C245" s="32"/>
       <c r="D245" s="51"/>
       <c r="E245" s="42"/>
-      <c r="F245" s="143"/>
+      <c r="F245" s="115"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B246" ca="1">IF(AND(C246&lt;&gt;"",E246&lt;&gt;"")=TRUE, CELL("row",B246)-17,"")</f>
+        <f t="array" aca="1" ref="B246" ca="1">IF(AND(C246&lt;&gt;"",E246&lt;&gt;"")=TRUE, CELL("row",B246)-18,"")</f>
         <v/>
       </c>
       <c r="C246" s="32"/>
       <c r="D246" s="51"/>
       <c r="E246" s="42"/>
-      <c r="F246" s="143"/>
+      <c r="F246" s="115"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B247" ca="1">IF(AND(C247&lt;&gt;"",E247&lt;&gt;"")=TRUE, CELL("row",B247)-17,"")</f>
+        <f t="array" aca="1" ref="B247" ca="1">IF(AND(C247&lt;&gt;"",E247&lt;&gt;"")=TRUE, CELL("row",B247)-18,"")</f>
         <v/>
       </c>
       <c r="C247" s="32"/>
       <c r="D247" s="51"/>
       <c r="E247" s="42"/>
-      <c r="F247" s="143"/>
+      <c r="F247" s="115"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B248" ca="1">IF(AND(C248&lt;&gt;"",E248&lt;&gt;"")=TRUE, CELL("row",B248)-17,"")</f>
+        <f t="array" aca="1" ref="B248" ca="1">IF(AND(C248&lt;&gt;"",E248&lt;&gt;"")=TRUE, CELL("row",B248)-18,"")</f>
         <v/>
       </c>
       <c r="C248" s="32"/>
       <c r="D248" s="51"/>
       <c r="E248" s="42"/>
-      <c r="F248" s="143"/>
+      <c r="F248" s="115"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B249" ca="1">IF(AND(C249&lt;&gt;"",E249&lt;&gt;"")=TRUE, CELL("row",B249)-17,"")</f>
+        <f t="array" aca="1" ref="B249" ca="1">IF(AND(C249&lt;&gt;"",E249&lt;&gt;"")=TRUE, CELL("row",B249)-18,"")</f>
         <v/>
       </c>
       <c r="C249" s="32"/>
       <c r="D249" s="51"/>
       <c r="E249" s="42"/>
-      <c r="F249" s="143"/>
+      <c r="F249" s="115"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B250" ca="1">IF(AND(C250&lt;&gt;"",E250&lt;&gt;"")=TRUE, CELL("row",B250)-17,"")</f>
+        <f t="array" aca="1" ref="B250" ca="1">IF(AND(C250&lt;&gt;"",E250&lt;&gt;"")=TRUE, CELL("row",B250)-18,"")</f>
         <v/>
       </c>
       <c r="C250" s="32"/>
       <c r="D250" s="51"/>
       <c r="E250" s="42"/>
-      <c r="F250" s="143"/>
+      <c r="F250" s="115"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B251" ca="1">IF(AND(C251&lt;&gt;"",E251&lt;&gt;"")=TRUE, CELL("row",B251)-17,"")</f>
+        <f t="array" aca="1" ref="B251" ca="1">IF(AND(C251&lt;&gt;"",E251&lt;&gt;"")=TRUE, CELL("row",B251)-18,"")</f>
         <v/>
       </c>
       <c r="C251" s="32"/>
       <c r="D251" s="51"/>
       <c r="E251" s="42"/>
-      <c r="F251" s="143"/>
+      <c r="F251" s="115"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B252" ca="1">IF(AND(C252&lt;&gt;"",E252&lt;&gt;"")=TRUE, CELL("row",B252)-17,"")</f>
+        <f t="array" aca="1" ref="B252" ca="1">IF(AND(C252&lt;&gt;"",E252&lt;&gt;"")=TRUE, CELL("row",B252)-18,"")</f>
         <v/>
       </c>
       <c r="C252" s="32"/>
       <c r="D252" s="51"/>
       <c r="E252" s="42"/>
-      <c r="F252" s="143"/>
+      <c r="F252" s="115"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B253" ca="1">IF(AND(C253&lt;&gt;"",E253&lt;&gt;"")=TRUE, CELL("row",B253)-17,"")</f>
+        <f t="array" aca="1" ref="B253" ca="1">IF(AND(C253&lt;&gt;"",E253&lt;&gt;"")=TRUE, CELL("row",B253)-18,"")</f>
         <v/>
       </c>
       <c r="C253" s="32"/>
       <c r="D253" s="51"/>
       <c r="E253" s="42"/>
-      <c r="F253" s="143"/>
+      <c r="F253" s="115"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B254" ca="1">IF(AND(C254&lt;&gt;"",E254&lt;&gt;"")=TRUE, CELL("row",B254)-17,"")</f>
+        <f t="array" aca="1" ref="B254" ca="1">IF(AND(C254&lt;&gt;"",E254&lt;&gt;"")=TRUE, CELL("row",B254)-18,"")</f>
         <v/>
       </c>
       <c r="C254" s="32"/>
       <c r="D254" s="51"/>
       <c r="E254" s="42"/>
-      <c r="F254" s="143"/>
+      <c r="F254" s="115"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B255" ca="1">IF(AND(C255&lt;&gt;"",E255&lt;&gt;"")=TRUE, CELL("row",B255)-17,"")</f>
+        <f t="array" aca="1" ref="B255" ca="1">IF(AND(C255&lt;&gt;"",E255&lt;&gt;"")=TRUE, CELL("row",B255)-18,"")</f>
         <v/>
       </c>
       <c r="C255" s="32"/>
       <c r="D255" s="51"/>
       <c r="E255" s="42"/>
-      <c r="F255" s="143"/>
+      <c r="F255" s="115"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B256" ca="1">IF(AND(C256&lt;&gt;"",E256&lt;&gt;"")=TRUE, CELL("row",B256)-17,"")</f>
+        <f t="array" aca="1" ref="B256" ca="1">IF(AND(C256&lt;&gt;"",E256&lt;&gt;"")=TRUE, CELL("row",B256)-18,"")</f>
         <v/>
       </c>
       <c r="C256" s="32"/>
       <c r="D256" s="51"/>
       <c r="E256" s="42"/>
-      <c r="F256" s="143"/>
+      <c r="F256" s="115"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B257" ca="1">IF(AND(C257&lt;&gt;"",E257&lt;&gt;"")=TRUE, CELL("row",B257)-17,"")</f>
+        <f t="array" aca="1" ref="B257" ca="1">IF(AND(C257&lt;&gt;"",E257&lt;&gt;"")=TRUE, CELL("row",B257)-18,"")</f>
         <v/>
       </c>
       <c r="C257" s="32"/>
       <c r="D257" s="51"/>
       <c r="E257" s="42"/>
-      <c r="F257" s="143"/>
+      <c r="F257" s="115"/>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B258" ca="1">IF(AND(C258&lt;&gt;"",E258&lt;&gt;"")=TRUE, CELL("row",B258)-17,"")</f>
+        <f t="array" aca="1" ref="B258" ca="1">IF(AND(C258&lt;&gt;"",E258&lt;&gt;"")=TRUE, CELL("row",B258)-18,"")</f>
         <v/>
       </c>
       <c r="C258" s="32"/>
       <c r="D258" s="51"/>
       <c r="E258" s="42"/>
-      <c r="F258" s="143"/>
+      <c r="F258" s="115"/>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B259" ca="1">IF(AND(C259&lt;&gt;"",E259&lt;&gt;"")=TRUE, CELL("row",B259)-17,"")</f>
+        <f t="array" aca="1" ref="B259" ca="1">IF(AND(C259&lt;&gt;"",E259&lt;&gt;"")=TRUE, CELL("row",B259)-18,"")</f>
         <v/>
       </c>
       <c r="C259" s="32"/>
       <c r="D259" s="51"/>
       <c r="E259" s="42"/>
-      <c r="F259" s="143"/>
+      <c r="F259" s="115"/>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B260" ca="1">IF(AND(C260&lt;&gt;"",E260&lt;&gt;"")=TRUE, CELL("row",B260)-17,"")</f>
+        <f t="array" aca="1" ref="B260" ca="1">IF(AND(C260&lt;&gt;"",E260&lt;&gt;"")=TRUE, CELL("row",B260)-18,"")</f>
         <v/>
       </c>
       <c r="C260" s="32"/>
       <c r="D260" s="51"/>
       <c r="E260" s="42"/>
-      <c r="F260" s="143"/>
+      <c r="F260" s="115"/>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B261" ca="1">IF(AND(C261&lt;&gt;"",E261&lt;&gt;"")=TRUE, CELL("row",B261)-17,"")</f>
+        <f t="array" aca="1" ref="B261" ca="1">IF(AND(C261&lt;&gt;"",E261&lt;&gt;"")=TRUE, CELL("row",B261)-18,"")</f>
         <v/>
       </c>
       <c r="C261" s="32"/>
       <c r="D261" s="51"/>
       <c r="E261" s="42"/>
-      <c r="F261" s="143"/>
+      <c r="F261" s="115"/>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B262" ca="1">IF(AND(C262&lt;&gt;"",E262&lt;&gt;"")=TRUE, CELL("row",B262)-17,"")</f>
+        <f t="array" aca="1" ref="B262" ca="1">IF(AND(C262&lt;&gt;"",E262&lt;&gt;"")=TRUE, CELL("row",B262)-18,"")</f>
         <v/>
       </c>
       <c r="C262" s="32"/>
       <c r="D262" s="51"/>
       <c r="E262" s="42"/>
-      <c r="F262" s="143"/>
+      <c r="F262" s="115"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B263" ca="1">IF(AND(C263&lt;&gt;"",E263&lt;&gt;"")=TRUE, CELL("row",B263)-17,"")</f>
+        <f t="array" aca="1" ref="B263" ca="1">IF(AND(C263&lt;&gt;"",E263&lt;&gt;"")=TRUE, CELL("row",B263)-18,"")</f>
         <v/>
       </c>
       <c r="C263" s="32"/>
       <c r="D263" s="51"/>
       <c r="E263" s="42"/>
-      <c r="F263" s="143"/>
+      <c r="F263" s="115"/>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B264" ca="1">IF(AND(C264&lt;&gt;"",E264&lt;&gt;"")=TRUE, CELL("row",B264)-17,"")</f>
+        <f t="array" aca="1" ref="B264" ca="1">IF(AND(C264&lt;&gt;"",E264&lt;&gt;"")=TRUE, CELL("row",B264)-18,"")</f>
         <v/>
       </c>
       <c r="C264" s="32"/>
       <c r="D264" s="51"/>
       <c r="E264" s="42"/>
-      <c r="F264" s="143"/>
+      <c r="F264" s="115"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B265" ca="1">IF(AND(C265&lt;&gt;"",E265&lt;&gt;"")=TRUE, CELL("row",B265)-17,"")</f>
+        <f t="array" aca="1" ref="B265" ca="1">IF(AND(C265&lt;&gt;"",E265&lt;&gt;"")=TRUE, CELL("row",B265)-18,"")</f>
         <v/>
       </c>
       <c r="C265" s="32"/>
       <c r="D265" s="51"/>
       <c r="E265" s="42"/>
-      <c r="F265" s="143"/>
+      <c r="F265" s="115"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B266" ca="1">IF(AND(C266&lt;&gt;"",E266&lt;&gt;"")=TRUE, CELL("row",B266)-17,"")</f>
+        <f t="array" aca="1" ref="B266" ca="1">IF(AND(C266&lt;&gt;"",E266&lt;&gt;"")=TRUE, CELL("row",B266)-18,"")</f>
         <v/>
       </c>
       <c r="C266" s="32"/>
       <c r="D266" s="51"/>
       <c r="E266" s="42"/>
-      <c r="F266" s="143"/>
+      <c r="F266" s="115"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B267" ca="1">IF(AND(C267&lt;&gt;"",E267&lt;&gt;"")=TRUE, CELL("row",B267)-17,"")</f>
+        <f t="array" aca="1" ref="B267" ca="1">IF(AND(C267&lt;&gt;"",E267&lt;&gt;"")=TRUE, CELL("row",B267)-18,"")</f>
         <v/>
       </c>
       <c r="C267" s="32"/>
       <c r="D267" s="51"/>
       <c r="E267" s="42"/>
-      <c r="F267" s="143"/>
+      <c r="F267" s="115"/>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B268" ca="1">IF(AND(C268&lt;&gt;"",E268&lt;&gt;"")=TRUE, CELL("row",B268)-17,"")</f>
+        <f t="array" aca="1" ref="B268" ca="1">IF(AND(C268&lt;&gt;"",E268&lt;&gt;"")=TRUE, CELL("row",B268)-18,"")</f>
         <v/>
       </c>
       <c r="C268" s="32"/>
       <c r="D268" s="51"/>
       <c r="E268" s="42"/>
-      <c r="F268" s="143"/>
+      <c r="F268" s="115"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B269" ca="1">IF(AND(C269&lt;&gt;"",E269&lt;&gt;"")=TRUE, CELL("row",B269)-17,"")</f>
+        <f t="array" aca="1" ref="B269" ca="1">IF(AND(C269&lt;&gt;"",E269&lt;&gt;"")=TRUE, CELL("row",B269)-18,"")</f>
         <v/>
       </c>
       <c r="C269" s="32"/>
       <c r="D269" s="51"/>
       <c r="E269" s="42"/>
-      <c r="F269" s="143"/>
+      <c r="F269" s="115"/>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B270" ca="1">IF(AND(C270&lt;&gt;"",E270&lt;&gt;"")=TRUE, CELL("row",B270)-17,"")</f>
+        <f t="array" aca="1" ref="B270" ca="1">IF(AND(C270&lt;&gt;"",E270&lt;&gt;"")=TRUE, CELL("row",B270)-18,"")</f>
         <v/>
       </c>
       <c r="C270" s="32"/>
       <c r="D270" s="51"/>
       <c r="E270" s="42"/>
-      <c r="F270" s="143"/>
+      <c r="F270" s="115"/>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B271" ca="1">IF(AND(C271&lt;&gt;"",E271&lt;&gt;"")=TRUE, CELL("row",B271)-17,"")</f>
+        <f t="array" aca="1" ref="B271" ca="1">IF(AND(C271&lt;&gt;"",E271&lt;&gt;"")=TRUE, CELL("row",B271)-18,"")</f>
         <v/>
       </c>
       <c r="C271" s="32"/>
       <c r="D271" s="51"/>
       <c r="E271" s="42"/>
-      <c r="F271" s="143"/>
+      <c r="F271" s="115"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B272" ca="1">IF(AND(C272&lt;&gt;"",E272&lt;&gt;"")=TRUE, CELL("row",B272)-17,"")</f>
+        <f t="array" aca="1" ref="B272" ca="1">IF(AND(C272&lt;&gt;"",E272&lt;&gt;"")=TRUE, CELL("row",B272)-18,"")</f>
         <v/>
       </c>
       <c r="C272" s="32"/>
       <c r="D272" s="51"/>
       <c r="E272" s="42"/>
-      <c r="F272" s="143"/>
+      <c r="F272" s="115"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B273" ca="1">IF(AND(C273&lt;&gt;"",E273&lt;&gt;"")=TRUE, CELL("row",B273)-17,"")</f>
+        <f t="array" aca="1" ref="B273" ca="1">IF(AND(C273&lt;&gt;"",E273&lt;&gt;"")=TRUE, CELL("row",B273)-18,"")</f>
         <v/>
       </c>
       <c r="C273" s="32"/>
       <c r="D273" s="51"/>
       <c r="E273" s="42"/>
-      <c r="F273" s="143"/>
+      <c r="F273" s="115"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B274" ca="1">IF(AND(C274&lt;&gt;"",E274&lt;&gt;"")=TRUE, CELL("row",B274)-17,"")</f>
+        <f t="array" aca="1" ref="B274" ca="1">IF(AND(C274&lt;&gt;"",E274&lt;&gt;"")=TRUE, CELL("row",B274)-18,"")</f>
         <v/>
       </c>
       <c r="C274" s="32"/>
       <c r="D274" s="51"/>
       <c r="E274" s="42"/>
-      <c r="F274" s="143"/>
+      <c r="F274" s="115"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B275" ca="1">IF(AND(C275&lt;&gt;"",E275&lt;&gt;"")=TRUE, CELL("row",B275)-17,"")</f>
+        <f t="array" aca="1" ref="B275" ca="1">IF(AND(C275&lt;&gt;"",E275&lt;&gt;"")=TRUE, CELL("row",B275)-18,"")</f>
         <v/>
       </c>
       <c r="C275" s="32"/>
       <c r="D275" s="51"/>
       <c r="E275" s="42"/>
-      <c r="F275" s="143"/>
+      <c r="F275" s="115"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B276" ca="1">IF(AND(C276&lt;&gt;"",E276&lt;&gt;"")=TRUE, CELL("row",B276)-17,"")</f>
+        <f t="array" aca="1" ref="B276" ca="1">IF(AND(C276&lt;&gt;"",E276&lt;&gt;"")=TRUE, CELL("row",B276)-18,"")</f>
         <v/>
       </c>
       <c r="C276" s="32"/>
       <c r="D276" s="51"/>
       <c r="E276" s="42"/>
-      <c r="F276" s="143"/>
+      <c r="F276" s="115"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B277" ca="1">IF(AND(C277&lt;&gt;"",E277&lt;&gt;"")=TRUE, CELL("row",B277)-17,"")</f>
+        <f t="array" aca="1" ref="B277" ca="1">IF(AND(C277&lt;&gt;"",E277&lt;&gt;"")=TRUE, CELL("row",B277)-18,"")</f>
         <v/>
       </c>
       <c r="C277" s="32"/>
       <c r="D277" s="51"/>
       <c r="E277" s="42"/>
-      <c r="F277" s="143"/>
+      <c r="F277" s="115"/>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B278" ca="1">IF(AND(C278&lt;&gt;"",E278&lt;&gt;"")=TRUE, CELL("row",B278)-17,"")</f>
+        <f t="array" aca="1" ref="B278" ca="1">IF(AND(C278&lt;&gt;"",E278&lt;&gt;"")=TRUE, CELL("row",B278)-18,"")</f>
         <v/>
       </c>
       <c r="C278" s="32"/>
       <c r="D278" s="51"/>
       <c r="E278" s="42"/>
-      <c r="F278" s="143"/>
+      <c r="F278" s="115"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B279" ca="1">IF(AND(C279&lt;&gt;"",E279&lt;&gt;"")=TRUE, CELL("row",B279)-17,"")</f>
+        <f t="array" aca="1" ref="B279" ca="1">IF(AND(C279&lt;&gt;"",E279&lt;&gt;"")=TRUE, CELL("row",B279)-18,"")</f>
         <v/>
       </c>
       <c r="C279" s="32"/>
       <c r="D279" s="51"/>
       <c r="E279" s="42"/>
-      <c r="F279" s="143"/>
+      <c r="F279" s="115"/>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B280" ca="1">IF(AND(C280&lt;&gt;"",E280&lt;&gt;"")=TRUE, CELL("row",B280)-17,"")</f>
+        <f t="array" aca="1" ref="B280" ca="1">IF(AND(C280&lt;&gt;"",E280&lt;&gt;"")=TRUE, CELL("row",B280)-18,"")</f>
         <v/>
       </c>
       <c r="C280" s="32"/>
       <c r="D280" s="51"/>
       <c r="E280" s="42"/>
-      <c r="F280" s="143"/>
+      <c r="F280" s="115"/>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B281" ca="1">IF(AND(C281&lt;&gt;"",E281&lt;&gt;"")=TRUE, CELL("row",B281)-17,"")</f>
+        <f t="array" aca="1" ref="B281" ca="1">IF(AND(C281&lt;&gt;"",E281&lt;&gt;"")=TRUE, CELL("row",B281)-18,"")</f>
         <v/>
       </c>
       <c r="C281" s="32"/>
       <c r="D281" s="51"/>
       <c r="E281" s="42"/>
-      <c r="F281" s="143"/>
+      <c r="F281" s="115"/>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B282" ca="1">IF(AND(C282&lt;&gt;"",E282&lt;&gt;"")=TRUE, CELL("row",B282)-17,"")</f>
+        <f t="array" aca="1" ref="B282" ca="1">IF(AND(C282&lt;&gt;"",E282&lt;&gt;"")=TRUE, CELL("row",B282)-18,"")</f>
         <v/>
       </c>
       <c r="C282" s="32"/>
       <c r="D282" s="51"/>
       <c r="E282" s="42"/>
-      <c r="F282" s="143"/>
+      <c r="F282" s="115"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B283" ca="1">IF(AND(C283&lt;&gt;"",E283&lt;&gt;"")=TRUE, CELL("row",B283)-17,"")</f>
+        <f t="array" aca="1" ref="B283" ca="1">IF(AND(C283&lt;&gt;"",E283&lt;&gt;"")=TRUE, CELL("row",B283)-18,"")</f>
         <v/>
       </c>
       <c r="C283" s="32"/>
       <c r="D283" s="51"/>
       <c r="E283" s="42"/>
-      <c r="F283" s="143"/>
+      <c r="F283" s="115"/>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B284" ca="1">IF(AND(C284&lt;&gt;"",E284&lt;&gt;"")=TRUE, CELL("row",B284)-17,"")</f>
+        <f t="array" aca="1" ref="B284" ca="1">IF(AND(C284&lt;&gt;"",E284&lt;&gt;"")=TRUE, CELL("row",B284)-18,"")</f>
         <v/>
       </c>
       <c r="C284" s="32"/>
       <c r="D284" s="51"/>
       <c r="E284" s="42"/>
-      <c r="F284" s="143"/>
+      <c r="F284" s="115"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B285" ca="1">IF(AND(C285&lt;&gt;"",E285&lt;&gt;"")=TRUE, CELL("row",B285)-17,"")</f>
+        <f t="array" aca="1" ref="B285" ca="1">IF(AND(C285&lt;&gt;"",E285&lt;&gt;"")=TRUE, CELL("row",B285)-18,"")</f>
         <v/>
       </c>
       <c r="C285" s="32"/>
       <c r="D285" s="51"/>
       <c r="E285" s="42"/>
-      <c r="F285" s="143"/>
+      <c r="F285" s="115"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B286" ca="1">IF(AND(C286&lt;&gt;"",E286&lt;&gt;"")=TRUE, CELL("row",B286)-17,"")</f>
+        <f t="array" aca="1" ref="B286" ca="1">IF(AND(C286&lt;&gt;"",E286&lt;&gt;"")=TRUE, CELL("row",B286)-18,"")</f>
         <v/>
       </c>
       <c r="C286" s="32"/>
       <c r="D286" s="51"/>
       <c r="E286" s="42"/>
-      <c r="F286" s="143"/>
+      <c r="F286" s="115"/>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B287" ca="1">IF(AND(C287&lt;&gt;"",E287&lt;&gt;"")=TRUE, CELL("row",B287)-17,"")</f>
+        <f t="array" aca="1" ref="B287" ca="1">IF(AND(C287&lt;&gt;"",E287&lt;&gt;"")=TRUE, CELL("row",B287)-18,"")</f>
         <v/>
       </c>
       <c r="C287" s="32"/>
       <c r="D287" s="51"/>
       <c r="E287" s="42"/>
-      <c r="F287" s="143"/>
+      <c r="F287" s="115"/>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B288" ca="1">IF(AND(C288&lt;&gt;"",E288&lt;&gt;"")=TRUE, CELL("row",B288)-17,"")</f>
+        <f t="array" aca="1" ref="B288" ca="1">IF(AND(C288&lt;&gt;"",E288&lt;&gt;"")=TRUE, CELL("row",B288)-18,"")</f>
         <v/>
       </c>
       <c r="C288" s="32"/>
       <c r="D288" s="51"/>
       <c r="E288" s="42"/>
-      <c r="F288" s="143"/>
+      <c r="F288" s="115"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B289" ca="1">IF(AND(C289&lt;&gt;"",E289&lt;&gt;"")=TRUE, CELL("row",B289)-17,"")</f>
+        <f t="array" aca="1" ref="B289" ca="1">IF(AND(C289&lt;&gt;"",E289&lt;&gt;"")=TRUE, CELL("row",B289)-18,"")</f>
         <v/>
       </c>
       <c r="C289" s="32"/>
       <c r="D289" s="51"/>
       <c r="E289" s="42"/>
-      <c r="F289" s="143"/>
+      <c r="F289" s="115"/>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B290" ca="1">IF(AND(C290&lt;&gt;"",E290&lt;&gt;"")=TRUE, CELL("row",B290)-17,"")</f>
+        <f t="array" aca="1" ref="B290" ca="1">IF(AND(C290&lt;&gt;"",E290&lt;&gt;"")=TRUE, CELL("row",B290)-18,"")</f>
         <v/>
       </c>
       <c r="C290" s="32"/>
       <c r="D290" s="51"/>
       <c r="E290" s="42"/>
-      <c r="F290" s="143"/>
+      <c r="F290" s="115"/>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B291" ca="1">IF(AND(C291&lt;&gt;"",E291&lt;&gt;"")=TRUE, CELL("row",B291)-17,"")</f>
+        <f t="array" aca="1" ref="B291" ca="1">IF(AND(C291&lt;&gt;"",E291&lt;&gt;"")=TRUE, CELL("row",B291)-18,"")</f>
         <v/>
       </c>
       <c r="C291" s="32"/>
       <c r="D291" s="51"/>
       <c r="E291" s="42"/>
-      <c r="F291" s="143"/>
+      <c r="F291" s="115"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B292" ca="1">IF(AND(C292&lt;&gt;"",E292&lt;&gt;"")=TRUE, CELL("row",B292)-17,"")</f>
+        <f t="array" aca="1" ref="B292" ca="1">IF(AND(C292&lt;&gt;"",E292&lt;&gt;"")=TRUE, CELL("row",B292)-18,"")</f>
         <v/>
       </c>
       <c r="C292" s="32"/>
       <c r="D292" s="51"/>
       <c r="E292" s="42"/>
-      <c r="F292" s="143"/>
+      <c r="F292" s="115"/>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B293" ca="1">IF(AND(C293&lt;&gt;"",E293&lt;&gt;"")=TRUE, CELL("row",B293)-17,"")</f>
+        <f t="array" aca="1" ref="B293" ca="1">IF(AND(C293&lt;&gt;"",E293&lt;&gt;"")=TRUE, CELL("row",B293)-18,"")</f>
         <v/>
       </c>
       <c r="C293" s="32"/>
       <c r="D293" s="51"/>
       <c r="E293" s="42"/>
-      <c r="F293" s="143"/>
+      <c r="F293" s="115"/>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B294" ca="1">IF(AND(C294&lt;&gt;"",E294&lt;&gt;"")=TRUE, CELL("row",B294)-17,"")</f>
+        <f t="array" aca="1" ref="B294" ca="1">IF(AND(C294&lt;&gt;"",E294&lt;&gt;"")=TRUE, CELL("row",B294)-18,"")</f>
         <v/>
       </c>
       <c r="C294" s="32"/>
       <c r="D294" s="51"/>
       <c r="E294" s="42"/>
-      <c r="F294" s="143"/>
+      <c r="F294" s="115"/>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B295" ca="1">IF(AND(C295&lt;&gt;"",E295&lt;&gt;"")=TRUE, CELL("row",B295)-17,"")</f>
+        <f t="array" aca="1" ref="B295" ca="1">IF(AND(C295&lt;&gt;"",E295&lt;&gt;"")=TRUE, CELL("row",B295)-18,"")</f>
         <v/>
       </c>
       <c r="C295" s="32"/>
       <c r="D295" s="51"/>
       <c r="E295" s="42"/>
-      <c r="F295" s="143"/>
+      <c r="F295" s="115"/>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B296" ca="1">IF(AND(C296&lt;&gt;"",E296&lt;&gt;"")=TRUE, CELL("row",B296)-17,"")</f>
+        <f t="array" aca="1" ref="B296" ca="1">IF(AND(C296&lt;&gt;"",E296&lt;&gt;"")=TRUE, CELL("row",B296)-18,"")</f>
         <v/>
       </c>
       <c r="C296" s="32"/>
       <c r="D296" s="51"/>
       <c r="E296" s="42"/>
-      <c r="F296" s="143"/>
+      <c r="F296" s="115"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B297" ca="1">IF(AND(C297&lt;&gt;"",E297&lt;&gt;"")=TRUE, CELL("row",B297)-17,"")</f>
+        <f t="array" aca="1" ref="B297" ca="1">IF(AND(C297&lt;&gt;"",E297&lt;&gt;"")=TRUE, CELL("row",B297)-18,"")</f>
         <v/>
       </c>
       <c r="C297" s="32"/>
       <c r="D297" s="51"/>
       <c r="E297" s="42"/>
-      <c r="F297" s="143"/>
+      <c r="F297" s="115"/>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B298" ca="1">IF(AND(C298&lt;&gt;"",E298&lt;&gt;"")=TRUE, CELL("row",B298)-17,"")</f>
+        <f t="array" aca="1" ref="B298" ca="1">IF(AND(C298&lt;&gt;"",E298&lt;&gt;"")=TRUE, CELL("row",B298)-18,"")</f>
         <v/>
       </c>
       <c r="C298" s="32"/>
       <c r="D298" s="51"/>
       <c r="E298" s="42"/>
-      <c r="F298" s="143"/>
+      <c r="F298" s="115"/>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B299" ca="1">IF(AND(C299&lt;&gt;"",E299&lt;&gt;"")=TRUE, CELL("row",B299)-17,"")</f>
+        <f t="array" aca="1" ref="B299" ca="1">IF(AND(C299&lt;&gt;"",E299&lt;&gt;"")=TRUE, CELL("row",B299)-18,"")</f>
         <v/>
       </c>
       <c r="C299" s="32"/>
       <c r="D299" s="51"/>
       <c r="E299" s="42"/>
-      <c r="F299" s="143"/>
+      <c r="F299" s="115"/>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B300" ca="1">IF(AND(C300&lt;&gt;"",E300&lt;&gt;"")=TRUE, CELL("row",B300)-17,"")</f>
+        <f t="array" aca="1" ref="B300" ca="1">IF(AND(C300&lt;&gt;"",E300&lt;&gt;"")=TRUE, CELL("row",B300)-18,"")</f>
         <v/>
       </c>
       <c r="C300" s="32"/>
       <c r="D300" s="51"/>
       <c r="E300" s="42"/>
-      <c r="F300" s="143"/>
+      <c r="F300" s="115"/>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B301" ca="1">IF(AND(C301&lt;&gt;"",E301&lt;&gt;"")=TRUE, CELL("row",B301)-17,"")</f>
+        <f t="array" aca="1" ref="B301" ca="1">IF(AND(C301&lt;&gt;"",E301&lt;&gt;"")=TRUE, CELL("row",B301)-18,"")</f>
         <v/>
       </c>
       <c r="C301" s="32"/>
       <c r="D301" s="51"/>
       <c r="E301" s="42"/>
-      <c r="F301" s="143"/>
+      <c r="F301" s="115"/>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B302" ca="1">IF(AND(C302&lt;&gt;"",E302&lt;&gt;"")=TRUE, CELL("row",B302)-17,"")</f>
+        <f t="array" aca="1" ref="B302" ca="1">IF(AND(C302&lt;&gt;"",E302&lt;&gt;"")=TRUE, CELL("row",B302)-18,"")</f>
         <v/>
       </c>
       <c r="C302" s="32"/>
       <c r="D302" s="51"/>
       <c r="E302" s="42"/>
-      <c r="F302" s="143"/>
+      <c r="F302" s="115"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B303" ca="1">IF(AND(C303&lt;&gt;"",E303&lt;&gt;"")=TRUE, CELL("row",B303)-17,"")</f>
+        <f t="array" aca="1" ref="B303" ca="1">IF(AND(C303&lt;&gt;"",E303&lt;&gt;"")=TRUE, CELL("row",B303)-18,"")</f>
         <v/>
       </c>
       <c r="C303" s="32"/>
       <c r="D303" s="51"/>
       <c r="E303" s="42"/>
-      <c r="F303" s="143"/>
+      <c r="F303" s="115"/>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B304" ca="1">IF(AND(C304&lt;&gt;"",E304&lt;&gt;"")=TRUE, CELL("row",B304)-17,"")</f>
+        <f t="array" aca="1" ref="B304" ca="1">IF(AND(C304&lt;&gt;"",E304&lt;&gt;"")=TRUE, CELL("row",B304)-18,"")</f>
         <v/>
       </c>
       <c r="C304" s="32"/>
       <c r="D304" s="51"/>
       <c r="E304" s="42"/>
-      <c r="F304" s="143"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F304" s="115"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B305" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B305" ca="1">IF(AND(C305&lt;&gt;"",E305&lt;&gt;"")=TRUE, CELL("row",B305)-17,"")</f>
+        <f t="array" aca="1" ref="B305" ca="1">IF(AND(C305&lt;&gt;"",E305&lt;&gt;"")=TRUE, CELL("row",B305)-18,"")</f>
         <v/>
       </c>
       <c r="C305" s="32"/>
       <c r="D305" s="51"/>
       <c r="E305" s="42"/>
-      <c r="F305" s="143"/>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F305" s="115"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B306" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B306" ca="1">IF(AND(C306&lt;&gt;"",E306&lt;&gt;"")=TRUE, CELL("row",B306)-17,"")</f>
+        <f t="array" aca="1" ref="B306" ca="1">IF(AND(C306&lt;&gt;"",E306&lt;&gt;"")=TRUE, CELL("row",B306)-18,"")</f>
         <v/>
       </c>
       <c r="C306" s="32"/>
       <c r="D306" s="51"/>
       <c r="E306" s="42"/>
-      <c r="F306" s="143"/>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F306" s="115"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B307" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B307" ca="1">IF(AND(C307&lt;&gt;"",E307&lt;&gt;"")=TRUE, CELL("row",B307)-17,"")</f>
+        <f t="array" aca="1" ref="B307" ca="1">IF(AND(C307&lt;&gt;"",E307&lt;&gt;"")=TRUE, CELL("row",B307)-18,"")</f>
         <v/>
       </c>
       <c r="C307" s="32"/>
       <c r="D307" s="51"/>
       <c r="E307" s="42"/>
-      <c r="F307" s="143"/>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F307" s="115"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B308" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B308" ca="1">IF(AND(C308&lt;&gt;"",E308&lt;&gt;"")=TRUE, CELL("row",B308)-17,"")</f>
+        <f t="array" aca="1" ref="B308" ca="1">IF(AND(C308&lt;&gt;"",E308&lt;&gt;"")=TRUE, CELL("row",B308)-18,"")</f>
         <v/>
       </c>
       <c r="C308" s="32"/>
       <c r="D308" s="51"/>
       <c r="E308" s="42"/>
-      <c r="F308" s="143"/>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F308" s="115"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B309" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B309" ca="1">IF(AND(C309&lt;&gt;"",E309&lt;&gt;"")=TRUE, CELL("row",B309)-17,"")</f>
+        <f t="array" aca="1" ref="B309" ca="1">IF(AND(C309&lt;&gt;"",E309&lt;&gt;"")=TRUE, CELL("row",B309)-18,"")</f>
         <v/>
       </c>
       <c r="C309" s="32"/>
       <c r="D309" s="51"/>
       <c r="E309" s="42"/>
-      <c r="F309" s="143"/>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F309" s="115"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B310" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B310" ca="1">IF(AND(C310&lt;&gt;"",E310&lt;&gt;"")=TRUE, CELL("row",B310)-17,"")</f>
+        <f t="array" aca="1" ref="B310" ca="1">IF(AND(C310&lt;&gt;"",E310&lt;&gt;"")=TRUE, CELL("row",B310)-18,"")</f>
         <v/>
       </c>
       <c r="C310" s="32"/>
       <c r="D310" s="51"/>
       <c r="E310" s="42"/>
-      <c r="F310" s="143"/>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F310" s="115"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B311" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B311" ca="1">IF(AND(C311&lt;&gt;"",E311&lt;&gt;"")=TRUE, CELL("row",B311)-17,"")</f>
+        <f t="array" aca="1" ref="B311" ca="1">IF(AND(C311&lt;&gt;"",E311&lt;&gt;"")=TRUE, CELL("row",B311)-18,"")</f>
         <v/>
       </c>
       <c r="C311" s="32"/>
       <c r="D311" s="51"/>
       <c r="E311" s="42"/>
-      <c r="F311" s="143"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F311" s="115"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B312" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B312" ca="1">IF(AND(C312&lt;&gt;"",E312&lt;&gt;"")=TRUE, CELL("row",B312)-17,"")</f>
+        <f t="array" aca="1" ref="B312" ca="1">IF(AND(C312&lt;&gt;"",E312&lt;&gt;"")=TRUE, CELL("row",B312)-18,"")</f>
         <v/>
       </c>
       <c r="C312" s="32"/>
       <c r="D312" s="51"/>
       <c r="E312" s="42"/>
-      <c r="F312" s="143"/>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F312" s="115"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B313" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B313" ca="1">IF(AND(C313&lt;&gt;"",E313&lt;&gt;"")=TRUE, CELL("row",B313)-17,"")</f>
+        <f t="array" aca="1" ref="B313" ca="1">IF(AND(C313&lt;&gt;"",E313&lt;&gt;"")=TRUE, CELL("row",B313)-18,"")</f>
         <v/>
       </c>
       <c r="C313" s="32"/>
       <c r="D313" s="51"/>
       <c r="E313" s="42"/>
-      <c r="F313" s="143"/>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F313" s="115"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B314" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B314" ca="1">IF(AND(C314&lt;&gt;"",E314&lt;&gt;"")=TRUE, CELL("row",B314)-17,"")</f>
+        <f t="array" aca="1" ref="B314" ca="1">IF(AND(C314&lt;&gt;"",E314&lt;&gt;"")=TRUE, CELL("row",B314)-18,"")</f>
         <v/>
       </c>
       <c r="C314" s="32"/>
       <c r="D314" s="51"/>
       <c r="E314" s="42"/>
-      <c r="F314" s="144"/>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F314" s="115"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B315" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B315" ca="1">IF(AND(C315&lt;&gt;"",E315&lt;&gt;"")=TRUE, CELL("row",B315)-17,"")</f>
+        <f t="array" aca="1" ref="B315" ca="1">IF(AND(C315&lt;&gt;"",E315&lt;&gt;"")=TRUE, CELL("row",B315)-18,"")</f>
         <v/>
       </c>
       <c r="C315" s="32"/>
       <c r="D315" s="51"/>
       <c r="E315" s="42"/>
-      <c r="F315" s="143"/>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F315" s="116"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B316" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B316" ca="1">IF(AND(C316&lt;&gt;"",E316&lt;&gt;"")=TRUE, CELL("row",B316)-17,"")</f>
+        <f t="array" aca="1" ref="B316" ca="1">IF(AND(C316&lt;&gt;"",E316&lt;&gt;"")=TRUE, CELL("row",B316)-18,"")</f>
         <v/>
       </c>
       <c r="C316" s="32"/>
       <c r="D316" s="51"/>
       <c r="E316" s="42"/>
-      <c r="F316" s="143"/>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F316" s="115"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B317" s="31" t="str" cm="1">
-        <f t="array" aca="1" ref="B317" ca="1">IF(AND(C317&lt;&gt;"",E317&lt;&gt;"")=TRUE, CELL("row",B317)-17,"")</f>
+        <f t="array" aca="1" ref="B317" ca="1">IF(AND(C317&lt;&gt;"",E317&lt;&gt;"")=TRUE, CELL("row",B317)-18,"")</f>
         <v/>
       </c>
       <c r="C317" s="32"/>
       <c r="D317" s="51"/>
       <c r="E317" s="42"/>
-      <c r="F317" s="143"/>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B318" s="50">
-        <f ca="1">COUNTIF(B18:B317, "")</f>
+      <c r="F317" s="115"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B318" s="31" t="str" cm="1">
+        <f t="array" aca="1" ref="B318" ca="1">IF(AND(C318&lt;&gt;"",E318&lt;&gt;"")=TRUE, CELL("row",B318)-18,"")</f>
+        <v/>
+      </c>
+      <c r="C318" s="32"/>
+      <c r="D318" s="51"/>
+      <c r="E318" s="42"/>
+      <c r="F318" s="115"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B319" s="50">
+        <f ca="1">COUNTIF(B19:B318, "")</f>
         <v>219</v>
       </c>
-      <c r="C318" s="50">
-        <f>COUNTIF(C18:C317, "")</f>
+      <c r="C319" s="50">
+        <f>COUNTIF(C19:C318, "")</f>
         <v>219</v>
       </c>
-      <c r="D318" s="50">
-        <f>COUNTIF(D18:D317, "")</f>
+      <c r="D319" s="50">
+        <f>COUNTIF(D19:D318, "")</f>
         <v>219</v>
       </c>
-      <c r="E318" s="49">
-        <f>COUNTIF(E18:E317, "")</f>
+      <c r="E319" s="49">
+        <f>COUNTIF(E19:E318, "")</f>
         <v>219</v>
       </c>
-      <c r="F318" s="143" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="319" spans="2:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B319" s="4"/>
-      <c r="C319" s="30"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="4"/>
-      <c r="F319" s="143"/>
+      <c r="F319" s="115" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="4"/>
+      <c r="C320" s="30"/>
+      <c r="D320" s="4"/>
+      <c r="E320" s="4"/>
+      <c r="F320" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D18:D317">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="D19:D318">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Q"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="   - (Press delete to clear)_x000a_i  - Information_x000a_T - To Do_x000a_B - Blocked_x000a_F - Fail_x000a_P - Pass" sqref="D18:D317" xr:uid="{6E06EBBB-4D42-4334-B364-FA8E1BDD30D5}">
-      <formula1>"i,T,B,F,P"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="   - (Press delete to clear)_x000a_i  - Information_x000a_T - To Do_x000a_B - Blocked_x000a_F - Fail_x000a_Q - Qualified Pass_x000a_P - Pass" sqref="D19:D318" xr:uid="{6E06EBBB-4D42-4334-B364-FA8E1BDD30D5}">
+      <formula1>"i,T,B,F,Q,P"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13004,10 +13523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B27ECF3-B3EE-4518-A64F-6E23BEA6EF6C}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13017,12 +13536,14 @@
     <col min="3" max="3" width="46.77734375" style="11" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.88671875" style="11" customWidth="1"/>
-    <col min="6" max="15" width="5.44140625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="1.77734375" style="11" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="11"/>
+    <col min="6" max="8" width="5.44140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="58" customWidth="1"/>
+    <col min="10" max="16" width="5.44140625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" style="11" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="41" t="s">
         <v>47</v>
@@ -13040,9 +13561,10 @@
       <c r="M1" s="38"/>
       <c r="N1" s="38"/>
       <c r="O1" s="38"/>
-      <c r="P1" s="13"/>
-    </row>
-    <row r="2" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -13051,7 +13573,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
+      <c r="I2" s="59"/>
       <c r="J2" s="13"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
@@ -13059,43 +13581,45 @@
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q2" s="13"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="124" t="s">
+      <c r="B3" s="127" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="125" t="s">
+      <c r="C3" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126" t="s">
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="124"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -13105,32 +13629,35 @@
       <c r="H4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="L4" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="M4" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="35" t="s">
+      <c r="N4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="35" t="s">
+      <c r="O4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="13"/>
+    </row>
+    <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="109" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -13139,7 +13666,7 @@
       <c r="D5" s="17">
         <v>44281</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="75">
         <v>1.8</v>
       </c>
       <c r="F5" s="60">
@@ -13152,33 +13679,36 @@
         <v>8</v>
       </c>
       <c r="I5" s="60">
+        <v>0</v>
+      </c>
+      <c r="J5" s="60">
         <v>39</v>
       </c>
-      <c r="J5" s="15">
-        <f>IF(SUM(F5:I5)=0, "", SUM(F5:I5))</f>
+      <c r="K5" s="15">
+        <f>IF(SUM(F5:J5)=0, "", SUM(F5:J5))</f>
         <v>48</v>
       </c>
-      <c r="K5" s="63">
+      <c r="L5" s="62">
         <v>6</v>
       </c>
-      <c r="L5" s="63">
+      <c r="M5" s="62">
         <v>4</v>
-      </c>
-      <c r="M5" s="60">
-        <v>0</v>
       </c>
       <c r="N5" s="60">
         <v>0</v>
       </c>
-      <c r="O5" s="15">
-        <f t="shared" ref="O5:O8" si="0">IF(SUM(K5:N5)=0, "", SUM(K5:N5))</f>
+      <c r="O5" s="60">
+        <v>0</v>
+      </c>
+      <c r="P5" s="15">
+        <f t="shared" ref="P5:P8" si="0">IF(SUM(L5:O5)=0, "", SUM(L5:O5))</f>
         <v>10</v>
       </c>
-      <c r="P5" s="59"/>
-    </row>
-    <row r="6" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="59"/>
+    </row>
+    <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
-      <c r="B6" s="114" t="s">
+      <c r="B6" s="109" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -13187,7 +13717,7 @@
       <c r="D6" s="17">
         <v>44282</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="75">
         <v>2.1</v>
       </c>
       <c r="F6" s="60">
@@ -13200,33 +13730,36 @@
         <v>3</v>
       </c>
       <c r="I6" s="60">
-        <v>60</v>
-      </c>
-      <c r="J6" s="15">
-        <f>IF(SUM(F6:I6)=0, "", SUM(F6:I6))</f>
+        <v>20</v>
+      </c>
+      <c r="J6" s="60">
+        <v>40</v>
+      </c>
+      <c r="K6" s="15">
+        <f>IF(SUM(F6:J6)=0, "", SUM(F6:J6))</f>
         <v>68</v>
       </c>
-      <c r="K6" s="63">
+      <c r="L6" s="62">
         <v>1</v>
       </c>
-      <c r="L6" s="63">
+      <c r="M6" s="62">
         <v>2</v>
       </c>
-      <c r="M6" s="60">
+      <c r="N6" s="60">
         <v>0</v>
       </c>
-      <c r="N6" s="60">
+      <c r="O6" s="60">
         <v>10</v>
       </c>
-      <c r="O6" s="15">
-        <f t="shared" ref="O6:O7" si="1">IF(SUM(K6:N6)=0, "", SUM(K6:N6))</f>
+      <c r="P6" s="15">
+        <f t="shared" ref="P6:P7" si="1">IF(SUM(L6:O6)=0, "", SUM(L6:O6))</f>
         <v>13</v>
       </c>
-      <c r="P6" s="59"/>
-    </row>
-    <row r="7" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="109" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -13235,7 +13768,7 @@
       <c r="D7" s="17">
         <v>44283</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="75">
         <v>1.9</v>
       </c>
       <c r="F7" s="60">
@@ -13248,32 +13781,35 @@
         <v>4</v>
       </c>
       <c r="I7" s="60">
-        <v>65</v>
-      </c>
-      <c r="J7" s="15">
-        <f>IF(SUM(F7:I7)=0, "", SUM(F7:I7))</f>
+        <v>30</v>
+      </c>
+      <c r="J7" s="60">
+        <v>35</v>
+      </c>
+      <c r="K7" s="15">
+        <f>IF(SUM(F7:J7)=0, "", SUM(F7:J7))</f>
         <v>72</v>
       </c>
-      <c r="K7" s="63">
+      <c r="L7" s="62">
         <v>1</v>
       </c>
-      <c r="L7" s="63"/>
-      <c r="M7" s="60">
+      <c r="M7" s="62"/>
+      <c r="N7" s="60">
         <v>0</v>
       </c>
-      <c r="N7" s="60">
+      <c r="O7" s="60">
         <v>12</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="15">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P7" s="59"/>
-    </row>
-    <row r="8" spans="1:16" s="58" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
-      <c r="B8" s="114" t="s">
-        <v>132</v>
+      <c r="B8" s="109" t="s">
+        <v>131</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>104</v>
@@ -13281,7 +13817,7 @@
       <c r="D8" s="17">
         <v>44284</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="75">
         <v>0.8</v>
       </c>
       <c r="F8" s="60">
@@ -13294,1000 +13830,1048 @@
         <v>0</v>
       </c>
       <c r="I8" s="60">
+        <v>42</v>
+      </c>
+      <c r="J8" s="60">
+        <v>32</v>
+      </c>
+      <c r="K8" s="15">
+        <f>IF(SUM(F8:J8)=0, "", SUM(F8:J8))</f>
         <v>74</v>
       </c>
-      <c r="J8" s="15">
-        <f>IF(SUM(F8:I8)=0, "", SUM(F8:I8))</f>
-        <v>74</v>
-      </c>
-      <c r="K8" s="63">
+      <c r="L8" s="62">
         <v>0</v>
       </c>
-      <c r="L8" s="63">
+      <c r="M8" s="62">
         <v>0</v>
       </c>
-      <c r="M8" s="60">
+      <c r="N8" s="60">
         <v>0</v>
       </c>
-      <c r="N8" s="60">
+      <c r="O8" s="60">
         <v>14</v>
       </c>
-      <c r="O8" s="15">
+      <c r="P8" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P8" s="59"/>
-    </row>
-    <row r="9" spans="1:16" s="58" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="59"/>
+    </row>
+    <row r="9" spans="1:17" s="58" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="62"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="118"/>
       <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="59"/>
-    </row>
-    <row r="10" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="59"/>
+    </row>
+    <row r="10" spans="1:17" s="58" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="L3:P3"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="F3:K3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4:N4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
-    <col min="3" max="6" width="5.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" style="1" customWidth="1"/>
-    <col min="10" max="13" width="5.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="30.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" style="2" customWidth="1"/>
-    <col min="17" max="18" width="6.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.21875" style="1"/>
+    <col min="3" max="5" width="5.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.44140625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="5.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.88671875" style="1" customWidth="1"/>
+    <col min="11" max="14" width="5.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="30.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="1.77734375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="2" customWidth="1"/>
+    <col min="18" max="19" width="6.6640625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="97" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="129" t="s">
+    <row r="1" spans="2:17" s="96" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="132" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="P1" s="98"/>
-    </row>
-    <row r="2" spans="2:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
+      <c r="M1" s="132"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="132"/>
+      <c r="Q1" s="97"/>
+    </row>
+    <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="128" t="str">
+      <c r="D2" s="131" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v>Data Research Labs</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="L2" s="30" t="s">
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="127" t="str" cm="1">
-        <f t="array" ref="M2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
+      <c r="N2" s="130" t="str" cm="1">
+        <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
         <v>R4</v>
       </c>
-      <c r="N2" s="127"/>
-      <c r="P2" s="99"/>
-    </row>
-    <row r="3" spans="2:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="95"/>
+      <c r="O2" s="130"/>
+      <c r="Q2" s="98"/>
+    </row>
+    <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="94"/>
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="127" t="str">
+      <c r="D3" s="130" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v>My Test Case Manager (self-test)</v>
       </c>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="127"/>
-      <c r="L3" s="30" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="127" t="str">
+      <c r="N3" s="130" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v>Matt Pierce</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="P3" s="99"/>
-    </row>
-    <row r="4" spans="2:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="95"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="30" t="s">
+      <c r="O3" s="130"/>
+      <c r="Q3" s="98"/>
+    </row>
+    <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="94"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="128">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$J$8,9)</f>
-        <v>74</v>
-      </c>
-      <c r="N4" s="128"/>
-      <c r="P4" s="99"/>
-    </row>
-    <row r="5" spans="2:16" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="30" t="s">
+      <c r="N4" s="131">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,9)</f>
+        <v>32</v>
+      </c>
+      <c r="O4" s="131"/>
+      <c r="Q4" s="98"/>
+    </row>
+    <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="94"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="128">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$O$8,14)</f>
+      <c r="N5" s="131">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$P$8,14)</f>
         <v>14</v>
       </c>
-      <c r="N5" s="128"/>
-      <c r="P5" s="99"/>
-    </row>
-    <row r="6" spans="2:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:16" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="130" t="str">
-        <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $M$2</f>
+      <c r="O5" s="131"/>
+      <c r="Q5" s="98"/>
+    </row>
+    <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="133" t="str">
+        <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="131"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="132"/>
-      <c r="I7" s="130" t="str">
-        <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $M$2</f>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="135"/>
+      <c r="J7" s="133" t="str">
+        <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="131"/>
-      <c r="N7" s="132"/>
-      <c r="P7" s="55"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="79"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="80"/>
+      <c r="K7" s="134"/>
+      <c r="L7" s="134"/>
+      <c r="M7" s="134"/>
+      <c r="N7" s="134"/>
+      <c r="O7" s="135"/>
+      <c r="Q7" s="55"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="79"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="81"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="80"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
-      <c r="N9" s="81"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="80"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="79"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
-      <c r="G10" s="81"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="80"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="56"/>
       <c r="L10" s="56"/>
       <c r="M10" s="56"/>
-      <c r="N10" s="81"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="80"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="80"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="79"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
-      <c r="G11" s="81"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="80"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="56"/>
       <c r="L11" s="56"/>
       <c r="M11" s="56"/>
-      <c r="N11" s="81"/>
-    </row>
-    <row r="12" spans="2:16" s="54" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="80"/>
+    </row>
+    <row r="12" spans="2:17" s="54" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="79"/>
       <c r="C12" s="56"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
-      <c r="G12" s="81"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="80"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
       <c r="M12" s="56"/>
-      <c r="N12" s="81"/>
-      <c r="P12" s="55"/>
-    </row>
-    <row r="13" spans="2:16" s="74" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B13" s="82"/>
-      <c r="C13" s="100" t="s">
+      <c r="N12" s="56"/>
+      <c r="O12" s="80"/>
+      <c r="Q12" s="55"/>
+    </row>
+    <row r="13" spans="2:17" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B13" s="81"/>
+      <c r="C13" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="104" t="s">
+      <c r="H13" s="82"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="105" t="s">
+      <c r="L13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="106" t="s">
+      <c r="M13" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="87"/>
-      <c r="N13" s="83"/>
-      <c r="O13" s="75"/>
-    </row>
-    <row r="14" spans="2:16" s="74" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B14" s="107" t="str">
-        <f>$M$2</f>
+      <c r="N13" s="86"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="74"/>
+    </row>
+    <row r="14" spans="2:17" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="B14" s="106" t="str">
+        <f>$N$2</f>
         <v>R4</v>
       </c>
-      <c r="C14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$J$8,5)</f>
+      <c r="C14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,5)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$J$8,6)</f>
+      <c r="D14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,6)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$J$8,7)</f>
+      <c r="E14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,7)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$J$8,8)</f>
-        <v>74</v>
-      </c>
-      <c r="G14" s="83"/>
-      <c r="I14" s="107" t="str">
-        <f>$M$2</f>
+      <c r="F14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,8)</f>
+        <v>42</v>
+      </c>
+      <c r="G14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,9)</f>
+        <v>32</v>
+      </c>
+      <c r="H14" s="82"/>
+      <c r="J14" s="106" t="str">
+        <f>$N$2</f>
         <v>R4</v>
       </c>
-      <c r="J14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$N$8,10)+VLOOKUP($M$2,'Test Run Log'!$B$5:$N$8,11)</f>
+      <c r="K14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,11)+VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,12)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$N$8,12)</f>
+      <c r="L14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,13)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="108">
-        <f>VLOOKUP($M$2,'Test Run Log'!$B$5:$N$8,13)</f>
+      <c r="M14" s="107">
+        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,14)</f>
         <v>14</v>
       </c>
-      <c r="M14" s="87"/>
-      <c r="N14" s="83"/>
-      <c r="O14" s="75"/>
-    </row>
-    <row r="15" spans="2:16" s="74" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="86"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="75"/>
-    </row>
-    <row r="16" spans="2:16" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P16" s="55"/>
-    </row>
-    <row r="17" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="130" t="str">
+      <c r="N14" s="86"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="74"/>
+    </row>
+    <row r="15" spans="2:17" s="73" customFormat="1" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="83"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+      <c r="J15" s="83"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="74"/>
+    </row>
+    <row r="16" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="55"/>
+    </row>
+    <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="133" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
-      <c r="I17" s="130" t="str">
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
+      <c r="J17" s="133" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
-      <c r="M17" s="131"/>
-      <c r="N17" s="132"/>
-    </row>
-    <row r="28" spans="2:16" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P28" s="55"/>
-    </row>
-    <row r="29" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="130" t="str">
+      <c r="K17" s="134"/>
+      <c r="L17" s="134"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="135"/>
+    </row>
+    <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="55"/>
+    </row>
+    <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="133" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="132"/>
-      <c r="I29" s="130" t="str">
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="135"/>
+      <c r="J29" s="133" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="J29" s="131"/>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
-      <c r="N29" s="132"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="K29" s="134"/>
+      <c r="L29" s="134"/>
+      <c r="M29" s="134"/>
+      <c r="N29" s="134"/>
+      <c r="O29" s="135"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
       <c r="G30" s="54"/>
-      <c r="I30" s="54"/>
+      <c r="H30" s="54"/>
       <c r="J30" s="54"/>
       <c r="K30" s="54"/>
       <c r="L30" s="54"/>
       <c r="M30" s="54"/>
       <c r="N30" s="54"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O30" s="54"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="54"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
       <c r="G31" s="54"/>
-      <c r="I31" s="54"/>
+      <c r="H31" s="54"/>
       <c r="J31" s="54"/>
       <c r="K31" s="54"/>
       <c r="L31" s="54"/>
       <c r="M31" s="54"/>
       <c r="N31" s="54"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O31" s="54"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="54"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
       <c r="G32" s="54"/>
-      <c r="I32" s="54"/>
+      <c r="H32" s="54"/>
       <c r="J32" s="54"/>
       <c r="K32" s="54"/>
       <c r="L32" s="54"/>
       <c r="M32" s="54"/>
       <c r="N32" s="54"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O32" s="54"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B33" s="54"/>
       <c r="C33" s="54"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
       <c r="G33" s="54"/>
-      <c r="I33" s="54"/>
+      <c r="H33" s="54"/>
       <c r="J33" s="54"/>
       <c r="K33" s="54"/>
       <c r="L33" s="54"/>
       <c r="M33" s="54"/>
       <c r="N33" s="54"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O33" s="54"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
       <c r="G34" s="54"/>
-      <c r="I34" s="54"/>
+      <c r="H34" s="54"/>
       <c r="J34" s="54"/>
       <c r="K34" s="54"/>
       <c r="L34" s="54"/>
       <c r="M34" s="54"/>
       <c r="N34" s="54"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O34" s="54"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
       <c r="G35" s="54"/>
-      <c r="I35" s="54"/>
+      <c r="H35" s="54"/>
       <c r="J35" s="54"/>
       <c r="K35" s="54"/>
       <c r="L35" s="54"/>
       <c r="M35" s="54"/>
       <c r="N35" s="54"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O35" s="54"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B36" s="54"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
       <c r="G36" s="54"/>
-      <c r="I36" s="54"/>
+      <c r="H36" s="54"/>
       <c r="J36" s="54"/>
       <c r="K36" s="54"/>
       <c r="L36" s="54"/>
       <c r="M36" s="54"/>
       <c r="N36" s="54"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O36" s="54"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
       <c r="G37" s="54"/>
-      <c r="I37" s="54"/>
+      <c r="H37" s="54"/>
       <c r="J37" s="54"/>
       <c r="K37" s="54"/>
       <c r="L37" s="54"/>
       <c r="M37" s="54"/>
       <c r="N37" s="54"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O37" s="54"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
       <c r="G38" s="54"/>
-      <c r="I38" s="54"/>
+      <c r="H38" s="54"/>
       <c r="J38" s="54"/>
       <c r="K38" s="54"/>
       <c r="L38" s="54"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
-    </row>
-    <row r="40" spans="1:16" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P40" s="55"/>
-    </row>
-    <row r="41" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="130" t="s">
+      <c r="O38" s="54"/>
+    </row>
+    <row r="40" spans="1:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q40" s="55"/>
+    </row>
+    <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="133" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131"/>
-      <c r="I42" s="131"/>
-      <c r="J42" s="131"/>
-      <c r="K42" s="131"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="131"/>
-      <c r="N42" s="132"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="90" t="s">
+      <c r="C42" s="134"/>
+      <c r="D42" s="134"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="134"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="134"/>
+      <c r="K42" s="134"/>
+      <c r="L42" s="134"/>
+      <c r="M42" s="134"/>
+      <c r="N42" s="134"/>
+      <c r="O42" s="135"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="134" t="s">
+      <c r="C43" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="91"/>
-      <c r="C44" s="135"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="136"/>
-      <c r="N44" s="137"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="91"/>
-      <c r="C45" s="135"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="137"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="91"/>
-      <c r="C46" s="135"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="137"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D43" s="137"/>
+      <c r="E43" s="137"/>
+      <c r="F43" s="137"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="137"/>
+      <c r="I43" s="137"/>
+      <c r="J43" s="137"/>
+      <c r="K43" s="137"/>
+      <c r="L43" s="137"/>
+      <c r="M43" s="137"/>
+      <c r="N43" s="137"/>
+      <c r="O43" s="137"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B44" s="90"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="139"/>
+      <c r="E44" s="139"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="139"/>
+      <c r="I44" s="139"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="139"/>
+      <c r="L44" s="139"/>
+      <c r="M44" s="139"/>
+      <c r="N44" s="139"/>
+      <c r="O44" s="140"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B45" s="90"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="139"/>
+      <c r="E45" s="139"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="139"/>
+      <c r="I45" s="139"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="139"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="139"/>
+      <c r="N45" s="139"/>
+      <c r="O45" s="140"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B46" s="90"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="140"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="135"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="136"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="136"/>
-      <c r="N47" s="137"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B47" s="91"/>
+      <c r="C47" s="138"/>
+      <c r="D47" s="139"/>
+      <c r="E47" s="139"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="139"/>
+      <c r="I47" s="139"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="139"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="139"/>
+      <c r="N47" s="139"/>
+      <c r="O47" s="140"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="136"/>
-      <c r="N48" s="137"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B48" s="92"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="139"/>
+      <c r="E48" s="139"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="139"/>
+      <c r="I48" s="139"/>
+      <c r="J48" s="139"/>
+      <c r="K48" s="139"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="139"/>
+      <c r="N48" s="139"/>
+      <c r="O48" s="140"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:16" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="130" t="s">
+    <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="131"/>
-      <c r="N50" s="132"/>
-      <c r="P50" s="55"/>
-    </row>
-    <row r="51" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="89" t="s">
+      <c r="C50" s="134"/>
+      <c r="D50" s="134"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="135"/>
+      <c r="Q50" s="55"/>
+    </row>
+    <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="133" t="s">
+      <c r="C51" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="133"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
-      <c r="L51" s="133"/>
-      <c r="M51" s="133"/>
-      <c r="N51" s="133"/>
-      <c r="P51" s="55"/>
-    </row>
-    <row r="52" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="91"/>
-      <c r="C52" s="135"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
-      <c r="K52" s="136"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="136"/>
-      <c r="N52" s="137"/>
-      <c r="P52" s="55"/>
-    </row>
-    <row r="53" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="91"/>
-      <c r="C53" s="135"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="137"/>
-      <c r="P53" s="55"/>
-    </row>
-    <row r="54" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="91"/>
-      <c r="C54" s="135"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="137"/>
-      <c r="P54" s="55"/>
-    </row>
-    <row r="55" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="136"/>
+      <c r="Q51" s="55"/>
+    </row>
+    <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="90"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="139"/>
+      <c r="E52" s="139"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="139"/>
+      <c r="I52" s="139"/>
+      <c r="J52" s="139"/>
+      <c r="K52" s="139"/>
+      <c r="L52" s="139"/>
+      <c r="M52" s="139"/>
+      <c r="N52" s="139"/>
+      <c r="O52" s="140"/>
+      <c r="Q52" s="55"/>
+    </row>
+    <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="90"/>
+      <c r="C53" s="138"/>
+      <c r="D53" s="139"/>
+      <c r="E53" s="139"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="139"/>
+      <c r="I53" s="139"/>
+      <c r="J53" s="139"/>
+      <c r="K53" s="139"/>
+      <c r="L53" s="139"/>
+      <c r="M53" s="139"/>
+      <c r="N53" s="139"/>
+      <c r="O53" s="140"/>
+      <c r="Q53" s="55"/>
+    </row>
+    <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="90"/>
+      <c r="C54" s="138"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="139"/>
+      <c r="I54" s="139"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="139"/>
+      <c r="O54" s="140"/>
+      <c r="Q54" s="55"/>
+    </row>
+    <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="137"/>
-      <c r="P55" s="55"/>
-    </row>
-    <row r="56" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="91"/>
+      <c r="C55" s="138"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="139"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="139"/>
+      <c r="I55" s="139"/>
+      <c r="J55" s="139"/>
+      <c r="K55" s="139"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="139"/>
+      <c r="N55" s="139"/>
+      <c r="O55" s="140"/>
+      <c r="Q55" s="55"/>
+    </row>
+    <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="136"/>
-      <c r="N56" s="137"/>
-      <c r="P56" s="55"/>
-    </row>
-    <row r="57" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="92"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="139"/>
+      <c r="E56" s="139"/>
+      <c r="F56" s="139"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="139"/>
+      <c r="I56" s="139"/>
+      <c r="J56" s="139"/>
+      <c r="K56" s="139"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="139"/>
+      <c r="N56" s="139"/>
+      <c r="O56" s="140"/>
+      <c r="Q56" s="55"/>
+    </row>
+    <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="57"/>
-      <c r="P57" s="55"/>
-    </row>
-    <row r="58" spans="1:16" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="130" t="s">
+      <c r="Q57" s="55"/>
+    </row>
+    <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="133" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="131"/>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131"/>
-      <c r="M58" s="131"/>
-      <c r="N58" s="132"/>
-      <c r="P58" s="55"/>
-    </row>
-    <row r="59" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="89" t="s">
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="134"/>
+      <c r="L58" s="134"/>
+      <c r="M58" s="134"/>
+      <c r="N58" s="134"/>
+      <c r="O58" s="135"/>
+      <c r="Q58" s="55"/>
+    </row>
+    <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="133"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
-      <c r="P59" s="55"/>
-    </row>
-    <row r="60" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="91"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="136"/>
-      <c r="L60" s="136"/>
-      <c r="M60" s="136"/>
-      <c r="N60" s="137"/>
-      <c r="P60" s="55"/>
-    </row>
-    <row r="61" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="91"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
-      <c r="G61" s="136"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="136"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="136"/>
-      <c r="L61" s="136"/>
-      <c r="M61" s="136"/>
-      <c r="N61" s="137"/>
-      <c r="P61" s="55"/>
-    </row>
-    <row r="62" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="91"/>
-      <c r="C62" s="135"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="136"/>
-      <c r="F62" s="136"/>
-      <c r="G62" s="136"/>
-      <c r="H62" s="136"/>
-      <c r="I62" s="136"/>
-      <c r="J62" s="136"/>
-      <c r="K62" s="136"/>
-      <c r="L62" s="136"/>
-      <c r="M62" s="136"/>
-      <c r="N62" s="137"/>
-      <c r="P62" s="55"/>
-    </row>
-    <row r="63" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="Q59" s="55"/>
+    </row>
+    <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="90"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="139"/>
+      <c r="E60" s="139"/>
+      <c r="F60" s="139"/>
+      <c r="G60" s="139"/>
+      <c r="H60" s="139"/>
+      <c r="I60" s="139"/>
+      <c r="J60" s="139"/>
+      <c r="K60" s="139"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="139"/>
+      <c r="N60" s="139"/>
+      <c r="O60" s="140"/>
+      <c r="Q60" s="55"/>
+    </row>
+    <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="90"/>
+      <c r="C61" s="138"/>
+      <c r="D61" s="139"/>
+      <c r="E61" s="139"/>
+      <c r="F61" s="139"/>
+      <c r="G61" s="139"/>
+      <c r="H61" s="139"/>
+      <c r="I61" s="139"/>
+      <c r="J61" s="139"/>
+      <c r="K61" s="139"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="139"/>
+      <c r="N61" s="139"/>
+      <c r="O61" s="140"/>
+      <c r="Q61" s="55"/>
+    </row>
+    <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="90"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="139"/>
+      <c r="E62" s="139"/>
+      <c r="F62" s="139"/>
+      <c r="G62" s="139"/>
+      <c r="H62" s="139"/>
+      <c r="I62" s="139"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="139"/>
+      <c r="N62" s="139"/>
+      <c r="O62" s="140"/>
+      <c r="Q62" s="55"/>
+    </row>
+    <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="135"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="137"/>
-      <c r="P63" s="55"/>
-    </row>
-    <row r="64" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="91"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="139"/>
+      <c r="E63" s="139"/>
+      <c r="F63" s="139"/>
+      <c r="G63" s="139"/>
+      <c r="H63" s="139"/>
+      <c r="I63" s="139"/>
+      <c r="J63" s="139"/>
+      <c r="K63" s="139"/>
+      <c r="L63" s="139"/>
+      <c r="M63" s="139"/>
+      <c r="N63" s="139"/>
+      <c r="O63" s="140"/>
+      <c r="Q63" s="55"/>
+    </row>
+    <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="93"/>
-      <c r="C64" s="135"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="137"/>
-      <c r="P64" s="55"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B64" s="92"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="139"/>
+      <c r="E64" s="139"/>
+      <c r="F64" s="139"/>
+      <c r="G64" s="139"/>
+      <c r="H64" s="139"/>
+      <c r="I64" s="139"/>
+      <c r="J64" s="139"/>
+      <c r="K64" s="139"/>
+      <c r="L64" s="139"/>
+      <c r="M64" s="139"/>
+      <c r="N64" s="139"/>
+      <c r="O64" s="140"/>
+      <c r="Q64" s="55"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
     </row>
-    <row r="70" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="B70" s="1"/>
-      <c r="P70" s="9"/>
-    </row>
-    <row r="71" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q70" s="9"/>
+    </row>
+    <row r="71" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="B71" s="1"/>
-      <c r="P71" s="9"/>
-    </row>
-    <row r="72" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q71" s="9"/>
+    </row>
+    <row r="72" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="B72" s="1"/>
-      <c r="P72" s="9"/>
-    </row>
-    <row r="73" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q72" s="9"/>
+    </row>
+    <row r="73" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
       <c r="B73" s="1"/>
-      <c r="P73" s="9"/>
-    </row>
-    <row r="74" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q73" s="9"/>
+    </row>
+    <row r="74" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5"/>
       <c r="B74" s="1"/>
-      <c r="P74" s="9"/>
-    </row>
-    <row r="75" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q74" s="9"/>
+    </row>
+    <row r="75" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5"/>
       <c r="B75" s="4"/>
-      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A60:B75">
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="C60:N60"/>
-    <mergeCell ref="C61:N61"/>
-    <mergeCell ref="C62:N62"/>
-    <mergeCell ref="C63:N63"/>
-    <mergeCell ref="C64:N64"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="B58:N58"/>
-    <mergeCell ref="C59:N59"/>
-    <mergeCell ref="B42:N42"/>
-    <mergeCell ref="C43:N43"/>
-    <mergeCell ref="B50:N50"/>
-    <mergeCell ref="C51:N51"/>
-    <mergeCell ref="C44:N44"/>
-    <mergeCell ref="C45:N45"/>
-    <mergeCell ref="C46:N46"/>
-    <mergeCell ref="C47:N47"/>
-    <mergeCell ref="C48:N48"/>
-    <mergeCell ref="C52:N52"/>
-    <mergeCell ref="C53:N53"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="C55:N55"/>
-    <mergeCell ref="C56:N56"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="B58:O58"/>
+    <mergeCell ref="C59:O59"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="C43:O43"/>
+    <mergeCell ref="B50:O50"/>
+    <mergeCell ref="C51:O51"/>
+    <mergeCell ref="C44:O44"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C46:O46"/>
+    <mergeCell ref="C47:O47"/>
+    <mergeCell ref="C48:O48"/>
+    <mergeCell ref="C52:O52"/>
+    <mergeCell ref="C53:O53"/>
+    <mergeCell ref="C54:O54"/>
+    <mergeCell ref="C55:O55"/>
+    <mergeCell ref="C56:O56"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14300,7 +14884,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14327,7 +14911,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="138" t="s">
+      <c r="E2" s="141" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="12"/>
@@ -14337,7 +14921,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="138"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14346,7 +14930,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -14377,103 +14961,103 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="141"/>
+      <c r="E8" s="144"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="142" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="142"/>
+      <c r="D9" s="144" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="144"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
       <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="110"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="110"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="122"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="142" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
-      <c r="B16" s="112"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="110"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/samples/mtcm_sample_1.xlsx
+++ b/samples/mtcm_sample_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E4B869-3B57-4D03-9F07-8E81917881D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD72218-5DC0-4314-8CD1-A4E6CE624F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -653,7 +653,7 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> V5 Bld 2021.03.31</t>
+    <t xml:space="preserve"> V5 Bld 2021.04.01</t>
   </si>
 </sst>
 </file>
@@ -1619,9 +1619,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1696,6 +1693,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1717,14 +1720,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1741,14 +1744,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1761,6 +1764,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9550,10 +9556,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="122" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="123"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9567,7 +9573,7 @@
       <c r="B4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="59"/>
@@ -9583,7 +9589,7 @@
       <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="90" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="59"/>
@@ -9599,7 +9605,7 @@
       <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="90" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="59"/>
@@ -9624,7 +9630,7 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9634,7 +9640,7 @@
     <col min="3" max="3" width="6.5546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="93.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="117" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="114" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="2.88671875" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" bestFit="1" customWidth="1"/>
@@ -9649,7 +9655,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="115"/>
+      <c r="F1" s="112"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9662,14 +9668,14 @@
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="124" t="s">
+      <c r="F2" s="112"/>
+      <c r="G2" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="125"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9677,7 +9683,7 @@
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
-      <c r="F3" s="115"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -9690,7 +9696,7 @@
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
-      <c r="F4" s="115"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
@@ -9709,7 +9715,7 @@
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="115"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
@@ -9732,7 +9738,7 @@
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="115"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
@@ -9755,7 +9761,7 @@
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-      <c r="F7" s="115"/>
+      <c r="F7" s="112"/>
       <c r="G7" s="44" t="s">
         <v>5</v>
       </c>
@@ -9778,7 +9784,7 @@
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="115"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="68" t="s">
         <v>134</v>
       </c>
@@ -9798,7 +9804,7 @@
     </row>
     <row r="9" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
-      <c r="F9" s="115"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="68" t="s">
         <v>4</v>
       </c>
@@ -9821,7 +9827,7 @@
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="115"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="43" t="s">
         <v>35</v>
       </c>
@@ -9841,7 +9847,7 @@
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="115"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="4"/>
       <c r="H11" s="19"/>
       <c r="I11" s="28">
@@ -9860,7 +9866,7 @@
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="115"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -9873,7 +9879,7 @@
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="115"/>
+      <c r="F13" s="112"/>
       <c r="G13" s="53" t="str">
         <f>IF(COUNTIF(G14:G16, "") &lt;&gt; 3, "VALIDATION ERROR!", "")</f>
         <v/>
@@ -9889,7 +9895,7 @@
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="115"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="52" t="str">
         <f>IF($C$319&lt;&gt;$E$319,"REJ-01: " &amp; $C$319&amp;" [Exec Tm] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9905,7 +9911,7 @@
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="115"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="52" t="str">
         <f>IF($D$319&lt;&gt;$E$319,"REJ-02: " &amp; $D$319&amp;" [Status] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9921,7 +9927,7 @@
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="115"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="52"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
@@ -9933,13 +9939,13 @@
       <c r="A17" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="124" t="s">
+      <c r="B17" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="115" t="s">
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="112" t="s">
         <v>136</v>
       </c>
       <c r="G17" s="64"/>
@@ -9957,7 +9963,7 @@
       <c r="E18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="115"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9965,16 +9971,16 @@
         <f t="array" aca="1" ref="B19" ca="1">IF(AND(C19&lt;&gt;"",E19&lt;&gt;"")=TRUE, CELL("row",B19)-18,"")</f>
         <v>1</v>
       </c>
-      <c r="C19" s="111">
+      <c r="C19" s="108">
         <v>0</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="113" t="s">
+      <c r="E19" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="116" t="s">
+      <c r="F19" s="113" t="s">
         <v>136</v>
       </c>
       <c r="G19" s="64"/>
@@ -9987,13 +9993,13 @@
       <c r="C20" s="32">
         <v>1</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="116"/>
+      <c r="F20" s="113"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="31" cm="1">
@@ -10003,13 +10009,13 @@
       <c r="C21" s="32">
         <v>0</v>
       </c>
-      <c r="D21" s="112" t="s">
+      <c r="D21" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E21" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="116"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="31" cm="1">
@@ -10019,13 +10025,13 @@
       <c r="C22" s="32">
         <v>0</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="116"/>
+      <c r="F22" s="113"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="31" cm="1">
@@ -10035,13 +10041,13 @@
       <c r="C23" s="32">
         <v>0</v>
       </c>
-      <c r="D23" s="112" t="s">
+      <c r="D23" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E23" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="116"/>
+      <c r="F23" s="113"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="31" cm="1">
@@ -10051,13 +10057,13 @@
       <c r="C24" s="32">
         <v>0</v>
       </c>
-      <c r="D24" s="112" t="s">
+      <c r="D24" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E24" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="115"/>
+      <c r="F24" s="112"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="31" cm="1">
@@ -10067,13 +10073,13 @@
       <c r="C25" s="32">
         <v>0</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E25" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="115"/>
+      <c r="F25" s="112"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="31" cm="1">
@@ -10083,13 +10089,13 @@
       <c r="C26" s="32">
         <v>0</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E26" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="115"/>
+      <c r="F26" s="112"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="31" cm="1">
@@ -10099,13 +10105,13 @@
       <c r="C27" s="32">
         <v>0</v>
       </c>
-      <c r="D27" s="112" t="s">
+      <c r="D27" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E27" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="115"/>
+      <c r="F27" s="112"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="31" cm="1">
@@ -10115,13 +10121,13 @@
       <c r="C28" s="32">
         <v>0</v>
       </c>
-      <c r="D28" s="112" t="s">
+      <c r="D28" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="115"/>
+      <c r="F28" s="112"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="str" cm="1">
@@ -10131,7 +10137,7 @@
       <c r="C29" s="32"/>
       <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="115"/>
+      <c r="F29" s="112"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="str" cm="1">
@@ -10141,7 +10147,7 @@
       <c r="C30" s="32"/>
       <c r="D30" s="51"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="115"/>
+      <c r="F30" s="112"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B31" s="31" t="str" cm="1">
@@ -10151,7 +10157,7 @@
       <c r="C31" s="32"/>
       <c r="D31" s="51"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="115"/>
+      <c r="F31" s="112"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="str" cm="1">
@@ -10161,7 +10167,7 @@
       <c r="C32" s="32"/>
       <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="115"/>
+      <c r="F32" s="112"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="31" t="str" cm="1">
@@ -10171,23 +10177,23 @@
       <c r="C33" s="32"/>
       <c r="D33" s="51"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="115"/>
+      <c r="F33" s="112"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="31" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">IF(AND(C34&lt;&gt;"",E34&lt;&gt;"")=TRUE, CELL("row",B34)-18,"")</f>
         <v>16</v>
       </c>
-      <c r="C34" s="114">
+      <c r="C34" s="111">
         <v>0</v>
       </c>
-      <c r="D34" s="112" t="s">
+      <c r="D34" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="113" t="s">
+      <c r="E34" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="F34" s="115" t="s">
+      <c r="F34" s="112" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10199,13 +10205,13 @@
       <c r="C35" s="32">
         <v>1</v>
       </c>
-      <c r="D35" s="112" t="s">
+      <c r="D35" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F35" s="115"/>
+      <c r="F35" s="112"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="31" cm="1">
@@ -10215,13 +10221,13 @@
       <c r="C36" s="32">
         <v>1</v>
       </c>
-      <c r="D36" s="112" t="s">
+      <c r="D36" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="116"/>
+      <c r="F36" s="113"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="31" cm="1">
@@ -10231,13 +10237,13 @@
       <c r="C37" s="32">
         <v>0</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="115"/>
+      <c r="F37" s="112"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="31" cm="1">
@@ -10247,13 +10253,13 @@
       <c r="C38" s="32">
         <v>0</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="115"/>
+      <c r="F38" s="112"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="31" cm="1">
@@ -10263,13 +10269,13 @@
       <c r="C39" s="32">
         <v>0</v>
       </c>
-      <c r="D39" s="112" t="s">
+      <c r="D39" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="115"/>
+      <c r="F39" s="112"/>
     </row>
     <row r="40" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B40" s="31" cm="1">
@@ -10279,13 +10285,13 @@
       <c r="C40" s="32">
         <v>1</v>
       </c>
-      <c r="D40" s="112" t="s">
+      <c r="D40" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E40" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="115"/>
+      <c r="F40" s="112"/>
     </row>
     <row r="41" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
       <c r="B41" s="31" cm="1">
@@ -10295,13 +10301,13 @@
       <c r="C41" s="32">
         <v>1</v>
       </c>
-      <c r="D41" s="112" t="s">
+      <c r="D41" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E41" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="115"/>
+      <c r="F41" s="112"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="31" cm="1">
@@ -10311,13 +10317,13 @@
       <c r="C42" s="32">
         <v>1</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E42" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F42" s="115"/>
+      <c r="F42" s="112"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="31" cm="1">
@@ -10327,13 +10333,13 @@
       <c r="C43" s="32">
         <v>0</v>
       </c>
-      <c r="D43" s="112" t="s">
+      <c r="D43" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E43" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="115"/>
+      <c r="F43" s="112"/>
     </row>
     <row r="44" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="B44" s="31" cm="1">
@@ -10343,13 +10349,13 @@
       <c r="C44" s="32">
         <v>1</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F44" s="115"/>
+      <c r="F44" s="112"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="31" cm="1">
@@ -10359,13 +10365,13 @@
       <c r="C45" s="32">
         <v>1</v>
       </c>
-      <c r="D45" s="112" t="s">
+      <c r="D45" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F45" s="115"/>
+      <c r="F45" s="112"/>
     </row>
     <row r="46" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B46" s="31" cm="1">
@@ -10375,13 +10381,13 @@
       <c r="C46" s="32">
         <v>1</v>
       </c>
-      <c r="D46" s="112" t="s">
+      <c r="D46" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="115"/>
+      <c r="F46" s="112"/>
     </row>
     <row r="47" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B47" s="31" cm="1">
@@ -10391,13 +10397,13 @@
       <c r="C47" s="32">
         <v>0</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="F47" s="115"/>
+      <c r="F47" s="112"/>
     </row>
     <row r="48" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
       <c r="B48" s="31" cm="1">
@@ -10407,13 +10413,13 @@
       <c r="C48" s="32">
         <v>1</v>
       </c>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E48" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F48" s="115"/>
+      <c r="F48" s="112"/>
     </row>
     <row r="49" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B49" s="31" cm="1">
@@ -10423,13 +10429,13 @@
       <c r="C49" s="32">
         <v>1</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E49" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="115"/>
+      <c r="F49" s="112"/>
     </row>
     <row r="50" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B50" s="31" cm="1">
@@ -10439,13 +10445,13 @@
       <c r="C50" s="32">
         <v>1</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E50" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="115"/>
+      <c r="F50" s="112"/>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="31" cm="1">
@@ -10455,13 +10461,13 @@
       <c r="C51" s="32">
         <v>0</v>
       </c>
-      <c r="D51" s="112" t="s">
+      <c r="D51" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F51" s="115"/>
+      <c r="F51" s="112"/>
     </row>
     <row r="52" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B52" s="31" cm="1">
@@ -10471,13 +10477,13 @@
       <c r="C52" s="32">
         <v>1</v>
       </c>
-      <c r="D52" s="112" t="s">
+      <c r="D52" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="115"/>
+      <c r="F52" s="112"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="31" cm="1">
@@ -10487,13 +10493,13 @@
       <c r="C53" s="32">
         <v>1</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="115"/>
+      <c r="F53" s="112"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="31" cm="1">
@@ -10503,13 +10509,13 @@
       <c r="C54" s="32">
         <v>1</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E54" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="115"/>
+      <c r="F54" s="112"/>
     </row>
     <row r="55" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B55" s="31" cm="1">
@@ -10519,13 +10525,13 @@
       <c r="C55" s="32">
         <v>1</v>
       </c>
-      <c r="D55" s="112" t="s">
+      <c r="D55" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E55" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F55" s="115"/>
+      <c r="F55" s="112"/>
     </row>
     <row r="56" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B56" s="31" cm="1">
@@ -10535,13 +10541,13 @@
       <c r="C56" s="32">
         <v>1</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F56" s="115"/>
+      <c r="F56" s="112"/>
     </row>
     <row r="57" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
       <c r="B57" s="31" cm="1">
@@ -10551,13 +10557,13 @@
       <c r="C57" s="32">
         <v>1</v>
       </c>
-      <c r="D57" s="112" t="s">
+      <c r="D57" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E57" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="F57" s="115"/>
+      <c r="F57" s="112"/>
     </row>
     <row r="58" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
       <c r="B58" s="31" cm="1">
@@ -10567,13 +10573,13 @@
       <c r="C58" s="32">
         <v>1</v>
       </c>
-      <c r="D58" s="112" t="s">
+      <c r="D58" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F58" s="115"/>
+      <c r="F58" s="112"/>
     </row>
     <row r="59" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B59" s="31" cm="1">
@@ -10583,13 +10589,13 @@
       <c r="C59" s="32">
         <v>1</v>
       </c>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="109" t="s">
         <v>133</v>
       </c>
       <c r="E59" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="F59" s="115"/>
+      <c r="F59" s="112"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="31" cm="1">
@@ -10599,13 +10605,13 @@
       <c r="C60" s="32">
         <v>0</v>
       </c>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="109" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="115"/>
+      <c r="F60" s="112"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="31" cm="1">
@@ -10621,7 +10627,7 @@
       <c r="E61" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F61" s="115"/>
+      <c r="F61" s="112"/>
     </row>
     <row r="62" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B62" s="31" cm="1">
@@ -10637,7 +10643,7 @@
       <c r="E62" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="F62" s="115"/>
+      <c r="F62" s="112"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="31" cm="1">
@@ -10653,7 +10659,7 @@
       <c r="E63" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="F63" s="115"/>
+      <c r="F63" s="112"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="31" t="str" cm="1">
@@ -10663,7 +10669,7 @@
       <c r="C64" s="32"/>
       <c r="D64" s="51"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="115"/>
+      <c r="F64" s="112"/>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="31" t="str" cm="1">
@@ -10673,7 +10679,7 @@
       <c r="C65" s="32"/>
       <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="115"/>
+      <c r="F65" s="112"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="31" t="str" cm="1">
@@ -10683,23 +10689,23 @@
       <c r="C66" s="32"/>
       <c r="D66" s="51"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="115"/>
+      <c r="F66" s="112"/>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="31" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">IF(AND(C67&lt;&gt;"",E67&lt;&gt;"")=TRUE, CELL("row",B67)-18,"")</f>
         <v>49</v>
       </c>
-      <c r="C67" s="114">
+      <c r="C67" s="111">
         <v>0</v>
       </c>
-      <c r="D67" s="112" t="s">
+      <c r="D67" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="113" t="s">
+      <c r="E67" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="115" t="s">
+      <c r="F67" s="112" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10717,7 +10723,7 @@
       <c r="E68" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F68" s="115"/>
+      <c r="F68" s="112"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="31" cm="1">
@@ -10733,7 +10739,7 @@
       <c r="E69" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F69" s="115"/>
+      <c r="F69" s="112"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="31" cm="1">
@@ -10749,7 +10755,7 @@
       <c r="E70" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F70" s="115"/>
+      <c r="F70" s="112"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="31" cm="1">
@@ -10765,7 +10771,7 @@
       <c r="E71" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="F71" s="115"/>
+      <c r="F71" s="112"/>
     </row>
     <row r="72" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B72" s="31" cm="1">
@@ -10781,7 +10787,7 @@
       <c r="E72" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="F72" s="115"/>
+      <c r="F72" s="112"/>
     </row>
     <row r="73" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B73" s="31" cm="1">
@@ -10797,7 +10803,7 @@
       <c r="E73" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="F73" s="115"/>
+      <c r="F73" s="112"/>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="31" cm="1">
@@ -10813,7 +10819,7 @@
       <c r="E74" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="F74" s="115"/>
+      <c r="F74" s="112"/>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="31" cm="1">
@@ -10829,7 +10835,7 @@
       <c r="E75" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F75" s="115"/>
+      <c r="F75" s="112"/>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="31" cm="1">
@@ -10845,7 +10851,7 @@
       <c r="E76" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="115"/>
+      <c r="F76" s="112"/>
     </row>
     <row r="77" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B77" s="31" cm="1">
@@ -10861,7 +10867,7 @@
       <c r="E77" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="F77" s="115"/>
+      <c r="F77" s="112"/>
     </row>
     <row r="78" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
       <c r="B78" s="31" cm="1">
@@ -10877,7 +10883,7 @@
       <c r="E78" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="F78" s="115"/>
+      <c r="F78" s="112"/>
     </row>
     <row r="79" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B79" s="31" cm="1">
@@ -10893,7 +10899,7 @@
       <c r="E79" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="F79" s="115"/>
+      <c r="F79" s="112"/>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="31" cm="1">
@@ -10909,7 +10915,7 @@
       <c r="E80" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F80" s="115"/>
+      <c r="F80" s="112"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="31" t="str" cm="1">
@@ -10919,7 +10925,7 @@
       <c r="C81" s="32"/>
       <c r="D81" s="51"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="115"/>
+      <c r="F81" s="112"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="31" t="str" cm="1">
@@ -10929,7 +10935,7 @@
       <c r="C82" s="32"/>
       <c r="D82" s="51"/>
       <c r="E82" s="42"/>
-      <c r="F82" s="115"/>
+      <c r="F82" s="112"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="31" t="str" cm="1">
@@ -10939,7 +10945,7 @@
       <c r="C83" s="32"/>
       <c r="D83" s="51"/>
       <c r="E83" s="42"/>
-      <c r="F83" s="115"/>
+      <c r="F83" s="112"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="31" t="str" cm="1">
@@ -10949,23 +10955,23 @@
       <c r="C84" s="32"/>
       <c r="D84" s="51"/>
       <c r="E84" s="42"/>
-      <c r="F84" s="115"/>
+      <c r="F84" s="112"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="31" cm="1">
         <f t="array" aca="1" ref="B85" ca="1">IF(AND(C85&lt;&gt;"",E85&lt;&gt;"")=TRUE, CELL("row",B85)-18,"")</f>
         <v>67</v>
       </c>
-      <c r="C85" s="114">
+      <c r="C85" s="111">
         <v>0</v>
       </c>
-      <c r="D85" s="112" t="s">
+      <c r="D85" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="E85" s="113" t="s">
+      <c r="E85" s="110" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="115" t="s">
+      <c r="F85" s="112" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10983,7 +10989,7 @@
       <c r="E86" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F86" s="115"/>
+      <c r="F86" s="112"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="31" cm="1">
@@ -10999,7 +11005,7 @@
       <c r="E87" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F87" s="115"/>
+      <c r="F87" s="112"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="31" cm="1">
@@ -11015,7 +11021,7 @@
       <c r="E88" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="F88" s="115"/>
+      <c r="F88" s="112"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="31" cm="1">
@@ -11031,7 +11037,7 @@
       <c r="E89" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="115"/>
+      <c r="F89" s="112"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="31" cm="1">
@@ -11047,7 +11053,7 @@
       <c r="E90" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="115"/>
+      <c r="F90" s="112"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="31" cm="1">
@@ -11063,7 +11069,7 @@
       <c r="E91" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="F91" s="115"/>
+      <c r="F91" s="112"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="31" cm="1">
@@ -11079,7 +11085,7 @@
       <c r="E92" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="F92" s="115"/>
+      <c r="F92" s="112"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="31" cm="1">
@@ -11095,7 +11101,7 @@
       <c r="E93" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="F93" s="115"/>
+      <c r="F93" s="112"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="31" cm="1">
@@ -11111,7 +11117,7 @@
       <c r="E94" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="F94" s="115"/>
+      <c r="F94" s="112"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="31" cm="1">
@@ -11127,7 +11133,7 @@
       <c r="E95" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F95" s="115"/>
+      <c r="F95" s="112"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="31" cm="1">
@@ -11143,7 +11149,7 @@
       <c r="E96" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="F96" s="115"/>
+      <c r="F96" s="112"/>
     </row>
     <row r="97" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
       <c r="B97" s="31" cm="1">
@@ -11159,7 +11165,7 @@
       <c r="E97" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="F97" s="115"/>
+      <c r="F97" s="112"/>
     </row>
     <row r="98" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B98" s="31" cm="1">
@@ -11175,7 +11181,7 @@
       <c r="E98" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F98" s="115"/>
+      <c r="F98" s="112"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="31" cm="1">
@@ -11191,7 +11197,7 @@
       <c r="E99" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F99" s="115"/>
+      <c r="F99" s="112"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="31" cm="1">
@@ -11207,7 +11213,7 @@
       <c r="E100" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F100" s="115"/>
+      <c r="F100" s="112"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="31" cm="1">
@@ -11223,7 +11229,7 @@
       <c r="E101" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F101" s="115"/>
+      <c r="F101" s="112"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="31" cm="1">
@@ -11239,7 +11245,7 @@
       <c r="E102" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="F102" s="115"/>
+      <c r="F102" s="112"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="31" t="str" cm="1">
@@ -11249,7 +11255,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="51"/>
       <c r="E103" s="42"/>
-      <c r="F103" s="115"/>
+      <c r="F103" s="112"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="31" t="str" cm="1">
@@ -11259,23 +11265,23 @@
       <c r="C104" s="32"/>
       <c r="D104" s="51"/>
       <c r="E104" s="42"/>
-      <c r="F104" s="115"/>
+      <c r="F104" s="112"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="31" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">IF(AND(C105&lt;&gt;"",E105&lt;&gt;"")=TRUE, CELL("row",B105)-18,"")</f>
         <v>87</v>
       </c>
-      <c r="C105" s="114">
+      <c r="C105" s="111">
         <v>0</v>
       </c>
-      <c r="D105" s="112" t="s">
+      <c r="D105" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="E105" s="113" t="s">
+      <c r="E105" s="110" t="s">
         <v>120</v>
       </c>
-      <c r="F105" s="115" t="s">
+      <c r="F105" s="112" t="s">
         <v>136</v>
       </c>
     </row>
@@ -11293,7 +11299,7 @@
       <c r="E106" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="F106" s="115"/>
+      <c r="F106" s="112"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="31" cm="1">
@@ -11309,7 +11315,7 @@
       <c r="E107" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="F107" s="115"/>
+      <c r="F107" s="112"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="31" cm="1">
@@ -11325,7 +11331,7 @@
       <c r="E108" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="F108" s="115"/>
+      <c r="F108" s="112"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="31" cm="1">
@@ -11341,7 +11347,7 @@
       <c r="E109" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="F109" s="115"/>
+      <c r="F109" s="112"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="31" cm="1">
@@ -11357,7 +11363,7 @@
       <c r="E110" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F110" s="115"/>
+      <c r="F110" s="112"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="31" cm="1">
@@ -11373,7 +11379,7 @@
       <c r="E111" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="F111" s="115"/>
+      <c r="F111" s="112"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="31" cm="1">
@@ -11389,7 +11395,7 @@
       <c r="E112" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="F112" s="115"/>
+      <c r="F112" s="112"/>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="31" cm="1">
@@ -11405,7 +11411,7 @@
       <c r="E113" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="F113" s="115"/>
+      <c r="F113" s="112"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="31" t="str" cm="1">
@@ -11415,7 +11421,7 @@
       <c r="C114" s="32"/>
       <c r="D114" s="51"/>
       <c r="E114" s="42"/>
-      <c r="F114" s="115"/>
+      <c r="F114" s="112"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="31" t="str" cm="1">
@@ -11425,7 +11431,7 @@
       <c r="C115" s="32"/>
       <c r="D115" s="51"/>
       <c r="E115" s="42"/>
-      <c r="F115" s="115"/>
+      <c r="F115" s="112"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="31" t="str" cm="1">
@@ -11435,7 +11441,7 @@
       <c r="C116" s="32"/>
       <c r="D116" s="51"/>
       <c r="E116" s="42"/>
-      <c r="F116" s="115"/>
+      <c r="F116" s="112"/>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="31" t="str" cm="1">
@@ -11445,7 +11451,7 @@
       <c r="C117" s="32"/>
       <c r="D117" s="51"/>
       <c r="E117" s="42"/>
-      <c r="F117" s="115"/>
+      <c r="F117" s="112"/>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="31" t="str" cm="1">
@@ -11455,7 +11461,7 @@
       <c r="C118" s="32"/>
       <c r="D118" s="51"/>
       <c r="E118" s="42"/>
-      <c r="F118" s="115"/>
+      <c r="F118" s="112"/>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="31" t="str" cm="1">
@@ -11465,7 +11471,7 @@
       <c r="C119" s="32"/>
       <c r="D119" s="51"/>
       <c r="E119" s="42"/>
-      <c r="F119" s="115"/>
+      <c r="F119" s="112"/>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="31" t="str" cm="1">
@@ -11475,7 +11481,7 @@
       <c r="C120" s="32"/>
       <c r="D120" s="51"/>
       <c r="E120" s="42"/>
-      <c r="F120" s="115"/>
+      <c r="F120" s="112"/>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="31" t="str" cm="1">
@@ -11485,7 +11491,7 @@
       <c r="C121" s="32"/>
       <c r="D121" s="51"/>
       <c r="E121" s="42"/>
-      <c r="F121" s="115"/>
+      <c r="F121" s="112"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="31" t="str" cm="1">
@@ -11495,7 +11501,7 @@
       <c r="C122" s="32"/>
       <c r="D122" s="51"/>
       <c r="E122" s="42"/>
-      <c r="F122" s="115"/>
+      <c r="F122" s="112"/>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="31" t="str" cm="1">
@@ -11505,7 +11511,7 @@
       <c r="C123" s="32"/>
       <c r="D123" s="51"/>
       <c r="E123" s="42"/>
-      <c r="F123" s="115"/>
+      <c r="F123" s="112"/>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="31" t="str" cm="1">
@@ -11515,7 +11521,7 @@
       <c r="C124" s="32"/>
       <c r="D124" s="51"/>
       <c r="E124" s="42"/>
-      <c r="F124" s="115"/>
+      <c r="F124" s="112"/>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="31" t="str" cm="1">
@@ -11525,7 +11531,7 @@
       <c r="C125" s="32"/>
       <c r="D125" s="51"/>
       <c r="E125" s="42"/>
-      <c r="F125" s="115"/>
+      <c r="F125" s="112"/>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="31" t="str" cm="1">
@@ -11535,7 +11541,7 @@
       <c r="C126" s="32"/>
       <c r="D126" s="51"/>
       <c r="E126" s="42"/>
-      <c r="F126" s="115"/>
+      <c r="F126" s="112"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="31" t="str" cm="1">
@@ -11545,7 +11551,7 @@
       <c r="C127" s="32"/>
       <c r="D127" s="51"/>
       <c r="E127" s="42"/>
-      <c r="F127" s="115"/>
+      <c r="F127" s="112"/>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="31" t="str" cm="1">
@@ -11555,7 +11561,7 @@
       <c r="C128" s="32"/>
       <c r="D128" s="51"/>
       <c r="E128" s="42"/>
-      <c r="F128" s="115"/>
+      <c r="F128" s="112"/>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="31" t="str" cm="1">
@@ -11565,7 +11571,7 @@
       <c r="C129" s="32"/>
       <c r="D129" s="51"/>
       <c r="E129" s="42"/>
-      <c r="F129" s="115"/>
+      <c r="F129" s="112"/>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="31" t="str" cm="1">
@@ -11575,7 +11581,7 @@
       <c r="C130" s="32"/>
       <c r="D130" s="51"/>
       <c r="E130" s="42"/>
-      <c r="F130" s="115"/>
+      <c r="F130" s="112"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="31" t="str" cm="1">
@@ -11585,7 +11591,7 @@
       <c r="C131" s="32"/>
       <c r="D131" s="51"/>
       <c r="E131" s="42"/>
-      <c r="F131" s="115"/>
+      <c r="F131" s="112"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="31" t="str" cm="1">
@@ -11595,7 +11601,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="51"/>
       <c r="E132" s="42"/>
-      <c r="F132" s="115"/>
+      <c r="F132" s="112"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="31" t="str" cm="1">
@@ -11605,7 +11611,7 @@
       <c r="C133" s="32"/>
       <c r="D133" s="51"/>
       <c r="E133" s="42"/>
-      <c r="F133" s="115"/>
+      <c r="F133" s="112"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="31" t="str" cm="1">
@@ -11615,7 +11621,7 @@
       <c r="C134" s="32"/>
       <c r="D134" s="51"/>
       <c r="E134" s="42"/>
-      <c r="F134" s="115"/>
+      <c r="F134" s="112"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="31" t="str" cm="1">
@@ -11625,7 +11631,7 @@
       <c r="C135" s="32"/>
       <c r="D135" s="51"/>
       <c r="E135" s="42"/>
-      <c r="F135" s="115"/>
+      <c r="F135" s="112"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="31" t="str" cm="1">
@@ -11635,7 +11641,7 @@
       <c r="C136" s="32"/>
       <c r="D136" s="51"/>
       <c r="E136" s="42"/>
-      <c r="F136" s="115"/>
+      <c r="F136" s="112"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="31" t="str" cm="1">
@@ -11645,7 +11651,7 @@
       <c r="C137" s="32"/>
       <c r="D137" s="51"/>
       <c r="E137" s="42"/>
-      <c r="F137" s="115"/>
+      <c r="F137" s="112"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="31" t="str" cm="1">
@@ -11655,7 +11661,7 @@
       <c r="C138" s="32"/>
       <c r="D138" s="51"/>
       <c r="E138" s="42"/>
-      <c r="F138" s="115"/>
+      <c r="F138" s="112"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="31" t="str" cm="1">
@@ -11665,7 +11671,7 @@
       <c r="C139" s="32"/>
       <c r="D139" s="51"/>
       <c r="E139" s="42"/>
-      <c r="F139" s="115"/>
+      <c r="F139" s="112"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="31" t="str" cm="1">
@@ -11675,7 +11681,7 @@
       <c r="C140" s="32"/>
       <c r="D140" s="51"/>
       <c r="E140" s="42"/>
-      <c r="F140" s="115"/>
+      <c r="F140" s="112"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="31" t="str" cm="1">
@@ -11685,7 +11691,7 @@
       <c r="C141" s="32"/>
       <c r="D141" s="51"/>
       <c r="E141" s="42"/>
-      <c r="F141" s="115"/>
+      <c r="F141" s="112"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="31" t="str" cm="1">
@@ -11695,7 +11701,7 @@
       <c r="C142" s="32"/>
       <c r="D142" s="51"/>
       <c r="E142" s="42"/>
-      <c r="F142" s="115"/>
+      <c r="F142" s="112"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="31" t="str" cm="1">
@@ -11705,7 +11711,7 @@
       <c r="C143" s="32"/>
       <c r="D143" s="51"/>
       <c r="E143" s="42"/>
-      <c r="F143" s="115"/>
+      <c r="F143" s="112"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="31" t="str" cm="1">
@@ -11715,7 +11721,7 @@
       <c r="C144" s="32"/>
       <c r="D144" s="51"/>
       <c r="E144" s="42"/>
-      <c r="F144" s="115"/>
+      <c r="F144" s="112"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B145" s="31" t="str" cm="1">
@@ -11725,7 +11731,7 @@
       <c r="C145" s="32"/>
       <c r="D145" s="51"/>
       <c r="E145" s="42"/>
-      <c r="F145" s="115"/>
+      <c r="F145" s="112"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B146" s="31" t="str" cm="1">
@@ -11735,7 +11741,7 @@
       <c r="C146" s="32"/>
       <c r="D146" s="51"/>
       <c r="E146" s="42"/>
-      <c r="F146" s="115"/>
+      <c r="F146" s="112"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B147" s="31" t="str" cm="1">
@@ -11745,7 +11751,7 @@
       <c r="C147" s="32"/>
       <c r="D147" s="51"/>
       <c r="E147" s="42"/>
-      <c r="F147" s="115"/>
+      <c r="F147" s="112"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B148" s="31" t="str" cm="1">
@@ -11755,7 +11761,7 @@
       <c r="C148" s="32"/>
       <c r="D148" s="51"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="115"/>
+      <c r="F148" s="112"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B149" s="31" t="str" cm="1">
@@ -11765,7 +11771,7 @@
       <c r="C149" s="32"/>
       <c r="D149" s="51"/>
       <c r="E149" s="42"/>
-      <c r="F149" s="115"/>
+      <c r="F149" s="112"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B150" s="31" t="str" cm="1">
@@ -11775,7 +11781,7 @@
       <c r="C150" s="32"/>
       <c r="D150" s="51"/>
       <c r="E150" s="42"/>
-      <c r="F150" s="115"/>
+      <c r="F150" s="112"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B151" s="31" t="str" cm="1">
@@ -11785,7 +11791,7 @@
       <c r="C151" s="32"/>
       <c r="D151" s="51"/>
       <c r="E151" s="42"/>
-      <c r="F151" s="115"/>
+      <c r="F151" s="112"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B152" s="31" t="str" cm="1">
@@ -11795,7 +11801,7 @@
       <c r="C152" s="32"/>
       <c r="D152" s="51"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="115"/>
+      <c r="F152" s="112"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B153" s="31" t="str" cm="1">
@@ -11805,7 +11811,7 @@
       <c r="C153" s="32"/>
       <c r="D153" s="51"/>
       <c r="E153" s="42"/>
-      <c r="F153" s="115"/>
+      <c r="F153" s="112"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B154" s="31" t="str" cm="1">
@@ -11815,7 +11821,7 @@
       <c r="C154" s="32"/>
       <c r="D154" s="51"/>
       <c r="E154" s="42"/>
-      <c r="F154" s="115"/>
+      <c r="F154" s="112"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B155" s="31" t="str" cm="1">
@@ -11825,7 +11831,7 @@
       <c r="C155" s="32"/>
       <c r="D155" s="51"/>
       <c r="E155" s="42"/>
-      <c r="F155" s="115"/>
+      <c r="F155" s="112"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B156" s="31" t="str" cm="1">
@@ -11835,7 +11841,7 @@
       <c r="C156" s="32"/>
       <c r="D156" s="51"/>
       <c r="E156" s="42"/>
-      <c r="F156" s="115"/>
+      <c r="F156" s="112"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B157" s="31" t="str" cm="1">
@@ -11845,7 +11851,7 @@
       <c r="C157" s="32"/>
       <c r="D157" s="51"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="115"/>
+      <c r="F157" s="112"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B158" s="31" t="str" cm="1">
@@ -11855,7 +11861,7 @@
       <c r="C158" s="32"/>
       <c r="D158" s="51"/>
       <c r="E158" s="42"/>
-      <c r="F158" s="115"/>
+      <c r="F158" s="112"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B159" s="31" t="str" cm="1">
@@ -11865,7 +11871,7 @@
       <c r="C159" s="32"/>
       <c r="D159" s="51"/>
       <c r="E159" s="42"/>
-      <c r="F159" s="115"/>
+      <c r="F159" s="112"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B160" s="31" t="str" cm="1">
@@ -11875,7 +11881,7 @@
       <c r="C160" s="32"/>
       <c r="D160" s="51"/>
       <c r="E160" s="42"/>
-      <c r="F160" s="115"/>
+      <c r="F160" s="112"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B161" s="31" t="str" cm="1">
@@ -11885,7 +11891,7 @@
       <c r="C161" s="32"/>
       <c r="D161" s="51"/>
       <c r="E161" s="42"/>
-      <c r="F161" s="115"/>
+      <c r="F161" s="112"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B162" s="31" t="str" cm="1">
@@ -11895,7 +11901,7 @@
       <c r="C162" s="32"/>
       <c r="D162" s="51"/>
       <c r="E162" s="42"/>
-      <c r="F162" s="115"/>
+      <c r="F162" s="112"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B163" s="31" t="str" cm="1">
@@ -11905,7 +11911,7 @@
       <c r="C163" s="32"/>
       <c r="D163" s="51"/>
       <c r="E163" s="42"/>
-      <c r="F163" s="115"/>
+      <c r="F163" s="112"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B164" s="31" t="str" cm="1">
@@ -11915,7 +11921,7 @@
       <c r="C164" s="32"/>
       <c r="D164" s="51"/>
       <c r="E164" s="42"/>
-      <c r="F164" s="115"/>
+      <c r="F164" s="112"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B165" s="31" t="str" cm="1">
@@ -11925,7 +11931,7 @@
       <c r="C165" s="32"/>
       <c r="D165" s="51"/>
       <c r="E165" s="42"/>
-      <c r="F165" s="115"/>
+      <c r="F165" s="112"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B166" s="31" t="str" cm="1">
@@ -11935,7 +11941,7 @@
       <c r="C166" s="32"/>
       <c r="D166" s="51"/>
       <c r="E166" s="42"/>
-      <c r="F166" s="115"/>
+      <c r="F166" s="112"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B167" s="31" t="str" cm="1">
@@ -11945,7 +11951,7 @@
       <c r="C167" s="32"/>
       <c r="D167" s="51"/>
       <c r="E167" s="42"/>
-      <c r="F167" s="115"/>
+      <c r="F167" s="112"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B168" s="31" t="str" cm="1">
@@ -11955,7 +11961,7 @@
       <c r="C168" s="32"/>
       <c r="D168" s="51"/>
       <c r="E168" s="42"/>
-      <c r="F168" s="115"/>
+      <c r="F168" s="112"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B169" s="31" t="str" cm="1">
@@ -11965,7 +11971,7 @@
       <c r="C169" s="32"/>
       <c r="D169" s="51"/>
       <c r="E169" s="42"/>
-      <c r="F169" s="115"/>
+      <c r="F169" s="112"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B170" s="31" t="str" cm="1">
@@ -11975,7 +11981,7 @@
       <c r="C170" s="32"/>
       <c r="D170" s="51"/>
       <c r="E170" s="42"/>
-      <c r="F170" s="115"/>
+      <c r="F170" s="112"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B171" s="31" t="str" cm="1">
@@ -11985,7 +11991,7 @@
       <c r="C171" s="32"/>
       <c r="D171" s="51"/>
       <c r="E171" s="42"/>
-      <c r="F171" s="115"/>
+      <c r="F171" s="112"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B172" s="31" t="str" cm="1">
@@ -11995,7 +12001,7 @@
       <c r="C172" s="32"/>
       <c r="D172" s="51"/>
       <c r="E172" s="42"/>
-      <c r="F172" s="115"/>
+      <c r="F172" s="112"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B173" s="31" t="str" cm="1">
@@ -12005,7 +12011,7 @@
       <c r="C173" s="32"/>
       <c r="D173" s="51"/>
       <c r="E173" s="42"/>
-      <c r="F173" s="115"/>
+      <c r="F173" s="112"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B174" s="31" t="str" cm="1">
@@ -12015,7 +12021,7 @@
       <c r="C174" s="32"/>
       <c r="D174" s="51"/>
       <c r="E174" s="42"/>
-      <c r="F174" s="115"/>
+      <c r="F174" s="112"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B175" s="31" t="str" cm="1">
@@ -12025,7 +12031,7 @@
       <c r="C175" s="32"/>
       <c r="D175" s="51"/>
       <c r="E175" s="42"/>
-      <c r="F175" s="115"/>
+      <c r="F175" s="112"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B176" s="31" t="str" cm="1">
@@ -12035,7 +12041,7 @@
       <c r="C176" s="32"/>
       <c r="D176" s="51"/>
       <c r="E176" s="42"/>
-      <c r="F176" s="115"/>
+      <c r="F176" s="112"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B177" s="31" t="str" cm="1">
@@ -12045,7 +12051,7 @@
       <c r="C177" s="32"/>
       <c r="D177" s="51"/>
       <c r="E177" s="42"/>
-      <c r="F177" s="115"/>
+      <c r="F177" s="112"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B178" s="31" t="str" cm="1">
@@ -12055,7 +12061,7 @@
       <c r="C178" s="32"/>
       <c r="D178" s="51"/>
       <c r="E178" s="42"/>
-      <c r="F178" s="115"/>
+      <c r="F178" s="112"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B179" s="31" t="str" cm="1">
@@ -12065,7 +12071,7 @@
       <c r="C179" s="32"/>
       <c r="D179" s="51"/>
       <c r="E179" s="42"/>
-      <c r="F179" s="115"/>
+      <c r="F179" s="112"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B180" s="31" t="str" cm="1">
@@ -12075,7 +12081,7 @@
       <c r="C180" s="32"/>
       <c r="D180" s="51"/>
       <c r="E180" s="42"/>
-      <c r="F180" s="115"/>
+      <c r="F180" s="112"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B181" s="31" t="str" cm="1">
@@ -12085,7 +12091,7 @@
       <c r="C181" s="32"/>
       <c r="D181" s="51"/>
       <c r="E181" s="42"/>
-      <c r="F181" s="115"/>
+      <c r="F181" s="112"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B182" s="31" t="str" cm="1">
@@ -12095,7 +12101,7 @@
       <c r="C182" s="32"/>
       <c r="D182" s="51"/>
       <c r="E182" s="42"/>
-      <c r="F182" s="115"/>
+      <c r="F182" s="112"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B183" s="31" t="str" cm="1">
@@ -12105,7 +12111,7 @@
       <c r="C183" s="32"/>
       <c r="D183" s="51"/>
       <c r="E183" s="42"/>
-      <c r="F183" s="115"/>
+      <c r="F183" s="112"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B184" s="31" t="str" cm="1">
@@ -12115,7 +12121,7 @@
       <c r="C184" s="32"/>
       <c r="D184" s="51"/>
       <c r="E184" s="42"/>
-      <c r="F184" s="115"/>
+      <c r="F184" s="112"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B185" s="31" t="str" cm="1">
@@ -12125,7 +12131,7 @@
       <c r="C185" s="32"/>
       <c r="D185" s="51"/>
       <c r="E185" s="42"/>
-      <c r="F185" s="115"/>
+      <c r="F185" s="112"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B186" s="31" t="str" cm="1">
@@ -12135,7 +12141,7 @@
       <c r="C186" s="32"/>
       <c r="D186" s="51"/>
       <c r="E186" s="42"/>
-      <c r="F186" s="115"/>
+      <c r="F186" s="112"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B187" s="31" t="str" cm="1">
@@ -12145,7 +12151,7 @@
       <c r="C187" s="32"/>
       <c r="D187" s="51"/>
       <c r="E187" s="42"/>
-      <c r="F187" s="115"/>
+      <c r="F187" s="112"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B188" s="31" t="str" cm="1">
@@ -12155,7 +12161,7 @@
       <c r="C188" s="32"/>
       <c r="D188" s="51"/>
       <c r="E188" s="42"/>
-      <c r="F188" s="115"/>
+      <c r="F188" s="112"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B189" s="31" t="str" cm="1">
@@ -12165,7 +12171,7 @@
       <c r="C189" s="32"/>
       <c r="D189" s="51"/>
       <c r="E189" s="42"/>
-      <c r="F189" s="115"/>
+      <c r="F189" s="112"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B190" s="31" t="str" cm="1">
@@ -12175,7 +12181,7 @@
       <c r="C190" s="32"/>
       <c r="D190" s="51"/>
       <c r="E190" s="42"/>
-      <c r="F190" s="115"/>
+      <c r="F190" s="112"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B191" s="31" t="str" cm="1">
@@ -12185,7 +12191,7 @@
       <c r="C191" s="32"/>
       <c r="D191" s="51"/>
       <c r="E191" s="42"/>
-      <c r="F191" s="115"/>
+      <c r="F191" s="112"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B192" s="31" t="str" cm="1">
@@ -12195,7 +12201,7 @@
       <c r="C192" s="32"/>
       <c r="D192" s="51"/>
       <c r="E192" s="42"/>
-      <c r="F192" s="115"/>
+      <c r="F192" s="112"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B193" s="31" t="str" cm="1">
@@ -12205,7 +12211,7 @@
       <c r="C193" s="32"/>
       <c r="D193" s="51"/>
       <c r="E193" s="42"/>
-      <c r="F193" s="115"/>
+      <c r="F193" s="112"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B194" s="31" t="str" cm="1">
@@ -12215,7 +12221,7 @@
       <c r="C194" s="32"/>
       <c r="D194" s="51"/>
       <c r="E194" s="42"/>
-      <c r="F194" s="115"/>
+      <c r="F194" s="112"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B195" s="31" t="str" cm="1">
@@ -12225,7 +12231,7 @@
       <c r="C195" s="32"/>
       <c r="D195" s="51"/>
       <c r="E195" s="42"/>
-      <c r="F195" s="115"/>
+      <c r="F195" s="112"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B196" s="31" t="str" cm="1">
@@ -12235,7 +12241,7 @@
       <c r="C196" s="32"/>
       <c r="D196" s="51"/>
       <c r="E196" s="42"/>
-      <c r="F196" s="115"/>
+      <c r="F196" s="112"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B197" s="31" t="str" cm="1">
@@ -12245,7 +12251,7 @@
       <c r="C197" s="32"/>
       <c r="D197" s="51"/>
       <c r="E197" s="42"/>
-      <c r="F197" s="115"/>
+      <c r="F197" s="112"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B198" s="31" t="str" cm="1">
@@ -12255,7 +12261,7 @@
       <c r="C198" s="32"/>
       <c r="D198" s="51"/>
       <c r="E198" s="42"/>
-      <c r="F198" s="115"/>
+      <c r="F198" s="112"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B199" s="31" t="str" cm="1">
@@ -12265,7 +12271,7 @@
       <c r="C199" s="32"/>
       <c r="D199" s="51"/>
       <c r="E199" s="42"/>
-      <c r="F199" s="115"/>
+      <c r="F199" s="112"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B200" s="31" t="str" cm="1">
@@ -12275,7 +12281,7 @@
       <c r="C200" s="32"/>
       <c r="D200" s="51"/>
       <c r="E200" s="42"/>
-      <c r="F200" s="115"/>
+      <c r="F200" s="112"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B201" s="31" t="str" cm="1">
@@ -12285,7 +12291,7 @@
       <c r="C201" s="32"/>
       <c r="D201" s="51"/>
       <c r="E201" s="42"/>
-      <c r="F201" s="115"/>
+      <c r="F201" s="112"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B202" s="31" t="str" cm="1">
@@ -12295,7 +12301,7 @@
       <c r="C202" s="32"/>
       <c r="D202" s="51"/>
       <c r="E202" s="42"/>
-      <c r="F202" s="115"/>
+      <c r="F202" s="112"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B203" s="31" t="str" cm="1">
@@ -12305,7 +12311,7 @@
       <c r="C203" s="32"/>
       <c r="D203" s="51"/>
       <c r="E203" s="42"/>
-      <c r="F203" s="115"/>
+      <c r="F203" s="112"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B204" s="31" t="str" cm="1">
@@ -12315,7 +12321,7 @@
       <c r="C204" s="32"/>
       <c r="D204" s="51"/>
       <c r="E204" s="42"/>
-      <c r="F204" s="115"/>
+      <c r="F204" s="112"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B205" s="31" t="str" cm="1">
@@ -12325,7 +12331,7 @@
       <c r="C205" s="32"/>
       <c r="D205" s="51"/>
       <c r="E205" s="42"/>
-      <c r="F205" s="115"/>
+      <c r="F205" s="112"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B206" s="31" t="str" cm="1">
@@ -12335,7 +12341,7 @@
       <c r="C206" s="32"/>
       <c r="D206" s="51"/>
       <c r="E206" s="42"/>
-      <c r="F206" s="115"/>
+      <c r="F206" s="112"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B207" s="31" t="str" cm="1">
@@ -12345,7 +12351,7 @@
       <c r="C207" s="32"/>
       <c r="D207" s="51"/>
       <c r="E207" s="42"/>
-      <c r="F207" s="115"/>
+      <c r="F207" s="112"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B208" s="31" t="str" cm="1">
@@ -12355,7 +12361,7 @@
       <c r="C208" s="32"/>
       <c r="D208" s="51"/>
       <c r="E208" s="42"/>
-      <c r="F208" s="115"/>
+      <c r="F208" s="112"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="31" t="str" cm="1">
@@ -12365,7 +12371,7 @@
       <c r="C209" s="32"/>
       <c r="D209" s="51"/>
       <c r="E209" s="42"/>
-      <c r="F209" s="115"/>
+      <c r="F209" s="112"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="31" t="str" cm="1">
@@ -12375,7 +12381,7 @@
       <c r="C210" s="32"/>
       <c r="D210" s="51"/>
       <c r="E210" s="42"/>
-      <c r="F210" s="115"/>
+      <c r="F210" s="112"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="31" t="str" cm="1">
@@ -12385,7 +12391,7 @@
       <c r="C211" s="32"/>
       <c r="D211" s="51"/>
       <c r="E211" s="42"/>
-      <c r="F211" s="115"/>
+      <c r="F211" s="112"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="31" t="str" cm="1">
@@ -12395,7 +12401,7 @@
       <c r="C212" s="32"/>
       <c r="D212" s="51"/>
       <c r="E212" s="42"/>
-      <c r="F212" s="115"/>
+      <c r="F212" s="112"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="31" t="str" cm="1">
@@ -12405,7 +12411,7 @@
       <c r="C213" s="32"/>
       <c r="D213" s="51"/>
       <c r="E213" s="42"/>
-      <c r="F213" s="115"/>
+      <c r="F213" s="112"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="31" t="str" cm="1">
@@ -12415,7 +12421,7 @@
       <c r="C214" s="32"/>
       <c r="D214" s="51"/>
       <c r="E214" s="42"/>
-      <c r="F214" s="115"/>
+      <c r="F214" s="112"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="31" t="str" cm="1">
@@ -12425,7 +12431,7 @@
       <c r="C215" s="32"/>
       <c r="D215" s="51"/>
       <c r="E215" s="42"/>
-      <c r="F215" s="115"/>
+      <c r="F215" s="112"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B216" s="31" t="str" cm="1">
@@ -12435,7 +12441,7 @@
       <c r="C216" s="32"/>
       <c r="D216" s="51"/>
       <c r="E216" s="42"/>
-      <c r="F216" s="115"/>
+      <c r="F216" s="112"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B217" s="31" t="str" cm="1">
@@ -12445,7 +12451,7 @@
       <c r="C217" s="32"/>
       <c r="D217" s="51"/>
       <c r="E217" s="42"/>
-      <c r="F217" s="115"/>
+      <c r="F217" s="112"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B218" s="31" t="str" cm="1">
@@ -12455,7 +12461,7 @@
       <c r="C218" s="32"/>
       <c r="D218" s="51"/>
       <c r="E218" s="42"/>
-      <c r="F218" s="115"/>
+      <c r="F218" s="112"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B219" s="31" t="str" cm="1">
@@ -12465,7 +12471,7 @@
       <c r="C219" s="32"/>
       <c r="D219" s="51"/>
       <c r="E219" s="42"/>
-      <c r="F219" s="115"/>
+      <c r="F219" s="112"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B220" s="31" t="str" cm="1">
@@ -12475,7 +12481,7 @@
       <c r="C220" s="32"/>
       <c r="D220" s="51"/>
       <c r="E220" s="42"/>
-      <c r="F220" s="115"/>
+      <c r="F220" s="112"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B221" s="31" t="str" cm="1">
@@ -12485,7 +12491,7 @@
       <c r="C221" s="32"/>
       <c r="D221" s="51"/>
       <c r="E221" s="42"/>
-      <c r="F221" s="115"/>
+      <c r="F221" s="112"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B222" s="31" t="str" cm="1">
@@ -12495,7 +12501,7 @@
       <c r="C222" s="32"/>
       <c r="D222" s="51"/>
       <c r="E222" s="42"/>
-      <c r="F222" s="115"/>
+      <c r="F222" s="112"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B223" s="31" t="str" cm="1">
@@ -12505,7 +12511,7 @@
       <c r="C223" s="32"/>
       <c r="D223" s="51"/>
       <c r="E223" s="42"/>
-      <c r="F223" s="115"/>
+      <c r="F223" s="112"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B224" s="31" t="str" cm="1">
@@ -12515,7 +12521,7 @@
       <c r="C224" s="32"/>
       <c r="D224" s="51"/>
       <c r="E224" s="42"/>
-      <c r="F224" s="115"/>
+      <c r="F224" s="112"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B225" s="31" t="str" cm="1">
@@ -12525,7 +12531,7 @@
       <c r="C225" s="32"/>
       <c r="D225" s="51"/>
       <c r="E225" s="42"/>
-      <c r="F225" s="115"/>
+      <c r="F225" s="112"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B226" s="31" t="str" cm="1">
@@ -12535,7 +12541,7 @@
       <c r="C226" s="32"/>
       <c r="D226" s="51"/>
       <c r="E226" s="42"/>
-      <c r="F226" s="115"/>
+      <c r="F226" s="112"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B227" s="31" t="str" cm="1">
@@ -12545,7 +12551,7 @@
       <c r="C227" s="32"/>
       <c r="D227" s="51"/>
       <c r="E227" s="42"/>
-      <c r="F227" s="115"/>
+      <c r="F227" s="112"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B228" s="31" t="str" cm="1">
@@ -12555,7 +12561,7 @@
       <c r="C228" s="32"/>
       <c r="D228" s="51"/>
       <c r="E228" s="42"/>
-      <c r="F228" s="115"/>
+      <c r="F228" s="112"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B229" s="31" t="str" cm="1">
@@ -12565,7 +12571,7 @@
       <c r="C229" s="32"/>
       <c r="D229" s="51"/>
       <c r="E229" s="42"/>
-      <c r="F229" s="115"/>
+      <c r="F229" s="112"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B230" s="31" t="str" cm="1">
@@ -12575,7 +12581,7 @@
       <c r="C230" s="32"/>
       <c r="D230" s="51"/>
       <c r="E230" s="42"/>
-      <c r="F230" s="115"/>
+      <c r="F230" s="112"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B231" s="31" t="str" cm="1">
@@ -12585,7 +12591,7 @@
       <c r="C231" s="32"/>
       <c r="D231" s="51"/>
       <c r="E231" s="42"/>
-      <c r="F231" s="115"/>
+      <c r="F231" s="112"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B232" s="31" t="str" cm="1">
@@ -12595,7 +12601,7 @@
       <c r="C232" s="32"/>
       <c r="D232" s="51"/>
       <c r="E232" s="42"/>
-      <c r="F232" s="115"/>
+      <c r="F232" s="112"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B233" s="31" t="str" cm="1">
@@ -12605,7 +12611,7 @@
       <c r="C233" s="32"/>
       <c r="D233" s="51"/>
       <c r="E233" s="42"/>
-      <c r="F233" s="115"/>
+      <c r="F233" s="112"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B234" s="31" t="str" cm="1">
@@ -12615,7 +12621,7 @@
       <c r="C234" s="32"/>
       <c r="D234" s="51"/>
       <c r="E234" s="42"/>
-      <c r="F234" s="115"/>
+      <c r="F234" s="112"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B235" s="31" t="str" cm="1">
@@ -12625,7 +12631,7 @@
       <c r="C235" s="32"/>
       <c r="D235" s="51"/>
       <c r="E235" s="42"/>
-      <c r="F235" s="115"/>
+      <c r="F235" s="112"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B236" s="31" t="str" cm="1">
@@ -12635,7 +12641,7 @@
       <c r="C236" s="32"/>
       <c r="D236" s="51"/>
       <c r="E236" s="42"/>
-      <c r="F236" s="115"/>
+      <c r="F236" s="112"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B237" s="31" t="str" cm="1">
@@ -12645,7 +12651,7 @@
       <c r="C237" s="32"/>
       <c r="D237" s="51"/>
       <c r="E237" s="42"/>
-      <c r="F237" s="115"/>
+      <c r="F237" s="112"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B238" s="31" t="str" cm="1">
@@ -12655,7 +12661,7 @@
       <c r="C238" s="32"/>
       <c r="D238" s="51"/>
       <c r="E238" s="42"/>
-      <c r="F238" s="115"/>
+      <c r="F238" s="112"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B239" s="31" t="str" cm="1">
@@ -12665,7 +12671,7 @@
       <c r="C239" s="32"/>
       <c r="D239" s="51"/>
       <c r="E239" s="42"/>
-      <c r="F239" s="115"/>
+      <c r="F239" s="112"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B240" s="31" t="str" cm="1">
@@ -12675,7 +12681,7 @@
       <c r="C240" s="32"/>
       <c r="D240" s="51"/>
       <c r="E240" s="42"/>
-      <c r="F240" s="115"/>
+      <c r="F240" s="112"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B241" s="31" t="str" cm="1">
@@ -12685,7 +12691,7 @@
       <c r="C241" s="32"/>
       <c r="D241" s="51"/>
       <c r="E241" s="42"/>
-      <c r="F241" s="115"/>
+      <c r="F241" s="112"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B242" s="31" t="str" cm="1">
@@ -12695,7 +12701,7 @@
       <c r="C242" s="32"/>
       <c r="D242" s="51"/>
       <c r="E242" s="42"/>
-      <c r="F242" s="115"/>
+      <c r="F242" s="112"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B243" s="31" t="str" cm="1">
@@ -12705,7 +12711,7 @@
       <c r="C243" s="32"/>
       <c r="D243" s="51"/>
       <c r="E243" s="42"/>
-      <c r="F243" s="115"/>
+      <c r="F243" s="112"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B244" s="31" t="str" cm="1">
@@ -12715,7 +12721,7 @@
       <c r="C244" s="32"/>
       <c r="D244" s="51"/>
       <c r="E244" s="42"/>
-      <c r="F244" s="115"/>
+      <c r="F244" s="112"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B245" s="31" t="str" cm="1">
@@ -12725,7 +12731,7 @@
       <c r="C245" s="32"/>
       <c r="D245" s="51"/>
       <c r="E245" s="42"/>
-      <c r="F245" s="115"/>
+      <c r="F245" s="112"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B246" s="31" t="str" cm="1">
@@ -12735,7 +12741,7 @@
       <c r="C246" s="32"/>
       <c r="D246" s="51"/>
       <c r="E246" s="42"/>
-      <c r="F246" s="115"/>
+      <c r="F246" s="112"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B247" s="31" t="str" cm="1">
@@ -12745,7 +12751,7 @@
       <c r="C247" s="32"/>
       <c r="D247" s="51"/>
       <c r="E247" s="42"/>
-      <c r="F247" s="115"/>
+      <c r="F247" s="112"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B248" s="31" t="str" cm="1">
@@ -12755,7 +12761,7 @@
       <c r="C248" s="32"/>
       <c r="D248" s="51"/>
       <c r="E248" s="42"/>
-      <c r="F248" s="115"/>
+      <c r="F248" s="112"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B249" s="31" t="str" cm="1">
@@ -12765,7 +12771,7 @@
       <c r="C249" s="32"/>
       <c r="D249" s="51"/>
       <c r="E249" s="42"/>
-      <c r="F249" s="115"/>
+      <c r="F249" s="112"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B250" s="31" t="str" cm="1">
@@ -12775,7 +12781,7 @@
       <c r="C250" s="32"/>
       <c r="D250" s="51"/>
       <c r="E250" s="42"/>
-      <c r="F250" s="115"/>
+      <c r="F250" s="112"/>
     </row>
     <row r="251" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B251" s="31" t="str" cm="1">
@@ -12785,7 +12791,7 @@
       <c r="C251" s="32"/>
       <c r="D251" s="51"/>
       <c r="E251" s="42"/>
-      <c r="F251" s="115"/>
+      <c r="F251" s="112"/>
     </row>
     <row r="252" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B252" s="31" t="str" cm="1">
@@ -12795,7 +12801,7 @@
       <c r="C252" s="32"/>
       <c r="D252" s="51"/>
       <c r="E252" s="42"/>
-      <c r="F252" s="115"/>
+      <c r="F252" s="112"/>
     </row>
     <row r="253" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B253" s="31" t="str" cm="1">
@@ -12805,7 +12811,7 @@
       <c r="C253" s="32"/>
       <c r="D253" s="51"/>
       <c r="E253" s="42"/>
-      <c r="F253" s="115"/>
+      <c r="F253" s="112"/>
     </row>
     <row r="254" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B254" s="31" t="str" cm="1">
@@ -12815,7 +12821,7 @@
       <c r="C254" s="32"/>
       <c r="D254" s="51"/>
       <c r="E254" s="42"/>
-      <c r="F254" s="115"/>
+      <c r="F254" s="112"/>
     </row>
     <row r="255" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B255" s="31" t="str" cm="1">
@@ -12825,7 +12831,7 @@
       <c r="C255" s="32"/>
       <c r="D255" s="51"/>
       <c r="E255" s="42"/>
-      <c r="F255" s="115"/>
+      <c r="F255" s="112"/>
     </row>
     <row r="256" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B256" s="31" t="str" cm="1">
@@ -12835,7 +12841,7 @@
       <c r="C256" s="32"/>
       <c r="D256" s="51"/>
       <c r="E256" s="42"/>
-      <c r="F256" s="115"/>
+      <c r="F256" s="112"/>
     </row>
     <row r="257" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B257" s="31" t="str" cm="1">
@@ -12845,7 +12851,7 @@
       <c r="C257" s="32"/>
       <c r="D257" s="51"/>
       <c r="E257" s="42"/>
-      <c r="F257" s="115"/>
+      <c r="F257" s="112"/>
     </row>
     <row r="258" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B258" s="31" t="str" cm="1">
@@ -12855,7 +12861,7 @@
       <c r="C258" s="32"/>
       <c r="D258" s="51"/>
       <c r="E258" s="42"/>
-      <c r="F258" s="115"/>
+      <c r="F258" s="112"/>
     </row>
     <row r="259" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B259" s="31" t="str" cm="1">
@@ -12865,7 +12871,7 @@
       <c r="C259" s="32"/>
       <c r="D259" s="51"/>
       <c r="E259" s="42"/>
-      <c r="F259" s="115"/>
+      <c r="F259" s="112"/>
     </row>
     <row r="260" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B260" s="31" t="str" cm="1">
@@ -12875,7 +12881,7 @@
       <c r="C260" s="32"/>
       <c r="D260" s="51"/>
       <c r="E260" s="42"/>
-      <c r="F260" s="115"/>
+      <c r="F260" s="112"/>
     </row>
     <row r="261" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B261" s="31" t="str" cm="1">
@@ -12885,7 +12891,7 @@
       <c r="C261" s="32"/>
       <c r="D261" s="51"/>
       <c r="E261" s="42"/>
-      <c r="F261" s="115"/>
+      <c r="F261" s="112"/>
     </row>
     <row r="262" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B262" s="31" t="str" cm="1">
@@ -12895,7 +12901,7 @@
       <c r="C262" s="32"/>
       <c r="D262" s="51"/>
       <c r="E262" s="42"/>
-      <c r="F262" s="115"/>
+      <c r="F262" s="112"/>
     </row>
     <row r="263" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B263" s="31" t="str" cm="1">
@@ -12905,7 +12911,7 @@
       <c r="C263" s="32"/>
       <c r="D263" s="51"/>
       <c r="E263" s="42"/>
-      <c r="F263" s="115"/>
+      <c r="F263" s="112"/>
     </row>
     <row r="264" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B264" s="31" t="str" cm="1">
@@ -12915,7 +12921,7 @@
       <c r="C264" s="32"/>
       <c r="D264" s="51"/>
       <c r="E264" s="42"/>
-      <c r="F264" s="115"/>
+      <c r="F264" s="112"/>
     </row>
     <row r="265" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B265" s="31" t="str" cm="1">
@@ -12925,7 +12931,7 @@
       <c r="C265" s="32"/>
       <c r="D265" s="51"/>
       <c r="E265" s="42"/>
-      <c r="F265" s="115"/>
+      <c r="F265" s="112"/>
     </row>
     <row r="266" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B266" s="31" t="str" cm="1">
@@ -12935,7 +12941,7 @@
       <c r="C266" s="32"/>
       <c r="D266" s="51"/>
       <c r="E266" s="42"/>
-      <c r="F266" s="115"/>
+      <c r="F266" s="112"/>
     </row>
     <row r="267" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B267" s="31" t="str" cm="1">
@@ -12945,7 +12951,7 @@
       <c r="C267" s="32"/>
       <c r="D267" s="51"/>
       <c r="E267" s="42"/>
-      <c r="F267" s="115"/>
+      <c r="F267" s="112"/>
     </row>
     <row r="268" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B268" s="31" t="str" cm="1">
@@ -12955,7 +12961,7 @@
       <c r="C268" s="32"/>
       <c r="D268" s="51"/>
       <c r="E268" s="42"/>
-      <c r="F268" s="115"/>
+      <c r="F268" s="112"/>
     </row>
     <row r="269" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B269" s="31" t="str" cm="1">
@@ -12965,7 +12971,7 @@
       <c r="C269" s="32"/>
       <c r="D269" s="51"/>
       <c r="E269" s="42"/>
-      <c r="F269" s="115"/>
+      <c r="F269" s="112"/>
     </row>
     <row r="270" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B270" s="31" t="str" cm="1">
@@ -12975,7 +12981,7 @@
       <c r="C270" s="32"/>
       <c r="D270" s="51"/>
       <c r="E270" s="42"/>
-      <c r="F270" s="115"/>
+      <c r="F270" s="112"/>
     </row>
     <row r="271" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B271" s="31" t="str" cm="1">
@@ -12985,7 +12991,7 @@
       <c r="C271" s="32"/>
       <c r="D271" s="51"/>
       <c r="E271" s="42"/>
-      <c r="F271" s="115"/>
+      <c r="F271" s="112"/>
     </row>
     <row r="272" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B272" s="31" t="str" cm="1">
@@ -12995,7 +13001,7 @@
       <c r="C272" s="32"/>
       <c r="D272" s="51"/>
       <c r="E272" s="42"/>
-      <c r="F272" s="115"/>
+      <c r="F272" s="112"/>
     </row>
     <row r="273" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B273" s="31" t="str" cm="1">
@@ -13005,7 +13011,7 @@
       <c r="C273" s="32"/>
       <c r="D273" s="51"/>
       <c r="E273" s="42"/>
-      <c r="F273" s="115"/>
+      <c r="F273" s="112"/>
     </row>
     <row r="274" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B274" s="31" t="str" cm="1">
@@ -13015,7 +13021,7 @@
       <c r="C274" s="32"/>
       <c r="D274" s="51"/>
       <c r="E274" s="42"/>
-      <c r="F274" s="115"/>
+      <c r="F274" s="112"/>
     </row>
     <row r="275" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B275" s="31" t="str" cm="1">
@@ -13025,7 +13031,7 @@
       <c r="C275" s="32"/>
       <c r="D275" s="51"/>
       <c r="E275" s="42"/>
-      <c r="F275" s="115"/>
+      <c r="F275" s="112"/>
     </row>
     <row r="276" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B276" s="31" t="str" cm="1">
@@ -13035,7 +13041,7 @@
       <c r="C276" s="32"/>
       <c r="D276" s="51"/>
       <c r="E276" s="42"/>
-      <c r="F276" s="115"/>
+      <c r="F276" s="112"/>
     </row>
     <row r="277" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B277" s="31" t="str" cm="1">
@@ -13045,7 +13051,7 @@
       <c r="C277" s="32"/>
       <c r="D277" s="51"/>
       <c r="E277" s="42"/>
-      <c r="F277" s="115"/>
+      <c r="F277" s="112"/>
     </row>
     <row r="278" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B278" s="31" t="str" cm="1">
@@ -13055,7 +13061,7 @@
       <c r="C278" s="32"/>
       <c r="D278" s="51"/>
       <c r="E278" s="42"/>
-      <c r="F278" s="115"/>
+      <c r="F278" s="112"/>
     </row>
     <row r="279" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B279" s="31" t="str" cm="1">
@@ -13065,7 +13071,7 @@
       <c r="C279" s="32"/>
       <c r="D279" s="51"/>
       <c r="E279" s="42"/>
-      <c r="F279" s="115"/>
+      <c r="F279" s="112"/>
     </row>
     <row r="280" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B280" s="31" t="str" cm="1">
@@ -13075,7 +13081,7 @@
       <c r="C280" s="32"/>
       <c r="D280" s="51"/>
       <c r="E280" s="42"/>
-      <c r="F280" s="115"/>
+      <c r="F280" s="112"/>
     </row>
     <row r="281" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B281" s="31" t="str" cm="1">
@@ -13085,7 +13091,7 @@
       <c r="C281" s="32"/>
       <c r="D281" s="51"/>
       <c r="E281" s="42"/>
-      <c r="F281" s="115"/>
+      <c r="F281" s="112"/>
     </row>
     <row r="282" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B282" s="31" t="str" cm="1">
@@ -13095,7 +13101,7 @@
       <c r="C282" s="32"/>
       <c r="D282" s="51"/>
       <c r="E282" s="42"/>
-      <c r="F282" s="115"/>
+      <c r="F282" s="112"/>
     </row>
     <row r="283" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B283" s="31" t="str" cm="1">
@@ -13105,7 +13111,7 @@
       <c r="C283" s="32"/>
       <c r="D283" s="51"/>
       <c r="E283" s="42"/>
-      <c r="F283" s="115"/>
+      <c r="F283" s="112"/>
     </row>
     <row r="284" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B284" s="31" t="str" cm="1">
@@ -13115,7 +13121,7 @@
       <c r="C284" s="32"/>
       <c r="D284" s="51"/>
       <c r="E284" s="42"/>
-      <c r="F284" s="115"/>
+      <c r="F284" s="112"/>
     </row>
     <row r="285" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B285" s="31" t="str" cm="1">
@@ -13125,7 +13131,7 @@
       <c r="C285" s="32"/>
       <c r="D285" s="51"/>
       <c r="E285" s="42"/>
-      <c r="F285" s="115"/>
+      <c r="F285" s="112"/>
     </row>
     <row r="286" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B286" s="31" t="str" cm="1">
@@ -13135,7 +13141,7 @@
       <c r="C286" s="32"/>
       <c r="D286" s="51"/>
       <c r="E286" s="42"/>
-      <c r="F286" s="115"/>
+      <c r="F286" s="112"/>
     </row>
     <row r="287" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B287" s="31" t="str" cm="1">
@@ -13145,7 +13151,7 @@
       <c r="C287" s="32"/>
       <c r="D287" s="51"/>
       <c r="E287" s="42"/>
-      <c r="F287" s="115"/>
+      <c r="F287" s="112"/>
     </row>
     <row r="288" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B288" s="31" t="str" cm="1">
@@ -13155,7 +13161,7 @@
       <c r="C288" s="32"/>
       <c r="D288" s="51"/>
       <c r="E288" s="42"/>
-      <c r="F288" s="115"/>
+      <c r="F288" s="112"/>
     </row>
     <row r="289" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B289" s="31" t="str" cm="1">
@@ -13165,7 +13171,7 @@
       <c r="C289" s="32"/>
       <c r="D289" s="51"/>
       <c r="E289" s="42"/>
-      <c r="F289" s="115"/>
+      <c r="F289" s="112"/>
     </row>
     <row r="290" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B290" s="31" t="str" cm="1">
@@ -13175,7 +13181,7 @@
       <c r="C290" s="32"/>
       <c r="D290" s="51"/>
       <c r="E290" s="42"/>
-      <c r="F290" s="115"/>
+      <c r="F290" s="112"/>
     </row>
     <row r="291" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B291" s="31" t="str" cm="1">
@@ -13185,7 +13191,7 @@
       <c r="C291" s="32"/>
       <c r="D291" s="51"/>
       <c r="E291" s="42"/>
-      <c r="F291" s="115"/>
+      <c r="F291" s="112"/>
     </row>
     <row r="292" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B292" s="31" t="str" cm="1">
@@ -13195,7 +13201,7 @@
       <c r="C292" s="32"/>
       <c r="D292" s="51"/>
       <c r="E292" s="42"/>
-      <c r="F292" s="115"/>
+      <c r="F292" s="112"/>
     </row>
     <row r="293" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B293" s="31" t="str" cm="1">
@@ -13205,7 +13211,7 @@
       <c r="C293" s="32"/>
       <c r="D293" s="51"/>
       <c r="E293" s="42"/>
-      <c r="F293" s="115"/>
+      <c r="F293" s="112"/>
     </row>
     <row r="294" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B294" s="31" t="str" cm="1">
@@ -13215,7 +13221,7 @@
       <c r="C294" s="32"/>
       <c r="D294" s="51"/>
       <c r="E294" s="42"/>
-      <c r="F294" s="115"/>
+      <c r="F294" s="112"/>
     </row>
     <row r="295" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B295" s="31" t="str" cm="1">
@@ -13225,7 +13231,7 @@
       <c r="C295" s="32"/>
       <c r="D295" s="51"/>
       <c r="E295" s="42"/>
-      <c r="F295" s="115"/>
+      <c r="F295" s="112"/>
     </row>
     <row r="296" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B296" s="31" t="str" cm="1">
@@ -13235,7 +13241,7 @@
       <c r="C296" s="32"/>
       <c r="D296" s="51"/>
       <c r="E296" s="42"/>
-      <c r="F296" s="115"/>
+      <c r="F296" s="112"/>
     </row>
     <row r="297" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B297" s="31" t="str" cm="1">
@@ -13245,7 +13251,7 @@
       <c r="C297" s="32"/>
       <c r="D297" s="51"/>
       <c r="E297" s="42"/>
-      <c r="F297" s="115"/>
+      <c r="F297" s="112"/>
     </row>
     <row r="298" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B298" s="31" t="str" cm="1">
@@ -13255,7 +13261,7 @@
       <c r="C298" s="32"/>
       <c r="D298" s="51"/>
       <c r="E298" s="42"/>
-      <c r="F298" s="115"/>
+      <c r="F298" s="112"/>
     </row>
     <row r="299" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B299" s="31" t="str" cm="1">
@@ -13265,7 +13271,7 @@
       <c r="C299" s="32"/>
       <c r="D299" s="51"/>
       <c r="E299" s="42"/>
-      <c r="F299" s="115"/>
+      <c r="F299" s="112"/>
     </row>
     <row r="300" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B300" s="31" t="str" cm="1">
@@ -13275,7 +13281,7 @@
       <c r="C300" s="32"/>
       <c r="D300" s="51"/>
       <c r="E300" s="42"/>
-      <c r="F300" s="115"/>
+      <c r="F300" s="112"/>
     </row>
     <row r="301" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B301" s="31" t="str" cm="1">
@@ -13285,7 +13291,7 @@
       <c r="C301" s="32"/>
       <c r="D301" s="51"/>
       <c r="E301" s="42"/>
-      <c r="F301" s="115"/>
+      <c r="F301" s="112"/>
     </row>
     <row r="302" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B302" s="31" t="str" cm="1">
@@ -13295,7 +13301,7 @@
       <c r="C302" s="32"/>
       <c r="D302" s="51"/>
       <c r="E302" s="42"/>
-      <c r="F302" s="115"/>
+      <c r="F302" s="112"/>
     </row>
     <row r="303" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B303" s="31" t="str" cm="1">
@@ -13305,7 +13311,7 @@
       <c r="C303" s="32"/>
       <c r="D303" s="51"/>
       <c r="E303" s="42"/>
-      <c r="F303" s="115"/>
+      <c r="F303" s="112"/>
     </row>
     <row r="304" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B304" s="31" t="str" cm="1">
@@ -13315,7 +13321,7 @@
       <c r="C304" s="32"/>
       <c r="D304" s="51"/>
       <c r="E304" s="42"/>
-      <c r="F304" s="115"/>
+      <c r="F304" s="112"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B305" s="31" t="str" cm="1">
@@ -13325,7 +13331,7 @@
       <c r="C305" s="32"/>
       <c r="D305" s="51"/>
       <c r="E305" s="42"/>
-      <c r="F305" s="115"/>
+      <c r="F305" s="112"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B306" s="31" t="str" cm="1">
@@ -13335,7 +13341,7 @@
       <c r="C306" s="32"/>
       <c r="D306" s="51"/>
       <c r="E306" s="42"/>
-      <c r="F306" s="115"/>
+      <c r="F306" s="112"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B307" s="31" t="str" cm="1">
@@ -13345,7 +13351,7 @@
       <c r="C307" s="32"/>
       <c r="D307" s="51"/>
       <c r="E307" s="42"/>
-      <c r="F307" s="115"/>
+      <c r="F307" s="112"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B308" s="31" t="str" cm="1">
@@ -13355,7 +13361,7 @@
       <c r="C308" s="32"/>
       <c r="D308" s="51"/>
       <c r="E308" s="42"/>
-      <c r="F308" s="115"/>
+      <c r="F308" s="112"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B309" s="31" t="str" cm="1">
@@ -13365,7 +13371,7 @@
       <c r="C309" s="32"/>
       <c r="D309" s="51"/>
       <c r="E309" s="42"/>
-      <c r="F309" s="115"/>
+      <c r="F309" s="112"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B310" s="31" t="str" cm="1">
@@ -13375,7 +13381,7 @@
       <c r="C310" s="32"/>
       <c r="D310" s="51"/>
       <c r="E310" s="42"/>
-      <c r="F310" s="115"/>
+      <c r="F310" s="112"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B311" s="31" t="str" cm="1">
@@ -13385,7 +13391,7 @@
       <c r="C311" s="32"/>
       <c r="D311" s="51"/>
       <c r="E311" s="42"/>
-      <c r="F311" s="115"/>
+      <c r="F311" s="112"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B312" s="31" t="str" cm="1">
@@ -13395,7 +13401,7 @@
       <c r="C312" s="32"/>
       <c r="D312" s="51"/>
       <c r="E312" s="42"/>
-      <c r="F312" s="115"/>
+      <c r="F312" s="112"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B313" s="31" t="str" cm="1">
@@ -13405,7 +13411,7 @@
       <c r="C313" s="32"/>
       <c r="D313" s="51"/>
       <c r="E313" s="42"/>
-      <c r="F313" s="115"/>
+      <c r="F313" s="112"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B314" s="31" t="str" cm="1">
@@ -13415,7 +13421,7 @@
       <c r="C314" s="32"/>
       <c r="D314" s="51"/>
       <c r="E314" s="42"/>
-      <c r="F314" s="115"/>
+      <c r="F314" s="112"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B315" s="31" t="str" cm="1">
@@ -13425,7 +13431,7 @@
       <c r="C315" s="32"/>
       <c r="D315" s="51"/>
       <c r="E315" s="42"/>
-      <c r="F315" s="116"/>
+      <c r="F315" s="113"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B316" s="31" t="str" cm="1">
@@ -13435,7 +13441,7 @@
       <c r="C316" s="32"/>
       <c r="D316" s="51"/>
       <c r="E316" s="42"/>
-      <c r="F316" s="115"/>
+      <c r="F316" s="112"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B317" s="31" t="str" cm="1">
@@ -13445,7 +13451,7 @@
       <c r="C317" s="32"/>
       <c r="D317" s="51"/>
       <c r="E317" s="42"/>
-      <c r="F317" s="115"/>
+      <c r="F317" s="112"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B318" s="31" t="str" cm="1">
@@ -13455,7 +13461,7 @@
       <c r="C318" s="32"/>
       <c r="D318" s="51"/>
       <c r="E318" s="42"/>
-      <c r="F318" s="115"/>
+      <c r="F318" s="112"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="8" t="s">
@@ -13477,7 +13483,7 @@
         <f>COUNTIF(E19:E318, "")</f>
         <v>219</v>
       </c>
-      <c r="F319" s="115" t="s">
+      <c r="F319" s="112" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13486,7 +13492,7 @@
       <c r="C320" s="30"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="115"/>
+      <c r="F320" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13585,41 +13591,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="127" t="s">
+      <c r="B3" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129" t="s">
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
+      <c r="M3" s="128"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="127"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -13657,7 +13663,7 @@
     </row>
     <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
-      <c r="B5" s="109" t="s">
+      <c r="B5" s="106" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -13708,7 +13714,7 @@
     </row>
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="106" t="s">
         <v>95</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -13759,7 +13765,7 @@
     </row>
     <row r="7" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="106" t="s">
         <v>99</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -13808,7 +13814,7 @@
     </row>
     <row r="8" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="106" t="s">
         <v>131</v>
       </c>
       <c r="C8" s="16" t="s">
@@ -13859,20 +13865,20 @@
     </row>
     <row r="9" spans="1:17" s="58" customFormat="1" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="110"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="71"/>
       <c r="D9" s="69"/>
       <c r="E9" s="70"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="118"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
       <c r="K9" s="61"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="59"/>
     </row>
@@ -13915,9 +13921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13937,119 +13941,119 @@
     <col min="20" max="16384" width="9.21875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="96" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="132" t="s">
+    <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="Q1" s="97"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="139"/>
+      <c r="O1" s="139"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="131" t="str">
+      <c r="D2" s="138" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v>Data Research Labs</v>
       </c>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="130" t="str" cm="1">
+      <c r="N2" s="137" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
         <v>R4</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="Q2" s="98"/>
+      <c r="O2" s="137"/>
+      <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="94"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="130" t="str">
+      <c r="D3" s="137" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v>My Test Case Manager (self-test)</v>
       </c>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="130" t="str">
+      <c r="N3" s="137" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v>Matt Pierce</v>
       </c>
-      <c r="O3" s="130"/>
-      <c r="Q3" s="98"/>
+      <c r="O3" s="137"/>
+      <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="94"/>
+      <c r="B4" s="91"/>
       <c r="K4" s="30"/>
-      <c r="L4" s="95"/>
+      <c r="L4" s="92"/>
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="131">
-        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,9)</f>
-        <v>32</v>
-      </c>
-      <c r="O4" s="131"/>
-      <c r="Q4" s="98"/>
+      <c r="N4" s="138">
+        <f>SUM(C14:G14)</f>
+        <v>74</v>
+      </c>
+      <c r="O4" s="138"/>
+      <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="94"/>
+      <c r="B5" s="91"/>
       <c r="K5" s="30"/>
-      <c r="L5" s="95"/>
+      <c r="L5" s="92"/>
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="131">
-        <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$P$8,14)</f>
+      <c r="N5" s="138">
+        <f>SUM(K14:M14)</f>
         <v>14</v>
       </c>
-      <c r="O5" s="131"/>
-      <c r="Q5" s="98"/>
+      <c r="O5" s="138"/>
+      <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="133" t="str">
+      <c r="B7" s="132" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
-      <c r="J7" s="133" t="str">
+      <c r="C7" s="133"/>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="134"/>
+      <c r="J7" s="132" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="134"/>
-      <c r="O7" s="135"/>
+      <c r="K7" s="133"/>
+      <c r="L7" s="133"/>
+      <c r="M7" s="133"/>
+      <c r="N7" s="133"/>
+      <c r="O7" s="134"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -14130,30 +14134,30 @@
     </row>
     <row r="13" spans="2:17" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="B13" s="81"/>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="119" t="s">
+      <c r="F13" s="116" t="s">
         <v>135</v>
       </c>
-      <c r="G13" s="102" t="s">
+      <c r="G13" s="99" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="82"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="103" t="s">
+      <c r="K13" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="104" t="s">
+      <c r="L13" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="105" t="s">
+      <c r="M13" s="102" t="s">
         <v>20</v>
       </c>
       <c r="N13" s="86"/>
@@ -14161,44 +14165,44 @@
       <c r="P13" s="74"/>
     </row>
     <row r="14" spans="2:17" s="73" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="B14" s="106" t="str">
+      <c r="B14" s="103" t="str">
         <f>$N$2</f>
         <v>R4</v>
       </c>
-      <c r="C14" s="107">
+      <c r="C14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,5)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="107">
+      <c r="D14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,6)</f>
         <v>0</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,7)</f>
         <v>0</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,8)</f>
         <v>42</v>
       </c>
-      <c r="G14" s="107">
+      <c r="G14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$K$8,9)</f>
         <v>32</v>
       </c>
       <c r="H14" s="82"/>
-      <c r="J14" s="106" t="str">
+      <c r="J14" s="103" t="str">
         <f>$N$2</f>
         <v>R4</v>
       </c>
-      <c r="K14" s="107">
+      <c r="K14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,11)+VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,12)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="107">
+      <c r="L14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,13)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="107">
+      <c r="M14" s="104">
         <f>VLOOKUP($N$2,'Test Run Log'!$B$5:$O$8,14)</f>
         <v>14</v>
       </c>
@@ -14226,49 +14230,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="133" t="str">
+      <c r="B17" s="132" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="135"/>
-      <c r="J17" s="133" t="str">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="134"/>
+      <c r="J17" s="132" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="134"/>
-      <c r="L17" s="134"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="134"/>
-      <c r="O17" s="135"/>
+      <c r="K17" s="133"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="134"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="133" t="str">
+      <c r="B29" s="132" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="134"/>
-      <c r="D29" s="134"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="134"/>
-      <c r="G29" s="134"/>
-      <c r="H29" s="135"/>
-      <c r="J29" s="133" t="str">
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="134"/>
+      <c r="J29" s="132" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="134"/>
-      <c r="L29" s="134"/>
-      <c r="M29" s="134"/>
-      <c r="N29" s="134"/>
-      <c r="O29" s="135"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="133"/>
+      <c r="O29" s="134"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -14401,254 +14405,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="133" t="s">
+      <c r="B42" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="135"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="134"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="137" t="s">
+      <c r="C43" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="137"/>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="137"/>
-      <c r="L43" s="137"/>
-      <c r="M43" s="137"/>
-      <c r="N43" s="137"/>
-      <c r="O43" s="137"/>
+      <c r="D43" s="136"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="136"/>
+      <c r="H43" s="136"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="136"/>
+      <c r="K43" s="136"/>
+      <c r="L43" s="136"/>
+      <c r="M43" s="136"/>
+      <c r="N43" s="136"/>
+      <c r="O43" s="136"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="90"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="139"/>
-      <c r="N44" s="139"/>
-      <c r="O44" s="140"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="129"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="130"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="130"/>
+      <c r="K44" s="130"/>
+      <c r="L44" s="130"/>
+      <c r="M44" s="130"/>
+      <c r="N44" s="130"/>
+      <c r="O44" s="131"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="90"/>
-      <c r="C45" s="138"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="139"/>
-      <c r="N45" s="139"/>
-      <c r="O45" s="140"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="129"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="I45" s="130"/>
+      <c r="J45" s="130"/>
+      <c r="K45" s="130"/>
+      <c r="L45" s="130"/>
+      <c r="M45" s="130"/>
+      <c r="N45" s="130"/>
+      <c r="O45" s="131"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="90"/>
-      <c r="C46" s="138"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="139"/>
-      <c r="N46" s="139"/>
-      <c r="O46" s="140"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="129"/>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="130"/>
+      <c r="K46" s="130"/>
+      <c r="L46" s="130"/>
+      <c r="M46" s="130"/>
+      <c r="N46" s="130"/>
+      <c r="O46" s="131"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="91"/>
-      <c r="C47" s="138"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="139"/>
-      <c r="N47" s="139"/>
-      <c r="O47" s="140"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="129"/>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="130"/>
+      <c r="K47" s="130"/>
+      <c r="L47" s="130"/>
+      <c r="M47" s="130"/>
+      <c r="N47" s="130"/>
+      <c r="O47" s="131"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="138"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="139"/>
-      <c r="N48" s="139"/>
-      <c r="O48" s="140"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="130"/>
+      <c r="I48" s="130"/>
+      <c r="J48" s="130"/>
+      <c r="K48" s="130"/>
+      <c r="L48" s="130"/>
+      <c r="M48" s="130"/>
+      <c r="N48" s="130"/>
+      <c r="O48" s="131"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="133" t="s">
+      <c r="B50" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
-      <c r="N50" s="134"/>
-      <c r="O50" s="135"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="134"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="136" t="s">
+      <c r="C51" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="136"/>
-      <c r="N51" s="136"/>
-      <c r="O51" s="136"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="90"/>
-      <c r="C52" s="138"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="139"/>
-      <c r="N52" s="139"/>
-      <c r="O52" s="140"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="129"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="131"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="90"/>
-      <c r="C53" s="138"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="139"/>
-      <c r="M53" s="139"/>
-      <c r="N53" s="139"/>
-      <c r="O53" s="140"/>
+      <c r="B53" s="120"/>
+      <c r="C53" s="129"/>
+      <c r="D53" s="130"/>
+      <c r="E53" s="130"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="131"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="90"/>
-      <c r="C54" s="138"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="139"/>
-      <c r="K54" s="139"/>
-      <c r="L54" s="139"/>
-      <c r="M54" s="139"/>
-      <c r="N54" s="139"/>
-      <c r="O54" s="140"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="130"/>
+      <c r="G54" s="130"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
+      <c r="K54" s="130"/>
+      <c r="L54" s="130"/>
+      <c r="M54" s="130"/>
+      <c r="N54" s="130"/>
+      <c r="O54" s="131"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="138"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="139"/>
-      <c r="I55" s="139"/>
-      <c r="J55" s="139"/>
-      <c r="K55" s="139"/>
-      <c r="L55" s="139"/>
-      <c r="M55" s="139"/>
-      <c r="N55" s="139"/>
-      <c r="O55" s="140"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="129"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="130"/>
+      <c r="F55" s="130"/>
+      <c r="G55" s="130"/>
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="130"/>
+      <c r="K55" s="130"/>
+      <c r="L55" s="130"/>
+      <c r="M55" s="130"/>
+      <c r="N55" s="130"/>
+      <c r="O55" s="131"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="138"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="139"/>
-      <c r="N56" s="139"/>
-      <c r="O56" s="140"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="130"/>
+      <c r="F56" s="130"/>
+      <c r="G56" s="130"/>
+      <c r="H56" s="130"/>
+      <c r="I56" s="130"/>
+      <c r="J56" s="130"/>
+      <c r="K56" s="130"/>
+      <c r="L56" s="130"/>
+      <c r="M56" s="130"/>
+      <c r="N56" s="130"/>
+      <c r="O56" s="131"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -14657,130 +14661,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="133" t="s">
+      <c r="B58" s="132" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="134"/>
-      <c r="D58" s="134"/>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="134"/>
-      <c r="L58" s="134"/>
-      <c r="M58" s="134"/>
-      <c r="N58" s="134"/>
-      <c r="O58" s="135"/>
+      <c r="C58" s="133"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="134"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="136" t="s">
+      <c r="C59" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="136"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="135"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
+      <c r="N59" s="135"/>
+      <c r="O59" s="135"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="90"/>
-      <c r="C60" s="138"/>
-      <c r="D60" s="139"/>
-      <c r="E60" s="139"/>
-      <c r="F60" s="139"/>
-      <c r="G60" s="139"/>
-      <c r="H60" s="139"/>
-      <c r="I60" s="139"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="139"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="139"/>
-      <c r="N60" s="139"/>
-      <c r="O60" s="140"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
+      <c r="M60" s="130"/>
+      <c r="N60" s="130"/>
+      <c r="O60" s="131"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="90"/>
-      <c r="C61" s="138"/>
-      <c r="D61" s="139"/>
-      <c r="E61" s="139"/>
-      <c r="F61" s="139"/>
-      <c r="G61" s="139"/>
-      <c r="H61" s="139"/>
-      <c r="I61" s="139"/>
-      <c r="J61" s="139"/>
-      <c r="K61" s="139"/>
-      <c r="L61" s="139"/>
-      <c r="M61" s="139"/>
-      <c r="N61" s="139"/>
-      <c r="O61" s="140"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
+      <c r="M61" s="130"/>
+      <c r="N61" s="130"/>
+      <c r="O61" s="131"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="90"/>
-      <c r="C62" s="138"/>
-      <c r="D62" s="139"/>
-      <c r="E62" s="139"/>
-      <c r="F62" s="139"/>
-      <c r="G62" s="139"/>
-      <c r="H62" s="139"/>
-      <c r="I62" s="139"/>
-      <c r="J62" s="139"/>
-      <c r="K62" s="139"/>
-      <c r="L62" s="139"/>
-      <c r="M62" s="139"/>
-      <c r="N62" s="139"/>
-      <c r="O62" s="140"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
+      <c r="M62" s="130"/>
+      <c r="N62" s="130"/>
+      <c r="O62" s="131"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="91"/>
-      <c r="C63" s="138"/>
-      <c r="D63" s="139"/>
-      <c r="E63" s="139"/>
-      <c r="F63" s="139"/>
-      <c r="G63" s="139"/>
-      <c r="H63" s="139"/>
-      <c r="I63" s="139"/>
-      <c r="J63" s="139"/>
-      <c r="K63" s="139"/>
-      <c r="L63" s="139"/>
-      <c r="M63" s="139"/>
-      <c r="N63" s="139"/>
-      <c r="O63" s="140"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
+      <c r="M63" s="130"/>
+      <c r="N63" s="130"/>
+      <c r="O63" s="131"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="138"/>
-      <c r="D64" s="139"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="139"/>
-      <c r="G64" s="139"/>
-      <c r="H64" s="139"/>
-      <c r="I64" s="139"/>
-      <c r="J64" s="139"/>
-      <c r="K64" s="139"/>
-      <c r="L64" s="139"/>
-      <c r="M64" s="139"/>
-      <c r="N64" s="139"/>
-      <c r="O64" s="140"/>
+      <c r="B64" s="121"/>
+      <c r="C64" s="129"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
+      <c r="M64" s="130"/>
+      <c r="N64" s="130"/>
+      <c r="O64" s="131"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14838,17 +14842,13 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -14865,13 +14865,17 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -14884,7 +14888,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14911,7 +14915,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="140" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="12"/>
@@ -14921,7 +14925,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="141"/>
+      <c r="E3" s="140"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14961,103 +14965,103 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="143" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="144"/>
+      <c r="E8" s="143"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="E9" s="144"/>
+      <c r="E9" s="143"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
       <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
       <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="122"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="59"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="122"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
       <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="59"/>
-      <c r="B18" s="142" t="s">
+      <c r="B18" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15088,18 +15092,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15217,6 +15221,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -15227,14 +15239,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/samples/mtcm_sample_1.xlsx
+++ b/samples/mtcm_sample_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD72218-5DC0-4314-8CD1-A4E6CE624F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36531747-50E3-4505-BC2F-9E36F89DBF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,7 @@
     <sheet name="Test Cases" sheetId="34" r:id="rId2"/>
     <sheet name="Test Run Log" sheetId="35" r:id="rId3"/>
     <sheet name="Report" sheetId="1" r:id="rId4"/>
-    <sheet name="About" sheetId="37" r:id="rId5"/>
+    <sheet name="About" sheetId="38" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$B$18:$E$319</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
   <si>
     <t>F</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Total Defects:</t>
-  </si>
-  <si>
-    <t>If you like this software, then please visit our GitHub site and subscribe to our YouTube channel.</t>
   </si>
   <si>
     <r>
@@ -653,20 +650,22 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> V5 Bld 2021.04.01</t>
+    <t xml:space="preserve"> v5.01.44289</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0\ \h"/>
     <numFmt numFmtId="165" formatCode="0\ \m"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,8 +905,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1007,6 +1020,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00E266"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,11 +1425,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1675,11 +1695,9 @@
     <xf numFmtId="165" fontId="11" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1689,14 +1707,19 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1759,17 +1782,32 @@
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -9166,7 +9204,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8123E63-882F-40CB-8C24-5BE5974BD0E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBB2022-CA7A-4806-AA4F-0D581BB3BEBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9207,6 +9245,194 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112644</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338051</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33132</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F16D1-D1BE-4376-9662-CCFAFD057AB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="112644" y="2491742"/>
+          <a:ext cx="934067" cy="947530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514844</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2948939</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle with Corners Rounded 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F321C4-7663-45F4-A3D6-A344C833B290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223504" y="2495715"/>
+          <a:ext cx="2959875" cy="529425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -63856"/>
+            <a:gd name="adj2" fmla="val 35582"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Please visit and subscribe to my</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> YouTube channel "www.DataResearchLabs.com"</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="400" b="1">
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9556,10 +9782,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="121"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9574,7 +9800,7 @@
         <v>29</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="59"/>
     </row>
@@ -9590,7 +9816,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="59"/>
     </row>
@@ -9606,7 +9832,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="59"/>
     </row>
@@ -9630,17 +9856,17 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="120" customWidth="1"/>
     <col min="2" max="2" width="4.33203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="6.5546875" style="33" customWidth="1"/>
     <col min="4" max="4" width="3.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="93.33203125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="114" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="120" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="20" customWidth="1"/>
     <col min="8" max="8" width="2.88671875" style="20" customWidth="1"/>
     <col min="9" max="9" width="7.21875" style="20" bestFit="1" customWidth="1"/>
@@ -9651,11 +9877,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="119"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
-      <c r="F1" s="112"/>
+      <c r="F1" s="119"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -9664,26 +9891,28 @@
       <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="119"/>
       <c r="B2" s="64"/>
       <c r="C2" s="64"/>
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="123" t="s">
+      <c r="F2" s="119"/>
+      <c r="G2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="125"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="119"/>
       <c r="B3" s="64"/>
       <c r="C3" s="64"/>
       <c r="D3" s="64"/>
       <c r="E3" s="64"/>
-      <c r="F3" s="112"/>
+      <c r="F3" s="119"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -9692,11 +9921,12 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="119"/>
       <c r="B4" s="64"/>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="E4" s="64"/>
-      <c r="F4" s="112"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="45" t="s">
         <v>17</v>
       </c>
@@ -9711,11 +9941,12 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="119"/>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
       <c r="D5" s="64"/>
       <c r="E5" s="64"/>
-      <c r="F5" s="112"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="44" t="s">
         <v>10</v>
       </c>
@@ -9734,11 +9965,12 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="119"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64"/>
       <c r="E6" s="64"/>
-      <c r="F6" s="112"/>
+      <c r="F6" s="119"/>
       <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
@@ -9757,11 +9989,12 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="119"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
-      <c r="F7" s="112"/>
+      <c r="F7" s="119"/>
       <c r="G7" s="44" t="s">
         <v>5</v>
       </c>
@@ -9780,16 +10013,17 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="119"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
       <c r="D8" s="64"/>
       <c r="E8" s="64"/>
-      <c r="F8" s="112"/>
+      <c r="F8" s="119"/>
       <c r="G8" s="68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" s="66">
         <f t="shared" si="0"/>
@@ -9803,8 +10037,8 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="64" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="F9" s="112"/>
+      <c r="A9" s="119"/>
+      <c r="F9" s="119"/>
       <c r="G9" s="68" t="s">
         <v>4</v>
       </c>
@@ -9823,11 +10057,12 @@
       <c r="L9" s="57"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="119"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
       <c r="E10" s="64"/>
-      <c r="F10" s="112"/>
+      <c r="F10" s="119"/>
       <c r="G10" s="43" t="s">
         <v>35</v>
       </c>
@@ -9843,11 +10078,12 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="119"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
-      <c r="F11" s="112"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="4"/>
       <c r="H11" s="19"/>
       <c r="I11" s="28">
@@ -9862,11 +10098,12 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="119"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
-      <c r="F12" s="112"/>
+      <c r="F12" s="119"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -9875,11 +10112,12 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="119"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
       <c r="E13" s="64"/>
-      <c r="F13" s="112"/>
+      <c r="F13" s="119"/>
       <c r="G13" s="53" t="str">
         <f>IF(COUNTIF(G14:G16, "") &lt;&gt; 3, "VALIDATION ERROR!", "")</f>
         <v/>
@@ -9891,11 +10129,12 @@
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="119"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64"/>
       <c r="E14" s="64"/>
-      <c r="F14" s="112"/>
+      <c r="F14" s="119"/>
       <c r="G14" s="52" t="str">
         <f>IF($C$319&lt;&gt;$E$319,"REJ-01: " &amp; $C$319&amp;" [Exec Tm] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9907,11 +10146,12 @@
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="119"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
       <c r="D15" s="64"/>
       <c r="E15" s="64"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="119"/>
       <c r="G15" s="52" t="str">
         <f>IF($D$319&lt;&gt;$E$319,"REJ-02: " &amp; $D$319&amp;" [Status] rows  &lt;&gt;  " &amp; $E$319 &amp; " [Test Steps] rows", "")</f>
         <v/>
@@ -9923,11 +10163,12 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="119"/>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
       <c r="D16" s="57"/>
       <c r="E16" s="57"/>
-      <c r="F16" s="112"/>
+      <c r="F16" s="119"/>
       <c r="G16" s="52"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
@@ -9936,21 +10177,22 @@
       <c r="L16" s="57"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="123" t="s">
+      <c r="A17" s="119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="112" t="s">
-        <v>136</v>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="119" t="s">
+        <v>135</v>
       </c>
       <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="119"/>
       <c r="B18" s="47" t="s">
         <v>32</v>
       </c>
@@ -9963,10 +10205,13 @@
       <c r="E18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="112"/>
+      <c r="F18" s="119"/>
       <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="112" t="s">
+        <v>135</v>
+      </c>
       <c r="B19" s="31" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">IF(AND(C19&lt;&gt;"",E19&lt;&gt;"")=TRUE, CELL("row",B19)-18,"")</f>
         <v>1</v>
@@ -9978,14 +10223,13 @@
         <v>34</v>
       </c>
       <c r="E19" s="110" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="113" t="s">
-        <v>136</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="F19" s="112"/>
       <c r="G19" s="64"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="112"/>
       <c r="B20" s="31" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">IF(AND(C20&lt;&gt;"",E20&lt;&gt;"")=TRUE, CELL("row",B20)-18,"")</f>
         <v>2</v>
@@ -9994,14 +10238,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="113"/>
+        <v>60</v>
+      </c>
+      <c r="F20" s="112"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="112"/>
       <c r="B21" s="31" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">IF(AND(C21&lt;&gt;"",E21&lt;&gt;"")=TRUE, CELL("row",B21)-18,"")</f>
         <v>3</v>
@@ -10010,14 +10255,15 @@
         <v>0</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="113"/>
+        <v>59</v>
+      </c>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="112"/>
       <c r="B22" s="31" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">IF(AND(C22&lt;&gt;"",E22&lt;&gt;"")=TRUE, CELL("row",B22)-18,"")</f>
         <v>4</v>
@@ -10026,14 +10272,15 @@
         <v>0</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="113"/>
+        <v>58</v>
+      </c>
+      <c r="F22" s="112"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="112"/>
       <c r="B23" s="31" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">IF(AND(C23&lt;&gt;"",E23&lt;&gt;"")=TRUE, CELL("row",B23)-18,"")</f>
         <v>5</v>
@@ -10042,14 +10289,15 @@
         <v>0</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="113"/>
+        <v>61</v>
+      </c>
+      <c r="F23" s="112"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="119"/>
       <c r="B24" s="31" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">IF(AND(C24&lt;&gt;"",E24&lt;&gt;"")=TRUE, CELL("row",B24)-18,"")</f>
         <v>6</v>
@@ -10058,14 +10306,15 @@
         <v>0</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="112"/>
+        <v>62</v>
+      </c>
+      <c r="F24" s="119"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="119"/>
       <c r="B25" s="31" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">IF(AND(C25&lt;&gt;"",E25&lt;&gt;"")=TRUE, CELL("row",B25)-18,"")</f>
         <v>7</v>
@@ -10074,14 +10323,15 @@
         <v>0</v>
       </c>
       <c r="D25" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="112"/>
+        <v>63</v>
+      </c>
+      <c r="F25" s="119"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="119"/>
       <c r="B26" s="31" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">IF(AND(C26&lt;&gt;"",E26&lt;&gt;"")=TRUE, CELL("row",B26)-18,"")</f>
         <v>8</v>
@@ -10090,14 +10340,15 @@
         <v>0</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="112"/>
+        <v>64</v>
+      </c>
+      <c r="F26" s="119"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="119"/>
       <c r="B27" s="31" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">IF(AND(C27&lt;&gt;"",E27&lt;&gt;"")=TRUE, CELL("row",B27)-18,"")</f>
         <v>9</v>
@@ -10106,14 +10357,15 @@
         <v>0</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="112"/>
+        <v>93</v>
+      </c>
+      <c r="F27" s="119"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="119"/>
       <c r="B28" s="31" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">IF(AND(C28&lt;&gt;"",E28&lt;&gt;"")=TRUE, CELL("row",B28)-18,"")</f>
         <v>10</v>
@@ -10122,14 +10374,15 @@
         <v>0</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="112"/>
+        <v>65</v>
+      </c>
+      <c r="F28" s="119"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="119"/>
       <c r="B29" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">IF(AND(C29&lt;&gt;"",E29&lt;&gt;"")=TRUE, CELL("row",B29)-18,"")</f>
         <v/>
@@ -10137,9 +10390,10 @@
       <c r="C29" s="32"/>
       <c r="D29" s="51"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="112"/>
+      <c r="F29" s="119"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="119"/>
       <c r="B30" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">IF(AND(C30&lt;&gt;"",E30&lt;&gt;"")=TRUE, CELL("row",B30)-18,"")</f>
         <v/>
@@ -10147,9 +10401,10 @@
       <c r="C30" s="32"/>
       <c r="D30" s="51"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="112"/>
+      <c r="F30" s="119"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="119"/>
       <c r="B31" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">IF(AND(C31&lt;&gt;"",E31&lt;&gt;"")=TRUE, CELL("row",B31)-18,"")</f>
         <v/>
@@ -10157,9 +10412,10 @@
       <c r="C31" s="32"/>
       <c r="D31" s="51"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="112"/>
+      <c r="F31" s="119"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="119"/>
       <c r="B32" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">IF(AND(C32&lt;&gt;"",E32&lt;&gt;"")=TRUE, CELL("row",B32)-18,"")</f>
         <v/>
@@ -10167,9 +10423,10 @@
       <c r="C32" s="32"/>
       <c r="D32" s="51"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="112"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="119"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="119"/>
       <c r="B33" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">IF(AND(C33&lt;&gt;"",E33&lt;&gt;"")=TRUE, CELL("row",B33)-18,"")</f>
         <v/>
@@ -10177,9 +10434,12 @@
       <c r="C33" s="32"/>
       <c r="D33" s="51"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="112"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="119"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="119" t="s">
+        <v>135</v>
+      </c>
       <c r="B34" s="31" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">IF(AND(C34&lt;&gt;"",E34&lt;&gt;"")=TRUE, CELL("row",B34)-18,"")</f>
         <v>16</v>
@@ -10191,13 +10451,12 @@
         <v>34</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>89</v>
-      </c>
-      <c r="F34" s="112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="F34" s="119"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="119"/>
       <c r="B35" s="31" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">IF(AND(C35&lt;&gt;"",E35&lt;&gt;"")=TRUE, CELL("row",B35)-18,"")</f>
         <v>17</v>
@@ -10206,14 +10465,15 @@
         <v>1</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F35" s="112"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F35" s="119"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="112"/>
       <c r="B36" s="31" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">IF(AND(C36&lt;&gt;"",E36&lt;&gt;"")=TRUE, CELL("row",B36)-18,"")</f>
         <v>18</v>
@@ -10222,14 +10482,15 @@
         <v>1</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="113"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F36" s="112"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="119"/>
       <c r="B37" s="31" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">IF(AND(C37&lt;&gt;"",E37&lt;&gt;"")=TRUE, CELL("row",B37)-18,"")</f>
         <v>19</v>
@@ -10238,14 +10499,15 @@
         <v>0</v>
       </c>
       <c r="D37" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="112"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="F37" s="119"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="119"/>
       <c r="B38" s="31" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">IF(AND(C38&lt;&gt;"",E38&lt;&gt;"")=TRUE, CELL("row",B38)-18,"")</f>
         <v>20</v>
@@ -10254,14 +10516,15 @@
         <v>0</v>
       </c>
       <c r="D38" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" s="112"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F38" s="119"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="119"/>
       <c r="B39" s="31" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">IF(AND(C39&lt;&gt;"",E39&lt;&gt;"")=TRUE, CELL("row",B39)-18,"")</f>
         <v>21</v>
@@ -10270,14 +10533,15 @@
         <v>0</v>
       </c>
       <c r="D39" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="112"/>
-    </row>
-    <row r="40" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F39" s="119"/>
+    </row>
+    <row r="40" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="119"/>
       <c r="B40" s="31" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">IF(AND(C40&lt;&gt;"",E40&lt;&gt;"")=TRUE, CELL("row",B40)-18,"")</f>
         <v>22</v>
@@ -10286,14 +10550,15 @@
         <v>1</v>
       </c>
       <c r="D40" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="112"/>
-    </row>
-    <row r="41" spans="2:6" ht="124.2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="F40" s="119"/>
+    </row>
+    <row r="41" spans="1:6" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="119"/>
       <c r="B41" s="31" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">IF(AND(C41&lt;&gt;"",E41&lt;&gt;"")=TRUE, CELL("row",B41)-18,"")</f>
         <v>23</v>
@@ -10302,14 +10567,15 @@
         <v>1</v>
       </c>
       <c r="D41" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="112"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="F41" s="119"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="119"/>
       <c r="B42" s="31" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">IF(AND(C42&lt;&gt;"",E42&lt;&gt;"")=TRUE, CELL("row",B42)-18,"")</f>
         <v>24</v>
@@ -10318,14 +10584,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="112"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="F42" s="119"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="119"/>
       <c r="B43" s="31" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">IF(AND(C43&lt;&gt;"",E43&lt;&gt;"")=TRUE, CELL("row",B43)-18,"")</f>
         <v>25</v>
@@ -10334,14 +10601,15 @@
         <v>0</v>
       </c>
       <c r="D43" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="112"/>
-    </row>
-    <row r="44" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="F43" s="119"/>
+    </row>
+    <row r="44" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A44" s="119"/>
       <c r="B44" s="31" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">IF(AND(C44&lt;&gt;"",E44&lt;&gt;"")=TRUE, CELL("row",B44)-18,"")</f>
         <v>26</v>
@@ -10350,14 +10618,15 @@
         <v>1</v>
       </c>
       <c r="D44" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="112"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F44" s="119"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="119"/>
       <c r="B45" s="31" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">IF(AND(C45&lt;&gt;"",E45&lt;&gt;"")=TRUE, CELL("row",B45)-18,"")</f>
         <v>27</v>
@@ -10366,14 +10635,15 @@
         <v>1</v>
       </c>
       <c r="D45" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="F45" s="112"/>
-    </row>
-    <row r="46" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="F45" s="119"/>
+    </row>
+    <row r="46" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="119"/>
       <c r="B46" s="31" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">IF(AND(C46&lt;&gt;"",E46&lt;&gt;"")=TRUE, CELL("row",B46)-18,"")</f>
         <v>28</v>
@@ -10382,14 +10652,15 @@
         <v>1</v>
       </c>
       <c r="D46" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" s="112"/>
-    </row>
-    <row r="47" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="F46" s="119"/>
+    </row>
+    <row r="47" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="119"/>
       <c r="B47" s="31" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">IF(AND(C47&lt;&gt;"",E47&lt;&gt;"")=TRUE, CELL("row",B47)-18,"")</f>
         <v>29</v>
@@ -10398,14 +10669,15 @@
         <v>0</v>
       </c>
       <c r="D47" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="112"/>
-    </row>
-    <row r="48" spans="2:6" ht="96.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="F47" s="119"/>
+    </row>
+    <row r="48" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="119"/>
       <c r="B48" s="31" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">IF(AND(C48&lt;&gt;"",E48&lt;&gt;"")=TRUE, CELL("row",B48)-18,"")</f>
         <v>30</v>
@@ -10414,14 +10686,15 @@
         <v>1</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F48" s="112"/>
-    </row>
-    <row r="49" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="F48" s="119"/>
+    </row>
+    <row r="49" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="119"/>
       <c r="B49" s="31" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">IF(AND(C49&lt;&gt;"",E49&lt;&gt;"")=TRUE, CELL("row",B49)-18,"")</f>
         <v>31</v>
@@ -10430,14 +10703,15 @@
         <v>1</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="112"/>
-    </row>
-    <row r="50" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="F49" s="119"/>
+    </row>
+    <row r="50" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="119"/>
       <c r="B50" s="31" cm="1">
         <f t="array" aca="1" ref="B50" ca="1">IF(AND(C50&lt;&gt;"",E50&lt;&gt;"")=TRUE, CELL("row",B50)-18,"")</f>
         <v>32</v>
@@ -10446,14 +10720,15 @@
         <v>1</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F50" s="112"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="F50" s="119"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="119"/>
       <c r="B51" s="31" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">IF(AND(C51&lt;&gt;"",E51&lt;&gt;"")=TRUE, CELL("row",B51)-18,"")</f>
         <v>33</v>
@@ -10462,14 +10737,15 @@
         <v>0</v>
       </c>
       <c r="D51" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="F51" s="112"/>
-    </row>
-    <row r="52" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="F51" s="119"/>
+    </row>
+    <row r="52" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="119"/>
       <c r="B52" s="31" cm="1">
         <f t="array" aca="1" ref="B52" ca="1">IF(AND(C52&lt;&gt;"",E52&lt;&gt;"")=TRUE, CELL("row",B52)-18,"")</f>
         <v>34</v>
@@ -10478,14 +10754,15 @@
         <v>1</v>
       </c>
       <c r="D52" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F52" s="112"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="F52" s="119"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="119"/>
       <c r="B53" s="31" cm="1">
         <f t="array" aca="1" ref="B53" ca="1">IF(AND(C53&lt;&gt;"",E53&lt;&gt;"")=TRUE, CELL("row",B53)-18,"")</f>
         <v>35</v>
@@ -10494,14 +10771,15 @@
         <v>1</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="F53" s="112"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="F53" s="119"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="119"/>
       <c r="B54" s="31" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">IF(AND(C54&lt;&gt;"",E54&lt;&gt;"")=TRUE, CELL("row",B54)-18,"")</f>
         <v>36</v>
@@ -10510,14 +10788,15 @@
         <v>1</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="112"/>
-    </row>
-    <row r="55" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="F54" s="119"/>
+    </row>
+    <row r="55" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="119"/>
       <c r="B55" s="31" cm="1">
         <f t="array" aca="1" ref="B55" ca="1">IF(AND(C55&lt;&gt;"",E55&lt;&gt;"")=TRUE, CELL("row",B55)-18,"")</f>
         <v>37</v>
@@ -10526,14 +10805,15 @@
         <v>1</v>
       </c>
       <c r="D55" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="F55" s="112"/>
-    </row>
-    <row r="56" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="F55" s="119"/>
+    </row>
+    <row r="56" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="119"/>
       <c r="B56" s="31" cm="1">
         <f t="array" aca="1" ref="B56" ca="1">IF(AND(C56&lt;&gt;"",E56&lt;&gt;"")=TRUE, CELL("row",B56)-18,"")</f>
         <v>38</v>
@@ -10542,14 +10822,15 @@
         <v>1</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="112"/>
-    </row>
-    <row r="57" spans="2:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="F56" s="119"/>
+    </row>
+    <row r="57" spans="1:6" ht="151.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A57" s="119"/>
       <c r="B57" s="31" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">IF(AND(C57&lt;&gt;"",E57&lt;&gt;"")=TRUE, CELL("row",B57)-18,"")</f>
         <v>39</v>
@@ -10558,14 +10839,15 @@
         <v>1</v>
       </c>
       <c r="D57" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F57" s="112"/>
-    </row>
-    <row r="58" spans="2:6" ht="110.4" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F57" s="119"/>
+    </row>
+    <row r="58" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="119"/>
       <c r="B58" s="31" cm="1">
         <f t="array" aca="1" ref="B58" ca="1">IF(AND(C58&lt;&gt;"",E58&lt;&gt;"")=TRUE, CELL("row",B58)-18,"")</f>
         <v>40</v>
@@ -10574,14 +10856,15 @@
         <v>1</v>
       </c>
       <c r="D58" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F58" s="112"/>
-    </row>
-    <row r="59" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="F58" s="119"/>
+    </row>
+    <row r="59" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="119"/>
       <c r="B59" s="31" cm="1">
         <f t="array" aca="1" ref="B59" ca="1">IF(AND(C59&lt;&gt;"",E59&lt;&gt;"")=TRUE, CELL("row",B59)-18,"")</f>
         <v>41</v>
@@ -10590,14 +10873,15 @@
         <v>1</v>
       </c>
       <c r="D59" s="109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="F59" s="112"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F59" s="119"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="119"/>
       <c r="B60" s="31" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">IF(AND(C60&lt;&gt;"",E60&lt;&gt;"")=TRUE, CELL("row",B60)-18,"")</f>
         <v>42</v>
@@ -10609,11 +10893,12 @@
         <v>34</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F60" s="112"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="F60" s="119"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="119"/>
       <c r="B61" s="31" cm="1">
         <f t="array" aca="1" ref="B61" ca="1">IF(AND(C61&lt;&gt;"",E61&lt;&gt;"")=TRUE, CELL("row",B61)-18,"")</f>
         <v>43</v>
@@ -10625,11 +10910,12 @@
         <v>1</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="112"/>
-    </row>
-    <row r="62" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F61" s="119"/>
+    </row>
+    <row r="62" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="119"/>
       <c r="B62" s="31" cm="1">
         <f t="array" aca="1" ref="B62" ca="1">IF(AND(C62&lt;&gt;"",E62&lt;&gt;"")=TRUE, CELL("row",B62)-18,"")</f>
         <v>44</v>
@@ -10641,11 +10927,12 @@
         <v>1</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="112"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F62" s="119"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="119"/>
       <c r="B63" s="31" cm="1">
         <f t="array" aca="1" ref="B63" ca="1">IF(AND(C63&lt;&gt;"",E63&lt;&gt;"")=TRUE, CELL("row",B63)-18,"")</f>
         <v>45</v>
@@ -10657,11 +10944,12 @@
         <v>1</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63" s="112"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="F63" s="119"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="119"/>
       <c r="B64" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B64" ca="1">IF(AND(C64&lt;&gt;"",E64&lt;&gt;"")=TRUE, CELL("row",B64)-18,"")</f>
         <v/>
@@ -10669,9 +10957,10 @@
       <c r="C64" s="32"/>
       <c r="D64" s="51"/>
       <c r="E64" s="42"/>
-      <c r="F64" s="112"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F64" s="119"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="119"/>
       <c r="B65" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B65" ca="1">IF(AND(C65&lt;&gt;"",E65&lt;&gt;"")=TRUE, CELL("row",B65)-18,"")</f>
         <v/>
@@ -10679,9 +10968,10 @@
       <c r="C65" s="32"/>
       <c r="D65" s="51"/>
       <c r="E65" s="42"/>
-      <c r="F65" s="112"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="119"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="119"/>
       <c r="B66" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">IF(AND(C66&lt;&gt;"",E66&lt;&gt;"")=TRUE, CELL("row",B66)-18,"")</f>
         <v/>
@@ -10689,9 +10979,12 @@
       <c r="C66" s="32"/>
       <c r="D66" s="51"/>
       <c r="E66" s="42"/>
-      <c r="F66" s="112"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F66" s="119"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="119" t="s">
+        <v>135</v>
+      </c>
       <c r="B67" s="31" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">IF(AND(C67&lt;&gt;"",E67&lt;&gt;"")=TRUE, CELL("row",B67)-18,"")</f>
         <v>49</v>
@@ -10703,13 +10996,12 @@
         <v>34</v>
       </c>
       <c r="E67" s="110" t="s">
-        <v>90</v>
-      </c>
-      <c r="F67" s="112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="F67" s="119"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="119"/>
       <c r="B68" s="31" cm="1">
         <f t="array" aca="1" ref="B68" ca="1">IF(AND(C68&lt;&gt;"",E68&lt;&gt;"")=TRUE, CELL("row",B68)-18,"")</f>
         <v>50</v>
@@ -10718,14 +11010,15 @@
         <v>1</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" s="112"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F68" s="119"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="119"/>
       <c r="B69" s="31" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">IF(AND(C69&lt;&gt;"",E69&lt;&gt;"")=TRUE, CELL("row",B69)-18,"")</f>
         <v>51</v>
@@ -10734,14 +11027,15 @@
         <v>0</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F69" s="112"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F69" s="119"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="119"/>
       <c r="B70" s="31" cm="1">
         <f t="array" aca="1" ref="B70" ca="1">IF(AND(C70&lt;&gt;"",E70&lt;&gt;"")=TRUE, CELL("row",B70)-18,"")</f>
         <v>52</v>
@@ -10750,14 +11044,15 @@
         <v>0</v>
       </c>
       <c r="D70" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="112"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F70" s="119"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="119"/>
       <c r="B71" s="31" cm="1">
         <f t="array" aca="1" ref="B71" ca="1">IF(AND(C71&lt;&gt;"",E71&lt;&gt;"")=TRUE, CELL("row",B71)-18,"")</f>
         <v>53</v>
@@ -10769,11 +11064,12 @@
         <v>1</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="112"/>
-    </row>
-    <row r="72" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="F71" s="119"/>
+    </row>
+    <row r="72" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="119"/>
       <c r="B72" s="31" cm="1">
         <f t="array" aca="1" ref="B72" ca="1">IF(AND(C72&lt;&gt;"",E72&lt;&gt;"")=TRUE, CELL("row",B72)-18,"")</f>
         <v>54</v>
@@ -10785,11 +11081,12 @@
         <v>1</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="F72" s="112"/>
-    </row>
-    <row r="73" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+      <c r="F72" s="119"/>
+    </row>
+    <row r="73" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="119"/>
       <c r="B73" s="31" cm="1">
         <f t="array" aca="1" ref="B73" ca="1">IF(AND(C73&lt;&gt;"",E73&lt;&gt;"")=TRUE, CELL("row",B73)-18,"")</f>
         <v>55</v>
@@ -10801,11 +11098,12 @@
         <v>1</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="F73" s="112"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="F73" s="119"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="119"/>
       <c r="B74" s="31" cm="1">
         <f t="array" aca="1" ref="B74" ca="1">IF(AND(C74&lt;&gt;"",E74&lt;&gt;"")=TRUE, CELL("row",B74)-18,"")</f>
         <v>56</v>
@@ -10814,14 +11112,15 @@
         <v>0</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="F74" s="112"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F74" s="119"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="119"/>
       <c r="B75" s="31" cm="1">
         <f t="array" aca="1" ref="B75" ca="1">IF(AND(C75&lt;&gt;"",E75&lt;&gt;"")=TRUE, CELL("row",B75)-18,"")</f>
         <v>57</v>
@@ -10830,14 +11129,15 @@
         <v>0</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="112"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="F75" s="119"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="119"/>
       <c r="B76" s="31" cm="1">
         <f t="array" aca="1" ref="B76" ca="1">IF(AND(C76&lt;&gt;"",E76&lt;&gt;"")=TRUE, CELL("row",B76)-18,"")</f>
         <v>58</v>
@@ -10846,14 +11146,15 @@
         <v>0</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="112"/>
-    </row>
-    <row r="77" spans="2:6" ht="41.4" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="F76" s="119"/>
+    </row>
+    <row r="77" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="119"/>
       <c r="B77" s="31" cm="1">
         <f t="array" aca="1" ref="B77" ca="1">IF(AND(C77&lt;&gt;"",E77&lt;&gt;"")=TRUE, CELL("row",B77)-18,"")</f>
         <v>59</v>
@@ -10865,11 +11166,12 @@
         <v>1</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="112"/>
-    </row>
-    <row r="78" spans="2:6" ht="82.8" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="F77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="119"/>
       <c r="B78" s="31" cm="1">
         <f t="array" aca="1" ref="B78" ca="1">IF(AND(C78&lt;&gt;"",E78&lt;&gt;"")=TRUE, CELL("row",B78)-18,"")</f>
         <v>60</v>
@@ -10881,11 +11183,12 @@
         <v>1</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="F78" s="112"/>
-    </row>
-    <row r="79" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="F78" s="119"/>
+    </row>
+    <row r="79" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="119"/>
       <c r="B79" s="31" cm="1">
         <f t="array" aca="1" ref="B79" ca="1">IF(AND(C79&lt;&gt;"",E79&lt;&gt;"")=TRUE, CELL("row",B79)-18,"")</f>
         <v>61</v>
@@ -10897,11 +11200,12 @@
         <v>1</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="F79" s="112"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="F79" s="119"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="119"/>
       <c r="B80" s="31" cm="1">
         <f t="array" aca="1" ref="B80" ca="1">IF(AND(C80&lt;&gt;"",E80&lt;&gt;"")=TRUE, CELL("row",B80)-18,"")</f>
         <v>62</v>
@@ -10913,11 +11217,12 @@
         <v>34</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F80" s="112"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F80" s="119"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="119"/>
       <c r="B81" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B81" ca="1">IF(AND(C81&lt;&gt;"",E81&lt;&gt;"")=TRUE, CELL("row",B81)-18,"")</f>
         <v/>
@@ -10925,9 +11230,10 @@
       <c r="C81" s="32"/>
       <c r="D81" s="51"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="112"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F81" s="119"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="119"/>
       <c r="B82" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B82" ca="1">IF(AND(C82&lt;&gt;"",E82&lt;&gt;"")=TRUE, CELL("row",B82)-18,"")</f>
         <v/>
@@ -10935,9 +11241,10 @@
       <c r="C82" s="32"/>
       <c r="D82" s="51"/>
       <c r="E82" s="42"/>
-      <c r="F82" s="112"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F82" s="119"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="119"/>
       <c r="B83" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B83" ca="1">IF(AND(C83&lt;&gt;"",E83&lt;&gt;"")=TRUE, CELL("row",B83)-18,"")</f>
         <v/>
@@ -10945,9 +11252,10 @@
       <c r="C83" s="32"/>
       <c r="D83" s="51"/>
       <c r="E83" s="42"/>
-      <c r="F83" s="112"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="119"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="119"/>
       <c r="B84" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B84" ca="1">IF(AND(C84&lt;&gt;"",E84&lt;&gt;"")=TRUE, CELL("row",B84)-18,"")</f>
         <v/>
@@ -10955,9 +11263,12 @@
       <c r="C84" s="32"/>
       <c r="D84" s="51"/>
       <c r="E84" s="42"/>
-      <c r="F84" s="112"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F84" s="119"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="119" t="s">
+        <v>135</v>
+      </c>
       <c r="B85" s="31" cm="1">
         <f t="array" aca="1" ref="B85" ca="1">IF(AND(C85&lt;&gt;"",E85&lt;&gt;"")=TRUE, CELL("row",B85)-18,"")</f>
         <v>67</v>
@@ -10969,13 +11280,12 @@
         <v>34</v>
       </c>
       <c r="E85" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="F85" s="112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="F85" s="119"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="119"/>
       <c r="B86" s="31" cm="1">
         <f t="array" aca="1" ref="B86" ca="1">IF(AND(C86&lt;&gt;"",E86&lt;&gt;"")=TRUE, CELL("row",B86)-18,"")</f>
         <v>68</v>
@@ -10987,11 +11297,12 @@
         <v>1</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F86" s="112"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F86" s="119"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="119"/>
       <c r="B87" s="31" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">IF(AND(C87&lt;&gt;"",E87&lt;&gt;"")=TRUE, CELL("row",B87)-18,"")</f>
         <v>69</v>
@@ -11000,14 +11311,15 @@
         <v>0</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="F87" s="112"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="F87" s="119"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="119"/>
       <c r="B88" s="31" cm="1">
         <f t="array" aca="1" ref="B88" ca="1">IF(AND(C88&lt;&gt;"",E88&lt;&gt;"")=TRUE, CELL("row",B88)-18,"")</f>
         <v>70</v>
@@ -11016,14 +11328,15 @@
         <v>0</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="F88" s="112"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="F88" s="119"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="119"/>
       <c r="B89" s="31" cm="1">
         <f t="array" aca="1" ref="B89" ca="1">IF(AND(C89&lt;&gt;"",E89&lt;&gt;"")=TRUE, CELL("row",B89)-18,"")</f>
         <v>71</v>
@@ -11035,11 +11348,12 @@
         <v>1</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="F89" s="112"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="F89" s="119"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="119"/>
       <c r="B90" s="31" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">IF(AND(C90&lt;&gt;"",E90&lt;&gt;"")=TRUE, CELL("row",B90)-18,"")</f>
         <v>72</v>
@@ -11051,11 +11365,12 @@
         <v>1</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F90" s="112"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="F90" s="119"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="119"/>
       <c r="B91" s="31" cm="1">
         <f t="array" aca="1" ref="B91" ca="1">IF(AND(C91&lt;&gt;"",E91&lt;&gt;"")=TRUE, CELL("row",B91)-18,"")</f>
         <v>73</v>
@@ -11067,11 +11382,12 @@
         <v>1</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F91" s="112"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="F91" s="119"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="119"/>
       <c r="B92" s="31" cm="1">
         <f t="array" aca="1" ref="B92" ca="1">IF(AND(C92&lt;&gt;"",E92&lt;&gt;"")=TRUE, CELL("row",B92)-18,"")</f>
         <v>74</v>
@@ -11083,11 +11399,12 @@
         <v>1</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F92" s="112"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="F92" s="119"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="119"/>
       <c r="B93" s="31" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">IF(AND(C93&lt;&gt;"",E93&lt;&gt;"")=TRUE, CELL("row",B93)-18,"")</f>
         <v>75</v>
@@ -11099,11 +11416,12 @@
         <v>1</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="F93" s="112"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F93" s="119"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="119"/>
       <c r="B94" s="31" cm="1">
         <f t="array" aca="1" ref="B94" ca="1">IF(AND(C94&lt;&gt;"",E94&lt;&gt;"")=TRUE, CELL("row",B94)-18,"")</f>
         <v>76</v>
@@ -11115,11 +11433,12 @@
         <v>1</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F94" s="112"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="F94" s="119"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="119"/>
       <c r="B95" s="31" cm="1">
         <f t="array" aca="1" ref="B95" ca="1">IF(AND(C95&lt;&gt;"",E95&lt;&gt;"")=TRUE, CELL("row",B95)-18,"")</f>
         <v>77</v>
@@ -11131,11 +11450,12 @@
         <v>1</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F95" s="112"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="F95" s="119"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="119"/>
       <c r="B96" s="31" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">IF(AND(C96&lt;&gt;"",E96&lt;&gt;"")=TRUE, CELL("row",B96)-18,"")</f>
         <v>78</v>
@@ -11147,11 +11467,12 @@
         <v>1</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="F96" s="112"/>
-    </row>
-    <row r="97" spans="2:6" ht="55.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F96" s="119"/>
+    </row>
+    <row r="97" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="119"/>
       <c r="B97" s="31" cm="1">
         <f t="array" aca="1" ref="B97" ca="1">IF(AND(C97&lt;&gt;"",E97&lt;&gt;"")=TRUE, CELL("row",B97)-18,"")</f>
         <v>79</v>
@@ -11163,11 +11484,12 @@
         <v>1</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="F97" s="112"/>
-    </row>
-    <row r="98" spans="2:6" ht="27.6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="F97" s="119"/>
+    </row>
+    <row r="98" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="119"/>
       <c r="B98" s="31" cm="1">
         <f t="array" aca="1" ref="B98" ca="1">IF(AND(C98&lt;&gt;"",E98&lt;&gt;"")=TRUE, CELL("row",B98)-18,"")</f>
         <v>80</v>
@@ -11179,11 +11501,12 @@
         <v>1</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F98" s="112"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F98" s="119"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="119"/>
       <c r="B99" s="31" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">IF(AND(C99&lt;&gt;"",E99&lt;&gt;"")=TRUE, CELL("row",B99)-18,"")</f>
         <v>81</v>
@@ -11195,11 +11518,12 @@
         <v>1</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F99" s="112"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="F99" s="119"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="119"/>
       <c r="B100" s="31" cm="1">
         <f t="array" aca="1" ref="B100" ca="1">IF(AND(C100&lt;&gt;"",E100&lt;&gt;"")=TRUE, CELL("row",B100)-18,"")</f>
         <v>82</v>
@@ -11211,11 +11535,12 @@
         <v>1</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="F100" s="112"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="F100" s="119"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="119"/>
       <c r="B101" s="31" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">IF(AND(C101&lt;&gt;"",E101&lt;&gt;"")=TRUE, CELL("row",B101)-18,"")</f>
         <v>83</v>
@@ -11227,11 +11552,12 @@
         <v>1</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F101" s="112"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="F101" s="119"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="119"/>
       <c r="B102" s="31" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">IF(AND(C102&lt;&gt;"",E102&lt;&gt;"")=TRUE, CELL("row",B102)-18,"")</f>
         <v>84</v>
@@ -11243,11 +11569,12 @@
         <v>1</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F102" s="112"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+      <c r="F102" s="119"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="119"/>
       <c r="B103" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B103" ca="1">IF(AND(C103&lt;&gt;"",E103&lt;&gt;"")=TRUE, CELL("row",B103)-18,"")</f>
         <v/>
@@ -11255,9 +11582,10 @@
       <c r="C103" s="32"/>
       <c r="D103" s="51"/>
       <c r="E103" s="42"/>
-      <c r="F103" s="112"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F103" s="119"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="119"/>
       <c r="B104" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B104" ca="1">IF(AND(C104&lt;&gt;"",E104&lt;&gt;"")=TRUE, CELL("row",B104)-18,"")</f>
         <v/>
@@ -11265,9 +11593,12 @@
       <c r="C104" s="32"/>
       <c r="D104" s="51"/>
       <c r="E104" s="42"/>
-      <c r="F104" s="112"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F104" s="119"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="119" t="s">
+        <v>135</v>
+      </c>
       <c r="B105" s="31" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">IF(AND(C105&lt;&gt;"",E105&lt;&gt;"")=TRUE, CELL("row",B105)-18,"")</f>
         <v>87</v>
@@ -11279,13 +11610,12 @@
         <v>34</v>
       </c>
       <c r="E105" s="110" t="s">
-        <v>120</v>
-      </c>
-      <c r="F105" s="112" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="F105" s="119"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="119"/>
       <c r="B106" s="31" cm="1">
         <f t="array" aca="1" ref="B106" ca="1">IF(AND(C106&lt;&gt;"",E106&lt;&gt;"")=TRUE, CELL("row",B106)-18,"")</f>
         <v>88</v>
@@ -11297,11 +11627,12 @@
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F106" s="112"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="F106" s="119"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="119"/>
       <c r="B107" s="31" cm="1">
         <f t="array" aca="1" ref="B107" ca="1">IF(AND(C107&lt;&gt;"",E107&lt;&gt;"")=TRUE, CELL("row",B107)-18,"")</f>
         <v>89</v>
@@ -11313,11 +11644,12 @@
         <v>1</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F107" s="112"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F107" s="119"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="119"/>
       <c r="B108" s="31" cm="1">
         <f t="array" aca="1" ref="B108" ca="1">IF(AND(C108&lt;&gt;"",E108&lt;&gt;"")=TRUE, CELL("row",B108)-18,"")</f>
         <v>90</v>
@@ -11329,11 +11661,12 @@
         <v>1</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="F108" s="112"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F108" s="119"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="119"/>
       <c r="B109" s="31" cm="1">
         <f t="array" aca="1" ref="B109" ca="1">IF(AND(C109&lt;&gt;"",E109&lt;&gt;"")=TRUE, CELL("row",B109)-18,"")</f>
         <v>91</v>
@@ -11345,11 +11678,12 @@
         <v>1</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="F109" s="112"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="F109" s="119"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="119"/>
       <c r="B110" s="31" cm="1">
         <f t="array" aca="1" ref="B110" ca="1">IF(AND(C110&lt;&gt;"",E110&lt;&gt;"")=TRUE, CELL("row",B110)-18,"")</f>
         <v>92</v>
@@ -11361,11 +11695,12 @@
         <v>1</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="F110" s="112"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="F110" s="119"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="119"/>
       <c r="B111" s="31" cm="1">
         <f t="array" aca="1" ref="B111" ca="1">IF(AND(C111&lt;&gt;"",E111&lt;&gt;"")=TRUE, CELL("row",B111)-18,"")</f>
         <v>93</v>
@@ -11377,11 +11712,12 @@
         <v>1</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F111" s="112"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="F111" s="119"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="119"/>
       <c r="B112" s="31" cm="1">
         <f t="array" aca="1" ref="B112" ca="1">IF(AND(C112&lt;&gt;"",E112&lt;&gt;"")=TRUE, CELL("row",B112)-18,"")</f>
         <v>94</v>
@@ -11393,11 +11729,12 @@
         <v>1</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="F112" s="112"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="F112" s="119"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="119"/>
       <c r="B113" s="31" cm="1">
         <f t="array" aca="1" ref="B113" ca="1">IF(AND(C113&lt;&gt;"",E113&lt;&gt;"")=TRUE, CELL("row",B113)-18,"")</f>
         <v>95</v>
@@ -11409,11 +11746,12 @@
         <v>1</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="F113" s="112"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+      <c r="F113" s="119"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="119"/>
       <c r="B114" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B114" ca="1">IF(AND(C114&lt;&gt;"",E114&lt;&gt;"")=TRUE, CELL("row",B114)-18,"")</f>
         <v/>
@@ -11421,9 +11759,10 @@
       <c r="C114" s="32"/>
       <c r="D114" s="51"/>
       <c r="E114" s="42"/>
-      <c r="F114" s="112"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F114" s="119"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="119"/>
       <c r="B115" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B115" ca="1">IF(AND(C115&lt;&gt;"",E115&lt;&gt;"")=TRUE, CELL("row",B115)-18,"")</f>
         <v/>
@@ -11431,9 +11770,10 @@
       <c r="C115" s="32"/>
       <c r="D115" s="51"/>
       <c r="E115" s="42"/>
-      <c r="F115" s="112"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F115" s="119"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="119"/>
       <c r="B116" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B116" ca="1">IF(AND(C116&lt;&gt;"",E116&lt;&gt;"")=TRUE, CELL("row",B116)-18,"")</f>
         <v/>
@@ -11441,9 +11781,10 @@
       <c r="C116" s="32"/>
       <c r="D116" s="51"/>
       <c r="E116" s="42"/>
-      <c r="F116" s="112"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F116" s="119"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="119"/>
       <c r="B117" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B117" ca="1">IF(AND(C117&lt;&gt;"",E117&lt;&gt;"")=TRUE, CELL("row",B117)-18,"")</f>
         <v/>
@@ -11451,9 +11792,10 @@
       <c r="C117" s="32"/>
       <c r="D117" s="51"/>
       <c r="E117" s="42"/>
-      <c r="F117" s="112"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F117" s="119"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="119"/>
       <c r="B118" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B118" ca="1">IF(AND(C118&lt;&gt;"",E118&lt;&gt;"")=TRUE, CELL("row",B118)-18,"")</f>
         <v/>
@@ -11461,9 +11803,10 @@
       <c r="C118" s="32"/>
       <c r="D118" s="51"/>
       <c r="E118" s="42"/>
-      <c r="F118" s="112"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F118" s="119"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="119"/>
       <c r="B119" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B119" ca="1">IF(AND(C119&lt;&gt;"",E119&lt;&gt;"")=TRUE, CELL("row",B119)-18,"")</f>
         <v/>
@@ -11471,9 +11814,10 @@
       <c r="C119" s="32"/>
       <c r="D119" s="51"/>
       <c r="E119" s="42"/>
-      <c r="F119" s="112"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F119" s="119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="119"/>
       <c r="B120" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B120" ca="1">IF(AND(C120&lt;&gt;"",E120&lt;&gt;"")=TRUE, CELL("row",B120)-18,"")</f>
         <v/>
@@ -11481,9 +11825,10 @@
       <c r="C120" s="32"/>
       <c r="D120" s="51"/>
       <c r="E120" s="42"/>
-      <c r="F120" s="112"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F120" s="119"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="119"/>
       <c r="B121" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B121" ca="1">IF(AND(C121&lt;&gt;"",E121&lt;&gt;"")=TRUE, CELL("row",B121)-18,"")</f>
         <v/>
@@ -11491,9 +11836,10 @@
       <c r="C121" s="32"/>
       <c r="D121" s="51"/>
       <c r="E121" s="42"/>
-      <c r="F121" s="112"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F121" s="119"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="119"/>
       <c r="B122" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B122" ca="1">IF(AND(C122&lt;&gt;"",E122&lt;&gt;"")=TRUE, CELL("row",B122)-18,"")</f>
         <v/>
@@ -11501,9 +11847,10 @@
       <c r="C122" s="32"/>
       <c r="D122" s="51"/>
       <c r="E122" s="42"/>
-      <c r="F122" s="112"/>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F122" s="119"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="119"/>
       <c r="B123" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B123" ca="1">IF(AND(C123&lt;&gt;"",E123&lt;&gt;"")=TRUE, CELL("row",B123)-18,"")</f>
         <v/>
@@ -11511,9 +11858,10 @@
       <c r="C123" s="32"/>
       <c r="D123" s="51"/>
       <c r="E123" s="42"/>
-      <c r="F123" s="112"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F123" s="119"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="119"/>
       <c r="B124" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B124" ca="1">IF(AND(C124&lt;&gt;"",E124&lt;&gt;"")=TRUE, CELL("row",B124)-18,"")</f>
         <v/>
@@ -11521,9 +11869,10 @@
       <c r="C124" s="32"/>
       <c r="D124" s="51"/>
       <c r="E124" s="42"/>
-      <c r="F124" s="112"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F124" s="119"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="119"/>
       <c r="B125" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B125" ca="1">IF(AND(C125&lt;&gt;"",E125&lt;&gt;"")=TRUE, CELL("row",B125)-18,"")</f>
         <v/>
@@ -11531,9 +11880,10 @@
       <c r="C125" s="32"/>
       <c r="D125" s="51"/>
       <c r="E125" s="42"/>
-      <c r="F125" s="112"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F125" s="119"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="119"/>
       <c r="B126" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B126" ca="1">IF(AND(C126&lt;&gt;"",E126&lt;&gt;"")=TRUE, CELL("row",B126)-18,"")</f>
         <v/>
@@ -11541,9 +11891,10 @@
       <c r="C126" s="32"/>
       <c r="D126" s="51"/>
       <c r="E126" s="42"/>
-      <c r="F126" s="112"/>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F126" s="119"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="119"/>
       <c r="B127" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B127" ca="1">IF(AND(C127&lt;&gt;"",E127&lt;&gt;"")=TRUE, CELL("row",B127)-18,"")</f>
         <v/>
@@ -11551,9 +11902,10 @@
       <c r="C127" s="32"/>
       <c r="D127" s="51"/>
       <c r="E127" s="42"/>
-      <c r="F127" s="112"/>
-    </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F127" s="119"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="119"/>
       <c r="B128" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B128" ca="1">IF(AND(C128&lt;&gt;"",E128&lt;&gt;"")=TRUE, CELL("row",B128)-18,"")</f>
         <v/>
@@ -11561,9 +11913,10 @@
       <c r="C128" s="32"/>
       <c r="D128" s="51"/>
       <c r="E128" s="42"/>
-      <c r="F128" s="112"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F128" s="119"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="119"/>
       <c r="B129" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B129" ca="1">IF(AND(C129&lt;&gt;"",E129&lt;&gt;"")=TRUE, CELL("row",B129)-18,"")</f>
         <v/>
@@ -11571,9 +11924,10 @@
       <c r="C129" s="32"/>
       <c r="D129" s="51"/>
       <c r="E129" s="42"/>
-      <c r="F129" s="112"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F129" s="119"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="119"/>
       <c r="B130" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B130" ca="1">IF(AND(C130&lt;&gt;"",E130&lt;&gt;"")=TRUE, CELL("row",B130)-18,"")</f>
         <v/>
@@ -11581,9 +11935,10 @@
       <c r="C130" s="32"/>
       <c r="D130" s="51"/>
       <c r="E130" s="42"/>
-      <c r="F130" s="112"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F130" s="119"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="119"/>
       <c r="B131" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">IF(AND(C131&lt;&gt;"",E131&lt;&gt;"")=TRUE, CELL("row",B131)-18,"")</f>
         <v/>
@@ -11591,9 +11946,10 @@
       <c r="C131" s="32"/>
       <c r="D131" s="51"/>
       <c r="E131" s="42"/>
-      <c r="F131" s="112"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F131" s="119"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="119"/>
       <c r="B132" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B132" ca="1">IF(AND(C132&lt;&gt;"",E132&lt;&gt;"")=TRUE, CELL("row",B132)-18,"")</f>
         <v/>
@@ -11601,9 +11957,10 @@
       <c r="C132" s="32"/>
       <c r="D132" s="51"/>
       <c r="E132" s="42"/>
-      <c r="F132" s="112"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F132" s="119"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="119"/>
       <c r="B133" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B133" ca="1">IF(AND(C133&lt;&gt;"",E133&lt;&gt;"")=TRUE, CELL("row",B133)-18,"")</f>
         <v/>
@@ -11611,9 +11968,10 @@
       <c r="C133" s="32"/>
       <c r="D133" s="51"/>
       <c r="E133" s="42"/>
-      <c r="F133" s="112"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F133" s="119"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="119"/>
       <c r="B134" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B134" ca="1">IF(AND(C134&lt;&gt;"",E134&lt;&gt;"")=TRUE, CELL("row",B134)-18,"")</f>
         <v/>
@@ -11621,9 +11979,10 @@
       <c r="C134" s="32"/>
       <c r="D134" s="51"/>
       <c r="E134" s="42"/>
-      <c r="F134" s="112"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F134" s="119"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="119"/>
       <c r="B135" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B135" ca="1">IF(AND(C135&lt;&gt;"",E135&lt;&gt;"")=TRUE, CELL("row",B135)-18,"")</f>
         <v/>
@@ -11631,9 +11990,10 @@
       <c r="C135" s="32"/>
       <c r="D135" s="51"/>
       <c r="E135" s="42"/>
-      <c r="F135" s="112"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F135" s="119"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="119"/>
       <c r="B136" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B136" ca="1">IF(AND(C136&lt;&gt;"",E136&lt;&gt;"")=TRUE, CELL("row",B136)-18,"")</f>
         <v/>
@@ -11641,9 +12001,10 @@
       <c r="C136" s="32"/>
       <c r="D136" s="51"/>
       <c r="E136" s="42"/>
-      <c r="F136" s="112"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F136" s="119"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="119"/>
       <c r="B137" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B137" ca="1">IF(AND(C137&lt;&gt;"",E137&lt;&gt;"")=TRUE, CELL("row",B137)-18,"")</f>
         <v/>
@@ -11651,9 +12012,10 @@
       <c r="C137" s="32"/>
       <c r="D137" s="51"/>
       <c r="E137" s="42"/>
-      <c r="F137" s="112"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F137" s="119"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="119"/>
       <c r="B138" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B138" ca="1">IF(AND(C138&lt;&gt;"",E138&lt;&gt;"")=TRUE, CELL("row",B138)-18,"")</f>
         <v/>
@@ -11661,9 +12023,10 @@
       <c r="C138" s="32"/>
       <c r="D138" s="51"/>
       <c r="E138" s="42"/>
-      <c r="F138" s="112"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F138" s="119"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="119"/>
       <c r="B139" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B139" ca="1">IF(AND(C139&lt;&gt;"",E139&lt;&gt;"")=TRUE, CELL("row",B139)-18,"")</f>
         <v/>
@@ -11671,9 +12034,10 @@
       <c r="C139" s="32"/>
       <c r="D139" s="51"/>
       <c r="E139" s="42"/>
-      <c r="F139" s="112"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F139" s="119"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="119"/>
       <c r="B140" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B140" ca="1">IF(AND(C140&lt;&gt;"",E140&lt;&gt;"")=TRUE, CELL("row",B140)-18,"")</f>
         <v/>
@@ -11681,9 +12045,10 @@
       <c r="C140" s="32"/>
       <c r="D140" s="51"/>
       <c r="E140" s="42"/>
-      <c r="F140" s="112"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F140" s="119"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="119"/>
       <c r="B141" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B141" ca="1">IF(AND(C141&lt;&gt;"",E141&lt;&gt;"")=TRUE, CELL("row",B141)-18,"")</f>
         <v/>
@@ -11691,9 +12056,10 @@
       <c r="C141" s="32"/>
       <c r="D141" s="51"/>
       <c r="E141" s="42"/>
-      <c r="F141" s="112"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F141" s="119"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="119"/>
       <c r="B142" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B142" ca="1">IF(AND(C142&lt;&gt;"",E142&lt;&gt;"")=TRUE, CELL("row",B142)-18,"")</f>
         <v/>
@@ -11701,9 +12067,10 @@
       <c r="C142" s="32"/>
       <c r="D142" s="51"/>
       <c r="E142" s="42"/>
-      <c r="F142" s="112"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F142" s="119"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="119"/>
       <c r="B143" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B143" ca="1">IF(AND(C143&lt;&gt;"",E143&lt;&gt;"")=TRUE, CELL("row",B143)-18,"")</f>
         <v/>
@@ -11711,9 +12078,10 @@
       <c r="C143" s="32"/>
       <c r="D143" s="51"/>
       <c r="E143" s="42"/>
-      <c r="F143" s="112"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F143" s="119"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="119"/>
       <c r="B144" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B144" ca="1">IF(AND(C144&lt;&gt;"",E144&lt;&gt;"")=TRUE, CELL("row",B144)-18,"")</f>
         <v/>
@@ -11721,9 +12089,10 @@
       <c r="C144" s="32"/>
       <c r="D144" s="51"/>
       <c r="E144" s="42"/>
-      <c r="F144" s="112"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F144" s="119"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="119"/>
       <c r="B145" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B145" ca="1">IF(AND(C145&lt;&gt;"",E145&lt;&gt;"")=TRUE, CELL("row",B145)-18,"")</f>
         <v/>
@@ -11731,9 +12100,10 @@
       <c r="C145" s="32"/>
       <c r="D145" s="51"/>
       <c r="E145" s="42"/>
-      <c r="F145" s="112"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F145" s="119"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="119"/>
       <c r="B146" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B146" ca="1">IF(AND(C146&lt;&gt;"",E146&lt;&gt;"")=TRUE, CELL("row",B146)-18,"")</f>
         <v/>
@@ -11741,9 +12111,10 @@
       <c r="C146" s="32"/>
       <c r="D146" s="51"/>
       <c r="E146" s="42"/>
-      <c r="F146" s="112"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F146" s="119"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="119"/>
       <c r="B147" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B147" ca="1">IF(AND(C147&lt;&gt;"",E147&lt;&gt;"")=TRUE, CELL("row",B147)-18,"")</f>
         <v/>
@@ -11751,9 +12122,10 @@
       <c r="C147" s="32"/>
       <c r="D147" s="51"/>
       <c r="E147" s="42"/>
-      <c r="F147" s="112"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F147" s="119"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="119"/>
       <c r="B148" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B148" ca="1">IF(AND(C148&lt;&gt;"",E148&lt;&gt;"")=TRUE, CELL("row",B148)-18,"")</f>
         <v/>
@@ -11761,9 +12133,10 @@
       <c r="C148" s="32"/>
       <c r="D148" s="51"/>
       <c r="E148" s="42"/>
-      <c r="F148" s="112"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F148" s="119"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="119"/>
       <c r="B149" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B149" ca="1">IF(AND(C149&lt;&gt;"",E149&lt;&gt;"")=TRUE, CELL("row",B149)-18,"")</f>
         <v/>
@@ -11771,9 +12144,10 @@
       <c r="C149" s="32"/>
       <c r="D149" s="51"/>
       <c r="E149" s="42"/>
-      <c r="F149" s="112"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F149" s="119"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="119"/>
       <c r="B150" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B150" ca="1">IF(AND(C150&lt;&gt;"",E150&lt;&gt;"")=TRUE, CELL("row",B150)-18,"")</f>
         <v/>
@@ -11781,9 +12155,10 @@
       <c r="C150" s="32"/>
       <c r="D150" s="51"/>
       <c r="E150" s="42"/>
-      <c r="F150" s="112"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F150" s="119"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="119"/>
       <c r="B151" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B151" ca="1">IF(AND(C151&lt;&gt;"",E151&lt;&gt;"")=TRUE, CELL("row",B151)-18,"")</f>
         <v/>
@@ -11791,9 +12166,10 @@
       <c r="C151" s="32"/>
       <c r="D151" s="51"/>
       <c r="E151" s="42"/>
-      <c r="F151" s="112"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F151" s="119"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="119"/>
       <c r="B152" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B152" ca="1">IF(AND(C152&lt;&gt;"",E152&lt;&gt;"")=TRUE, CELL("row",B152)-18,"")</f>
         <v/>
@@ -11801,9 +12177,10 @@
       <c r="C152" s="32"/>
       <c r="D152" s="51"/>
       <c r="E152" s="42"/>
-      <c r="F152" s="112"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F152" s="119"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="119"/>
       <c r="B153" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B153" ca="1">IF(AND(C153&lt;&gt;"",E153&lt;&gt;"")=TRUE, CELL("row",B153)-18,"")</f>
         <v/>
@@ -11811,9 +12188,10 @@
       <c r="C153" s="32"/>
       <c r="D153" s="51"/>
       <c r="E153" s="42"/>
-      <c r="F153" s="112"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F153" s="119"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="119"/>
       <c r="B154" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B154" ca="1">IF(AND(C154&lt;&gt;"",E154&lt;&gt;"")=TRUE, CELL("row",B154)-18,"")</f>
         <v/>
@@ -11821,9 +12199,10 @@
       <c r="C154" s="32"/>
       <c r="D154" s="51"/>
       <c r="E154" s="42"/>
-      <c r="F154" s="112"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F154" s="119"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="119"/>
       <c r="B155" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B155" ca="1">IF(AND(C155&lt;&gt;"",E155&lt;&gt;"")=TRUE, CELL("row",B155)-18,"")</f>
         <v/>
@@ -11831,9 +12210,10 @@
       <c r="C155" s="32"/>
       <c r="D155" s="51"/>
       <c r="E155" s="42"/>
-      <c r="F155" s="112"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F155" s="119"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="119"/>
       <c r="B156" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B156" ca="1">IF(AND(C156&lt;&gt;"",E156&lt;&gt;"")=TRUE, CELL("row",B156)-18,"")</f>
         <v/>
@@ -11841,9 +12221,10 @@
       <c r="C156" s="32"/>
       <c r="D156" s="51"/>
       <c r="E156" s="42"/>
-      <c r="F156" s="112"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F156" s="119"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="119"/>
       <c r="B157" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B157" ca="1">IF(AND(C157&lt;&gt;"",E157&lt;&gt;"")=TRUE, CELL("row",B157)-18,"")</f>
         <v/>
@@ -11851,9 +12232,10 @@
       <c r="C157" s="32"/>
       <c r="D157" s="51"/>
       <c r="E157" s="42"/>
-      <c r="F157" s="112"/>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F157" s="119"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="119"/>
       <c r="B158" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B158" ca="1">IF(AND(C158&lt;&gt;"",E158&lt;&gt;"")=TRUE, CELL("row",B158)-18,"")</f>
         <v/>
@@ -11861,9 +12243,10 @@
       <c r="C158" s="32"/>
       <c r="D158" s="51"/>
       <c r="E158" s="42"/>
-      <c r="F158" s="112"/>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F158" s="119"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="119"/>
       <c r="B159" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B159" ca="1">IF(AND(C159&lt;&gt;"",E159&lt;&gt;"")=TRUE, CELL("row",B159)-18,"")</f>
         <v/>
@@ -11871,9 +12254,10 @@
       <c r="C159" s="32"/>
       <c r="D159" s="51"/>
       <c r="E159" s="42"/>
-      <c r="F159" s="112"/>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F159" s="119"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="119"/>
       <c r="B160" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B160" ca="1">IF(AND(C160&lt;&gt;"",E160&lt;&gt;"")=TRUE, CELL("row",B160)-18,"")</f>
         <v/>
@@ -11881,9 +12265,10 @@
       <c r="C160" s="32"/>
       <c r="D160" s="51"/>
       <c r="E160" s="42"/>
-      <c r="F160" s="112"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F160" s="119"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="119"/>
       <c r="B161" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B161" ca="1">IF(AND(C161&lt;&gt;"",E161&lt;&gt;"")=TRUE, CELL("row",B161)-18,"")</f>
         <v/>
@@ -11891,9 +12276,10 @@
       <c r="C161" s="32"/>
       <c r="D161" s="51"/>
       <c r="E161" s="42"/>
-      <c r="F161" s="112"/>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F161" s="119"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="119"/>
       <c r="B162" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B162" ca="1">IF(AND(C162&lt;&gt;"",E162&lt;&gt;"")=TRUE, CELL("row",B162)-18,"")</f>
         <v/>
@@ -11901,9 +12287,10 @@
       <c r="C162" s="32"/>
       <c r="D162" s="51"/>
       <c r="E162" s="42"/>
-      <c r="F162" s="112"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F162" s="119"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="119"/>
       <c r="B163" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B163" ca="1">IF(AND(C163&lt;&gt;"",E163&lt;&gt;"")=TRUE, CELL("row",B163)-18,"")</f>
         <v/>
@@ -11911,9 +12298,10 @@
       <c r="C163" s="32"/>
       <c r="D163" s="51"/>
       <c r="E163" s="42"/>
-      <c r="F163" s="112"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F163" s="119"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="119"/>
       <c r="B164" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B164" ca="1">IF(AND(C164&lt;&gt;"",E164&lt;&gt;"")=TRUE, CELL("row",B164)-18,"")</f>
         <v/>
@@ -11921,9 +12309,10 @@
       <c r="C164" s="32"/>
       <c r="D164" s="51"/>
       <c r="E164" s="42"/>
-      <c r="F164" s="112"/>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F164" s="119"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="119"/>
       <c r="B165" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B165" ca="1">IF(AND(C165&lt;&gt;"",E165&lt;&gt;"")=TRUE, CELL("row",B165)-18,"")</f>
         <v/>
@@ -11931,9 +12320,10 @@
       <c r="C165" s="32"/>
       <c r="D165" s="51"/>
       <c r="E165" s="42"/>
-      <c r="F165" s="112"/>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F165" s="119"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="119"/>
       <c r="B166" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B166" ca="1">IF(AND(C166&lt;&gt;"",E166&lt;&gt;"")=TRUE, CELL("row",B166)-18,"")</f>
         <v/>
@@ -11941,9 +12331,10 @@
       <c r="C166" s="32"/>
       <c r="D166" s="51"/>
       <c r="E166" s="42"/>
-      <c r="F166" s="112"/>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F166" s="119"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="119"/>
       <c r="B167" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B167" ca="1">IF(AND(C167&lt;&gt;"",E167&lt;&gt;"")=TRUE, CELL("row",B167)-18,"")</f>
         <v/>
@@ -11951,9 +12342,10 @@
       <c r="C167" s="32"/>
       <c r="D167" s="51"/>
       <c r="E167" s="42"/>
-      <c r="F167" s="112"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F167" s="119"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="119"/>
       <c r="B168" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B168" ca="1">IF(AND(C168&lt;&gt;"",E168&lt;&gt;"")=TRUE, CELL("row",B168)-18,"")</f>
         <v/>
@@ -11961,9 +12353,10 @@
       <c r="C168" s="32"/>
       <c r="D168" s="51"/>
       <c r="E168" s="42"/>
-      <c r="F168" s="112"/>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F168" s="119"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="119"/>
       <c r="B169" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B169" ca="1">IF(AND(C169&lt;&gt;"",E169&lt;&gt;"")=TRUE, CELL("row",B169)-18,"")</f>
         <v/>
@@ -11971,9 +12364,10 @@
       <c r="C169" s="32"/>
       <c r="D169" s="51"/>
       <c r="E169" s="42"/>
-      <c r="F169" s="112"/>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F169" s="119"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="119"/>
       <c r="B170" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B170" ca="1">IF(AND(C170&lt;&gt;"",E170&lt;&gt;"")=TRUE, CELL("row",B170)-18,"")</f>
         <v/>
@@ -11981,9 +12375,10 @@
       <c r="C170" s="32"/>
       <c r="D170" s="51"/>
       <c r="E170" s="42"/>
-      <c r="F170" s="112"/>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F170" s="119"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="119"/>
       <c r="B171" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B171" ca="1">IF(AND(C171&lt;&gt;"",E171&lt;&gt;"")=TRUE, CELL("row",B171)-18,"")</f>
         <v/>
@@ -11991,9 +12386,10 @@
       <c r="C171" s="32"/>
       <c r="D171" s="51"/>
       <c r="E171" s="42"/>
-      <c r="F171" s="112"/>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F171" s="119"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="119"/>
       <c r="B172" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B172" ca="1">IF(AND(C172&lt;&gt;"",E172&lt;&gt;"")=TRUE, CELL("row",B172)-18,"")</f>
         <v/>
@@ -12001,9 +12397,10 @@
       <c r="C172" s="32"/>
       <c r="D172" s="51"/>
       <c r="E172" s="42"/>
-      <c r="F172" s="112"/>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F172" s="119"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="119"/>
       <c r="B173" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B173" ca="1">IF(AND(C173&lt;&gt;"",E173&lt;&gt;"")=TRUE, CELL("row",B173)-18,"")</f>
         <v/>
@@ -12011,9 +12408,10 @@
       <c r="C173" s="32"/>
       <c r="D173" s="51"/>
       <c r="E173" s="42"/>
-      <c r="F173" s="112"/>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F173" s="119"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="119"/>
       <c r="B174" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B174" ca="1">IF(AND(C174&lt;&gt;"",E174&lt;&gt;"")=TRUE, CELL("row",B174)-18,"")</f>
         <v/>
@@ -12021,9 +12419,10 @@
       <c r="C174" s="32"/>
       <c r="D174" s="51"/>
       <c r="E174" s="42"/>
-      <c r="F174" s="112"/>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F174" s="119"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="119"/>
       <c r="B175" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">IF(AND(C175&lt;&gt;"",E175&lt;&gt;"")=TRUE, CELL("row",B175)-18,"")</f>
         <v/>
@@ -12031,9 +12430,10 @@
       <c r="C175" s="32"/>
       <c r="D175" s="51"/>
       <c r="E175" s="42"/>
-      <c r="F175" s="112"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F175" s="119"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="119"/>
       <c r="B176" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B176" ca="1">IF(AND(C176&lt;&gt;"",E176&lt;&gt;"")=TRUE, CELL("row",B176)-18,"")</f>
         <v/>
@@ -12041,9 +12441,10 @@
       <c r="C176" s="32"/>
       <c r="D176" s="51"/>
       <c r="E176" s="42"/>
-      <c r="F176" s="112"/>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F176" s="119"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="119"/>
       <c r="B177" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B177" ca="1">IF(AND(C177&lt;&gt;"",E177&lt;&gt;"")=TRUE, CELL("row",B177)-18,"")</f>
         <v/>
@@ -12051,9 +12452,10 @@
       <c r="C177" s="32"/>
       <c r="D177" s="51"/>
       <c r="E177" s="42"/>
-      <c r="F177" s="112"/>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F177" s="119"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="119"/>
       <c r="B178" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B178" ca="1">IF(AND(C178&lt;&gt;"",E178&lt;&gt;"")=TRUE, CELL("row",B178)-18,"")</f>
         <v/>
@@ -12061,9 +12463,10 @@
       <c r="C178" s="32"/>
       <c r="D178" s="51"/>
       <c r="E178" s="42"/>
-      <c r="F178" s="112"/>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F178" s="119"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="119"/>
       <c r="B179" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B179" ca="1">IF(AND(C179&lt;&gt;"",E179&lt;&gt;"")=TRUE, CELL("row",B179)-18,"")</f>
         <v/>
@@ -12071,9 +12474,10 @@
       <c r="C179" s="32"/>
       <c r="D179" s="51"/>
       <c r="E179" s="42"/>
-      <c r="F179" s="112"/>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F179" s="119"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="119"/>
       <c r="B180" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B180" ca="1">IF(AND(C180&lt;&gt;"",E180&lt;&gt;"")=TRUE, CELL("row",B180)-18,"")</f>
         <v/>
@@ -12081,9 +12485,10 @@
       <c r="C180" s="32"/>
       <c r="D180" s="51"/>
       <c r="E180" s="42"/>
-      <c r="F180" s="112"/>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F180" s="119"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="119"/>
       <c r="B181" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B181" ca="1">IF(AND(C181&lt;&gt;"",E181&lt;&gt;"")=TRUE, CELL("row",B181)-18,"")</f>
         <v/>
@@ -12091,9 +12496,10 @@
       <c r="C181" s="32"/>
       <c r="D181" s="51"/>
       <c r="E181" s="42"/>
-      <c r="F181" s="112"/>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F181" s="119"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="119"/>
       <c r="B182" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B182" ca="1">IF(AND(C182&lt;&gt;"",E182&lt;&gt;"")=TRUE, CELL("row",B182)-18,"")</f>
         <v/>
@@ -12101,9 +12507,10 @@
       <c r="C182" s="32"/>
       <c r="D182" s="51"/>
       <c r="E182" s="42"/>
-      <c r="F182" s="112"/>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F182" s="119"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="119"/>
       <c r="B183" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B183" ca="1">IF(AND(C183&lt;&gt;"",E183&lt;&gt;"")=TRUE, CELL("row",B183)-18,"")</f>
         <v/>
@@ -12111,9 +12518,10 @@
       <c r="C183" s="32"/>
       <c r="D183" s="51"/>
       <c r="E183" s="42"/>
-      <c r="F183" s="112"/>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F183" s="119"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="119"/>
       <c r="B184" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B184" ca="1">IF(AND(C184&lt;&gt;"",E184&lt;&gt;"")=TRUE, CELL("row",B184)-18,"")</f>
         <v/>
@@ -12121,9 +12529,10 @@
       <c r="C184" s="32"/>
       <c r="D184" s="51"/>
       <c r="E184" s="42"/>
-      <c r="F184" s="112"/>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F184" s="119"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="119"/>
       <c r="B185" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B185" ca="1">IF(AND(C185&lt;&gt;"",E185&lt;&gt;"")=TRUE, CELL("row",B185)-18,"")</f>
         <v/>
@@ -12131,9 +12540,10 @@
       <c r="C185" s="32"/>
       <c r="D185" s="51"/>
       <c r="E185" s="42"/>
-      <c r="F185" s="112"/>
-    </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F185" s="119"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="119"/>
       <c r="B186" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B186" ca="1">IF(AND(C186&lt;&gt;"",E186&lt;&gt;"")=TRUE, CELL("row",B186)-18,"")</f>
         <v/>
@@ -12141,9 +12551,10 @@
       <c r="C186" s="32"/>
       <c r="D186" s="51"/>
       <c r="E186" s="42"/>
-      <c r="F186" s="112"/>
-    </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F186" s="119"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="119"/>
       <c r="B187" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B187" ca="1">IF(AND(C187&lt;&gt;"",E187&lt;&gt;"")=TRUE, CELL("row",B187)-18,"")</f>
         <v/>
@@ -12151,9 +12562,10 @@
       <c r="C187" s="32"/>
       <c r="D187" s="51"/>
       <c r="E187" s="42"/>
-      <c r="F187" s="112"/>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F187" s="119"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="119"/>
       <c r="B188" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B188" ca="1">IF(AND(C188&lt;&gt;"",E188&lt;&gt;"")=TRUE, CELL("row",B188)-18,"")</f>
         <v/>
@@ -12161,9 +12573,10 @@
       <c r="C188" s="32"/>
       <c r="D188" s="51"/>
       <c r="E188" s="42"/>
-      <c r="F188" s="112"/>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F188" s="119"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="119"/>
       <c r="B189" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B189" ca="1">IF(AND(C189&lt;&gt;"",E189&lt;&gt;"")=TRUE, CELL("row",B189)-18,"")</f>
         <v/>
@@ -12171,9 +12584,10 @@
       <c r="C189" s="32"/>
       <c r="D189" s="51"/>
       <c r="E189" s="42"/>
-      <c r="F189" s="112"/>
-    </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F189" s="119"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="119"/>
       <c r="B190" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B190" ca="1">IF(AND(C190&lt;&gt;"",E190&lt;&gt;"")=TRUE, CELL("row",B190)-18,"")</f>
         <v/>
@@ -12181,9 +12595,10 @@
       <c r="C190" s="32"/>
       <c r="D190" s="51"/>
       <c r="E190" s="42"/>
-      <c r="F190" s="112"/>
-    </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F190" s="119"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="119"/>
       <c r="B191" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B191" ca="1">IF(AND(C191&lt;&gt;"",E191&lt;&gt;"")=TRUE, CELL("row",B191)-18,"")</f>
         <v/>
@@ -12191,9 +12606,10 @@
       <c r="C191" s="32"/>
       <c r="D191" s="51"/>
       <c r="E191" s="42"/>
-      <c r="F191" s="112"/>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F191" s="119"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="119"/>
       <c r="B192" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B192" ca="1">IF(AND(C192&lt;&gt;"",E192&lt;&gt;"")=TRUE, CELL("row",B192)-18,"")</f>
         <v/>
@@ -12201,9 +12617,10 @@
       <c r="C192" s="32"/>
       <c r="D192" s="51"/>
       <c r="E192" s="42"/>
-      <c r="F192" s="112"/>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F192" s="119"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="119"/>
       <c r="B193" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B193" ca="1">IF(AND(C193&lt;&gt;"",E193&lt;&gt;"")=TRUE, CELL("row",B193)-18,"")</f>
         <v/>
@@ -12211,9 +12628,10 @@
       <c r="C193" s="32"/>
       <c r="D193" s="51"/>
       <c r="E193" s="42"/>
-      <c r="F193" s="112"/>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F193" s="119"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="119"/>
       <c r="B194" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B194" ca="1">IF(AND(C194&lt;&gt;"",E194&lt;&gt;"")=TRUE, CELL("row",B194)-18,"")</f>
         <v/>
@@ -12221,9 +12639,10 @@
       <c r="C194" s="32"/>
       <c r="D194" s="51"/>
       <c r="E194" s="42"/>
-      <c r="F194" s="112"/>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F194" s="119"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="119"/>
       <c r="B195" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B195" ca="1">IF(AND(C195&lt;&gt;"",E195&lt;&gt;"")=TRUE, CELL("row",B195)-18,"")</f>
         <v/>
@@ -12231,9 +12650,10 @@
       <c r="C195" s="32"/>
       <c r="D195" s="51"/>
       <c r="E195" s="42"/>
-      <c r="F195" s="112"/>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F195" s="119"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="119"/>
       <c r="B196" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B196" ca="1">IF(AND(C196&lt;&gt;"",E196&lt;&gt;"")=TRUE, CELL("row",B196)-18,"")</f>
         <v/>
@@ -12241,9 +12661,10 @@
       <c r="C196" s="32"/>
       <c r="D196" s="51"/>
       <c r="E196" s="42"/>
-      <c r="F196" s="112"/>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F196" s="119"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="119"/>
       <c r="B197" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B197" ca="1">IF(AND(C197&lt;&gt;"",E197&lt;&gt;"")=TRUE, CELL("row",B197)-18,"")</f>
         <v/>
@@ -12251,9 +12672,10 @@
       <c r="C197" s="32"/>
       <c r="D197" s="51"/>
       <c r="E197" s="42"/>
-      <c r="F197" s="112"/>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F197" s="119"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="119"/>
       <c r="B198" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">IF(AND(C198&lt;&gt;"",E198&lt;&gt;"")=TRUE, CELL("row",B198)-18,"")</f>
         <v/>
@@ -12261,9 +12683,10 @@
       <c r="C198" s="32"/>
       <c r="D198" s="51"/>
       <c r="E198" s="42"/>
-      <c r="F198" s="112"/>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F198" s="119"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="119"/>
       <c r="B199" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B199" ca="1">IF(AND(C199&lt;&gt;"",E199&lt;&gt;"")=TRUE, CELL("row",B199)-18,"")</f>
         <v/>
@@ -12271,9 +12694,10 @@
       <c r="C199" s="32"/>
       <c r="D199" s="51"/>
       <c r="E199" s="42"/>
-      <c r="F199" s="112"/>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F199" s="119"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="119"/>
       <c r="B200" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B200" ca="1">IF(AND(C200&lt;&gt;"",E200&lt;&gt;"")=TRUE, CELL("row",B200)-18,"")</f>
         <v/>
@@ -12281,9 +12705,10 @@
       <c r="C200" s="32"/>
       <c r="D200" s="51"/>
       <c r="E200" s="42"/>
-      <c r="F200" s="112"/>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F200" s="119"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="119"/>
       <c r="B201" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B201" ca="1">IF(AND(C201&lt;&gt;"",E201&lt;&gt;"")=TRUE, CELL("row",B201)-18,"")</f>
         <v/>
@@ -12291,9 +12716,10 @@
       <c r="C201" s="32"/>
       <c r="D201" s="51"/>
       <c r="E201" s="42"/>
-      <c r="F201" s="112"/>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F201" s="119"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="119"/>
       <c r="B202" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B202" ca="1">IF(AND(C202&lt;&gt;"",E202&lt;&gt;"")=TRUE, CELL("row",B202)-18,"")</f>
         <v/>
@@ -12301,9 +12727,10 @@
       <c r="C202" s="32"/>
       <c r="D202" s="51"/>
       <c r="E202" s="42"/>
-      <c r="F202" s="112"/>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F202" s="119"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="119"/>
       <c r="B203" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B203" ca="1">IF(AND(C203&lt;&gt;"",E203&lt;&gt;"")=TRUE, CELL("row",B203)-18,"")</f>
         <v/>
@@ -12311,9 +12738,10 @@
       <c r="C203" s="32"/>
       <c r="D203" s="51"/>
       <c r="E203" s="42"/>
-      <c r="F203" s="112"/>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F203" s="119"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="119"/>
       <c r="B204" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B204" ca="1">IF(AND(C204&lt;&gt;"",E204&lt;&gt;"")=TRUE, CELL("row",B204)-18,"")</f>
         <v/>
@@ -12321,9 +12749,10 @@
       <c r="C204" s="32"/>
       <c r="D204" s="51"/>
       <c r="E204" s="42"/>
-      <c r="F204" s="112"/>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F204" s="119"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="119"/>
       <c r="B205" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B205" ca="1">IF(AND(C205&lt;&gt;"",E205&lt;&gt;"")=TRUE, CELL("row",B205)-18,"")</f>
         <v/>
@@ -12331,9 +12760,10 @@
       <c r="C205" s="32"/>
       <c r="D205" s="51"/>
       <c r="E205" s="42"/>
-      <c r="F205" s="112"/>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F205" s="119"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="119"/>
       <c r="B206" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B206" ca="1">IF(AND(C206&lt;&gt;"",E206&lt;&gt;"")=TRUE, CELL("row",B206)-18,"")</f>
         <v/>
@@ -12341,9 +12771,10 @@
       <c r="C206" s="32"/>
       <c r="D206" s="51"/>
       <c r="E206" s="42"/>
-      <c r="F206" s="112"/>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F206" s="119"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="119"/>
       <c r="B207" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B207" ca="1">IF(AND(C207&lt;&gt;"",E207&lt;&gt;"")=TRUE, CELL("row",B207)-18,"")</f>
         <v/>
@@ -12351,9 +12782,10 @@
       <c r="C207" s="32"/>
       <c r="D207" s="51"/>
       <c r="E207" s="42"/>
-      <c r="F207" s="112"/>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F207" s="119"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="119"/>
       <c r="B208" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B208" ca="1">IF(AND(C208&lt;&gt;"",E208&lt;&gt;"")=TRUE, CELL("row",B208)-18,"")</f>
         <v/>
@@ -12361,9 +12793,10 @@
       <c r="C208" s="32"/>
       <c r="D208" s="51"/>
       <c r="E208" s="42"/>
-      <c r="F208" s="112"/>
-    </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F208" s="119"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="119"/>
       <c r="B209" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B209" ca="1">IF(AND(C209&lt;&gt;"",E209&lt;&gt;"")=TRUE, CELL("row",B209)-18,"")</f>
         <v/>
@@ -12371,9 +12804,10 @@
       <c r="C209" s="32"/>
       <c r="D209" s="51"/>
       <c r="E209" s="42"/>
-      <c r="F209" s="112"/>
-    </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F209" s="119"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="119"/>
       <c r="B210" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B210" ca="1">IF(AND(C210&lt;&gt;"",E210&lt;&gt;"")=TRUE, CELL("row",B210)-18,"")</f>
         <v/>
@@ -12381,9 +12815,10 @@
       <c r="C210" s="32"/>
       <c r="D210" s="51"/>
       <c r="E210" s="42"/>
-      <c r="F210" s="112"/>
-    </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F210" s="119"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="119"/>
       <c r="B211" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B211" ca="1">IF(AND(C211&lt;&gt;"",E211&lt;&gt;"")=TRUE, CELL("row",B211)-18,"")</f>
         <v/>
@@ -12391,9 +12826,10 @@
       <c r="C211" s="32"/>
       <c r="D211" s="51"/>
       <c r="E211" s="42"/>
-      <c r="F211" s="112"/>
-    </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F211" s="119"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="119"/>
       <c r="B212" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B212" ca="1">IF(AND(C212&lt;&gt;"",E212&lt;&gt;"")=TRUE, CELL("row",B212)-18,"")</f>
         <v/>
@@ -12401,9 +12837,10 @@
       <c r="C212" s="32"/>
       <c r="D212" s="51"/>
       <c r="E212" s="42"/>
-      <c r="F212" s="112"/>
-    </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F212" s="119"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="119"/>
       <c r="B213" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B213" ca="1">IF(AND(C213&lt;&gt;"",E213&lt;&gt;"")=TRUE, CELL("row",B213)-18,"")</f>
         <v/>
@@ -12411,9 +12848,10 @@
       <c r="C213" s="32"/>
       <c r="D213" s="51"/>
       <c r="E213" s="42"/>
-      <c r="F213" s="112"/>
-    </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F213" s="119"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="119"/>
       <c r="B214" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B214" ca="1">IF(AND(C214&lt;&gt;"",E214&lt;&gt;"")=TRUE, CELL("row",B214)-18,"")</f>
         <v/>
@@ -12421,9 +12859,10 @@
       <c r="C214" s="32"/>
       <c r="D214" s="51"/>
       <c r="E214" s="42"/>
-      <c r="F214" s="112"/>
-    </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F214" s="119"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="119"/>
       <c r="B215" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B215" ca="1">IF(AND(C215&lt;&gt;"",E215&lt;&gt;"")=TRUE, CELL("row",B215)-18,"")</f>
         <v/>
@@ -12431,9 +12870,10 @@
       <c r="C215" s="32"/>
       <c r="D215" s="51"/>
       <c r="E215" s="42"/>
-      <c r="F215" s="112"/>
-    </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F215" s="119"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="119"/>
       <c r="B216" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B216" ca="1">IF(AND(C216&lt;&gt;"",E216&lt;&gt;"")=TRUE, CELL("row",B216)-18,"")</f>
         <v/>
@@ -12441,9 +12881,10 @@
       <c r="C216" s="32"/>
       <c r="D216" s="51"/>
       <c r="E216" s="42"/>
-      <c r="F216" s="112"/>
-    </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F216" s="119"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="119"/>
       <c r="B217" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B217" ca="1">IF(AND(C217&lt;&gt;"",E217&lt;&gt;"")=TRUE, CELL("row",B217)-18,"")</f>
         <v/>
@@ -12451,9 +12892,10 @@
       <c r="C217" s="32"/>
       <c r="D217" s="51"/>
       <c r="E217" s="42"/>
-      <c r="F217" s="112"/>
-    </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F217" s="119"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="119"/>
       <c r="B218" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B218" ca="1">IF(AND(C218&lt;&gt;"",E218&lt;&gt;"")=TRUE, CELL("row",B218)-18,"")</f>
         <v/>
@@ -12461,9 +12903,10 @@
       <c r="C218" s="32"/>
       <c r="D218" s="51"/>
       <c r="E218" s="42"/>
-      <c r="F218" s="112"/>
-    </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F218" s="119"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="119"/>
       <c r="B219" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B219" ca="1">IF(AND(C219&lt;&gt;"",E219&lt;&gt;"")=TRUE, CELL("row",B219)-18,"")</f>
         <v/>
@@ -12471,9 +12914,10 @@
       <c r="C219" s="32"/>
       <c r="D219" s="51"/>
       <c r="E219" s="42"/>
-      <c r="F219" s="112"/>
-    </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F219" s="119"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="119"/>
       <c r="B220" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B220" ca="1">IF(AND(C220&lt;&gt;"",E220&lt;&gt;"")=TRUE, CELL("row",B220)-18,"")</f>
         <v/>
@@ -12481,9 +12925,10 @@
       <c r="C220" s="32"/>
       <c r="D220" s="51"/>
       <c r="E220" s="42"/>
-      <c r="F220" s="112"/>
-    </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F220" s="119"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="119"/>
       <c r="B221" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B221" ca="1">IF(AND(C221&lt;&gt;"",E221&lt;&gt;"")=TRUE, CELL("row",B221)-18,"")</f>
         <v/>
@@ -12491,9 +12936,10 @@
       <c r="C221" s="32"/>
       <c r="D221" s="51"/>
       <c r="E221" s="42"/>
-      <c r="F221" s="112"/>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F221" s="119"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="119"/>
       <c r="B222" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B222" ca="1">IF(AND(C222&lt;&gt;"",E222&lt;&gt;"")=TRUE, CELL("row",B222)-18,"")</f>
         <v/>
@@ -12501,9 +12947,10 @@
       <c r="C222" s="32"/>
       <c r="D222" s="51"/>
       <c r="E222" s="42"/>
-      <c r="F222" s="112"/>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F222" s="119"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="119"/>
       <c r="B223" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B223" ca="1">IF(AND(C223&lt;&gt;"",E223&lt;&gt;"")=TRUE, CELL("row",B223)-18,"")</f>
         <v/>
@@ -12511,9 +12958,10 @@
       <c r="C223" s="32"/>
       <c r="D223" s="51"/>
       <c r="E223" s="42"/>
-      <c r="F223" s="112"/>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F223" s="119"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="119"/>
       <c r="B224" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B224" ca="1">IF(AND(C224&lt;&gt;"",E224&lt;&gt;"")=TRUE, CELL("row",B224)-18,"")</f>
         <v/>
@@ -12521,9 +12969,10 @@
       <c r="C224" s="32"/>
       <c r="D224" s="51"/>
       <c r="E224" s="42"/>
-      <c r="F224" s="112"/>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F224" s="119"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="119"/>
       <c r="B225" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B225" ca="1">IF(AND(C225&lt;&gt;"",E225&lt;&gt;"")=TRUE, CELL("row",B225)-18,"")</f>
         <v/>
@@ -12531,9 +12980,10 @@
       <c r="C225" s="32"/>
       <c r="D225" s="51"/>
       <c r="E225" s="42"/>
-      <c r="F225" s="112"/>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F225" s="119"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="119"/>
       <c r="B226" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B226" ca="1">IF(AND(C226&lt;&gt;"",E226&lt;&gt;"")=TRUE, CELL("row",B226)-18,"")</f>
         <v/>
@@ -12541,9 +12991,10 @@
       <c r="C226" s="32"/>
       <c r="D226" s="51"/>
       <c r="E226" s="42"/>
-      <c r="F226" s="112"/>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F226" s="119"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="119"/>
       <c r="B227" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B227" ca="1">IF(AND(C227&lt;&gt;"",E227&lt;&gt;"")=TRUE, CELL("row",B227)-18,"")</f>
         <v/>
@@ -12551,9 +13002,10 @@
       <c r="C227" s="32"/>
       <c r="D227" s="51"/>
       <c r="E227" s="42"/>
-      <c r="F227" s="112"/>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F227" s="119"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="119"/>
       <c r="B228" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B228" ca="1">IF(AND(C228&lt;&gt;"",E228&lt;&gt;"")=TRUE, CELL("row",B228)-18,"")</f>
         <v/>
@@ -12561,9 +13013,10 @@
       <c r="C228" s="32"/>
       <c r="D228" s="51"/>
       <c r="E228" s="42"/>
-      <c r="F228" s="112"/>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F228" s="119"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="119"/>
       <c r="B229" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B229" ca="1">IF(AND(C229&lt;&gt;"",E229&lt;&gt;"")=TRUE, CELL("row",B229)-18,"")</f>
         <v/>
@@ -12571,9 +13024,10 @@
       <c r="C229" s="32"/>
       <c r="D229" s="51"/>
       <c r="E229" s="42"/>
-      <c r="F229" s="112"/>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F229" s="119"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="119"/>
       <c r="B230" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B230" ca="1">IF(AND(C230&lt;&gt;"",E230&lt;&gt;"")=TRUE, CELL("row",B230)-18,"")</f>
         <v/>
@@ -12581,9 +13035,10 @@
       <c r="C230" s="32"/>
       <c r="D230" s="51"/>
       <c r="E230" s="42"/>
-      <c r="F230" s="112"/>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F230" s="119"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="119"/>
       <c r="B231" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B231" ca="1">IF(AND(C231&lt;&gt;"",E231&lt;&gt;"")=TRUE, CELL("row",B231)-18,"")</f>
         <v/>
@@ -12591,9 +13046,10 @@
       <c r="C231" s="32"/>
       <c r="D231" s="51"/>
       <c r="E231" s="42"/>
-      <c r="F231" s="112"/>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F231" s="119"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="119"/>
       <c r="B232" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B232" ca="1">IF(AND(C232&lt;&gt;"",E232&lt;&gt;"")=TRUE, CELL("row",B232)-18,"")</f>
         <v/>
@@ -12601,9 +13057,10 @@
       <c r="C232" s="32"/>
       <c r="D232" s="51"/>
       <c r="E232" s="42"/>
-      <c r="F232" s="112"/>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F232" s="119"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="119"/>
       <c r="B233" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B233" ca="1">IF(AND(C233&lt;&gt;"",E233&lt;&gt;"")=TRUE, CELL("row",B233)-18,"")</f>
         <v/>
@@ -12611,9 +13068,10 @@
       <c r="C233" s="32"/>
       <c r="D233" s="51"/>
       <c r="E233" s="42"/>
-      <c r="F233" s="112"/>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F233" s="119"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="119"/>
       <c r="B234" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B234" ca="1">IF(AND(C234&lt;&gt;"",E234&lt;&gt;"")=TRUE, CELL("row",B234)-18,"")</f>
         <v/>
@@ -12621,9 +13079,10 @@
       <c r="C234" s="32"/>
       <c r="D234" s="51"/>
       <c r="E234" s="42"/>
-      <c r="F234" s="112"/>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F234" s="119"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="119"/>
       <c r="B235" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B235" ca="1">IF(AND(C235&lt;&gt;"",E235&lt;&gt;"")=TRUE, CELL("row",B235)-18,"")</f>
         <v/>
@@ -12631,9 +13090,10 @@
       <c r="C235" s="32"/>
       <c r="D235" s="51"/>
       <c r="E235" s="42"/>
-      <c r="F235" s="112"/>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F235" s="119"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="119"/>
       <c r="B236" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B236" ca="1">IF(AND(C236&lt;&gt;"",E236&lt;&gt;"")=TRUE, CELL("row",B236)-18,"")</f>
         <v/>
@@ -12641,9 +13101,10 @@
       <c r="C236" s="32"/>
       <c r="D236" s="51"/>
       <c r="E236" s="42"/>
-      <c r="F236" s="112"/>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F236" s="119"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="119"/>
       <c r="B237" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B237" ca="1">IF(AND(C237&lt;&gt;"",E237&lt;&gt;"")=TRUE, CELL("row",B237)-18,"")</f>
         <v/>
@@ -12651,9 +13112,10 @@
       <c r="C237" s="32"/>
       <c r="D237" s="51"/>
       <c r="E237" s="42"/>
-      <c r="F237" s="112"/>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F237" s="119"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="119"/>
       <c r="B238" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B238" ca="1">IF(AND(C238&lt;&gt;"",E238&lt;&gt;"")=TRUE, CELL("row",B238)-18,"")</f>
         <v/>
@@ -12661,9 +13123,10 @@
       <c r="C238" s="32"/>
       <c r="D238" s="51"/>
       <c r="E238" s="42"/>
-      <c r="F238" s="112"/>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F238" s="119"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="119"/>
       <c r="B239" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B239" ca="1">IF(AND(C239&lt;&gt;"",E239&lt;&gt;"")=TRUE, CELL("row",B239)-18,"")</f>
         <v/>
@@ -12671,9 +13134,10 @@
       <c r="C239" s="32"/>
       <c r="D239" s="51"/>
       <c r="E239" s="42"/>
-      <c r="F239" s="112"/>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F239" s="119"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="119"/>
       <c r="B240" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B240" ca="1">IF(AND(C240&lt;&gt;"",E240&lt;&gt;"")=TRUE, CELL("row",B240)-18,"")</f>
         <v/>
@@ -12681,9 +13145,10 @@
       <c r="C240" s="32"/>
       <c r="D240" s="51"/>
       <c r="E240" s="42"/>
-      <c r="F240" s="112"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F240" s="119"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="119"/>
       <c r="B241" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B241" ca="1">IF(AND(C241&lt;&gt;"",E241&lt;&gt;"")=TRUE, CELL("row",B241)-18,"")</f>
         <v/>
@@ -12691,9 +13156,10 @@
       <c r="C241" s="32"/>
       <c r="D241" s="51"/>
       <c r="E241" s="42"/>
-      <c r="F241" s="112"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F241" s="119"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="119"/>
       <c r="B242" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B242" ca="1">IF(AND(C242&lt;&gt;"",E242&lt;&gt;"")=TRUE, CELL("row",B242)-18,"")</f>
         <v/>
@@ -12701,9 +13167,10 @@
       <c r="C242" s="32"/>
       <c r="D242" s="51"/>
       <c r="E242" s="42"/>
-      <c r="F242" s="112"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F242" s="119"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="119"/>
       <c r="B243" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B243" ca="1">IF(AND(C243&lt;&gt;"",E243&lt;&gt;"")=TRUE, CELL("row",B243)-18,"")</f>
         <v/>
@@ -12711,9 +13178,10 @@
       <c r="C243" s="32"/>
       <c r="D243" s="51"/>
       <c r="E243" s="42"/>
-      <c r="F243" s="112"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F243" s="119"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="119"/>
       <c r="B244" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B244" ca="1">IF(AND(C244&lt;&gt;"",E244&lt;&gt;"")=TRUE, CELL("row",B244)-18,"")</f>
         <v/>
@@ -12721,9 +13189,10 @@
       <c r="C244" s="32"/>
       <c r="D244" s="51"/>
       <c r="E244" s="42"/>
-      <c r="F244" s="112"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F244" s="119"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="119"/>
       <c r="B245" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B245" ca="1">IF(AND(C245&lt;&gt;"",E245&lt;&gt;"")=TRUE, CELL("row",B245)-18,"")</f>
         <v/>
@@ -12731,9 +13200,10 @@
       <c r="C245" s="32"/>
       <c r="D245" s="51"/>
       <c r="E245" s="42"/>
-      <c r="F245" s="112"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F245" s="119"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="119"/>
       <c r="B246" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B246" ca="1">IF(AND(C246&lt;&gt;"",E246&lt;&gt;"")=TRUE, CELL("row",B246)-18,"")</f>
         <v/>
@@ -12741,9 +13211,10 @@
       <c r="C246" s="32"/>
       <c r="D246" s="51"/>
       <c r="E246" s="42"/>
-      <c r="F246" s="112"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F246" s="119"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="119"/>
       <c r="B247" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B247" ca="1">IF(AND(C247&lt;&gt;"",E247&lt;&gt;"")=TRUE, CELL("row",B247)-18,"")</f>
         <v/>
@@ -12751,9 +13222,10 @@
       <c r="C247" s="32"/>
       <c r="D247" s="51"/>
       <c r="E247" s="42"/>
-      <c r="F247" s="112"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F247" s="119"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="119"/>
       <c r="B248" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B248" ca="1">IF(AND(C248&lt;&gt;"",E248&lt;&gt;"")=TRUE, CELL("row",B248)-18,"")</f>
         <v/>
@@ -12761,9 +13233,10 @@
       <c r="C248" s="32"/>
       <c r="D248" s="51"/>
       <c r="E248" s="42"/>
-      <c r="F248" s="112"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F248" s="119"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="119"/>
       <c r="B249" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B249" ca="1">IF(AND(C249&lt;&gt;"",E249&lt;&gt;"")=TRUE, CELL("row",B249)-18,"")</f>
         <v/>
@@ -12771,9 +13244,10 @@
       <c r="C249" s="32"/>
       <c r="D249" s="51"/>
       <c r="E249" s="42"/>
-      <c r="F249" s="112"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F249" s="119"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="119"/>
       <c r="B250" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B250" ca="1">IF(AND(C250&lt;&gt;"",E250&lt;&gt;"")=TRUE, CELL("row",B250)-18,"")</f>
         <v/>
@@ -12781,9 +13255,10 @@
       <c r="C250" s="32"/>
       <c r="D250" s="51"/>
       <c r="E250" s="42"/>
-      <c r="F250" s="112"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F250" s="119"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="119"/>
       <c r="B251" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B251" ca="1">IF(AND(C251&lt;&gt;"",E251&lt;&gt;"")=TRUE, CELL("row",B251)-18,"")</f>
         <v/>
@@ -12791,9 +13266,10 @@
       <c r="C251" s="32"/>
       <c r="D251" s="51"/>
       <c r="E251" s="42"/>
-      <c r="F251" s="112"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F251" s="119"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="119"/>
       <c r="B252" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B252" ca="1">IF(AND(C252&lt;&gt;"",E252&lt;&gt;"")=TRUE, CELL("row",B252)-18,"")</f>
         <v/>
@@ -12801,9 +13277,10 @@
       <c r="C252" s="32"/>
       <c r="D252" s="51"/>
       <c r="E252" s="42"/>
-      <c r="F252" s="112"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F252" s="119"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="119"/>
       <c r="B253" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B253" ca="1">IF(AND(C253&lt;&gt;"",E253&lt;&gt;"")=TRUE, CELL("row",B253)-18,"")</f>
         <v/>
@@ -12811,9 +13288,10 @@
       <c r="C253" s="32"/>
       <c r="D253" s="51"/>
       <c r="E253" s="42"/>
-      <c r="F253" s="112"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F253" s="119"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="119"/>
       <c r="B254" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B254" ca="1">IF(AND(C254&lt;&gt;"",E254&lt;&gt;"")=TRUE, CELL("row",B254)-18,"")</f>
         <v/>
@@ -12821,9 +13299,10 @@
       <c r="C254" s="32"/>
       <c r="D254" s="51"/>
       <c r="E254" s="42"/>
-      <c r="F254" s="112"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F254" s="119"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="119"/>
       <c r="B255" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B255" ca="1">IF(AND(C255&lt;&gt;"",E255&lt;&gt;"")=TRUE, CELL("row",B255)-18,"")</f>
         <v/>
@@ -12831,9 +13310,10 @@
       <c r="C255" s="32"/>
       <c r="D255" s="51"/>
       <c r="E255" s="42"/>
-      <c r="F255" s="112"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F255" s="119"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="119"/>
       <c r="B256" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B256" ca="1">IF(AND(C256&lt;&gt;"",E256&lt;&gt;"")=TRUE, CELL("row",B256)-18,"")</f>
         <v/>
@@ -12841,9 +13321,10 @@
       <c r="C256" s="32"/>
       <c r="D256" s="51"/>
       <c r="E256" s="42"/>
-      <c r="F256" s="112"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F256" s="119"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="119"/>
       <c r="B257" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B257" ca="1">IF(AND(C257&lt;&gt;"",E257&lt;&gt;"")=TRUE, CELL("row",B257)-18,"")</f>
         <v/>
@@ -12851,9 +13332,10 @@
       <c r="C257" s="32"/>
       <c r="D257" s="51"/>
       <c r="E257" s="42"/>
-      <c r="F257" s="112"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F257" s="119"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="119"/>
       <c r="B258" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B258" ca="1">IF(AND(C258&lt;&gt;"",E258&lt;&gt;"")=TRUE, CELL("row",B258)-18,"")</f>
         <v/>
@@ -12861,9 +13343,10 @@
       <c r="C258" s="32"/>
       <c r="D258" s="51"/>
       <c r="E258" s="42"/>
-      <c r="F258" s="112"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F258" s="119"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="119"/>
       <c r="B259" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B259" ca="1">IF(AND(C259&lt;&gt;"",E259&lt;&gt;"")=TRUE, CELL("row",B259)-18,"")</f>
         <v/>
@@ -12871,9 +13354,10 @@
       <c r="C259" s="32"/>
       <c r="D259" s="51"/>
       <c r="E259" s="42"/>
-      <c r="F259" s="112"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F259" s="119"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="119"/>
       <c r="B260" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B260" ca="1">IF(AND(C260&lt;&gt;"",E260&lt;&gt;"")=TRUE, CELL("row",B260)-18,"")</f>
         <v/>
@@ -12881,9 +13365,10 @@
       <c r="C260" s="32"/>
       <c r="D260" s="51"/>
       <c r="E260" s="42"/>
-      <c r="F260" s="112"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F260" s="119"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="119"/>
       <c r="B261" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B261" ca="1">IF(AND(C261&lt;&gt;"",E261&lt;&gt;"")=TRUE, CELL("row",B261)-18,"")</f>
         <v/>
@@ -12891,9 +13376,10 @@
       <c r="C261" s="32"/>
       <c r="D261" s="51"/>
       <c r="E261" s="42"/>
-      <c r="F261" s="112"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F261" s="119"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="119"/>
       <c r="B262" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B262" ca="1">IF(AND(C262&lt;&gt;"",E262&lt;&gt;"")=TRUE, CELL("row",B262)-18,"")</f>
         <v/>
@@ -12901,9 +13387,10 @@
       <c r="C262" s="32"/>
       <c r="D262" s="51"/>
       <c r="E262" s="42"/>
-      <c r="F262" s="112"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F262" s="119"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="119"/>
       <c r="B263" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B263" ca="1">IF(AND(C263&lt;&gt;"",E263&lt;&gt;"")=TRUE, CELL("row",B263)-18,"")</f>
         <v/>
@@ -12911,9 +13398,10 @@
       <c r="C263" s="32"/>
       <c r="D263" s="51"/>
       <c r="E263" s="42"/>
-      <c r="F263" s="112"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F263" s="119"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="119"/>
       <c r="B264" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B264" ca="1">IF(AND(C264&lt;&gt;"",E264&lt;&gt;"")=TRUE, CELL("row",B264)-18,"")</f>
         <v/>
@@ -12921,9 +13409,10 @@
       <c r="C264" s="32"/>
       <c r="D264" s="51"/>
       <c r="E264" s="42"/>
-      <c r="F264" s="112"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F264" s="119"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="119"/>
       <c r="B265" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B265" ca="1">IF(AND(C265&lt;&gt;"",E265&lt;&gt;"")=TRUE, CELL("row",B265)-18,"")</f>
         <v/>
@@ -12931,9 +13420,10 @@
       <c r="C265" s="32"/>
       <c r="D265" s="51"/>
       <c r="E265" s="42"/>
-      <c r="F265" s="112"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F265" s="119"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="119"/>
       <c r="B266" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B266" ca="1">IF(AND(C266&lt;&gt;"",E266&lt;&gt;"")=TRUE, CELL("row",B266)-18,"")</f>
         <v/>
@@ -12941,9 +13431,10 @@
       <c r="C266" s="32"/>
       <c r="D266" s="51"/>
       <c r="E266" s="42"/>
-      <c r="F266" s="112"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F266" s="119"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="119"/>
       <c r="B267" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B267" ca="1">IF(AND(C267&lt;&gt;"",E267&lt;&gt;"")=TRUE, CELL("row",B267)-18,"")</f>
         <v/>
@@ -12951,9 +13442,10 @@
       <c r="C267" s="32"/>
       <c r="D267" s="51"/>
       <c r="E267" s="42"/>
-      <c r="F267" s="112"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F267" s="119"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="119"/>
       <c r="B268" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B268" ca="1">IF(AND(C268&lt;&gt;"",E268&lt;&gt;"")=TRUE, CELL("row",B268)-18,"")</f>
         <v/>
@@ -12961,9 +13453,10 @@
       <c r="C268" s="32"/>
       <c r="D268" s="51"/>
       <c r="E268" s="42"/>
-      <c r="F268" s="112"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F268" s="119"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="119"/>
       <c r="B269" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B269" ca="1">IF(AND(C269&lt;&gt;"",E269&lt;&gt;"")=TRUE, CELL("row",B269)-18,"")</f>
         <v/>
@@ -12971,9 +13464,10 @@
       <c r="C269" s="32"/>
       <c r="D269" s="51"/>
       <c r="E269" s="42"/>
-      <c r="F269" s="112"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F269" s="119"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="119"/>
       <c r="B270" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B270" ca="1">IF(AND(C270&lt;&gt;"",E270&lt;&gt;"")=TRUE, CELL("row",B270)-18,"")</f>
         <v/>
@@ -12981,9 +13475,10 @@
       <c r="C270" s="32"/>
       <c r="D270" s="51"/>
       <c r="E270" s="42"/>
-      <c r="F270" s="112"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F270" s="119"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="119"/>
       <c r="B271" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B271" ca="1">IF(AND(C271&lt;&gt;"",E271&lt;&gt;"")=TRUE, CELL("row",B271)-18,"")</f>
         <v/>
@@ -12991,9 +13486,10 @@
       <c r="C271" s="32"/>
       <c r="D271" s="51"/>
       <c r="E271" s="42"/>
-      <c r="F271" s="112"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F271" s="119"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="119"/>
       <c r="B272" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B272" ca="1">IF(AND(C272&lt;&gt;"",E272&lt;&gt;"")=TRUE, CELL("row",B272)-18,"")</f>
         <v/>
@@ -13001,9 +13497,10 @@
       <c r="C272" s="32"/>
       <c r="D272" s="51"/>
       <c r="E272" s="42"/>
-      <c r="F272" s="112"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F272" s="119"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="119"/>
       <c r="B273" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B273" ca="1">IF(AND(C273&lt;&gt;"",E273&lt;&gt;"")=TRUE, CELL("row",B273)-18,"")</f>
         <v/>
@@ -13011,9 +13508,10 @@
       <c r="C273" s="32"/>
       <c r="D273" s="51"/>
       <c r="E273" s="42"/>
-      <c r="F273" s="112"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F273" s="119"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="119"/>
       <c r="B274" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B274" ca="1">IF(AND(C274&lt;&gt;"",E274&lt;&gt;"")=TRUE, CELL("row",B274)-18,"")</f>
         <v/>
@@ -13021,9 +13519,10 @@
       <c r="C274" s="32"/>
       <c r="D274" s="51"/>
       <c r="E274" s="42"/>
-      <c r="F274" s="112"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F274" s="119"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="119"/>
       <c r="B275" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B275" ca="1">IF(AND(C275&lt;&gt;"",E275&lt;&gt;"")=TRUE, CELL("row",B275)-18,"")</f>
         <v/>
@@ -13031,9 +13530,10 @@
       <c r="C275" s="32"/>
       <c r="D275" s="51"/>
       <c r="E275" s="42"/>
-      <c r="F275" s="112"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F275" s="119"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="119"/>
       <c r="B276" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B276" ca="1">IF(AND(C276&lt;&gt;"",E276&lt;&gt;"")=TRUE, CELL("row",B276)-18,"")</f>
         <v/>
@@ -13041,9 +13541,10 @@
       <c r="C276" s="32"/>
       <c r="D276" s="51"/>
       <c r="E276" s="42"/>
-      <c r="F276" s="112"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F276" s="119"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="119"/>
       <c r="B277" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B277" ca="1">IF(AND(C277&lt;&gt;"",E277&lt;&gt;"")=TRUE, CELL("row",B277)-18,"")</f>
         <v/>
@@ -13051,9 +13552,10 @@
       <c r="C277" s="32"/>
       <c r="D277" s="51"/>
       <c r="E277" s="42"/>
-      <c r="F277" s="112"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F277" s="119"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="119"/>
       <c r="B278" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B278" ca="1">IF(AND(C278&lt;&gt;"",E278&lt;&gt;"")=TRUE, CELL("row",B278)-18,"")</f>
         <v/>
@@ -13061,9 +13563,10 @@
       <c r="C278" s="32"/>
       <c r="D278" s="51"/>
       <c r="E278" s="42"/>
-      <c r="F278" s="112"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F278" s="119"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="119"/>
       <c r="B279" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B279" ca="1">IF(AND(C279&lt;&gt;"",E279&lt;&gt;"")=TRUE, CELL("row",B279)-18,"")</f>
         <v/>
@@ -13071,9 +13574,10 @@
       <c r="C279" s="32"/>
       <c r="D279" s="51"/>
       <c r="E279" s="42"/>
-      <c r="F279" s="112"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F279" s="119"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="119"/>
       <c r="B280" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B280" ca="1">IF(AND(C280&lt;&gt;"",E280&lt;&gt;"")=TRUE, CELL("row",B280)-18,"")</f>
         <v/>
@@ -13081,9 +13585,10 @@
       <c r="C280" s="32"/>
       <c r="D280" s="51"/>
       <c r="E280" s="42"/>
-      <c r="F280" s="112"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F280" s="119"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="119"/>
       <c r="B281" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B281" ca="1">IF(AND(C281&lt;&gt;"",E281&lt;&gt;"")=TRUE, CELL("row",B281)-18,"")</f>
         <v/>
@@ -13091,9 +13596,10 @@
       <c r="C281" s="32"/>
       <c r="D281" s="51"/>
       <c r="E281" s="42"/>
-      <c r="F281" s="112"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F281" s="119"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="119"/>
       <c r="B282" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B282" ca="1">IF(AND(C282&lt;&gt;"",E282&lt;&gt;"")=TRUE, CELL("row",B282)-18,"")</f>
         <v/>
@@ -13101,9 +13607,10 @@
       <c r="C282" s="32"/>
       <c r="D282" s="51"/>
       <c r="E282" s="42"/>
-      <c r="F282" s="112"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F282" s="119"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="119"/>
       <c r="B283" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B283" ca="1">IF(AND(C283&lt;&gt;"",E283&lt;&gt;"")=TRUE, CELL("row",B283)-18,"")</f>
         <v/>
@@ -13111,9 +13618,10 @@
       <c r="C283" s="32"/>
       <c r="D283" s="51"/>
       <c r="E283" s="42"/>
-      <c r="F283" s="112"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F283" s="119"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="119"/>
       <c r="B284" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B284" ca="1">IF(AND(C284&lt;&gt;"",E284&lt;&gt;"")=TRUE, CELL("row",B284)-18,"")</f>
         <v/>
@@ -13121,9 +13629,10 @@
       <c r="C284" s="32"/>
       <c r="D284" s="51"/>
       <c r="E284" s="42"/>
-      <c r="F284" s="112"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F284" s="119"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="119"/>
       <c r="B285" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B285" ca="1">IF(AND(C285&lt;&gt;"",E285&lt;&gt;"")=TRUE, CELL("row",B285)-18,"")</f>
         <v/>
@@ -13131,9 +13640,10 @@
       <c r="C285" s="32"/>
       <c r="D285" s="51"/>
       <c r="E285" s="42"/>
-      <c r="F285" s="112"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F285" s="119"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="119"/>
       <c r="B286" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B286" ca="1">IF(AND(C286&lt;&gt;"",E286&lt;&gt;"")=TRUE, CELL("row",B286)-18,"")</f>
         <v/>
@@ -13141,9 +13651,10 @@
       <c r="C286" s="32"/>
       <c r="D286" s="51"/>
       <c r="E286" s="42"/>
-      <c r="F286" s="112"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F286" s="119"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="119"/>
       <c r="B287" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B287" ca="1">IF(AND(C287&lt;&gt;"",E287&lt;&gt;"")=TRUE, CELL("row",B287)-18,"")</f>
         <v/>
@@ -13151,9 +13662,10 @@
       <c r="C287" s="32"/>
       <c r="D287" s="51"/>
       <c r="E287" s="42"/>
-      <c r="F287" s="112"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F287" s="119"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="119"/>
       <c r="B288" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B288" ca="1">IF(AND(C288&lt;&gt;"",E288&lt;&gt;"")=TRUE, CELL("row",B288)-18,"")</f>
         <v/>
@@ -13161,9 +13673,10 @@
       <c r="C288" s="32"/>
       <c r="D288" s="51"/>
       <c r="E288" s="42"/>
-      <c r="F288" s="112"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F288" s="119"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="119"/>
       <c r="B289" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B289" ca="1">IF(AND(C289&lt;&gt;"",E289&lt;&gt;"")=TRUE, CELL("row",B289)-18,"")</f>
         <v/>
@@ -13171,9 +13684,10 @@
       <c r="C289" s="32"/>
       <c r="D289" s="51"/>
       <c r="E289" s="42"/>
-      <c r="F289" s="112"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F289" s="119"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="119"/>
       <c r="B290" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B290" ca="1">IF(AND(C290&lt;&gt;"",E290&lt;&gt;"")=TRUE, CELL("row",B290)-18,"")</f>
         <v/>
@@ -13181,9 +13695,10 @@
       <c r="C290" s="32"/>
       <c r="D290" s="51"/>
       <c r="E290" s="42"/>
-      <c r="F290" s="112"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F290" s="119"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="119"/>
       <c r="B291" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B291" ca="1">IF(AND(C291&lt;&gt;"",E291&lt;&gt;"")=TRUE, CELL("row",B291)-18,"")</f>
         <v/>
@@ -13191,9 +13706,10 @@
       <c r="C291" s="32"/>
       <c r="D291" s="51"/>
       <c r="E291" s="42"/>
-      <c r="F291" s="112"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F291" s="119"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="119"/>
       <c r="B292" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B292" ca="1">IF(AND(C292&lt;&gt;"",E292&lt;&gt;"")=TRUE, CELL("row",B292)-18,"")</f>
         <v/>
@@ -13201,9 +13717,10 @@
       <c r="C292" s="32"/>
       <c r="D292" s="51"/>
       <c r="E292" s="42"/>
-      <c r="F292" s="112"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F292" s="119"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="119"/>
       <c r="B293" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B293" ca="1">IF(AND(C293&lt;&gt;"",E293&lt;&gt;"")=TRUE, CELL("row",B293)-18,"")</f>
         <v/>
@@ -13211,9 +13728,10 @@
       <c r="C293" s="32"/>
       <c r="D293" s="51"/>
       <c r="E293" s="42"/>
-      <c r="F293" s="112"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F293" s="119"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="119"/>
       <c r="B294" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B294" ca="1">IF(AND(C294&lt;&gt;"",E294&lt;&gt;"")=TRUE, CELL("row",B294)-18,"")</f>
         <v/>
@@ -13221,9 +13739,10 @@
       <c r="C294" s="32"/>
       <c r="D294" s="51"/>
       <c r="E294" s="42"/>
-      <c r="F294" s="112"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F294" s="119"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="119"/>
       <c r="B295" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B295" ca="1">IF(AND(C295&lt;&gt;"",E295&lt;&gt;"")=TRUE, CELL("row",B295)-18,"")</f>
         <v/>
@@ -13231,9 +13750,10 @@
       <c r="C295" s="32"/>
       <c r="D295" s="51"/>
       <c r="E295" s="42"/>
-      <c r="F295" s="112"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F295" s="119"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="119"/>
       <c r="B296" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B296" ca="1">IF(AND(C296&lt;&gt;"",E296&lt;&gt;"")=TRUE, CELL("row",B296)-18,"")</f>
         <v/>
@@ -13241,9 +13761,10 @@
       <c r="C296" s="32"/>
       <c r="D296" s="51"/>
       <c r="E296" s="42"/>
-      <c r="F296" s="112"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F296" s="119"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="119"/>
       <c r="B297" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B297" ca="1">IF(AND(C297&lt;&gt;"",E297&lt;&gt;"")=TRUE, CELL("row",B297)-18,"")</f>
         <v/>
@@ -13251,9 +13772,10 @@
       <c r="C297" s="32"/>
       <c r="D297" s="51"/>
       <c r="E297" s="42"/>
-      <c r="F297" s="112"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F297" s="119"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="119"/>
       <c r="B298" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B298" ca="1">IF(AND(C298&lt;&gt;"",E298&lt;&gt;"")=TRUE, CELL("row",B298)-18,"")</f>
         <v/>
@@ -13261,9 +13783,10 @@
       <c r="C298" s="32"/>
       <c r="D298" s="51"/>
       <c r="E298" s="42"/>
-      <c r="F298" s="112"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F298" s="119"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="119"/>
       <c r="B299" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B299" ca="1">IF(AND(C299&lt;&gt;"",E299&lt;&gt;"")=TRUE, CELL("row",B299)-18,"")</f>
         <v/>
@@ -13271,9 +13794,10 @@
       <c r="C299" s="32"/>
       <c r="D299" s="51"/>
       <c r="E299" s="42"/>
-      <c r="F299" s="112"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F299" s="119"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="119"/>
       <c r="B300" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B300" ca="1">IF(AND(C300&lt;&gt;"",E300&lt;&gt;"")=TRUE, CELL("row",B300)-18,"")</f>
         <v/>
@@ -13281,9 +13805,10 @@
       <c r="C300" s="32"/>
       <c r="D300" s="51"/>
       <c r="E300" s="42"/>
-      <c r="F300" s="112"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F300" s="119"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="119"/>
       <c r="B301" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B301" ca="1">IF(AND(C301&lt;&gt;"",E301&lt;&gt;"")=TRUE, CELL("row",B301)-18,"")</f>
         <v/>
@@ -13291,9 +13816,10 @@
       <c r="C301" s="32"/>
       <c r="D301" s="51"/>
       <c r="E301" s="42"/>
-      <c r="F301" s="112"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F301" s="119"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="119"/>
       <c r="B302" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B302" ca="1">IF(AND(C302&lt;&gt;"",E302&lt;&gt;"")=TRUE, CELL("row",B302)-18,"")</f>
         <v/>
@@ -13301,9 +13827,10 @@
       <c r="C302" s="32"/>
       <c r="D302" s="51"/>
       <c r="E302" s="42"/>
-      <c r="F302" s="112"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F302" s="119"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="119"/>
       <c r="B303" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B303" ca="1">IF(AND(C303&lt;&gt;"",E303&lt;&gt;"")=TRUE, CELL("row",B303)-18,"")</f>
         <v/>
@@ -13311,9 +13838,10 @@
       <c r="C303" s="32"/>
       <c r="D303" s="51"/>
       <c r="E303" s="42"/>
-      <c r="F303" s="112"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F303" s="119"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="119"/>
       <c r="B304" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B304" ca="1">IF(AND(C304&lt;&gt;"",E304&lt;&gt;"")=TRUE, CELL("row",B304)-18,"")</f>
         <v/>
@@ -13321,9 +13849,10 @@
       <c r="C304" s="32"/>
       <c r="D304" s="51"/>
       <c r="E304" s="42"/>
-      <c r="F304" s="112"/>
+      <c r="F304" s="119"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="119"/>
       <c r="B305" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B305" ca="1">IF(AND(C305&lt;&gt;"",E305&lt;&gt;"")=TRUE, CELL("row",B305)-18,"")</f>
         <v/>
@@ -13331,9 +13860,10 @@
       <c r="C305" s="32"/>
       <c r="D305" s="51"/>
       <c r="E305" s="42"/>
-      <c r="F305" s="112"/>
+      <c r="F305" s="119"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="119"/>
       <c r="B306" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B306" ca="1">IF(AND(C306&lt;&gt;"",E306&lt;&gt;"")=TRUE, CELL("row",B306)-18,"")</f>
         <v/>
@@ -13341,9 +13871,10 @@
       <c r="C306" s="32"/>
       <c r="D306" s="51"/>
       <c r="E306" s="42"/>
-      <c r="F306" s="112"/>
+      <c r="F306" s="119"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="119"/>
       <c r="B307" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B307" ca="1">IF(AND(C307&lt;&gt;"",E307&lt;&gt;"")=TRUE, CELL("row",B307)-18,"")</f>
         <v/>
@@ -13351,9 +13882,10 @@
       <c r="C307" s="32"/>
       <c r="D307" s="51"/>
       <c r="E307" s="42"/>
-      <c r="F307" s="112"/>
+      <c r="F307" s="119"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="119"/>
       <c r="B308" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B308" ca="1">IF(AND(C308&lt;&gt;"",E308&lt;&gt;"")=TRUE, CELL("row",B308)-18,"")</f>
         <v/>
@@ -13361,9 +13893,10 @@
       <c r="C308" s="32"/>
       <c r="D308" s="51"/>
       <c r="E308" s="42"/>
-      <c r="F308" s="112"/>
+      <c r="F308" s="119"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="119"/>
       <c r="B309" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B309" ca="1">IF(AND(C309&lt;&gt;"",E309&lt;&gt;"")=TRUE, CELL("row",B309)-18,"")</f>
         <v/>
@@ -13371,9 +13904,10 @@
       <c r="C309" s="32"/>
       <c r="D309" s="51"/>
       <c r="E309" s="42"/>
-      <c r="F309" s="112"/>
+      <c r="F309" s="119"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="119"/>
       <c r="B310" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B310" ca="1">IF(AND(C310&lt;&gt;"",E310&lt;&gt;"")=TRUE, CELL("row",B310)-18,"")</f>
         <v/>
@@ -13381,9 +13915,10 @@
       <c r="C310" s="32"/>
       <c r="D310" s="51"/>
       <c r="E310" s="42"/>
-      <c r="F310" s="112"/>
+      <c r="F310" s="119"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="119"/>
       <c r="B311" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B311" ca="1">IF(AND(C311&lt;&gt;"",E311&lt;&gt;"")=TRUE, CELL("row",B311)-18,"")</f>
         <v/>
@@ -13391,9 +13926,10 @@
       <c r="C311" s="32"/>
       <c r="D311" s="51"/>
       <c r="E311" s="42"/>
-      <c r="F311" s="112"/>
+      <c r="F311" s="119"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="119"/>
       <c r="B312" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B312" ca="1">IF(AND(C312&lt;&gt;"",E312&lt;&gt;"")=TRUE, CELL("row",B312)-18,"")</f>
         <v/>
@@ -13401,9 +13937,10 @@
       <c r="C312" s="32"/>
       <c r="D312" s="51"/>
       <c r="E312" s="42"/>
-      <c r="F312" s="112"/>
+      <c r="F312" s="119"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="119"/>
       <c r="B313" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B313" ca="1">IF(AND(C313&lt;&gt;"",E313&lt;&gt;"")=TRUE, CELL("row",B313)-18,"")</f>
         <v/>
@@ -13411,9 +13948,10 @@
       <c r="C313" s="32"/>
       <c r="D313" s="51"/>
       <c r="E313" s="42"/>
-      <c r="F313" s="112"/>
+      <c r="F313" s="119"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="119"/>
       <c r="B314" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B314" ca="1">IF(AND(C314&lt;&gt;"",E314&lt;&gt;"")=TRUE, CELL("row",B314)-18,"")</f>
         <v/>
@@ -13421,9 +13959,10 @@
       <c r="C314" s="32"/>
       <c r="D314" s="51"/>
       <c r="E314" s="42"/>
-      <c r="F314" s="112"/>
+      <c r="F314" s="119"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="112"/>
       <c r="B315" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B315" ca="1">IF(AND(C315&lt;&gt;"",E315&lt;&gt;"")=TRUE, CELL("row",B315)-18,"")</f>
         <v/>
@@ -13431,9 +13970,10 @@
       <c r="C315" s="32"/>
       <c r="D315" s="51"/>
       <c r="E315" s="42"/>
-      <c r="F315" s="113"/>
+      <c r="F315" s="112"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="119"/>
       <c r="B316" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B316" ca="1">IF(AND(C316&lt;&gt;"",E316&lt;&gt;"")=TRUE, CELL("row",B316)-18,"")</f>
         <v/>
@@ -13441,9 +13981,10 @@
       <c r="C316" s="32"/>
       <c r="D316" s="51"/>
       <c r="E316" s="42"/>
-      <c r="F316" s="112"/>
+      <c r="F316" s="119"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="119"/>
       <c r="B317" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B317" ca="1">IF(AND(C317&lt;&gt;"",E317&lt;&gt;"")=TRUE, CELL("row",B317)-18,"")</f>
         <v/>
@@ -13451,9 +13992,10 @@
       <c r="C317" s="32"/>
       <c r="D317" s="51"/>
       <c r="E317" s="42"/>
-      <c r="F317" s="112"/>
+      <c r="F317" s="119"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="119"/>
       <c r="B318" s="31" t="str" cm="1">
         <f t="array" aca="1" ref="B318" ca="1">IF(AND(C318&lt;&gt;"",E318&lt;&gt;"")=TRUE, CELL("row",B318)-18,"")</f>
         <v/>
@@ -13461,11 +14003,11 @@
       <c r="C318" s="32"/>
       <c r="D318" s="51"/>
       <c r="E318" s="42"/>
-      <c r="F318" s="112"/>
+      <c r="F318" s="119"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A319" s="8" t="s">
-        <v>136</v>
+      <c r="A319" s="119" t="s">
+        <v>135</v>
       </c>
       <c r="B319" s="50">
         <f ca="1">COUNTIF(B19:B318, "")</f>
@@ -13483,16 +14025,17 @@
         <f>COUNTIF(E19:E318, "")</f>
         <v>219</v>
       </c>
-      <c r="F319" s="112" t="s">
-        <v>136</v>
+      <c r="F319" s="119" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="119"/>
       <c r="B320" s="4"/>
       <c r="C320" s="30"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
-      <c r="F320" s="112"/>
+      <c r="F320" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -13591,41 +14134,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="126" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="128" t="s">
+      <c r="B3" s="125" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="127" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="126"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -13636,7 +14179,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>4</v>
@@ -13667,7 +14210,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="17">
         <v>44281</v>
@@ -13715,10 +14258,10 @@
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="106" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="17">
         <v>44282</v>
@@ -13766,10 +14309,10 @@
     <row r="7" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="17">
         <v>44283</v>
@@ -13815,10 +14358,10 @@
     <row r="8" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="106" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="17">
         <v>44284</v>
@@ -13869,16 +14412,16 @@
       <c r="C9" s="71"/>
       <c r="D9" s="69"/>
       <c r="E9" s="70"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
       <c r="K9" s="61"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="113"/>
+      <c r="O9" s="113"/>
       <c r="P9" s="61"/>
       <c r="Q9" s="59"/>
     </row>
@@ -13942,44 +14485,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="138" t="str">
+      <c r="D2" s="137" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v>Data Research Labs</v>
       </c>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="137" t="str" cm="1">
+      <c r="N2" s="136" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
         <v>R4</v>
       </c>
-      <c r="O2" s="137"/>
+      <c r="O2" s="136"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -13987,22 +14530,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="137" t="str">
+      <c r="D3" s="136" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v>My Test Case Manager (self-test)</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="137" t="str">
+      <c r="N3" s="136" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v>Matt Pierce</v>
       </c>
-      <c r="O3" s="137"/>
+      <c r="O3" s="136"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14012,11 +14555,11 @@
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="138">
+      <c r="N4" s="137">
         <f>SUM(C14:G14)</f>
         <v>74</v>
       </c>
-      <c r="O4" s="138"/>
+      <c r="O4" s="137"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14026,34 +14569,34 @@
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="138">
+      <c r="N5" s="137">
         <f>SUM(K14:M14)</f>
         <v>14</v>
       </c>
-      <c r="O5" s="138"/>
+      <c r="O5" s="137"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="132" t="str">
+      <c r="B7" s="131" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="134"/>
-      <c r="J7" s="132" t="str">
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+      <c r="J7" s="131" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="134"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="133"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -14143,8 +14686,8 @@
       <c r="E13" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="116" t="s">
-        <v>135</v>
+      <c r="F13" s="114" t="s">
+        <v>134</v>
       </c>
       <c r="G13" s="99" t="s">
         <v>4</v>
@@ -14230,49 +14773,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="132" t="str">
+      <c r="B17" s="131" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="133"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="133"/>
-      <c r="H17" s="134"/>
-      <c r="J17" s="132" t="str">
+      <c r="C17" s="132"/>
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+      <c r="J17" s="131" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="134"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="133"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="132" t="str">
+      <c r="B29" s="131" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="134"/>
-      <c r="J29" s="132" t="str">
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="133"/>
+      <c r="J29" s="131" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="134"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="133"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -14405,254 +14948,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
-      <c r="O42" s="134"/>
+      <c r="C42" s="132"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="132"/>
+      <c r="L42" s="132"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="133"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="136" t="s">
+      <c r="C43" s="135" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="136"/>
-      <c r="N43" s="136"/>
-      <c r="O43" s="136"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="135"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="120"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="130"/>
-      <c r="E44" s="130"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="130"/>
-      <c r="I44" s="130"/>
-      <c r="J44" s="130"/>
-      <c r="K44" s="130"/>
-      <c r="L44" s="130"/>
-      <c r="M44" s="130"/>
-      <c r="N44" s="130"/>
-      <c r="O44" s="131"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="129"/>
+      <c r="N44" s="129"/>
+      <c r="O44" s="130"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="120"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="130"/>
-      <c r="E45" s="130"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="130"/>
-      <c r="I45" s="130"/>
-      <c r="J45" s="130"/>
-      <c r="K45" s="130"/>
-      <c r="L45" s="130"/>
-      <c r="M45" s="130"/>
-      <c r="N45" s="130"/>
-      <c r="O45" s="131"/>
+      <c r="B45" s="116"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="129"/>
+      <c r="M45" s="129"/>
+      <c r="N45" s="129"/>
+      <c r="O45" s="130"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="120"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="130"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="130"/>
-      <c r="I46" s="130"/>
-      <c r="J46" s="130"/>
-      <c r="K46" s="130"/>
-      <c r="L46" s="130"/>
-      <c r="M46" s="130"/>
-      <c r="N46" s="130"/>
-      <c r="O46" s="131"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="129"/>
+      <c r="N46" s="129"/>
+      <c r="O46" s="130"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
-      <c r="B47" s="144"/>
-      <c r="C47" s="129"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="130"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="130"/>
-      <c r="I47" s="130"/>
-      <c r="J47" s="130"/>
-      <c r="K47" s="130"/>
-      <c r="L47" s="130"/>
-      <c r="M47" s="130"/>
-      <c r="N47" s="130"/>
-      <c r="O47" s="131"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="129"/>
+      <c r="N47" s="129"/>
+      <c r="O47" s="130"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
-      <c r="B48" s="121"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="130"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="130"/>
-      <c r="I48" s="130"/>
-      <c r="J48" s="130"/>
-      <c r="K48" s="130"/>
-      <c r="L48" s="130"/>
-      <c r="M48" s="130"/>
-      <c r="N48" s="130"/>
-      <c r="O48" s="131"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="130"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="133"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
-      <c r="J50" s="133"/>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="133"/>
-      <c r="O50" s="134"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="132"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="132"/>
+      <c r="L50" s="132"/>
+      <c r="M50" s="132"/>
+      <c r="N50" s="132"/>
+      <c r="O50" s="133"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="135" t="s">
+      <c r="C51" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="135"/>
-      <c r="H51" s="135"/>
-      <c r="I51" s="135"/>
-      <c r="J51" s="135"/>
-      <c r="K51" s="135"/>
-      <c r="L51" s="135"/>
-      <c r="M51" s="135"/>
-      <c r="N51" s="135"/>
-      <c r="O51" s="135"/>
+      <c r="D51" s="134"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
+      <c r="L51" s="134"/>
+      <c r="M51" s="134"/>
+      <c r="N51" s="134"/>
+      <c r="O51" s="134"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="120"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="130"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="130"/>
-      <c r="K52" s="130"/>
-      <c r="L52" s="130"/>
-      <c r="M52" s="130"/>
-      <c r="N52" s="130"/>
-      <c r="O52" s="131"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
+      <c r="N52" s="129"/>
+      <c r="O52" s="130"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="120"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="130"/>
-      <c r="E53" s="130"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="130"/>
-      <c r="J53" s="130"/>
-      <c r="K53" s="130"/>
-      <c r="L53" s="130"/>
-      <c r="M53" s="130"/>
-      <c r="N53" s="130"/>
-      <c r="O53" s="131"/>
+      <c r="B53" s="116"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
+      <c r="N53" s="129"/>
+      <c r="O53" s="130"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="120"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="130"/>
-      <c r="I54" s="130"/>
-      <c r="J54" s="130"/>
-      <c r="K54" s="130"/>
-      <c r="L54" s="130"/>
-      <c r="M54" s="130"/>
-      <c r="N54" s="130"/>
-      <c r="O54" s="131"/>
+      <c r="B54" s="116"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
+      <c r="L54" s="129"/>
+      <c r="M54" s="129"/>
+      <c r="N54" s="129"/>
+      <c r="O54" s="130"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
-      <c r="B55" s="144"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="130"/>
-      <c r="E55" s="130"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="130"/>
-      <c r="I55" s="130"/>
-      <c r="J55" s="130"/>
-      <c r="K55" s="130"/>
-      <c r="L55" s="130"/>
-      <c r="M55" s="130"/>
-      <c r="N55" s="130"/>
-      <c r="O55" s="131"/>
+      <c r="B55" s="118"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="129"/>
+      <c r="E55" s="129"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="129"/>
+      <c r="I55" s="129"/>
+      <c r="J55" s="129"/>
+      <c r="K55" s="129"/>
+      <c r="L55" s="129"/>
+      <c r="M55" s="129"/>
+      <c r="N55" s="129"/>
+      <c r="O55" s="130"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
-      <c r="B56" s="121"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="131"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="129"/>
+      <c r="E56" s="129"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
+      <c r="L56" s="129"/>
+      <c r="M56" s="129"/>
+      <c r="N56" s="129"/>
+      <c r="O56" s="130"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -14661,130 +15204,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="133"/>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="133"/>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="133"/>
-      <c r="K58" s="133"/>
-      <c r="L58" s="133"/>
-      <c r="M58" s="133"/>
-      <c r="N58" s="133"/>
-      <c r="O58" s="134"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="133"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="135"/>
-      <c r="G59" s="135"/>
-      <c r="H59" s="135"/>
-      <c r="I59" s="135"/>
-      <c r="J59" s="135"/>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135"/>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
-      <c r="O59" s="135"/>
+      <c r="D59" s="134"/>
+      <c r="E59" s="134"/>
+      <c r="F59" s="134"/>
+      <c r="G59" s="134"/>
+      <c r="H59" s="134"/>
+      <c r="I59" s="134"/>
+      <c r="J59" s="134"/>
+      <c r="K59" s="134"/>
+      <c r="L59" s="134"/>
+      <c r="M59" s="134"/>
+      <c r="N59" s="134"/>
+      <c r="O59" s="134"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="120"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="130"/>
-      <c r="M60" s="130"/>
-      <c r="N60" s="130"/>
-      <c r="O60" s="131"/>
+      <c r="B60" s="116"/>
+      <c r="C60" s="128"/>
+      <c r="D60" s="129"/>
+      <c r="E60" s="129"/>
+      <c r="F60" s="129"/>
+      <c r="G60" s="129"/>
+      <c r="H60" s="129"/>
+      <c r="I60" s="129"/>
+      <c r="J60" s="129"/>
+      <c r="K60" s="129"/>
+      <c r="L60" s="129"/>
+      <c r="M60" s="129"/>
+      <c r="N60" s="129"/>
+      <c r="O60" s="130"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="120"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
-      <c r="M61" s="130"/>
-      <c r="N61" s="130"/>
-      <c r="O61" s="131"/>
+      <c r="B61" s="116"/>
+      <c r="C61" s="128"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="129"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="129"/>
+      <c r="J61" s="129"/>
+      <c r="K61" s="129"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="130"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="120"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
-      <c r="M62" s="130"/>
-      <c r="N62" s="130"/>
-      <c r="O62" s="131"/>
+      <c r="B62" s="116"/>
+      <c r="C62" s="128"/>
+      <c r="D62" s="129"/>
+      <c r="E62" s="129"/>
+      <c r="F62" s="129"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="129"/>
+      <c r="I62" s="129"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="129"/>
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="130"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
-      <c r="B63" s="144"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="130"/>
-      <c r="M63" s="130"/>
-      <c r="N63" s="130"/>
-      <c r="O63" s="131"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="128"/>
+      <c r="D63" s="129"/>
+      <c r="E63" s="129"/>
+      <c r="F63" s="129"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="129"/>
+      <c r="I63" s="129"/>
+      <c r="J63" s="129"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="130"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
-      <c r="B64" s="121"/>
-      <c r="C64" s="129"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="130"/>
-      <c r="M64" s="130"/>
-      <c r="N64" s="130"/>
-      <c r="O64" s="131"/>
+      <c r="B64" s="117"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="129"/>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="129"/>
+      <c r="J64" s="129"/>
+      <c r="K64" s="129"/>
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="130"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -14884,11 +15427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D26181B-D78B-4108-8079-DC823ADE7B2B}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219C6488-1DAA-4551-83F9-B5C0CA1B377F}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14915,7 +15458,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="140" t="s">
+      <c r="E2" s="139" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="12"/>
@@ -14925,7 +15468,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="140"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -14934,7 +15477,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -14965,25 +15508,25 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
-      <c r="C8" s="117" t="s">
+      <c r="C8" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="143"/>
+      <c r="E8" s="141"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="117" t="s">
+      <c r="C9" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="143"/>
+      <c r="D9" s="141" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="141"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -14998,18 +15541,18 @@
       <c r="A11" s="59"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="142"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15024,18 +15567,18 @@
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="142"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="141" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
+      <c r="B15" s="140" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15047,43 +15590,54 @@
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="59"/>
+      <c r="A17" s="144"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="144"/>
     </row>
     <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="141" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="59"/>
-    </row>
-    <row r="19" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
+      <c r="A18" s="144"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="144"/>
+    </row>
+    <row r="19" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="144"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="144"/>
+    </row>
+    <row r="20" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="144"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="149">
+        <f ca="1">TODAY()</f>
+        <v>44289</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B12:E12"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{015FA7D6-A637-4936-ACB1-3173D4C16A0A}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{E6A4B236-25DA-426B-9FDF-1BAAAB43631F}"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{5A2BA084-58FD-46A3-BEB4-74D7F421E0D5}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{BCDC191A-9F89-44A6-9213-D916DE8D3BF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15092,21 +15646,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007CF503AC9CD2F54BA0E19C8B35D80C21" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f804e1dfc7b5d27997e3a7d590482d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -15220,15 +15765,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -15243,7 +15789,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7123125C-4609-4D51-BFBF-97B888D91F93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15257,4 +15803,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/samples/mtcm_sample_1.xlsx
+++ b/samples/mtcm_sample_1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36531747-50E3-4505-BC2F-9E36F89DBF67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC557886-9321-44F5-AEBA-2033266866BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
   <si>
     <t>F</t>
   </si>
@@ -651,6 +651,12 @@
   </si>
   <si>
     <t xml:space="preserve"> v5.01.44289</t>
+  </si>
+  <si>
+    <t>Day #3 Testing</t>
+  </si>
+  <si>
+    <t>Day #4 Testing</t>
   </si>
 </sst>
 </file>
@@ -1722,6 +1728,23 @@
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="33" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1743,14 +1766,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1767,20 +1790,17 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1788,23 +1808,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="27" fillId="18" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="33" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -9782,10 +9788,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="121"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9856,7 +9862,7 @@
   <dimension ref="A1:L320"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9897,13 +9903,13 @@
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="122" t="s">
+      <c r="G2" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="124"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="131"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10180,12 +10186,12 @@
       <c r="A17" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="122" t="s">
+      <c r="B17" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="119" t="s">
         <v>135</v>
       </c>
@@ -14075,7 +14081,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14134,41 +14140,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="132" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127" t="s">
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="125"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="132"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -14312,7 +14318,7 @@
         <v>98</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D7" s="17">
         <v>44283</v>
@@ -14361,7 +14367,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="D8" s="17">
         <v>44284</v>
@@ -14485,44 +14491,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
-      <c r="H1" s="138"/>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
-      <c r="N1" s="138"/>
-      <c r="O1" s="138"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
+      <c r="M1" s="137"/>
+      <c r="N1" s="137"/>
+      <c r="O1" s="137"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="137" t="str">
+      <c r="D2" s="136" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v>Data Research Labs</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="136" t="str" cm="1">
+      <c r="N2" s="135" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
         <v>R4</v>
       </c>
-      <c r="O2" s="136"/>
+      <c r="O2" s="135"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14530,22 +14536,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="136" t="str">
+      <c r="D3" s="135" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v>My Test Case Manager (self-test)</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="136" t="str">
+      <c r="N3" s="135" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v>Matt Pierce</v>
       </c>
-      <c r="O3" s="136"/>
+      <c r="O3" s="135"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14555,11 +14561,11 @@
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="137">
+      <c r="N4" s="136">
         <f>SUM(C14:G14)</f>
         <v>74</v>
       </c>
-      <c r="O4" s="137"/>
+      <c r="O4" s="136"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14569,34 +14575,34 @@
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="137">
+      <c r="N5" s="136">
         <f>SUM(K14:M14)</f>
         <v>14</v>
       </c>
-      <c r="O5" s="137"/>
+      <c r="O5" s="136"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="131" t="str">
+      <c r="B7" s="138" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-      <c r="J7" s="131" t="str">
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="140"/>
+      <c r="J7" s="138" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="K7" s="132"/>
-      <c r="L7" s="132"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="133"/>
+      <c r="K7" s="139"/>
+      <c r="L7" s="139"/>
+      <c r="M7" s="139"/>
+      <c r="N7" s="139"/>
+      <c r="O7" s="140"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -14773,49 +14779,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="131" t="str">
+      <c r="B17" s="138" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-      <c r="J17" s="131" t="str">
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="140"/>
+      <c r="J17" s="138" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="133"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="140"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="131" t="str">
+      <c r="B29" s="138" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="133"/>
-      <c r="J29" s="131" t="str">
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="140"/>
+      <c r="J29" s="138" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="133"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="140"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -14948,254 +14954,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="133"/>
+      <c r="C42" s="139"/>
+      <c r="D42" s="139"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="140"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="135" t="s">
+      <c r="C43" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="135"/>
-      <c r="F43" s="135"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="135"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="142"/>
+      <c r="N43" s="142"/>
+      <c r="O43" s="142"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="116"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="129"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129"/>
-      <c r="H44" s="129"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="129"/>
-      <c r="K44" s="129"/>
-      <c r="L44" s="129"/>
-      <c r="M44" s="129"/>
-      <c r="N44" s="129"/>
-      <c r="O44" s="130"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="145"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="116"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="130"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="145"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="116"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="130"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="145"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="118"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="130"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="145"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="117"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="129"/>
-      <c r="L48" s="129"/>
-      <c r="M48" s="129"/>
-      <c r="N48" s="129"/>
-      <c r="O48" s="130"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="144"/>
+      <c r="N48" s="144"/>
+      <c r="O48" s="145"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="131" t="s">
+      <c r="B50" s="138" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="133"/>
+      <c r="C50" s="139"/>
+      <c r="D50" s="139"/>
+      <c r="E50" s="139"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="139"/>
+      <c r="I50" s="139"/>
+      <c r="J50" s="139"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="140"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="134" t="s">
+      <c r="C51" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
-      <c r="O51" s="134"/>
+      <c r="D51" s="141"/>
+      <c r="E51" s="141"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="141"/>
+      <c r="J51" s="141"/>
+      <c r="K51" s="141"/>
+      <c r="L51" s="141"/>
+      <c r="M51" s="141"/>
+      <c r="N51" s="141"/>
+      <c r="O51" s="141"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="116"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="130"/>
+      <c r="C52" s="143"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="145"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="116"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="130"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="145"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="116"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
-      <c r="L54" s="129"/>
-      <c r="M54" s="129"/>
-      <c r="N54" s="129"/>
-      <c r="O54" s="130"/>
+      <c r="C54" s="143"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
+      <c r="M54" s="144"/>
+      <c r="N54" s="144"/>
+      <c r="O54" s="145"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="118"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="130"/>
+      <c r="C55" s="143"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
+      <c r="M55" s="144"/>
+      <c r="N55" s="144"/>
+      <c r="O55" s="145"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="117"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
-      <c r="L56" s="129"/>
-      <c r="M56" s="129"/>
-      <c r="N56" s="129"/>
-      <c r="O56" s="130"/>
+      <c r="C56" s="143"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="144"/>
+      <c r="N56" s="144"/>
+      <c r="O56" s="145"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -15204,130 +15210,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="131" t="s">
+      <c r="B58" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="133"/>
+      <c r="C58" s="139"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+      <c r="M58" s="139"/>
+      <c r="N58" s="139"/>
+      <c r="O58" s="140"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="134" t="s">
+      <c r="C59" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="134"/>
-      <c r="E59" s="134"/>
-      <c r="F59" s="134"/>
-      <c r="G59" s="134"/>
-      <c r="H59" s="134"/>
-      <c r="I59" s="134"/>
-      <c r="J59" s="134"/>
-      <c r="K59" s="134"/>
-      <c r="L59" s="134"/>
-      <c r="M59" s="134"/>
-      <c r="N59" s="134"/>
-      <c r="O59" s="134"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+      <c r="K59" s="141"/>
+      <c r="L59" s="141"/>
+      <c r="M59" s="141"/>
+      <c r="N59" s="141"/>
+      <c r="O59" s="141"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="116"/>
-      <c r="C60" s="128"/>
-      <c r="D60" s="129"/>
-      <c r="E60" s="129"/>
-      <c r="F60" s="129"/>
-      <c r="G60" s="129"/>
-      <c r="H60" s="129"/>
-      <c r="I60" s="129"/>
-      <c r="J60" s="129"/>
-      <c r="K60" s="129"/>
-      <c r="L60" s="129"/>
-      <c r="M60" s="129"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="130"/>
+      <c r="C60" s="143"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
+      <c r="M60" s="144"/>
+      <c r="N60" s="144"/>
+      <c r="O60" s="145"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="116"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="130"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
+      <c r="M61" s="144"/>
+      <c r="N61" s="144"/>
+      <c r="O61" s="145"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="116"/>
-      <c r="C62" s="128"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="129"/>
-      <c r="L62" s="129"/>
-      <c r="M62" s="129"/>
-      <c r="N62" s="129"/>
-      <c r="O62" s="130"/>
+      <c r="C62" s="143"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
+      <c r="M62" s="144"/>
+      <c r="N62" s="144"/>
+      <c r="O62" s="145"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="118"/>
-      <c r="C63" s="128"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
-      <c r="K63" s="129"/>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
-      <c r="N63" s="129"/>
-      <c r="O63" s="130"/>
+      <c r="C63" s="143"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
+      <c r="M63" s="144"/>
+      <c r="N63" s="144"/>
+      <c r="O63" s="145"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="117"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
-      <c r="I64" s="129"/>
-      <c r="J64" s="129"/>
-      <c r="K64" s="129"/>
-      <c r="L64" s="129"/>
-      <c r="M64" s="129"/>
-      <c r="N64" s="129"/>
-      <c r="O64" s="130"/>
+      <c r="C64" s="143"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
+      <c r="M64" s="144"/>
+      <c r="N64" s="144"/>
+      <c r="O64" s="145"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -15385,13 +15391,17 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -15408,17 +15418,13 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -15458,7 +15464,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="146" t="s">
         <v>30</v>
       </c>
       <c r="F2" s="12"/>
@@ -15468,7 +15474,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="139"/>
+      <c r="E3" s="146"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -15511,10 +15517,10 @@
       <c r="C8" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="141"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15523,10 +15529,10 @@
       <c r="C9" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="141"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15542,17 +15548,17 @@
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="59"/>
-      <c r="E11" s="142"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15568,17 +15574,17 @@
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="142"/>
+      <c r="E14" s="121"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
@@ -15590,39 +15596,39 @@
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="144"/>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="144"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="122"/>
     </row>
     <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="144"/>
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="144"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="122"/>
     </row>
     <row r="19" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="144"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="144"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="122"/>
     </row>
     <row r="20" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="144"/>
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="149">
+      <c r="E21" s="127">
         <f ca="1">TODAY()</f>
         <v>44289</v>
       </c>
@@ -15646,12 +15652,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007CF503AC9CD2F54BA0E19C8B35D80C21" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f804e1dfc7b5d27997e3a7d590482d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -15765,6 +15765,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -15775,21 +15781,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7123125C-4609-4D51-BFBF-97B888D91F93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15805,6 +15796,21 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
   <ds:schemaRefs>

--- a/samples/mtcm_sample_1.xlsx
+++ b/samples/mtcm_sample_1.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC557886-9321-44F5-AEBA-2033266866BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F316A412-5DD4-4B3C-A45A-1A87692B2B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25116" yWindow="1368" windowWidth="12984" windowHeight="10212" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="36" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="34" r:id="rId2"/>
     <sheet name="Test Run Log" sheetId="35" r:id="rId3"/>
     <sheet name="Report" sheetId="1" r:id="rId4"/>
-    <sheet name="About" sheetId="38" r:id="rId5"/>
+    <sheet name="About" sheetId="39" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$B$18:$E$319</definedName>
@@ -650,13 +650,13 @@
     <t>▪</t>
   </si>
   <si>
-    <t xml:space="preserve"> v5.01.44289</t>
-  </si>
-  <si>
     <t>Day #3 Testing</t>
   </si>
   <si>
     <t>Day #4 Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> v5.01.44294</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1436,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1728,9 +1728,6 @@
     <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1745,6 +1742,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="33" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1766,14 +1769,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1790,17 +1793,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1808,8 +1808,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9194,23 +9197,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3036024</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514896</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFBB2022-CA7A-4806-AA4F-0D581BB3BEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16119A88-4E83-4911-966B-B82380E3F6A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9233,7 +9236,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="4041864" y="60960"/>
           <a:ext cx="1223556" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9257,13 +9260,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>112644</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>338051</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>40871</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>33132</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9271,7 +9274,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F16D1-D1BE-4376-9662-CCFAFD057AB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A53405-43F6-4675-865E-BA2C221357D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9294,7 +9297,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="112644" y="2491742"/>
+          <a:off x="112644" y="2446022"/>
           <a:ext cx="934067" cy="947530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9316,16 +9319,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514844</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3975</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>217665</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2948939</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9333,7 +9336,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F321C4-7663-45F4-A3D6-A344C833B290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D368F32-6B28-46FE-AEB4-6093E2F05EC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9341,8 +9344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1223504" y="2495715"/>
-          <a:ext cx="2959875" cy="529425"/>
+          <a:off x="1223505" y="2446020"/>
+          <a:ext cx="2952255" cy="529425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9439,6 +9442,67 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>253746</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA56A91-4B84-4B27-A077-F99C1EAA56DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="962406" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9788,10 +9852,10 @@
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="128"/>
+      <c r="C2" s="129"/>
       <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -9861,7 +9925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EC35F8-1315-4AD0-BB4E-D826F75C5B55}">
   <dimension ref="A1:L320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -9903,13 +9967,13 @@
       <c r="D2" s="64"/>
       <c r="E2" s="64"/>
       <c r="F2" s="119"/>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132"/>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -10186,12 +10250,12 @@
       <c r="A17" s="119" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="129" t="s">
+      <c r="B17" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
       <c r="F17" s="119" t="s">
         <v>135</v>
       </c>
@@ -14140,41 +14204,41 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="134" t="s">
+      <c r="D3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="132" t="s">
+      <c r="E3" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="134" t="s">
+      <c r="F3" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134" t="s">
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
+      <c r="M3" s="135"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="135"/>
+      <c r="P3" s="135"/>
       <c r="Q3" s="13"/>
     </row>
     <row r="4" spans="1:17" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="132"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="35" t="s">
         <v>18</v>
       </c>
@@ -14318,7 +14382,7 @@
         <v>98</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="17">
         <v>44283</v>
@@ -14367,7 +14431,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D8" s="17">
         <v>44284</v>
@@ -14491,44 +14555,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
       <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="136" t="str">
+      <c r="D2" s="145" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
         <v>Data Research Labs</v>
       </c>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
       <c r="M2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="135" t="str" cm="1">
+      <c r="N2" s="144" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
         <v>R4</v>
       </c>
-      <c r="O2" s="135"/>
+      <c r="O2" s="144"/>
       <c r="Q2" s="95"/>
     </row>
     <row r="3" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14536,22 +14600,22 @@
       <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="135" t="str">
+      <c r="D3" s="144" t="str">
         <f>IF(Properties!$C$6=0, "", Properties!$C$6)</f>
         <v>My Test Case Manager (self-test)</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
       <c r="M3" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="135" t="str">
+      <c r="N3" s="144" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
         <v>Matt Pierce</v>
       </c>
-      <c r="O3" s="135"/>
+      <c r="O3" s="144"/>
       <c r="Q3" s="95"/>
     </row>
     <row r="4" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14561,11 +14625,11 @@
       <c r="M4" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="N4" s="136">
+      <c r="N4" s="145">
         <f>SUM(C14:G14)</f>
         <v>74</v>
       </c>
-      <c r="O4" s="136"/>
+      <c r="O4" s="145"/>
       <c r="Q4" s="95"/>
     </row>
     <row r="5" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -14575,34 +14639,34 @@
       <c r="M5" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="N5" s="136">
+      <c r="N5" s="145">
         <f>SUM(K14:M14)</f>
         <v>14</v>
       </c>
-      <c r="O5" s="136"/>
+      <c r="O5" s="145"/>
       <c r="Q5" s="95"/>
     </row>
     <row r="6" spans="2:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="138" t="str">
+      <c r="B7" s="139" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>TEST CASE COUNTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="140"/>
-      <c r="J7" s="138" t="str">
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="141"/>
+      <c r="J7" s="139" t="str">
         <f xml:space="preserve"> "DEFECTS - SNAPSHOT @ " &amp; $N$2</f>
         <v>DEFECTS - SNAPSHOT @ R4</v>
       </c>
-      <c r="K7" s="139"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="139"/>
-      <c r="N7" s="139"/>
-      <c r="O7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="141"/>
       <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
@@ -14779,49 +14843,49 @@
       <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="138" t="str">
+      <c r="B17" s="139" t="str">
         <f xml:space="preserve"> "TEST CASE COUNTS - TREND"</f>
         <v>TEST CASE COUNTS - TREND</v>
       </c>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="140"/>
-      <c r="J17" s="138" t="str">
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="141"/>
+      <c r="J17" s="139" t="str">
         <f xml:space="preserve"> "DEFECTS - TREND"</f>
         <v>DEFECTS - TREND</v>
       </c>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="140"/>
+      <c r="K17" s="140"/>
+      <c r="L17" s="140"/>
+      <c r="M17" s="140"/>
+      <c r="N17" s="140"/>
+      <c r="O17" s="141"/>
     </row>
     <row r="28" spans="2:17" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="138" t="str">
+      <c r="B29" s="139" t="str">
         <f xml:space="preserve"> "TEST CASE EXEC TIME - TREND"</f>
         <v>TEST CASE EXEC TIME - TREND</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="140"/>
-      <c r="J29" s="138" t="str">
+      <c r="C29" s="140"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="141"/>
+      <c r="J29" s="139" t="str">
         <f xml:space="preserve"> "DEFECTS - RELEASABILITY"</f>
         <v>DEFECTS - RELEASABILITY</v>
       </c>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
+      <c r="K29" s="140"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="140"/>
+      <c r="N29" s="140"/>
+      <c r="O29" s="141"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B30" s="54"/>
@@ -14954,254 +15018,254 @@
     </row>
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
-      <c r="M42" s="139"/>
-      <c r="N42" s="139"/>
-      <c r="O42" s="140"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
+      <c r="K42" s="140"/>
+      <c r="L42" s="140"/>
+      <c r="M42" s="140"/>
+      <c r="N42" s="140"/>
+      <c r="O42" s="141"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
-      <c r="M43" s="142"/>
-      <c r="N43" s="142"/>
-      <c r="O43" s="142"/>
+      <c r="D43" s="143"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="143"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="143"/>
+      <c r="J43" s="143"/>
+      <c r="K43" s="143"/>
+      <c r="L43" s="143"/>
+      <c r="M43" s="143"/>
+      <c r="N43" s="143"/>
+      <c r="O43" s="143"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B44" s="116"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
-      <c r="M44" s="144"/>
-      <c r="N44" s="144"/>
-      <c r="O44" s="145"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="137"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="137"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="137"/>
+      <c r="K44" s="137"/>
+      <c r="L44" s="137"/>
+      <c r="M44" s="137"/>
+      <c r="N44" s="137"/>
+      <c r="O44" s="138"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B45" s="116"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
-      <c r="M45" s="144"/>
-      <c r="N45" s="144"/>
-      <c r="O45" s="145"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="137"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="137"/>
+      <c r="G45" s="137"/>
+      <c r="H45" s="137"/>
+      <c r="I45" s="137"/>
+      <c r="J45" s="137"/>
+      <c r="K45" s="137"/>
+      <c r="L45" s="137"/>
+      <c r="M45" s="137"/>
+      <c r="N45" s="137"/>
+      <c r="O45" s="138"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B46" s="116"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="145"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="137"/>
+      <c r="F46" s="137"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="137"/>
+      <c r="K46" s="137"/>
+      <c r="L46" s="137"/>
+      <c r="M46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="138"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="118"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
-      <c r="M47" s="144"/>
-      <c r="N47" s="144"/>
-      <c r="O47" s="145"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
+      <c r="M47" s="137"/>
+      <c r="N47" s="137"/>
+      <c r="O47" s="138"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="10"/>
       <c r="B48" s="117"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
-      <c r="M48" s="144"/>
-      <c r="N48" s="144"/>
-      <c r="O48" s="145"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="137"/>
+      <c r="E48" s="137"/>
+      <c r="F48" s="137"/>
+      <c r="G48" s="137"/>
+      <c r="H48" s="137"/>
+      <c r="I48" s="137"/>
+      <c r="J48" s="137"/>
+      <c r="K48" s="137"/>
+      <c r="L48" s="137"/>
+      <c r="M48" s="137"/>
+      <c r="N48" s="137"/>
+      <c r="O48" s="138"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49" s="4"/>
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="138" t="s">
+      <c r="B50" s="139" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="140"/>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="141"/>
       <c r="Q50" s="55"/>
     </row>
     <row r="51" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="141" t="s">
+      <c r="C51" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="141"/>
-      <c r="E51" s="141"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="141"/>
-      <c r="J51" s="141"/>
-      <c r="K51" s="141"/>
-      <c r="L51" s="141"/>
-      <c r="M51" s="141"/>
-      <c r="N51" s="141"/>
-      <c r="O51" s="141"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="142"/>
+      <c r="N51" s="142"/>
+      <c r="O51" s="142"/>
       <c r="Q51" s="55"/>
     </row>
     <row r="52" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B52" s="116"/>
-      <c r="C52" s="143"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
-      <c r="M52" s="144"/>
-      <c r="N52" s="144"/>
-      <c r="O52" s="145"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="G52" s="137"/>
+      <c r="H52" s="137"/>
+      <c r="I52" s="137"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="138"/>
       <c r="Q52" s="55"/>
     </row>
     <row r="53" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="116"/>
-      <c r="C53" s="143"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="144"/>
-      <c r="N53" s="144"/>
-      <c r="O53" s="145"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="137"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="137"/>
+      <c r="G53" s="137"/>
+      <c r="H53" s="137"/>
+      <c r="I53" s="137"/>
+      <c r="J53" s="137"/>
+      <c r="K53" s="137"/>
+      <c r="L53" s="137"/>
+      <c r="M53" s="137"/>
+      <c r="N53" s="137"/>
+      <c r="O53" s="138"/>
       <c r="Q53" s="55"/>
     </row>
     <row r="54" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B54" s="116"/>
-      <c r="C54" s="143"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
-      <c r="M54" s="144"/>
-      <c r="N54" s="144"/>
-      <c r="O54" s="145"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="137"/>
+      <c r="G54" s="137"/>
+      <c r="H54" s="137"/>
+      <c r="I54" s="137"/>
+      <c r="J54" s="137"/>
+      <c r="K54" s="137"/>
+      <c r="L54" s="137"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="137"/>
+      <c r="O54" s="138"/>
       <c r="Q54" s="55"/>
     </row>
     <row r="55" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="118"/>
-      <c r="C55" s="143"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="144"/>
-      <c r="M55" s="144"/>
-      <c r="N55" s="144"/>
-      <c r="O55" s="145"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
+      <c r="F55" s="137"/>
+      <c r="G55" s="137"/>
+      <c r="H55" s="137"/>
+      <c r="I55" s="137"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="137"/>
+      <c r="L55" s="137"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
+      <c r="O55" s="138"/>
       <c r="Q55" s="55"/>
     </row>
     <row r="56" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10"/>
       <c r="B56" s="117"/>
-      <c r="C56" s="143"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="144"/>
-      <c r="L56" s="144"/>
-      <c r="M56" s="144"/>
-      <c r="N56" s="144"/>
-      <c r="O56" s="145"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="137"/>
+      <c r="O56" s="138"/>
       <c r="Q56" s="55"/>
     </row>
     <row r="57" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
@@ -15210,130 +15274,130 @@
       <c r="Q57" s="55"/>
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="138" t="s">
+      <c r="B58" s="139" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="139"/>
-      <c r="D58" s="139"/>
-      <c r="E58" s="139"/>
-      <c r="F58" s="139"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="139"/>
-      <c r="I58" s="139"/>
-      <c r="J58" s="139"/>
-      <c r="K58" s="139"/>
-      <c r="L58" s="139"/>
-      <c r="M58" s="139"/>
-      <c r="N58" s="139"/>
-      <c r="O58" s="140"/>
+      <c r="C58" s="140"/>
+      <c r="D58" s="140"/>
+      <c r="E58" s="140"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="140"/>
+      <c r="O58" s="141"/>
       <c r="Q58" s="55"/>
     </row>
     <row r="59" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="141" t="s">
+      <c r="C59" s="142" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
-      <c r="L59" s="141"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="142"/>
+      <c r="J59" s="142"/>
+      <c r="K59" s="142"/>
+      <c r="L59" s="142"/>
+      <c r="M59" s="142"/>
+      <c r="N59" s="142"/>
+      <c r="O59" s="142"/>
       <c r="Q59" s="55"/>
     </row>
     <row r="60" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B60" s="116"/>
-      <c r="C60" s="143"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
-      <c r="M60" s="144"/>
-      <c r="N60" s="144"/>
-      <c r="O60" s="145"/>
+      <c r="C60" s="136"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
+      <c r="O60" s="138"/>
       <c r="Q60" s="55"/>
     </row>
     <row r="61" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="116"/>
-      <c r="C61" s="143"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="144"/>
-      <c r="M61" s="144"/>
-      <c r="N61" s="144"/>
-      <c r="O61" s="145"/>
+      <c r="C61" s="136"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
+      <c r="O61" s="138"/>
       <c r="Q61" s="55"/>
     </row>
     <row r="62" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B62" s="116"/>
-      <c r="C62" s="143"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="144"/>
-      <c r="N62" s="144"/>
-      <c r="O62" s="145"/>
+      <c r="C62" s="136"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="138"/>
       <c r="Q62" s="55"/>
     </row>
     <row r="63" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="118"/>
-      <c r="C63" s="143"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
-      <c r="M63" s="144"/>
-      <c r="N63" s="144"/>
-      <c r="O63" s="145"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="137"/>
+      <c r="N63" s="137"/>
+      <c r="O63" s="138"/>
       <c r="Q63" s="55"/>
     </row>
     <row r="64" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="10"/>
       <c r="B64" s="117"/>
-      <c r="C64" s="143"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="144"/>
-      <c r="M64" s="144"/>
-      <c r="N64" s="144"/>
-      <c r="O64" s="145"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="137"/>
+      <c r="O64" s="138"/>
       <c r="Q64" s="55"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -15391,17 +15455,13 @@
     <sortCondition descending="1" ref="B60"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="C60:O60"/>
-    <mergeCell ref="C61:O61"/>
-    <mergeCell ref="C62:O62"/>
-    <mergeCell ref="C63:O63"/>
-    <mergeCell ref="C64:O64"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="J17:O17"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="B58:O58"/>
     <mergeCell ref="C59:O59"/>
     <mergeCell ref="B42:O42"/>
@@ -15418,13 +15478,17 @@
     <mergeCell ref="C54:O54"/>
     <mergeCell ref="C55:O55"/>
     <mergeCell ref="C56:O56"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C61:O61"/>
+    <mergeCell ref="C62:O62"/>
+    <mergeCell ref="C63:O63"/>
+    <mergeCell ref="C64:O64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -15433,11 +15497,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219C6488-1DAA-4551-83F9-B5C0CA1B377F}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE676758-77EB-4B59-88DD-BEEA1E465CDA}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15445,205 +15509,218 @@
     <col min="1" max="1" width="1.77734375" style="58" customWidth="1"/>
     <col min="2" max="2" width="3.88671875" style="58" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" style="58" customWidth="1"/>
     <col min="5" max="5" width="46.21875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="58" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="58"/>
+    <col min="6" max="6" width="14.109375" style="58" customWidth="1"/>
+    <col min="7" max="7" width="1.77734375" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="146" t="s">
+      <c r="E2" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F2" s="127"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="146"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="149"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="59"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="115" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="147" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="E8" s="147"/>
-      <c r="F8" s="59"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="147"/>
+      <c r="G8" s="59"/>
+    </row>
+    <row r="9" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="147"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="59"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="59"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="148" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="59"/>
-    </row>
-    <row r="13" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="59"/>
-    </row>
-    <row r="14" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="59"/>
-    </row>
-    <row r="15" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="150"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="59"/>
+    </row>
+    <row r="15" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="149" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
       <c r="F15" s="59"/>
-    </row>
-    <row r="16" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="59"/>
-    </row>
-    <row r="17" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="121"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="121"/>
+    </row>
+    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="121"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
       <c r="E17" s="123"/>
-      <c r="F17" s="122"/>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="122"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="121"/>
+    </row>
+    <row r="18" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="121"/>
       <c r="B18" s="124"/>
       <c r="C18" s="124"/>
       <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="122"/>
-    </row>
-    <row r="19" spans="1:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="122"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="122"/>
-    </row>
-    <row r="20" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="122"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E21" s="127">
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="121"/>
+    </row>
+    <row r="19" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="121"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="126">
         <f ca="1">TODAY()</f>
-        <v>44289</v>
-      </c>
+        <v>44294</v>
+      </c>
+      <c r="F20" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{5A2BA084-58FD-46A3-BEB4-74D7F421E0D5}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{BCDC191A-9F89-44A6-9213-D916DE8D3BF3}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{874D142A-0038-42DA-A8B6-2DCDCC0CBA86}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{440F480C-E2FF-4F39-9CA3-4CD48BA6AAEE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -15652,6 +15729,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007CF503AC9CD2F54BA0E19C8B35D80C21" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f804e1dfc7b5d27997e3a7d590482d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -15765,33 +15857,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7123125C-4609-4D51-BFBF-97B888D91F93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -15812,9 +15881,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7123125C-4609-4D51-BFBF-97B888D91F93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/samples/mtcm_sample_1.xlsx
+++ b/samples/mtcm_sample_1.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F316A412-5DD4-4B3C-A45A-1A87692B2B51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1229AC-95A1-4A0D-9A57-E7699B79F2D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25116" yWindow="1368" windowWidth="12984" windowHeight="10212" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="36" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="34" r:id="rId2"/>
     <sheet name="Test Run Log" sheetId="35" r:id="rId3"/>
     <sheet name="Report" sheetId="1" r:id="rId4"/>
-    <sheet name="About" sheetId="39" r:id="rId5"/>
+    <sheet name="About" sheetId="41" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Cases'!$B$18:$E$319</definedName>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="141">
   <si>
     <t>F</t>
   </si>
@@ -145,18 +145,6 @@
     <t>Count</t>
   </si>
   <si>
-    <t>YouTube:</t>
-  </si>
-  <si>
-    <t>GitHub:</t>
-  </si>
-  <si>
-    <t>http://www.dataresearchlabs.com</t>
-  </si>
-  <si>
-    <t>(CC) 2021  -  Data Research Labs</t>
-  </si>
-  <si>
     <t>Company:</t>
   </si>
   <si>
@@ -236,31 +224,6 @@
   </si>
   <si>
     <t>Total Defects:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creative Commons License</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:  You are free to use, extend, and distribute this software.  The only request is that you mention Data Research Labs as an original contributor.</t>
-    </r>
   </si>
   <si>
     <t>Data Research Labs</t>
@@ -656,7 +619,50 @@
     <t>Day #4 Testing</t>
   </si>
   <si>
-    <t xml:space="preserve"> v5.01.44294</t>
+    <t>(CC0) 2021  -  Data Research Labs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creative Commons Zero License</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:  Effectively = Public Domain.  You are free to use, extend, and distribute this software.  The only request is that you mention Data Research Labs as an original contributor in whatever form you morph this into.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> v5.01.44299</t>
+  </si>
+  <si>
+    <t>Video Help:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLVHoUDdbskUSZQsl0iexHwRGb8Z7_EjlS</t>
+  </si>
+  <si>
+    <t>Online Help:</t>
+  </si>
+  <si>
+    <t>XL Trainnig:</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/playlist?list=PLVHoUDdbskUQXl0S6nS2QUMB69rrf1zcF</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1442,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1802,17 +1808,20 @@
     <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9197,14 +9206,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>3036024</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>111036</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
@@ -9213,7 +9222,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16119A88-4E83-4911-966B-B82380E3F6A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2297B5BC-A834-4161-8E84-38F6432E70C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9236,7 +9245,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4041864" y="60960"/>
+          <a:off x="4274820" y="60960"/>
           <a:ext cx="1223556" cy="853440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9259,22 +9268,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>112644</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>117493</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>40871</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33132</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A53405-43F6-4675-865E-BA2C221357D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501D740E-7168-45E2-A7C2-0FF9553DB561}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9297,7 +9306,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="112644" y="2446022"/>
+          <a:off x="117493" y="2773680"/>
           <a:ext cx="934067" cy="947530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9320,14 +9329,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217665</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>232905</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9336,7 +9345,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D368F32-6B28-46FE-AEB4-6093E2F05EC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11400595-595C-4B87-8C43-F1CBF65C2924}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9344,8 +9353,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1223505" y="2446020"/>
-          <a:ext cx="2952255" cy="529425"/>
+          <a:off x="1284465" y="2773680"/>
+          <a:ext cx="3318015" cy="529425"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9422,7 +9431,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> YouTube channel "www.DataResearchLabs.com"</a:t>
+            <a:t> YouTube channel "www.DataResearchLabs.com" for tools and training</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1">
@@ -9453,7 +9462,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>253746</xdr:colOff>
+      <xdr:colOff>208026</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9462,7 +9471,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CA56A91-4B84-4B27-A077-F99C1EAA56DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB34732C-E9AC-4D88-AF02-B94571289BAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9853,7 +9862,7 @@
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="59"/>
       <c r="B2" s="129" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" s="129"/>
       <c r="D2" s="59"/>
@@ -9867,10 +9876,10 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="59"/>
       <c r="B4" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D4" s="59"/>
     </row>
@@ -9886,7 +9895,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D6" s="59"/>
     </row>
@@ -9899,10 +9908,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" s="90" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="59"/>
     </row>
@@ -9968,7 +9977,7 @@
       <c r="E2" s="64"/>
       <c r="F2" s="119"/>
       <c r="G2" s="130" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2" s="131"/>
       <c r="I2" s="131"/>
@@ -10090,10 +10099,10 @@
       <c r="E8" s="64"/>
       <c r="F8" s="119"/>
       <c r="G8" s="68" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I8" s="66">
         <f t="shared" si="0"/>
@@ -10134,10 +10143,10 @@
       <c r="E10" s="64"/>
       <c r="F10" s="119"/>
       <c r="G10" s="43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I10" s="26">
         <f t="shared" si="0"/>
@@ -10248,23 +10257,23 @@
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
       <c r="E17" s="132"/>
       <c r="F17" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="119"/>
       <c r="B18" s="47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="47" t="s">
         <v>21</v>
@@ -10280,7 +10289,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="112" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B19" s="31" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">IF(AND(C19&lt;&gt;"",E19&lt;&gt;"")=TRUE, CELL("row",B19)-18,"")</f>
@@ -10290,10 +10299,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E19" s="110" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F19" s="112"/>
       <c r="G19" s="64"/>
@@ -10308,10 +10317,10 @@
         <v>1</v>
       </c>
       <c r="D20" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F20" s="112"/>
     </row>
@@ -10325,10 +10334,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F21" s="112"/>
     </row>
@@ -10342,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F22" s="112"/>
     </row>
@@ -10359,10 +10368,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F23" s="112"/>
     </row>
@@ -10376,10 +10385,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F24" s="119"/>
     </row>
@@ -10393,10 +10402,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F25" s="119"/>
     </row>
@@ -10410,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F26" s="119"/>
     </row>
@@ -10427,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F27" s="119"/>
     </row>
@@ -10444,10 +10453,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F28" s="119"/>
     </row>
@@ -10508,7 +10517,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B34" s="31" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">IF(AND(C34&lt;&gt;"",E34&lt;&gt;"")=TRUE, CELL("row",B34)-18,"")</f>
@@ -10518,10 +10527,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E34" s="110" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F34" s="119"/>
     </row>
@@ -10535,10 +10544,10 @@
         <v>1</v>
       </c>
       <c r="D35" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F35" s="119"/>
     </row>
@@ -10552,10 +10561,10 @@
         <v>1</v>
       </c>
       <c r="D36" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F36" s="112"/>
     </row>
@@ -10569,10 +10578,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F37" s="119"/>
     </row>
@@ -10586,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F38" s="119"/>
     </row>
@@ -10603,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F39" s="119"/>
     </row>
@@ -10620,10 +10629,10 @@
         <v>1</v>
       </c>
       <c r="D40" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F40" s="119"/>
     </row>
@@ -10637,10 +10646,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F41" s="119"/>
     </row>
@@ -10654,10 +10663,10 @@
         <v>1</v>
       </c>
       <c r="D42" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F42" s="119"/>
     </row>
@@ -10671,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F43" s="119"/>
     </row>
@@ -10688,10 +10697,10 @@
         <v>1</v>
       </c>
       <c r="D44" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F44" s="119"/>
     </row>
@@ -10705,10 +10714,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F45" s="119"/>
     </row>
@@ -10722,10 +10731,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F46" s="119"/>
     </row>
@@ -10739,10 +10748,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F47" s="119"/>
     </row>
@@ -10756,10 +10765,10 @@
         <v>1</v>
       </c>
       <c r="D48" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F48" s="119"/>
     </row>
@@ -10773,10 +10782,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F49" s="119"/>
     </row>
@@ -10790,10 +10799,10 @@
         <v>1</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F50" s="119"/>
     </row>
@@ -10807,10 +10816,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F51" s="119"/>
     </row>
@@ -10824,10 +10833,10 @@
         <v>1</v>
       </c>
       <c r="D52" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F52" s="119"/>
     </row>
@@ -10841,10 +10850,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F53" s="119"/>
     </row>
@@ -10858,10 +10867,10 @@
         <v>1</v>
       </c>
       <c r="D54" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F54" s="119"/>
     </row>
@@ -10875,10 +10884,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F55" s="119"/>
     </row>
@@ -10892,10 +10901,10 @@
         <v>1</v>
       </c>
       <c r="D56" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F56" s="119"/>
     </row>
@@ -10909,10 +10918,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F57" s="119"/>
     </row>
@@ -10926,10 +10935,10 @@
         <v>1</v>
       </c>
       <c r="D58" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F58" s="119"/>
     </row>
@@ -10943,10 +10952,10 @@
         <v>1</v>
       </c>
       <c r="D59" s="109" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E59" s="42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F59" s="119"/>
     </row>
@@ -10960,10 +10969,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E60" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F60" s="119"/>
     </row>
@@ -10980,7 +10989,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F61" s="119"/>
     </row>
@@ -10997,7 +11006,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F62" s="119"/>
     </row>
@@ -11014,7 +11023,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F63" s="119"/>
     </row>
@@ -11053,7 +11062,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B67" s="31" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">IF(AND(C67&lt;&gt;"",E67&lt;&gt;"")=TRUE, CELL("row",B67)-18,"")</f>
@@ -11063,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E67" s="110" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F67" s="119"/>
     </row>
@@ -11080,10 +11089,10 @@
         <v>1</v>
       </c>
       <c r="D68" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E68" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F68" s="119"/>
     </row>
@@ -11097,10 +11106,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E69" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F69" s="119"/>
     </row>
@@ -11114,10 +11123,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F70" s="119"/>
     </row>
@@ -11134,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F71" s="119"/>
     </row>
@@ -11151,7 +11160,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F72" s="119"/>
     </row>
@@ -11168,7 +11177,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F73" s="119"/>
     </row>
@@ -11182,10 +11191,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F74" s="119"/>
     </row>
@@ -11199,10 +11208,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E75" s="42" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F75" s="119"/>
     </row>
@@ -11216,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F76" s="119"/>
     </row>
@@ -11236,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F77" s="119"/>
     </row>
@@ -11253,7 +11262,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F78" s="119"/>
     </row>
@@ -11270,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F79" s="119"/>
     </row>
@@ -11284,10 +11293,10 @@
         <v>1</v>
       </c>
       <c r="D80" s="51" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E80" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F80" s="119"/>
     </row>
@@ -11337,7 +11346,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B85" s="31" cm="1">
         <f t="array" aca="1" ref="B85" ca="1">IF(AND(C85&lt;&gt;"",E85&lt;&gt;"")=TRUE, CELL("row",B85)-18,"")</f>
@@ -11347,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E85" s="110" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F85" s="119"/>
     </row>
@@ -11367,7 +11376,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F86" s="119"/>
     </row>
@@ -11381,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F87" s="119"/>
     </row>
@@ -11398,10 +11407,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="51" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F88" s="119"/>
     </row>
@@ -11418,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F89" s="119"/>
     </row>
@@ -11435,7 +11444,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F90" s="119"/>
     </row>
@@ -11452,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F91" s="119"/>
     </row>
@@ -11469,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F92" s="119"/>
     </row>
@@ -11486,7 +11495,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F93" s="119"/>
     </row>
@@ -11503,7 +11512,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F94" s="119"/>
     </row>
@@ -11520,7 +11529,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F95" s="119"/>
     </row>
@@ -11537,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F96" s="119"/>
     </row>
@@ -11554,7 +11563,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F97" s="119"/>
     </row>
@@ -11571,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F98" s="119"/>
     </row>
@@ -11588,7 +11597,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F99" s="119"/>
     </row>
@@ -11605,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F100" s="119"/>
     </row>
@@ -11622,7 +11631,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F101" s="119"/>
     </row>
@@ -11639,7 +11648,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F102" s="119"/>
     </row>
@@ -11667,7 +11676,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B105" s="31" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">IF(AND(C105&lt;&gt;"",E105&lt;&gt;"")=TRUE, CELL("row",B105)-18,"")</f>
@@ -11677,10 +11686,10 @@
         <v>0</v>
       </c>
       <c r="D105" s="109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E105" s="110" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F105" s="119"/>
     </row>
@@ -11697,7 +11706,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F106" s="119"/>
     </row>
@@ -11714,7 +11723,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F107" s="119"/>
     </row>
@@ -11731,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F108" s="119"/>
     </row>
@@ -11748,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F109" s="119"/>
     </row>
@@ -11765,7 +11774,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F110" s="119"/>
     </row>
@@ -11782,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F111" s="119"/>
     </row>
@@ -11799,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F112" s="119"/>
     </row>
@@ -11816,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="42" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F113" s="119"/>
     </row>
@@ -14077,7 +14086,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B319" s="50">
         <f ca="1">COUNTIF(B19:B318, "")</f>
@@ -14096,7 +14105,7 @@
         <v>219</v>
       </c>
       <c r="F319" s="119" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -14165,7 +14174,7 @@
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C1" s="39"/>
       <c r="D1" s="40"/>
@@ -14205,16 +14214,16 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="133" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D3" s="135" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="133" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F3" s="135" t="s">
         <v>16</v>
@@ -14249,7 +14258,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J4" s="35" t="s">
         <v>4</v>
@@ -14258,10 +14267,10 @@
         <v>7</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M4" s="63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>13</v>
@@ -14277,10 +14286,10 @@
     <row r="5" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="59"/>
       <c r="B5" s="106" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" s="17">
         <v>44281</v>
@@ -14328,10 +14337,10 @@
     <row r="6" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="59"/>
       <c r="B6" s="106" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="17">
         <v>44282</v>
@@ -14379,10 +14388,10 @@
     <row r="7" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59"/>
       <c r="B7" s="106" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D7" s="17">
         <v>44283</v>
@@ -14428,10 +14437,10 @@
     <row r="8" spans="1:17" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="106" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D8" s="17">
         <v>44284</v>
@@ -14556,7 +14565,7 @@
   <sheetData>
     <row r="1" spans="2:17" s="93" customFormat="1" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B1" s="146" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C1" s="146"/>
       <c r="D1" s="146"/>
@@ -14575,7 +14584,7 @@
     </row>
     <row r="2" spans="2:17" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C2" s="30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" s="145" t="str">
         <f>IF(Properties!$C$4=0, "", Properties!$C$4)</f>
@@ -14586,7 +14595,7 @@
       <c r="G2" s="145"/>
       <c r="H2" s="145"/>
       <c r="M2" s="30" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N2" s="144" t="str" cm="1">
         <f t="array" ref="N2">INDEX('Test Run Log'!$B$5:$B$8,MATCH(MAX(COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;" &amp; 'Test Run Log'!$B$5:$B$8)), COUNTIF('Test Run Log'!$B$5:$B$8, "&lt;"&amp;'Test Run Log'!$B$5:$B$8),0))</f>
@@ -14609,7 +14618,7 @@
       <c r="G3" s="144"/>
       <c r="H3" s="144"/>
       <c r="M3" s="30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N3" s="144" t="str">
         <f>IF(Properties!$C$8=0, "", Properties!$C$8)</f>
@@ -14623,7 +14632,7 @@
       <c r="K4" s="30"/>
       <c r="L4" s="92"/>
       <c r="M4" s="30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N4" s="145">
         <f>SUM(C14:G14)</f>
@@ -14637,7 +14646,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="92"/>
       <c r="M5" s="30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N5" s="145">
         <f>SUM(K14:M14)</f>
@@ -14757,7 +14766,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G13" s="99" t="s">
         <v>4</v>
@@ -15019,7 +15028,7 @@
     <row r="41" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C42" s="140"/>
       <c r="D42" s="140"/>
@@ -15040,7 +15049,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="143" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D43" s="143"/>
       <c r="E43" s="143"/>
@@ -15143,7 +15152,7 @@
     </row>
     <row r="50" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="139" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C50" s="140"/>
       <c r="D50" s="140"/>
@@ -15165,7 +15174,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="142" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D51" s="142"/>
       <c r="E51" s="142"/>
@@ -15275,7 +15284,7 @@
     </row>
     <row r="58" spans="1:17" s="54" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="139" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="140"/>
       <c r="D58" s="140"/>
@@ -15297,7 +15306,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="142" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D59" s="142"/>
       <c r="E59" s="142"/>
@@ -15497,21 +15506,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE676758-77EB-4B59-88DD-BEEA1E465CDA}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5799178-BE9D-49B7-A617-130500DAA3AD}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.77734375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="3.88671875" style="58" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="58" customWidth="1"/>
     <col min="3" max="3" width="4.6640625" style="58" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="58" customWidth="1"/>
+    <col min="5" max="5" width="47" style="58" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="58" customWidth="1"/>
     <col min="7" max="7" width="1.77734375" style="58" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="58"/>
   </cols>
@@ -15530,8 +15539,8 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="149" t="s">
-        <v>30</v>
+      <c r="E2" s="147" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="127"/>
       <c r="G2" s="12"/>
@@ -15541,7 +15550,7 @@
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
-      <c r="E3" s="149"/>
+      <c r="E3" s="147"/>
       <c r="F3" s="127"/>
       <c r="G3" s="12"/>
     </row>
@@ -15551,7 +15560,7 @@
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="12"/>
@@ -15578,172 +15587,173 @@
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="115" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="147" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="147"/>
-      <c r="F7" s="147"/>
+        <v>136</v>
+      </c>
+      <c r="D7" s="151" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
       <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="115" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="147" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="147"/>
+        <v>138</v>
+      </c>
+      <c r="D8" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
       <c r="G8" s="59"/>
     </row>
-    <row r="9" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="59"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="115" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="128"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="59"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="59"/>
-      <c r="B11" s="148" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="128"/>
       <c r="G11" s="59"/>
     </row>
-    <row r="12" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="59"/>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="59"/>
+      <c r="B12" s="149" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="128"/>
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="59"/>
     </row>
-    <row r="14" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="59"/>
-      <c r="B14" s="150" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="150"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="150"/>
-      <c r="F14" s="150"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
       <c r="G14" s="59"/>
     </row>
-    <row r="15" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="59"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="59"/>
+      <c r="B15" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
       <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="121"/>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="121"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="59"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="121"/>
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="121"/>
     </row>
-    <row r="18" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="121"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="125"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="121"/>
     </row>
-    <row r="19" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="121"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
       <c r="G19" s="121"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E20" s="126">
+    <row r="20" spans="1:7" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="121"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="126">
         <f ca="1">TODAY()</f>
-        <v>44294</v>
-      </c>
-      <c r="F20" s="126"/>
+        <v>44299</v>
+      </c>
+      <c r="F21" s="126"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B15:F15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{874D142A-0038-42DA-A8B6-2DCDCC0CBA86}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{440F480C-E2FF-4F39-9CA3-4CD48BA6AAEE}"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://www.dataresearchlabs.com" xr:uid="{6EAAF4C2-D4D9-4719-AF18-82F20DD0289E}"/>
+    <hyperlink ref="D7:F7" r:id="rId2" display="https://www.youtube.com/playlist?list=PLVHoUDdbskUSZQsl0iexHwRGb8Z7_EjlS" xr:uid="{66D9AA55-67A8-4D99-8E3B-BD13F7832D76}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{646776E9-3BC3-4272-B287-325AB19C61FA}"/>
+    <hyperlink ref="D9" r:id="rId4" xr:uid="{7A357E79-1515-4A07-B453-95B059CDB10B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007CF503AC9CD2F54BA0E19C8B35D80C21" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0f804e1dfc7b5d27997e3a7d590482d2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -15857,30 +15867,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7123125C-4609-4D51-BFBF-97B888D91F93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15894,4 +15896,27 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBF3B54-18FF-425E-9D16-518FEEB123AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B77CED7-C41E-49ED-87B0-E2E378B9D0FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>